--- a/Comparing Mosfets.xlsx
+++ b/Comparing Mosfets.xlsx
@@ -216,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -263,6 +263,18 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -293,10 +305,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -607,7 +619,7 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:J32"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,123 +635,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="40">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="50">
         <v>1.3</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33" t="s">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="37"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="28">
+      <c r="B7" s="38">
         <v>0.04</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="15">
         <v>1.05</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="39">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="16">
         <v>0.45</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="40">
         <v>0.03</v>
       </c>
-      <c r="I7" s="30"/>
+      <c r="I7" s="40"/>
       <c r="J7" s="17">
         <v>0.75</v>
       </c>
@@ -817,7 +829,7 @@
         <v>78.850499999999883</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -859,83 +871,83 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="18">
         <v>12</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="19">
         <f t="shared" si="0"/>
         <v>8.9552238805970141</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="20">
         <f t="shared" si="1"/>
         <v>3.2078413900646114</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="21">
         <f t="shared" si="6"/>
         <v>41.034374999999883</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="22">
         <f t="shared" si="2"/>
         <v>9.2059838895281931</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="23">
         <f t="shared" si="3"/>
         <v>0.29662548780987841</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="24">
         <f t="shared" si="7"/>
         <v>454.66935267858042</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="25">
         <f t="shared" si="4"/>
         <v>9.022556390977444</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="26">
         <f t="shared" si="5"/>
         <v>2.4421957148510312</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="27">
         <f t="shared" si="8"/>
         <v>54.528125000000138</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
         <v>13</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="29">
         <f t="shared" si="0"/>
         <v>9.7014925373134329</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="30">
         <f t="shared" si="1"/>
         <v>3.7647582980619272</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="31">
         <f t="shared" si="6"/>
         <v>34.808875739644989</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="32">
         <f t="shared" si="2"/>
         <v>9.9731492136555424</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="33">
         <f t="shared" si="3"/>
         <v>0.34812296833243117</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="34">
         <f t="shared" si="7"/>
         <v>387.34400464919969</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="35">
         <f t="shared" si="4"/>
         <v>9.7744360902255636</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="36">
         <f t="shared" si="5"/>
         <v>2.8661880264571171</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="37">
         <f t="shared" si="8"/>
         <v>46.350887573964549</v>
       </c>
@@ -1638,123 +1650,123 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="40">
-        <v>1</v>
-      </c>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="50">
+        <v>2.8</v>
+      </c>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
     </row>
     <row r="33" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32" t="s">
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="33" t="s">
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="35"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="36"/>
+      <c r="F35" s="46"/>
       <c r="G35" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="37" t="s">
+      <c r="H35" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I35" s="37"/>
+      <c r="I35" s="47"/>
       <c r="J35" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="28">
+      <c r="B36" s="38">
         <v>0.04</v>
       </c>
-      <c r="C36" s="28"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="15">
         <v>1.05</v>
       </c>
-      <c r="E36" s="29">
+      <c r="E36" s="39">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="F36" s="29"/>
+      <c r="F36" s="39"/>
       <c r="G36" s="16">
         <v>0.45</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H36" s="40">
         <v>0.03</v>
       </c>
-      <c r="I36" s="30"/>
+      <c r="I36" s="40"/>
       <c r="J36" s="17">
         <v>0.75</v>
       </c>
@@ -1797,39 +1809,39 @@
       </c>
       <c r="B38" s="3">
         <f t="shared" ref="B38:B58" si="9">$A38/($F$31+B$7)</f>
-        <v>9.615384615384615</v>
+        <v>3.5211267605633805</v>
       </c>
       <c r="C38" s="4">
         <f t="shared" ref="C38:C58" si="10">($A38-($F$31*B38))*B38</f>
-        <v>3.6982248520710095</v>
+        <v>0.49593334655822507</v>
       </c>
       <c r="D38" s="5">
         <f>((175-40)/C38)-$D$7</f>
-        <v>35.453999999999965</v>
+        <v>271.16399999999862</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" ref="E38:E58" si="11">$A38/($F$31+E$7)</f>
-        <v>9.9651220727453911</v>
+        <v>3.5669698591046912</v>
       </c>
       <c r="F38" s="12">
         <f t="shared" ref="F38:F58" si="12">($A38-($F$31*E38))*E38</f>
-        <v>0.34756280273651141</v>
+        <v>4.4531458915160041E-2</v>
       </c>
       <c r="G38" s="13">
         <f>((175-40)/F38)-$G$7</f>
-        <v>387.96901071428516</v>
+        <v>3031.114725000316</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" ref="H38:H58" si="13">$A38/($F$31+H$7)</f>
-        <v>9.7087378640776691</v>
+        <v>3.5335689045936403</v>
       </c>
       <c r="I38" s="8">
         <f t="shared" ref="I38:I58" si="14">($A38-($F$31*H38))*H38</f>
-        <v>2.8277877274012702</v>
+        <v>0.37458327610532927</v>
       </c>
       <c r="J38" s="9">
         <f>((175-40)/I38)-$J$7</f>
-        <v>46.990499999999884</v>
+        <v>359.65050000000343</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1838,39 +1850,39 @@
       </c>
       <c r="B39" s="3">
         <f t="shared" si="9"/>
-        <v>10.576923076923077</v>
+        <v>3.8732394366197185</v>
       </c>
       <c r="C39" s="4">
         <f t="shared" si="10"/>
-        <v>4.4748520710059196</v>
+        <v>0.60007934933544682</v>
       </c>
       <c r="D39" s="5">
         <f t="shared" ref="D39:D58" si="15">((175-40)/C39)-$D$7</f>
-        <v>29.118595041322298</v>
+        <v>223.92024793388521</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" si="11"/>
-        <v>10.961634280019929</v>
+        <v>3.9236668450151599</v>
       </c>
       <c r="F39" s="12">
         <f t="shared" si="12"/>
-        <v>0.42055099131119045</v>
+        <v>5.3883065287348521E-2</v>
       </c>
       <c r="G39" s="13">
         <f t="shared" ref="G39:G58" si="16">((175-40)/F39)-$G$7</f>
-        <v>320.55744687130118</v>
+        <v>2504.975392562018</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="13"/>
-        <v>10.679611650485437</v>
+        <v>3.8869257950530041</v>
       </c>
       <c r="I39" s="8">
         <f t="shared" si="14"/>
-        <v>3.4216231501555221</v>
+        <v>0.4532457640874491</v>
       </c>
       <c r="J39" s="9">
         <f t="shared" ref="J39:J58" si="17">((175-40)/I39)-$J$7</f>
-        <v>38.704958677686022</v>
+        <v>297.10165289256435</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1879,39 +1891,39 @@
       </c>
       <c r="B40" s="19">
         <f t="shared" si="9"/>
-        <v>11.538461538461538</v>
+        <v>4.2253521126760569</v>
       </c>
       <c r="C40" s="20">
         <f t="shared" si="10"/>
-        <v>5.32544378698225</v>
+        <v>0.71414401904383962</v>
       </c>
       <c r="D40" s="21">
         <f t="shared" si="15"/>
-        <v>24.299999999999994</v>
+        <v>187.98750000000021</v>
       </c>
       <c r="E40" s="22">
         <f t="shared" si="11"/>
-        <v>11.958146487294469</v>
+        <v>4.2803638309256291</v>
       </c>
       <c r="F40" s="23">
         <f t="shared" si="12"/>
-        <v>0.50049043594058062</v>
+        <v>6.4125300837833493E-2</v>
       </c>
       <c r="G40" s="24">
         <f t="shared" si="16"/>
-        <v>269.28542410714022</v>
+        <v>2104.8032812501197</v>
       </c>
       <c r="H40" s="25">
         <f t="shared" si="13"/>
-        <v>11.650485436893204</v>
+        <v>4.2402826855123683</v>
       </c>
       <c r="I40" s="26">
         <f t="shared" si="14"/>
-        <v>4.0720143274578167</v>
+        <v>0.53939991759167571</v>
       </c>
       <c r="J40" s="27">
         <f t="shared" si="17"/>
-        <v>32.403125000000017</v>
+        <v>249.52812500000164</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1920,39 +1932,39 @@
       </c>
       <c r="B41" s="3">
         <f t="shared" si="9"/>
-        <v>12.5</v>
+        <v>4.5774647887323949</v>
       </c>
       <c r="C41" s="4">
         <f t="shared" si="10"/>
-        <v>6.25</v>
+        <v>0.83812735568338903</v>
       </c>
       <c r="D41" s="5">
         <f t="shared" si="15"/>
-        <v>20.55</v>
+        <v>160.02337278106646</v>
       </c>
       <c r="E41" s="11">
         <f t="shared" si="11"/>
-        <v>12.954658694569007</v>
+        <v>4.6370608168360983</v>
       </c>
       <c r="F41" s="12">
         <f t="shared" si="12"/>
-        <v>0.58738113662472258</v>
+        <v>7.5258165566621293E-2</v>
       </c>
       <c r="G41" s="13">
         <f t="shared" si="16"/>
-        <v>229.38373415045743</v>
+        <v>1793.3752810652559</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="13"/>
-        <v>12.621359223300971</v>
+        <v>4.5936395759717321</v>
       </c>
       <c r="I41" s="8">
         <f t="shared" si="14"/>
-        <v>4.7789612593081383</v>
+        <v>0.63304573661800889</v>
       </c>
       <c r="J41" s="9">
         <f t="shared" si="17"/>
-        <v>27.498816568047314</v>
+        <v>212.50473372781184</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -1961,39 +1973,39 @@
       </c>
       <c r="B42" s="3">
         <f t="shared" si="9"/>
-        <v>13.461538461538462</v>
+        <v>4.9295774647887329</v>
       </c>
       <c r="C42" s="4">
         <f t="shared" si="10"/>
-        <v>7.2485207100591698</v>
+        <v>0.97202935925411071</v>
       </c>
       <c r="D42" s="5">
         <f t="shared" si="15"/>
-        <v>17.574489795918371</v>
+        <v>137.83469387755179</v>
       </c>
       <c r="E42" s="11">
         <f t="shared" si="11"/>
-        <v>13.951170901843547</v>
+        <v>4.9937578027465674</v>
       </c>
       <c r="F42" s="12">
         <f t="shared" si="12"/>
-        <v>0.68122309336357223</v>
+        <v>8.7281659473720768E-2</v>
       </c>
       <c r="G42" s="13">
         <f t="shared" si="16"/>
-        <v>197.72296465014261</v>
+        <v>1546.2666964286068</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="13"/>
-        <v>13.592233009708737</v>
+        <v>4.9469964664310959</v>
       </c>
       <c r="I42" s="8">
         <f t="shared" si="14"/>
-        <v>5.5424639457064853</v>
+        <v>0.73418322116644885</v>
       </c>
       <c r="J42" s="9">
         <f t="shared" si="17"/>
-        <v>23.607397959183633</v>
+        <v>183.12780612244984</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2002,39 +2014,39 @@
       </c>
       <c r="B43" s="3">
         <f t="shared" si="9"/>
-        <v>14.423076923076923</v>
+        <v>5.2816901408450709</v>
       </c>
       <c r="C43" s="4">
         <f t="shared" si="10"/>
-        <v>8.3210059171597592</v>
+        <v>1.115850029755997</v>
       </c>
       <c r="D43" s="5">
         <f t="shared" si="15"/>
-        <v>15.174000000000007</v>
+        <v>119.93400000000041</v>
       </c>
       <c r="E43" s="11">
         <f t="shared" si="11"/>
-        <v>14.947683109118087</v>
+        <v>5.3504547886570366</v>
       </c>
       <c r="F43" s="12">
         <f t="shared" si="12"/>
-        <v>0.78201630615715068</v>
+        <v>0.10019578255911483</v>
       </c>
       <c r="G43" s="13">
         <f t="shared" si="16"/>
-        <v>172.18067142857117</v>
+        <v>1346.9121000000764</v>
       </c>
       <c r="H43" s="7">
         <f t="shared" si="13"/>
-        <v>14.563106796116504</v>
+        <v>5.3003533568904597</v>
       </c>
       <c r="I43" s="8">
         <f t="shared" si="14"/>
-        <v>6.3625223866528584</v>
+        <v>0.84281237123699548</v>
       </c>
       <c r="J43" s="9">
         <f t="shared" si="17"/>
-        <v>20.467999999999947</v>
+        <v>159.42800000000065</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2043,39 +2055,39 @@
       </c>
       <c r="B44" s="3">
         <f t="shared" si="9"/>
-        <v>15.384615384615383</v>
+        <v>5.6338028169014089</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" si="10"/>
-        <v>9.4674556213017951</v>
+        <v>1.2695893671890481</v>
       </c>
       <c r="D44" s="5">
         <f t="shared" si="15"/>
-        <v>13.209374999999969</v>
+        <v>105.28359375000014</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="11"/>
-        <v>15.944195316392625</v>
+        <v>5.7071517745675058</v>
       </c>
       <c r="F44" s="12">
         <f t="shared" si="12"/>
-        <v>0.88976077500548612</v>
+        <v>0.11400053482281172</v>
       </c>
       <c r="G44" s="13">
         <f t="shared" si="16"/>
-        <v>151.27617606026476</v>
+        <v>1183.7549707032272</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" si="13"/>
-        <v>15.533980582524272</v>
+        <v>5.6537102473498244</v>
       </c>
       <c r="I44" s="8">
         <f t="shared" si="14"/>
-        <v>7.2391365821472302</v>
+        <v>0.95893318682963891</v>
       </c>
       <c r="J44" s="9">
         <f t="shared" si="17"/>
-        <v>17.898632812500008</v>
+        <v>140.03144531250192</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2084,39 +2096,39 @@
       </c>
       <c r="B45" s="3">
         <f t="shared" si="9"/>
-        <v>16.346153846153847</v>
+        <v>5.9859154929577469</v>
       </c>
       <c r="C45" s="4">
         <f t="shared" si="10"/>
-        <v>10.687869822485199</v>
+        <v>1.4332473715532534</v>
       </c>
       <c r="D45" s="5">
         <f t="shared" si="15"/>
-        <v>11.58114186851212</v>
+        <v>93.141695501730752</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="11"/>
-        <v>16.940707523667164</v>
+        <v>6.0638487604779749</v>
       </c>
       <c r="F45" s="12">
         <f t="shared" si="12"/>
-        <v>1.0044564999085239</v>
+        <v>0.12869591626481144</v>
       </c>
       <c r="G45" s="13">
         <f t="shared" si="16"/>
-        <v>133.95104176964804</v>
+        <v>1048.5343339101526</v>
       </c>
       <c r="H45" s="7">
         <f t="shared" si="13"/>
-        <v>16.504854368932037</v>
+        <v>6.0070671378091882</v>
       </c>
       <c r="I45" s="8">
         <f t="shared" si="14"/>
-        <v>8.1723065321896815</v>
+        <v>1.0825456679443983</v>
       </c>
       <c r="J45" s="9">
         <f t="shared" si="17"/>
-        <v>15.76920415224907</v>
+        <v>123.95605536332336</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2125,39 +2137,39 @@
       </c>
       <c r="B46" s="3">
         <f t="shared" si="9"/>
-        <v>17.307692307692307</v>
+        <v>6.3380281690140849</v>
       </c>
       <c r="C46" s="4">
         <f t="shared" si="10"/>
-        <v>11.982248520710078</v>
+        <v>1.6068240428486447</v>
       </c>
       <c r="D46" s="5">
         <f t="shared" si="15"/>
-        <v>10.216666666666649</v>
+        <v>82.966666666666484</v>
       </c>
       <c r="E46" s="11">
         <f t="shared" si="11"/>
-        <v>17.937219730941703</v>
+        <v>6.4205457463884441</v>
       </c>
       <c r="F46" s="12">
         <f t="shared" si="12"/>
-        <v>1.1261034808663224</v>
+        <v>0.14428192688512537</v>
       </c>
       <c r="G46" s="13">
         <f t="shared" si="16"/>
-        <v>119.43241071428282</v>
+        <v>935.21812500005308</v>
       </c>
       <c r="H46" s="7">
         <f t="shared" si="13"/>
-        <v>17.475728155339805</v>
+        <v>6.360424028268552</v>
       </c>
       <c r="I46" s="8">
         <f t="shared" si="14"/>
-        <v>9.162032236780103</v>
+        <v>1.2136498145812644</v>
       </c>
       <c r="J46" s="9">
         <f t="shared" si="17"/>
-        <v>13.984722222222205</v>
+        <v>110.4847222222235</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2166,39 +2178,39 @@
       </c>
       <c r="B47" s="3">
         <f t="shared" si="9"/>
-        <v>18.26923076923077</v>
+        <v>6.6901408450704229</v>
       </c>
       <c r="C47" s="4">
         <f t="shared" si="10"/>
-        <v>13.350591715976316</v>
+        <v>1.7903193810751783</v>
       </c>
       <c r="D47" s="5">
         <f t="shared" si="15"/>
-        <v>9.0619113573407315</v>
+        <v>74.355540166205202</v>
       </c>
       <c r="E47" s="11">
         <f t="shared" si="11"/>
-        <v>18.933731938216241</v>
+        <v>6.7772427322989133</v>
       </c>
       <c r="F47" s="12">
         <f t="shared" si="12"/>
-        <v>1.2547017178788531</v>
+        <v>0.16075856668371932</v>
       </c>
       <c r="G47" s="13">
         <f t="shared" si="16"/>
-        <v>107.14529382666775</v>
+        <v>839.31862188378784</v>
       </c>
       <c r="H47" s="7">
         <f t="shared" si="13"/>
-        <v>18.446601941747574</v>
+        <v>6.7137809187279158</v>
       </c>
       <c r="I47" s="8">
         <f t="shared" si="14"/>
-        <v>10.208313695918548</v>
+        <v>1.3522456267402374</v>
       </c>
       <c r="J47" s="9">
         <f t="shared" si="17"/>
-        <v>12.474515235457078</v>
+        <v>99.083933518006575</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2207,39 +2219,39 @@
       </c>
       <c r="B48" s="3">
         <f t="shared" si="9"/>
-        <v>19.23076923076923</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="C48" s="4">
         <f t="shared" si="10"/>
-        <v>14.792899408284038</v>
+        <v>1.9837333862329003</v>
       </c>
       <c r="D48" s="5">
         <f t="shared" si="15"/>
-        <v>8.0759999999999899</v>
+        <v>67.003499999999661</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="11"/>
-        <v>19.930244145490782</v>
+        <v>7.1339397182093824</v>
       </c>
       <c r="F48" s="12">
         <f t="shared" si="12"/>
-        <v>1.3902512109460456</v>
+        <v>0.17812583566064016</v>
       </c>
       <c r="G48" s="13">
         <f t="shared" si="16"/>
-        <v>96.654752678571285</v>
+        <v>757.4411812500789</v>
       </c>
       <c r="H48" s="7">
         <f t="shared" si="13"/>
-        <v>19.417475728155338</v>
+        <v>7.0671378091872805</v>
       </c>
       <c r="I48" s="8">
         <f t="shared" si="14"/>
-        <v>11.311150909605081</v>
+        <v>1.4983331044213171</v>
       </c>
       <c r="J48" s="9">
         <f t="shared" si="17"/>
-        <v>11.185124999999971</v>
+        <v>89.350125000000858</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2248,39 +2260,39 @@
       </c>
       <c r="B49" s="3">
         <f t="shared" si="9"/>
-        <v>20.19230769230769</v>
+        <v>7.394366197183099</v>
       </c>
       <c r="C49" s="4">
         <f t="shared" si="10"/>
-        <v>16.309171597633185</v>
+        <v>2.1870660583217618</v>
       </c>
       <c r="D49" s="5">
         <f t="shared" si="15"/>
-        <v>7.2275510204081383</v>
+        <v>60.676530612244896</v>
       </c>
       <c r="E49" s="11">
         <f t="shared" si="11"/>
-        <v>20.92675635276532</v>
+        <v>7.4906367041198507</v>
       </c>
       <c r="F49" s="12">
         <f t="shared" si="12"/>
-        <v>1.5327519600680375</v>
+        <v>0.19638373381586507</v>
       </c>
       <c r="G49" s="13">
         <f t="shared" si="16"/>
-        <v>87.626873177841162</v>
+        <v>686.97964285718183</v>
       </c>
       <c r="H49" s="7">
         <f t="shared" si="13"/>
-        <v>20.388349514563107</v>
+        <v>7.4204946996466443</v>
       </c>
       <c r="I49" s="8">
         <f t="shared" si="14"/>
-        <v>12.470543877839573</v>
+        <v>1.6519122476245034</v>
       </c>
       <c r="J49" s="9">
         <f t="shared" si="17"/>
-        <v>10.075510204081631</v>
+        <v>80.973469387755813</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2289,39 +2301,39 @@
       </c>
       <c r="B50" s="3">
         <f t="shared" si="9"/>
-        <v>21.153846153846153</v>
+        <v>7.746478873239437</v>
       </c>
       <c r="C50" s="4">
         <f t="shared" si="10"/>
-        <v>17.899408284023679</v>
+        <v>2.4003173973417873</v>
       </c>
       <c r="D50" s="5">
         <f t="shared" si="15"/>
-        <v>6.4921487603305748</v>
+        <v>55.192561983471307</v>
       </c>
       <c r="E50" s="11">
         <f t="shared" si="11"/>
-        <v>21.923268560039858</v>
+        <v>7.8473336900303199</v>
       </c>
       <c r="F50" s="12">
         <f t="shared" si="12"/>
-        <v>1.6822039652447618</v>
+        <v>0.21553226114939408</v>
       </c>
       <c r="G50" s="13">
         <f t="shared" si="16"/>
-        <v>79.80186171782529</v>
+        <v>625.90634814050441</v>
       </c>
       <c r="H50" s="7">
         <f t="shared" si="13"/>
-        <v>21.359223300970875</v>
+        <v>7.7738515901060081</v>
       </c>
       <c r="I50" s="8">
         <f t="shared" si="14"/>
-        <v>13.686492600622088</v>
+        <v>1.8129830563497964</v>
       </c>
       <c r="J50" s="9">
         <f t="shared" si="17"/>
-        <v>9.1137396694215056</v>
+        <v>73.712913223141086</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2330,39 +2342,39 @@
       </c>
       <c r="B51" s="3">
         <f t="shared" si="9"/>
-        <v>22.115384615384613</v>
+        <v>8.0985915492957758</v>
       </c>
       <c r="C51" s="4">
         <f t="shared" si="10"/>
-        <v>19.563609467455667</v>
+        <v>2.6234874032929762</v>
       </c>
       <c r="D51" s="5">
         <f t="shared" si="15"/>
-        <v>5.8505671077504564</v>
+        <v>50.40822306238227</v>
       </c>
       <c r="E51" s="11">
         <f t="shared" si="11"/>
-        <v>22.9197807673144</v>
+        <v>8.2040306759407891</v>
       </c>
       <c r="F51" s="12">
         <f t="shared" si="12"/>
-        <v>1.8386072264761373</v>
+        <v>0.23557141766122719</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="16"/>
-        <v>72.975143802322648</v>
+        <v>572.62461720225372</v>
       </c>
       <c r="H51" s="7">
         <f t="shared" si="13"/>
-        <v>22.33009708737864</v>
+        <v>8.1272084805653719</v>
       </c>
       <c r="I51" s="8">
         <f t="shared" si="14"/>
-        <v>14.958997077952704</v>
+        <v>1.9815455305971961</v>
       </c>
       <c r="J51" s="9">
         <f t="shared" si="17"/>
-        <v>8.2746691871455447</v>
+        <v>67.378638941399359</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2371,39 +2383,39 @@
       </c>
       <c r="B52" s="19">
         <f t="shared" si="9"/>
-        <v>23.076923076923077</v>
+        <v>8.4507042253521139</v>
       </c>
       <c r="C52" s="20">
         <f t="shared" si="10"/>
-        <v>21.301775147929</v>
+        <v>2.8565760761753585</v>
       </c>
       <c r="D52" s="21">
         <f t="shared" si="15"/>
-        <v>5.2874999999999988</v>
+        <v>46.209375000000058</v>
       </c>
       <c r="E52" s="22">
         <f t="shared" si="11"/>
-        <v>23.916292974588938</v>
+        <v>8.5607276618512582</v>
       </c>
       <c r="F52" s="23">
         <f t="shared" si="12"/>
-        <v>2.0019617437623225</v>
+        <v>0.25650120335133397</v>
       </c>
       <c r="G52" s="24">
         <f t="shared" si="16"/>
-        <v>66.983856026785048</v>
+        <v>525.86332031252982</v>
       </c>
       <c r="H52" s="25">
         <f t="shared" si="13"/>
-        <v>23.300970873786408</v>
+        <v>8.4805653710247366</v>
       </c>
       <c r="I52" s="26">
         <f t="shared" si="14"/>
-        <v>16.288057309831267</v>
+        <v>2.1575996703667029</v>
       </c>
       <c r="J52" s="27">
         <f t="shared" si="17"/>
-        <v>7.5382812500000043</v>
+        <v>61.819531250000409</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2412,39 +2424,39 @@
       </c>
       <c r="B53" s="3">
         <f t="shared" si="9"/>
-        <v>24.038461538461537</v>
+        <v>8.8028169014084519</v>
       </c>
       <c r="C53" s="4">
         <f t="shared" si="10"/>
-        <v>23.113905325443831</v>
+        <v>3.0995834159888758</v>
       </c>
       <c r="D53" s="5">
         <f t="shared" si="15"/>
-        <v>4.7906399999999891</v>
+        <v>42.504240000000216</v>
       </c>
       <c r="E53" s="11">
         <f t="shared" si="11"/>
-        <v>24.912805181863476</v>
+        <v>8.9174246477617274</v>
       </c>
       <c r="F53" s="12">
         <f t="shared" si="12"/>
-        <v>2.1722675171032404</v>
+        <v>0.27832161821977397</v>
       </c>
       <c r="G53" s="13">
         <f t="shared" si="16"/>
-        <v>61.69704171428436</v>
+        <v>484.60035600000919</v>
       </c>
       <c r="H53" s="7">
         <f t="shared" si="13"/>
-        <v>24.271844660194173</v>
+        <v>8.8339222614840995</v>
       </c>
       <c r="I53" s="8">
         <f t="shared" si="14"/>
-        <v>17.673673296257938</v>
+        <v>2.3411454756583154</v>
       </c>
       <c r="J53" s="9">
         <f t="shared" si="17"/>
-        <v>6.8884799999999808</v>
+        <v>56.914080000000361</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2453,39 +2465,39 @@
       </c>
       <c r="B54" s="3">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>9.1549295774647899</v>
       </c>
       <c r="C54" s="4">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>3.3525094227335561</v>
       </c>
       <c r="D54" s="5">
         <f t="shared" si="15"/>
-        <v>4.3500000000000005</v>
+        <v>39.21834319526662</v>
       </c>
       <c r="E54" s="11">
         <f t="shared" si="11"/>
-        <v>25.909317389138014</v>
+        <v>9.2741216336721966</v>
       </c>
       <c r="F54" s="12">
         <f t="shared" si="12"/>
-        <v>2.3495245464988903</v>
+        <v>0.30103266226648517</v>
       </c>
       <c r="G54" s="13">
         <f t="shared" si="16"/>
-        <v>57.008433537614351</v>
+        <v>448.00632026631399</v>
       </c>
       <c r="H54" s="7">
         <f t="shared" si="13"/>
-        <v>25.242718446601941</v>
+        <v>9.1872791519434642</v>
       </c>
       <c r="I54" s="8">
         <f t="shared" si="14"/>
-        <v>19.115845037232553</v>
+        <v>2.5321829464720356</v>
       </c>
       <c r="J54" s="9">
         <f t="shared" si="17"/>
-        <v>6.3122041420118284</v>
+        <v>52.56368343195296</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2494,39 +2506,39 @@
       </c>
       <c r="B55" s="3">
         <f t="shared" si="9"/>
-        <v>25.96153846153846</v>
+        <v>9.5070422535211279</v>
       </c>
       <c r="C55" s="4">
         <f t="shared" si="10"/>
-        <v>26.960059171597674</v>
+        <v>3.6153540964094342</v>
       </c>
       <c r="D55" s="5">
         <f t="shared" si="15"/>
-        <v>3.9574074074074002</v>
+        <v>36.29074074074083</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="11"/>
-        <v>26.905829596412556</v>
+        <v>9.6308186195826657</v>
       </c>
       <c r="F55" s="12">
         <f t="shared" si="12"/>
-        <v>2.5337328319491776</v>
+        <v>0.32463433549153209</v>
       </c>
       <c r="G55" s="13">
         <f t="shared" si="16"/>
-        <v>52.83107142857115</v>
+        <v>415.40250000002357</v>
       </c>
       <c r="H55" s="7">
         <f t="shared" si="13"/>
-        <v>26.21359223300971</v>
+        <v>9.5406360424028289</v>
       </c>
       <c r="I55" s="8">
         <f t="shared" si="14"/>
-        <v>20.614572532755187</v>
+        <v>2.7307120828078286</v>
       </c>
       <c r="J55" s="9">
         <f t="shared" si="17"/>
-        <v>5.7987654320987723</v>
+        <v>48.687654320988514</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2535,39 +2547,39 @@
       </c>
       <c r="B56" s="3">
         <f t="shared" si="9"/>
-        <v>26.923076923076923</v>
+        <v>9.8591549295774659</v>
       </c>
       <c r="C56" s="4">
         <f t="shared" si="10"/>
-        <v>28.994082840236679</v>
+        <v>3.8881174370164429</v>
       </c>
       <c r="D56" s="5">
         <f t="shared" si="15"/>
-        <v>3.6061224489795931</v>
+        <v>33.671173469387952</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="11"/>
-        <v>27.902341803687094</v>
+        <v>9.9875156054931349</v>
       </c>
       <c r="F56" s="12">
         <f t="shared" si="12"/>
-        <v>2.7248923734542889</v>
+        <v>0.34912663789488307</v>
       </c>
       <c r="G56" s="13">
         <f t="shared" si="16"/>
-        <v>49.093241162535648</v>
+        <v>386.22917410715172</v>
       </c>
       <c r="H56" s="7">
         <f t="shared" si="13"/>
-        <v>27.184466019417474</v>
+        <v>9.8939929328621918</v>
       </c>
       <c r="I56" s="8">
         <f t="shared" si="14"/>
-        <v>22.169855782825941</v>
+        <v>2.9367328846657954</v>
       </c>
       <c r="J56" s="9">
         <f t="shared" si="17"/>
-        <v>5.3393494897959082</v>
+        <v>45.21945153061246</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2576,39 +2588,39 @@
       </c>
       <c r="B57" s="3">
         <f t="shared" si="9"/>
-        <v>27.884615384615383</v>
+        <v>10.211267605633804</v>
       </c>
       <c r="C57" s="4">
         <f t="shared" si="10"/>
-        <v>31.102071005917196</v>
+        <v>4.1707994445546515</v>
       </c>
       <c r="D57" s="5">
         <f t="shared" si="15"/>
-        <v>3.2905469678953576</v>
+        <v>31.317895362663496</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="11"/>
-        <v>28.898854010961632</v>
+        <v>10.344212591403604</v>
       </c>
       <c r="F57" s="12">
         <f t="shared" si="12"/>
-        <v>2.9230031710141327</v>
+        <v>0.37450956947650144</v>
       </c>
       <c r="G57" s="13">
         <f t="shared" si="16"/>
-        <v>45.735375828094604</v>
+        <v>360.02142984545435</v>
       </c>
       <c r="H57" s="7">
         <f t="shared" si="13"/>
-        <v>28.155339805825243</v>
+        <v>10.247349823321557</v>
       </c>
       <c r="I57" s="8">
         <f t="shared" si="14"/>
-        <v>23.781694787444625</v>
+        <v>3.1502453520458356</v>
       </c>
       <c r="J57" s="9">
         <f t="shared" si="17"/>
-        <v>4.926634958382877</v>
+        <v>42.103804994054883</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2617,39 +2629,39 @@
       </c>
       <c r="B58" s="3">
         <f t="shared" si="9"/>
-        <v>28.846153846153847</v>
+        <v>10.563380281690142</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" si="10"/>
-        <v>33.284023668639037</v>
+        <v>4.463400119023988</v>
       </c>
       <c r="D58" s="5">
         <f t="shared" si="15"/>
-        <v>3.006000000000002</v>
+        <v>29.196000000000101</v>
       </c>
       <c r="E58" s="11">
         <f t="shared" si="11"/>
-        <v>29.895366218236173</v>
+        <v>10.700909577314073</v>
       </c>
       <c r="F58" s="12">
         <f t="shared" si="12"/>
-        <v>3.1280652246286027</v>
+        <v>0.40078313023645934</v>
       </c>
       <c r="G58" s="13">
         <f t="shared" si="16"/>
-        <v>42.707667857142788</v>
+        <v>336.39052500001912</v>
       </c>
       <c r="H58" s="7">
         <f t="shared" si="13"/>
-        <v>29.126213592233007</v>
+        <v>10.600706713780919</v>
       </c>
       <c r="I58" s="8">
         <f t="shared" si="14"/>
-        <v>25.450089546611434</v>
+        <v>3.3712494849479819</v>
       </c>
       <c r="J58" s="9">
         <f t="shared" si="17"/>
-        <v>4.5544999999999867</v>
+        <v>39.294500000000163</v>
       </c>
     </row>
   </sheetData>

--- a/Comparing Mosfets.xlsx
+++ b/Comparing Mosfets.xlsx
@@ -8,15 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle1 (2)" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="15">
   <si>
     <t>Voltage</t>
   </si>
@@ -59,17 +58,21 @@
   <si>
     <t>R_th_JC</t>
   </si>
+  <si>
+    <t>IRFB7430</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0\ &quot;V&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;A&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00\ &quot;W&quot;"/>
     <numFmt numFmtId="167" formatCode="0\ &quot;K/W&quot;"/>
+    <numFmt numFmtId="168" formatCode="0\ &quot;W&quot;"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -216,7 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -275,45 +278,77 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -616,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,9 +667,15 @@
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="61.5" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:13" ht="61.5" x14ac:dyDescent="0.9">
       <c r="A1" s="49" t="s">
         <v>5</v>
       </c>
@@ -648,14 +689,14 @@
       <c r="I1" s="49"/>
       <c r="J1" s="49"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="50">
         <v>1.3</v>
       </c>
@@ -664,99 +705,121 @@
       <c r="I2" s="50"/>
       <c r="J2" s="50"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="50"/>
       <c r="G3" s="50"/>
       <c r="H3" s="50"/>
       <c r="I3" s="50"/>
       <c r="J3" s="50"/>
     </row>
-    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42" t="s">
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43" t="s">
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="46"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="47"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="54"/>
+      <c r="M6" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="38">
-        <v>0.04</v>
-      </c>
-      <c r="C7" s="38"/>
+      <c r="B7" s="61">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="C7" s="61"/>
       <c r="D7" s="15">
         <v>1.05</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="56">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="F7" s="39"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="16">
         <v>0.45</v>
       </c>
-      <c r="H7" s="40">
-        <v>0.03</v>
-      </c>
-      <c r="I7" s="40"/>
+      <c r="H7" s="60">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I7" s="60"/>
       <c r="J7" s="17">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K7" s="56">
+        <v>1E-3</v>
+      </c>
+      <c r="L7" s="56"/>
+      <c r="M7" s="39">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>0</v>
       </c>
@@ -787,25 +850,34 @@
       <c r="J8" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" ref="B9:B29" si="0">$A9/($F$2+B$7)</f>
-        <v>7.4626865671641784</v>
+        <f t="shared" ref="B9:B35" si="0">$A9/($F$2+B$7)</f>
+        <v>7.6769537847382159</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" ref="C9:C29" si="1">($A9-($F$2*B9))*B9</f>
-        <v>2.227667631989307</v>
+        <v>0.15323261047381051</v>
       </c>
       <c r="D9" s="5">
         <f>((175-40)/C9)-$D$7</f>
-        <v>59.551500000000011</v>
+        <v>879.96351000003551</v>
       </c>
       <c r="E9" s="11">
-        <f t="shared" ref="E9:E29" si="2">$A9/($F$2+E$7)</f>
+        <f t="shared" ref="E9:E35" si="2">$A9/($F$2+E$7)</f>
         <v>7.6716532412734937</v>
       </c>
       <c r="F9" s="12">
@@ -817,33 +889,45 @@
         <v>654.9218678571342</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" ref="H9:H29" si="4">$A9/($F$2+H$7)</f>
-        <v>7.518796992481203</v>
+        <f t="shared" ref="H9:H35" si="4">$A9/($F$2+H$7)</f>
+        <v>7.6745970836531088</v>
       </c>
       <c r="I9" s="8">
         <f t="shared" ref="I9:I29" si="5">($A9-($F$2*H9))*H9</f>
-        <v>1.6959692464243339</v>
+        <v>0.17669832118924272</v>
       </c>
       <c r="J9" s="9">
         <f>((175-40)/I9)-$J$7</f>
-        <v>78.850499999999883</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>763.26405000003308</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" ref="K9:K35" si="6">$A9/($F$2+K$7)</f>
+        <v>7.6863950807071486</v>
+      </c>
+      <c r="L9" s="12">
+        <f t="shared" ref="L9:L29" si="7">($A9-($F$2*K9))*K9</f>
+        <v>5.9080669336720543E-2</v>
+      </c>
+      <c r="M9" s="13">
+        <f t="shared" ref="M9:M29" si="8">((175-40)/L9)-$G$7</f>
+        <v>2284.5613499999426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>11</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>8.2089552238805972</v>
+        <v>8.4446491632120377</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="1"/>
-        <v>2.6954778347070514</v>
+        <v>0.18541145867330622</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" ref="D10:D29" si="6">((175-40)/C10)-$D$7</f>
-        <v>49.033884297520856</v>
+        <f t="shared" ref="D10:D29" si="9">((175-40)/C10)-$D$7</f>
+        <v>727.06033884302224</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="2"/>
@@ -854,37 +938,49 @@
         <v>0.24924780572913019</v>
       </c>
       <c r="G10" s="13">
-        <f t="shared" ref="G10:G29" si="7">((175-40)/F10)-$G$7</f>
+        <f t="shared" ref="G10:G29" si="10">((175-40)/F10)-$G$7</f>
         <v>541.17964285716164</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="4"/>
-        <v>8.2706766917293226</v>
+        <v>8.4420567920184197</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" si="5"/>
-        <v>2.0521227881734467</v>
+        <v>0.21380496863898521</v>
       </c>
       <c r="J10" s="9">
-        <f t="shared" ref="J10:J29" si="8">((175-40)/I10)-$J$7</f>
-        <v>65.035537190082465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J10:J29" si="11">((175-40)/I10)-$J$7</f>
+        <v>630.66657024795677</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="6"/>
+        <v>8.4550345887778633</v>
+      </c>
+      <c r="L10" s="12">
+        <f t="shared" si="7"/>
+        <v>7.1487609897428847E-2</v>
+      </c>
+      <c r="M10" s="13">
+        <f t="shared" si="8"/>
+        <v>1887.9891322314368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>12</v>
       </c>
       <c r="B11" s="19">
         <f t="shared" si="0"/>
-        <v>8.9552238805970141</v>
+        <v>9.2123445416858587</v>
       </c>
       <c r="C11" s="20">
         <f t="shared" si="1"/>
-        <v>3.2078413900646114</v>
+        <v>0.22065495908229366</v>
       </c>
       <c r="D11" s="21">
-        <f t="shared" si="6"/>
-        <v>41.034374999999883</v>
+        <f t="shared" si="9"/>
+        <v>610.76493750000657</v>
       </c>
       <c r="E11" s="22">
         <f t="shared" si="2"/>
@@ -895,37 +991,49 @@
         <v>0.29662548780987841</v>
       </c>
       <c r="G11" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>454.66935267858042</v>
       </c>
       <c r="H11" s="25">
         <f t="shared" si="4"/>
-        <v>9.022556390977444</v>
+        <v>9.2095165003837298</v>
       </c>
       <c r="I11" s="26">
         <f t="shared" si="5"/>
-        <v>2.4421957148510312</v>
-      </c>
-      <c r="J11" s="27">
+        <v>0.25444558251251276</v>
+      </c>
+      <c r="J11" s="62">
+        <f t="shared" si="11"/>
+        <v>529.81531250001626</v>
+      </c>
+      <c r="K11" s="22">
+        <f t="shared" si="6"/>
+        <v>9.223674096848578</v>
+      </c>
+      <c r="L11" s="23">
+        <f t="shared" si="7"/>
+        <v>8.5076163844871017E-2</v>
+      </c>
+      <c r="M11" s="24">
         <f t="shared" si="8"/>
-        <v>54.528125000000138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1586.3634375000822</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>13</v>
       </c>
       <c r="B12" s="29">
         <f t="shared" si="0"/>
-        <v>9.7014925373134329</v>
+        <v>9.9800399201596814</v>
       </c>
       <c r="C12" s="30">
         <f t="shared" si="1"/>
-        <v>3.7647582980619272</v>
+        <v>0.25896311170074154</v>
       </c>
       <c r="D12" s="31">
-        <f t="shared" si="6"/>
-        <v>34.808875739644989</v>
+        <f t="shared" si="9"/>
+        <v>520.25976923078667</v>
       </c>
       <c r="E12" s="32">
         <f t="shared" si="2"/>
@@ -936,37 +1044,49 @@
         <v>0.34812296833243117</v>
       </c>
       <c r="G12" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>387.34400464919969</v>
       </c>
       <c r="H12" s="35">
         <f t="shared" si="4"/>
-        <v>9.7744360902255636</v>
+        <v>9.9769762087490417</v>
       </c>
       <c r="I12" s="36">
         <f t="shared" si="5"/>
-        <v>2.8661880264571171</v>
+        <v>0.2986201628098078</v>
       </c>
       <c r="J12" s="37">
+        <f t="shared" si="11"/>
+        <v>451.32931952666559</v>
+      </c>
+      <c r="K12" s="32">
+        <f t="shared" si="6"/>
+        <v>9.9923136049192927</v>
+      </c>
+      <c r="L12" s="33">
+        <f t="shared" si="7"/>
+        <v>9.9846331179047065E-2</v>
+      </c>
+      <c r="M12" s="34">
         <f t="shared" si="8"/>
-        <v>46.350887573964549</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1351.6277218936011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>14</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>10.44776119402985</v>
+        <v>10.747735298633502</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="1"/>
-        <v>4.3662285586990448</v>
+        <v>0.30033591652866476</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="6"/>
-        <v>29.869132653061204</v>
+        <f t="shared" si="9"/>
+        <v>448.44668877553403</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="2"/>
@@ -977,37 +1097,49 @@
         <v>0.40374024729678842</v>
       </c>
       <c r="G13" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>333.92340196792878</v>
       </c>
       <c r="H13" s="7">
         <f t="shared" si="4"/>
-        <v>10.526315789473683</v>
+        <v>10.744435917114352</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" si="5"/>
-        <v>3.3240997229916904</v>
+        <v>0.34632870953092337</v>
       </c>
       <c r="J13" s="9">
+        <f t="shared" si="11"/>
+        <v>389.05308673470216</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="6"/>
+        <v>10.760953112990009</v>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" si="7"/>
+        <v>0.11579811189993787</v>
+      </c>
+      <c r="M13" s="13">
         <f t="shared" si="8"/>
-        <v>39.86249999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1165.3721173472554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>15</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>11.194029850746269</v>
+        <v>11.515430677107323</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="1"/>
-        <v>5.0122521719759305</v>
+        <v>0.34477337356608384</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="6"/>
-        <v>25.884000000000057</v>
+        <f t="shared" si="9"/>
+        <v>390.51156000000418</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="2"/>
@@ -1018,37 +1150,49 @@
         <v>0.46347732470295028</v>
       </c>
       <c r="G14" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>290.82638571428186</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="4"/>
-        <v>11.278195488721805</v>
+        <v>11.511895625479664</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="5"/>
-        <v>3.8159308044547311</v>
+        <v>0.39757122267578593</v>
       </c>
       <c r="J14" s="9">
+        <f t="shared" si="11"/>
+        <v>338.81180000002342</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="6"/>
+        <v>11.529592621060724</v>
+      </c>
+      <c r="L14" s="12">
+        <f t="shared" si="7"/>
+        <v>0.13293150600760076</v>
+      </c>
+      <c r="M14" s="13">
         <f t="shared" si="8"/>
-        <v>34.628000000000135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1015.1106000001306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>16</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>11.940298507462686</v>
+        <v>12.283126055581146</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="1"/>
-        <v>5.7028291378926426</v>
+        <v>0.39227548281295926</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="6"/>
-        <v>22.622460937499934</v>
+        <f t="shared" si="9"/>
+        <v>343.09590234376003</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="2"/>
@@ -1059,37 +1203,49 @@
         <v>0.52733420055091673</v>
       </c>
       <c r="G15" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>255.5546358816909</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="4"/>
-        <v>12.030075187969924</v>
+        <v>12.279355333844974</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" si="5"/>
-        <v>4.3416812708462986</v>
+        <v>0.45234770224447446</v>
       </c>
       <c r="J15" s="9">
+        <f t="shared" si="11"/>
+        <v>297.69298828125432</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" si="6"/>
+        <v>12.298232129131438</v>
+      </c>
+      <c r="L15" s="12">
+        <f t="shared" si="7"/>
+        <v>0.15124651350197837</v>
+      </c>
+      <c r="M15" s="13">
         <f t="shared" si="8"/>
-        <v>30.34394531249993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>892.1325585938821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>17</v>
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>12.686567164179104</v>
+        <v>13.050821434054967</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="1"/>
-        <v>6.437959456449077</v>
+        <v>0.44284224426931007</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="6"/>
-        <v>19.919377162629825</v>
+        <f t="shared" si="9"/>
+        <v>303.79896539793771</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="2"/>
@@ -1100,37 +1256,49 @@
         <v>0.59531087484066447</v>
       </c>
       <c r="G16" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>226.32227261493063</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" si="4"/>
-        <v>12.781954887218044</v>
+        <v>13.046815042210284</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" si="5"/>
-        <v>4.901351122166334</v>
+        <v>0.51065814823692768</v>
       </c>
       <c r="J16" s="9">
+        <f t="shared" si="11"/>
+        <v>263.61472318339406</v>
+      </c>
+      <c r="K16" s="11">
+        <f t="shared" si="6"/>
+        <v>13.066871637202153</v>
+      </c>
+      <c r="L16" s="12">
+        <f t="shared" si="7"/>
+        <v>0.17074313438308988</v>
+      </c>
+      <c r="M16" s="13">
         <f t="shared" si="8"/>
-        <v>26.793425605536243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>790.21136678213736</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>18</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>13.432835820895521</v>
+        <v>13.818516812528788</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="1"/>
-        <v>7.2176431276453874</v>
+        <v>0.49647365793516074</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="6"/>
-        <v>17.654166666666583</v>
+        <f t="shared" si="9"/>
+        <v>270.8677500000029</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="2"/>
@@ -1141,37 +1309,49 @@
         <v>0.66740734757223863</v>
       </c>
       <c r="G17" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>201.82526785714316</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="4"/>
-        <v>13.533834586466165</v>
+        <v>13.814274750575596</v>
       </c>
       <c r="I17" s="8">
         <f t="shared" si="5"/>
-        <v>5.4949403584148317</v>
+        <v>0.57250256065314153</v>
       </c>
       <c r="J17" s="9">
+        <f t="shared" si="11"/>
+        <v>235.05680555556779</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" si="6"/>
+        <v>13.835511145272868</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="7"/>
+        <v>0.19142136865093523</v>
+      </c>
+      <c r="M17" s="13">
         <f t="shared" si="8"/>
-        <v>23.818055555555567</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>704.80041666679369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>19</v>
       </c>
       <c r="B18" s="3">
         <f t="shared" si="0"/>
-        <v>14.17910447761194</v>
+        <v>14.586212191002611</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="1"/>
-        <v>8.04188015148139</v>
+        <v>0.55316972381043783</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="6"/>
-        <v>15.737119113573424</v>
+        <f t="shared" si="9"/>
+        <v>242.99806371192918</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="2"/>
@@ -1182,37 +1362,49 @@
         <v>0.74362361874561733</v>
       </c>
       <c r="G18" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>181.09345370003842</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="4"/>
-        <v>14.285714285714285</v>
+        <v>14.581734458940906</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" si="5"/>
-        <v>6.1224489795918657</v>
+        <v>0.63788093949318947</v>
       </c>
       <c r="J18" s="9">
+        <f t="shared" si="11"/>
+        <v>210.88824099723138</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" si="6"/>
+        <v>14.604150653343583</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="7"/>
+        <v>0.21328121630551447</v>
+      </c>
+      <c r="M18" s="13">
         <f t="shared" si="8"/>
-        <v>21.299999999999894</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>632.5171329641114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>20</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>14.925373134328357</v>
+        <v>15.353907569476432</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="1"/>
-        <v>8.9106705279572278</v>
+        <v>0.61293044189524204</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="6"/>
-        <v>14.100375000000001</v>
+        <f t="shared" si="9"/>
+        <v>219.20337750000886</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="2"/>
@@ -1223,37 +1415,49 @@
         <v>0.82395968836080047</v>
       </c>
       <c r="G19" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>163.39296696428357</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="4"/>
-        <v>15.037593984962406</v>
+        <v>15.349194167306218</v>
       </c>
       <c r="I19" s="8">
         <f t="shared" si="5"/>
-        <v>6.7838769856973355</v>
+        <v>0.7067932847569709</v>
       </c>
       <c r="J19" s="9">
+        <f t="shared" si="11"/>
+        <v>190.25351250000827</v>
+      </c>
+      <c r="K19" s="11">
+        <f t="shared" si="6"/>
+        <v>15.372790161414297</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="7"/>
+        <v>0.23632267734688217</v>
+      </c>
+      <c r="M19" s="13">
         <f t="shared" si="8"/>
-        <v>19.150124999999971</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>570.80283749998557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>21</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>15.671641791044776</v>
+        <v>16.121602947950255</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="1"/>
-        <v>9.8240142570728519</v>
+        <v>0.67575581218946712</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="6"/>
-        <v>12.691836734693867</v>
+        <f t="shared" si="9"/>
+        <v>198.72630612246803</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="2"/>
@@ -1264,37 +1468,49 @@
         <v>0.90841555641778826</v>
       </c>
       <c r="G20" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>148.16040087463267</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="4"/>
-        <v>15.789473684210526</v>
+        <v>16.116653875671528</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" si="5"/>
-        <v>7.47922437673129</v>
+        <v>0.77923959644459184</v>
       </c>
       <c r="J20" s="9">
+        <f t="shared" si="11"/>
+        <v>172.49581632653113</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" si="6"/>
+        <v>16.141429669485014</v>
+      </c>
+      <c r="L20" s="12">
+        <f t="shared" si="7"/>
+        <v>0.26054575177487455</v>
+      </c>
+      <c r="M20" s="13">
         <f t="shared" si="8"/>
-        <v>17.300000000000029</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>517.69316326541832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>22</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
-        <v>16.417910447761194</v>
+        <v>16.889298326424075</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="1"/>
-        <v>10.781911338828206</v>
+        <v>0.74164583469322487</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="6"/>
-        <v>11.470971074380213</v>
+        <f t="shared" si="9"/>
+        <v>180.97758471075554</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="2"/>
@@ -1305,37 +1521,49 @@
         <v>0.99699122291652076</v>
       </c>
       <c r="G21" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>134.95741071429043</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="4"/>
-        <v>16.541353383458645</v>
+        <v>16.884113584036839</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" si="5"/>
-        <v>8.2084911526937869</v>
+        <v>0.85521987455594084</v>
       </c>
       <c r="J21" s="9">
+        <f t="shared" si="11"/>
+        <v>157.10414256198919</v>
+      </c>
+      <c r="K21" s="11">
+        <f t="shared" si="6"/>
+        <v>16.910069177555727</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" si="7"/>
+        <v>0.28595043958971539</v>
+      </c>
+      <c r="M21" s="13">
         <f t="shared" si="8"/>
-        <v>15.696384297520616</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>471.65978305785922</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>23</v>
       </c>
       <c r="B22" s="3">
         <f t="shared" si="0"/>
-        <v>17.164179104477611</v>
+        <v>17.656993704897896</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" si="1"/>
-        <v>11.784361773223461</v>
+        <v>0.81060050940646067</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="6"/>
-        <v>10.405860113421523</v>
+        <f t="shared" si="9"/>
+        <v>165.49319659735957</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="2"/>
@@ -1346,37 +1574,49 @@
         <v>1.0896866878571774</v>
       </c>
       <c r="G22" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>123.43882190115745</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="4"/>
-        <v>17.293233082706767</v>
+        <v>17.651573292402151</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="5"/>
-        <v>8.9716773135847134</v>
+        <v>0.93473411909107218</v>
       </c>
       <c r="J22" s="9">
+        <f t="shared" si="11"/>
+        <v>143.67609640832723</v>
+      </c>
+      <c r="K22" s="11">
+        <f t="shared" si="6"/>
+        <v>17.678708685626443</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="7"/>
+        <v>0.31253674079117005</v>
+      </c>
+      <c r="M22" s="13">
         <f t="shared" si="8"/>
-        <v>14.297353497164462</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>431.4992155010471</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>24</v>
       </c>
       <c r="B23" s="19">
         <f t="shared" si="0"/>
-        <v>17.910447761194028</v>
+        <v>18.424689083371717</v>
       </c>
       <c r="C23" s="20">
         <f t="shared" si="1"/>
-        <v>12.831365560258446</v>
+        <v>0.88261983632917462</v>
       </c>
       <c r="D23" s="21">
-        <f t="shared" si="6"/>
-        <v>9.4710937499999694</v>
+        <f t="shared" si="9"/>
+        <v>151.90373437500162</v>
       </c>
       <c r="E23" s="22">
         <f t="shared" si="2"/>
@@ -1387,37 +1627,49 @@
         <v>1.1865019512395136</v>
       </c>
       <c r="G23" s="24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>113.3298381696451</v>
       </c>
       <c r="H23" s="25">
         <f t="shared" si="4"/>
-        <v>18.045112781954888</v>
+        <v>18.41903300076746</v>
       </c>
       <c r="I23" s="26">
         <f t="shared" si="5"/>
-        <v>9.7687828594041246</v>
-      </c>
-      <c r="J23" s="27">
+        <v>1.017782330050051</v>
+      </c>
+      <c r="J23" s="62">
+        <f t="shared" si="11"/>
+        <v>131.89132812500407</v>
+      </c>
+      <c r="K23" s="22">
+        <f t="shared" si="6"/>
+        <v>18.447348193697156</v>
+      </c>
+      <c r="L23" s="23">
+        <f t="shared" si="7"/>
+        <v>0.34030465537948407</v>
+      </c>
+      <c r="M23" s="24">
         <f t="shared" si="8"/>
-        <v>13.069531250000034</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>396.25335937502058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>25</v>
       </c>
       <c r="B24" s="3">
         <f t="shared" si="0"/>
-        <v>18.656716417910445</v>
+        <v>19.192384461845538</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="1"/>
-        <v>13.922922699933217</v>
+        <v>0.95770381546136674</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="6"/>
-        <v>8.6462399999999668</v>
+        <f t="shared" si="9"/>
+        <v>139.91216159999814</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="2"/>
@@ -1428,37 +1680,49 @@
         <v>1.2874370130637849</v>
       </c>
       <c r="G24" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>104.40949885713869</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="4"/>
-        <v>18.796992481203006</v>
+        <v>19.186492709132771</v>
       </c>
       <c r="I24" s="8">
         <f t="shared" si="5"/>
-        <v>10.599807790152086</v>
+        <v>1.1043645074327499</v>
       </c>
       <c r="J24" s="9">
+        <f t="shared" si="11"/>
+        <v>121.49224800000719</v>
+      </c>
+      <c r="K24" s="11">
+        <f t="shared" si="6"/>
+        <v>19.215987701767872</v>
+      </c>
+      <c r="L24" s="12">
+        <f t="shared" si="7"/>
+        <v>0.36925418335446925</v>
+      </c>
+      <c r="M24" s="13">
         <f t="shared" si="8"/>
-        <v>11.986079999999983</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>365.15181600002455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>26</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" si="0"/>
-        <v>19.402985074626866</v>
+        <v>19.960079840319363</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="1"/>
-        <v>15.059033192247709</v>
+        <v>1.0358524468029662</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="6"/>
-        <v>7.9147189349112468</v>
+        <f t="shared" si="9"/>
+        <v>129.27744230769665</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="2"/>
@@ -1469,37 +1733,49 @@
         <v>1.3924918733297247</v>
       </c>
       <c r="G25" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>96.498501162299917</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="4"/>
-        <v>19.548872180451127</v>
+        <v>19.953952417498083</v>
       </c>
       <c r="I25" s="8">
         <f t="shared" si="5"/>
-        <v>11.464752105828468</v>
+        <v>1.1944806512392312</v>
       </c>
       <c r="J25" s="9">
+        <f t="shared" si="11"/>
+        <v>112.2698298816664</v>
+      </c>
+      <c r="K25" s="11">
+        <f t="shared" si="6"/>
+        <v>19.984627209838585</v>
+      </c>
+      <c r="L25" s="12">
+        <f t="shared" si="7"/>
+        <v>0.39938532471618826</v>
+      </c>
+      <c r="M25" s="13">
         <f t="shared" si="8"/>
-        <v>11.025221893491137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>337.5694304734003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>27</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" si="0"/>
-        <v>20.149253731343283</v>
+        <v>20.727775218793184</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="1"/>
-        <v>16.239697037202053</v>
+        <v>1.1170657303541118</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="6"/>
-        <v>7.2629629629629617</v>
+        <f t="shared" si="9"/>
+        <v>119.80233333333462</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="2"/>
@@ -1510,37 +1786,49 @@
         <v>1.5016665320376104</v>
       </c>
       <c r="G26" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>89.450119047614777</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="4"/>
-        <v>20.300751879699249</v>
+        <v>20.721412125863392</v>
       </c>
       <c r="I26" s="8">
         <f t="shared" si="5"/>
-        <v>12.363615806433337</v>
+        <v>1.288130761469642</v>
       </c>
       <c r="J26" s="9">
+        <f t="shared" si="11"/>
+        <v>104.05302469135748</v>
+      </c>
+      <c r="K26" s="11">
+        <f t="shared" si="6"/>
+        <v>20.753266717909302</v>
+      </c>
+      <c r="L26" s="12">
+        <f t="shared" si="7"/>
+        <v>0.43069807946464117</v>
+      </c>
+      <c r="M26" s="13">
         <f t="shared" si="8"/>
-        <v>10.169135802469171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>312.99462962965924</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>28</v>
       </c>
       <c r="B27" s="3">
         <f t="shared" si="0"/>
-        <v>20.8955223880597</v>
+        <v>21.495470597267005</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="1"/>
-        <v>17.464914234796179</v>
+        <v>1.201343666114659</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="6"/>
-        <v>6.6797831632653013</v>
+        <f t="shared" si="9"/>
+        <v>111.32417219388351</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="2"/>
@@ -1551,37 +1839,49 @@
         <v>1.6149609891871537</v>
       </c>
       <c r="G27" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>83.14335049198219</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="4"/>
-        <v>21.052631578947366</v>
+        <v>21.488871834228704</v>
       </c>
       <c r="I27" s="8">
         <f t="shared" si="5"/>
-        <v>13.296398891966762</v>
+        <v>1.3853148381236935</v>
       </c>
       <c r="J27" s="9">
+        <f t="shared" si="11"/>
+        <v>96.700771683675541</v>
+      </c>
+      <c r="K27" s="11">
+        <f t="shared" si="6"/>
+        <v>21.521906225980018</v>
+      </c>
+      <c r="L27" s="12">
+        <f t="shared" si="7"/>
+        <v>0.46319244759975148</v>
+      </c>
+      <c r="M27" s="13">
         <f t="shared" si="8"/>
-        <v>9.4031249999999975</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>291.00552933681388</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>29</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" si="0"/>
-        <v>21.641791044776117</v>
+        <v>22.263165975740826</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="1"/>
-        <v>18.734684785030097</v>
+        <v>1.2886862540847581</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="6"/>
-        <v>6.1558858501783504</v>
+        <f t="shared" si="9"/>
+        <v>103.70784898930172</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="2"/>
@@ -1592,37 +1892,49 @@
         <v>1.7323752447786542</v>
       </c>
       <c r="G28" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>77.477689400369471</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="4"/>
-        <v>21.804511278195488</v>
+        <v>22.256331542594015</v>
       </c>
       <c r="I28" s="8">
         <f t="shared" si="5"/>
-        <v>14.263101362428602</v>
+        <v>1.4860328812015273</v>
       </c>
       <c r="J28" s="9">
+        <f t="shared" si="11"/>
+        <v>90.095903686092171</v>
+      </c>
+      <c r="K28" s="11">
+        <f t="shared" si="6"/>
+        <v>22.290545734050731</v>
+      </c>
+      <c r="L28" s="12">
+        <f t="shared" si="7"/>
+        <v>0.4968684291217485</v>
+      </c>
+      <c r="M28" s="13">
         <f t="shared" si="8"/>
-        <v>8.7149821640903866</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>271.25170630205349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30</v>
       </c>
       <c r="B29" s="3">
         <f t="shared" si="0"/>
-        <v>22.388059701492537</v>
+        <v>23.030861354214647</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="1"/>
-        <v>20.049008687903722</v>
+        <v>1.3790934942643354</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="6"/>
-        <v>5.6835000000000147</v>
+        <f t="shared" si="9"/>
+        <v>96.840390000001051</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="2"/>
@@ -1633,1062 +1945,2005 @@
         <v>1.8539092988118011</v>
       </c>
       <c r="G29" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>72.369096428570458</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="4"/>
-        <v>22.556390977443609</v>
+        <v>23.023791250959327</v>
       </c>
       <c r="I29" s="8">
         <f t="shared" si="5"/>
-        <v>15.263723217818924</v>
+        <v>1.5902848907031437</v>
       </c>
       <c r="J29" s="9">
+        <f t="shared" si="11"/>
+        <v>84.140450000005856</v>
+      </c>
+      <c r="K29" s="11">
+        <f t="shared" si="6"/>
+        <v>23.059185242121448</v>
+      </c>
+      <c r="L29" s="12">
+        <f t="shared" si="7"/>
+        <v>0.53172602403040303</v>
+      </c>
+      <c r="M29" s="13">
         <f t="shared" si="8"/>
-        <v>8.0945000000000338</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A30" s="49" t="s">
+        <v>253.44015000003267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>31</v>
+      </c>
+      <c r="B30" s="3">
+        <f t="shared" si="0"/>
+        <v>23.798556732688471</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" ref="C30:C35" si="12">($A30-($F$2*B30))*B30</f>
+        <v>1.4725653866533064</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" ref="D30:D35" si="13">((175-40)/C30)-$D$7</f>
+        <v>90.626744016653802</v>
+      </c>
+      <c r="E30" s="11">
+        <f t="shared" si="2"/>
+        <v>23.782125047947829</v>
+      </c>
+      <c r="F30" s="12">
+        <f t="shared" ref="F30:F35" si="14">($A30-($F$2*E30))*E30</f>
+        <v>1.9795631512869161</v>
+      </c>
+      <c r="G30" s="13">
+        <f t="shared" ref="G30:G35" si="15">((175-40)/F30)-$G$7</f>
+        <v>67.746864501259452</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="4"/>
+        <v>23.791250959324636</v>
+      </c>
+      <c r="I30" s="8">
+        <f t="shared" ref="I30:I35" si="16">($A30-($F$2*H30))*H30</f>
+        <v>1.6980708666287112</v>
+      </c>
+      <c r="J30" s="9">
+        <f t="shared" ref="J30:J35" si="17">((175-40)/I30)-$J$7</f>
+        <v>78.751982310092941</v>
+      </c>
+      <c r="K30" s="11">
+        <f t="shared" si="6"/>
+        <v>23.827824750192161</v>
+      </c>
+      <c r="L30" s="12">
+        <f t="shared" ref="L30:L35" si="18">($A30-($F$2*K30))*K30</f>
+        <v>0.56776523232579124</v>
+      </c>
+      <c r="M30" s="13">
+        <f t="shared" ref="M30:M35" si="19">((175-40)/L30)-$G$7</f>
+        <v>237.32433402708818</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>32</v>
+      </c>
+      <c r="B31" s="3">
+        <f t="shared" si="0"/>
+        <v>24.566252111162292</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" si="12"/>
+        <v>1.5691019312518371</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="13"/>
+        <v>84.986475585940013</v>
+      </c>
+      <c r="E31" s="11">
+        <f t="shared" si="2"/>
+        <v>24.54929037207518</v>
+      </c>
+      <c r="F31" s="12">
+        <f t="shared" si="14"/>
+        <v>2.1093368022036669</v>
+      </c>
+      <c r="G31" s="13">
+        <f t="shared" si="15"/>
+        <v>63.551158970422719</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="4"/>
+        <v>24.558710667689947</v>
+      </c>
+      <c r="I31" s="8">
+        <f t="shared" si="16"/>
+        <v>1.8093908089778978</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" si="17"/>
+        <v>73.860747070313579</v>
+      </c>
+      <c r="K31" s="11">
+        <f t="shared" si="6"/>
+        <v>24.596464258262877</v>
+      </c>
+      <c r="L31" s="12">
+        <f t="shared" si="18"/>
+        <v>0.6049860540079135</v>
+      </c>
+      <c r="M31" s="13">
+        <f t="shared" si="19"/>
+        <v>222.69563964847055</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>33</v>
+      </c>
+      <c r="B32" s="3">
+        <f t="shared" si="0"/>
+        <v>25.333947489636113</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" si="12"/>
+        <v>1.668703128059756</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="13"/>
+        <v>79.851148760335803</v>
+      </c>
+      <c r="E32" s="11">
+        <f t="shared" si="2"/>
+        <v>25.316455696202528</v>
+      </c>
+      <c r="F32" s="12">
+        <f t="shared" si="14"/>
+        <v>2.2432302515623062</v>
+      </c>
+      <c r="G32" s="13">
+        <f t="shared" si="15"/>
+        <v>59.731071428569912</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="4"/>
+        <v>25.326170376055259</v>
+      </c>
+      <c r="I32" s="8">
+        <f t="shared" si="16"/>
+        <v>1.9242447177508668</v>
+      </c>
+      <c r="J32" s="9">
+        <f t="shared" si="17"/>
+        <v>69.407396694217425</v>
+      </c>
+      <c r="K32" s="11">
+        <f t="shared" si="6"/>
+        <v>25.36510376633359</v>
+      </c>
+      <c r="L32" s="12">
+        <f t="shared" si="18"/>
+        <v>0.64338848907685964</v>
+      </c>
+      <c r="M32" s="13">
+        <f t="shared" si="19"/>
+        <v>209.37657024793742</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>34</v>
+      </c>
+      <c r="B33" s="3">
+        <f t="shared" si="0"/>
+        <v>26.101642868109934</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" si="12"/>
+        <v>1.7713689770772403</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="13"/>
+        <v>75.162241349484432</v>
+      </c>
+      <c r="E33" s="11">
+        <f t="shared" si="2"/>
+        <v>26.083621020329879</v>
+      </c>
+      <c r="F33" s="12">
+        <f t="shared" si="14"/>
+        <v>2.3812434993626579</v>
+      </c>
+      <c r="G33" s="13">
+        <f t="shared" si="15"/>
+        <v>56.243068153732651</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="4"/>
+        <v>26.093630084420568</v>
+      </c>
+      <c r="I33" s="8">
+        <f t="shared" si="16"/>
+        <v>2.0426325929477107</v>
+      </c>
+      <c r="J33" s="9">
+        <f t="shared" si="17"/>
+        <v>65.341180795848516</v>
+      </c>
+      <c r="K33" s="11">
+        <f t="shared" si="6"/>
+        <v>26.133743274404306</v>
+      </c>
+      <c r="L33" s="12">
+        <f t="shared" si="18"/>
+        <v>0.68297253753235954</v>
+      </c>
+      <c r="M33" s="13">
+        <f t="shared" si="19"/>
+        <v>197.21534169553436</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>35</v>
+      </c>
+      <c r="B34" s="3">
+        <f t="shared" si="0"/>
+        <v>26.869338246583755</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="12"/>
+        <v>1.8770994783042025</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="13"/>
+        <v>70.869470204083626</v>
+      </c>
+      <c r="E34" s="11">
+        <f t="shared" si="2"/>
+        <v>26.85078634445723</v>
+      </c>
+      <c r="F34" s="12">
+        <f t="shared" si="14"/>
+        <v>2.5233765456048087</v>
+      </c>
+      <c r="G34" s="13">
+        <f t="shared" si="15"/>
+        <v>53.04974431487112</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="4"/>
+        <v>26.861089792785879</v>
+      </c>
+      <c r="I34" s="8">
+        <f t="shared" si="16"/>
+        <v>2.1645544345683425</v>
+      </c>
+      <c r="J34" s="9">
+        <f t="shared" si="17"/>
+        <v>61.618493877550293</v>
+      </c>
+      <c r="K34" s="11">
+        <f t="shared" si="6"/>
+        <v>26.902382782475019</v>
+      </c>
+      <c r="L34" s="12">
+        <f t="shared" si="18"/>
+        <v>0.72373819937477879</v>
+      </c>
+      <c r="M34" s="13">
+        <f t="shared" si="19"/>
+        <v>186.08153877551783</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="18">
+        <v>36</v>
+      </c>
+      <c r="B35" s="19">
+        <f t="shared" si="0"/>
+        <v>27.637033625057576</v>
+      </c>
+      <c r="C35" s="20">
+        <f t="shared" si="12"/>
+        <v>1.985894631740643</v>
+      </c>
+      <c r="D35" s="21">
+        <f t="shared" si="13"/>
+        <v>66.929437500000731</v>
+      </c>
+      <c r="E35" s="22">
+        <f t="shared" si="2"/>
+        <v>27.617951668584578</v>
+      </c>
+      <c r="F35" s="23">
+        <f t="shared" si="14"/>
+        <v>2.6696293902889545</v>
+      </c>
+      <c r="G35" s="24">
+        <f t="shared" si="15"/>
+        <v>50.118816964285784</v>
+      </c>
+      <c r="H35" s="25">
+        <f t="shared" si="4"/>
+        <v>27.628549501151191</v>
+      </c>
+      <c r="I35" s="26">
+        <f t="shared" si="16"/>
+        <v>2.2900102426125661</v>
+      </c>
+      <c r="J35" s="62">
+        <f t="shared" si="17"/>
+        <v>58.201701388891948</v>
+      </c>
+      <c r="K35" s="22">
+        <f t="shared" si="6"/>
+        <v>27.671022290545736</v>
+      </c>
+      <c r="L35" s="23">
+        <f t="shared" si="18"/>
+        <v>0.76568547460374092</v>
+      </c>
+      <c r="M35" s="24">
+        <f t="shared" si="19"/>
+        <v>175.86260416669845</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A36" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="50">
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="50">
         <v>2.8</v>
       </c>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-    </row>
-    <row r="33" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="1"/>
-      <c r="B33" s="48" t="s">
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="51"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A39" s="1"/>
+      <c r="B39" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="41" t="s">
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42" t="s">
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="43" t="s">
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="45" t="s">
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="2" t="s">
+      <c r="C41" s="55"/>
+      <c r="D41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="46" t="s">
+      <c r="E41" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="46"/>
-      <c r="G35" s="10" t="s">
+      <c r="F41" s="54"/>
+      <c r="G41" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="47" t="s">
+      <c r="H41" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="I35" s="47"/>
-      <c r="J35" s="6" t="s">
+      <c r="I41" s="53"/>
+      <c r="J41" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="38">
-        <v>0.04</v>
-      </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="15">
+      <c r="K41" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="L41" s="54"/>
+      <c r="M41" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="61">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="C42" s="61"/>
+      <c r="D42" s="15">
         <v>1.05</v>
       </c>
-      <c r="E36" s="39">
+      <c r="E42" s="56">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="F36" s="39"/>
-      <c r="G36" s="16">
+      <c r="F42" s="56"/>
+      <c r="G42" s="16">
         <v>0.45</v>
       </c>
-      <c r="H36" s="40">
-        <v>0.03</v>
-      </c>
-      <c r="I36" s="40"/>
-      <c r="J36" s="17">
+      <c r="H42" s="60">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I42" s="60"/>
+      <c r="J42" s="17">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
+      <c r="K42" s="56">
+        <v>1E-3</v>
+      </c>
+      <c r="L42" s="56"/>
+      <c r="M42" s="39">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E43" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F43" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G43" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J43" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="K43" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="L43" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="3">
-        <f t="shared" ref="B38:B58" si="9">$A38/($F$31+B$7)</f>
-        <v>3.5211267605633805</v>
-      </c>
-      <c r="C38" s="4">
-        <f t="shared" ref="C38:C58" si="10">($A38-($F$31*B38))*B38</f>
-        <v>0.49593334655822507</v>
-      </c>
-      <c r="D38" s="5">
-        <f>((175-40)/C38)-$D$7</f>
-        <v>271.16399999999862</v>
-      </c>
-      <c r="E38" s="11">
-        <f t="shared" ref="E38:E58" si="11">$A38/($F$31+E$7)</f>
+      <c r="M43" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>10</v>
+      </c>
+      <c r="B44" s="3">
+        <f>$A44/($F$37+B$7)</f>
+        <v>3.5681153214871904</v>
+      </c>
+      <c r="C44" s="4">
+        <f t="shared" ref="C44:C64" si="20">($A44-($F$37*B44))*B44</f>
+        <v>3.3101762063328481E-2</v>
+      </c>
+      <c r="D44" s="5">
+        <f>((175-40)/C44)-$D$7</f>
+        <v>4077.2827407684636</v>
+      </c>
+      <c r="E44" s="11">
+        <f>$A44/($F$37+E$7)</f>
         <v>3.5669698591046912</v>
       </c>
-      <c r="F38" s="12">
-        <f t="shared" ref="F38:F58" si="12">($A38-($F$31*E38))*E38</f>
+      <c r="F44" s="12">
+        <f t="shared" ref="F44:F64" si="21">($A44-($F$37*E44))*E44</f>
         <v>4.4531458915160041E-2</v>
       </c>
-      <c r="G38" s="13">
-        <f>((175-40)/F38)-$G$7</f>
+      <c r="G44" s="13">
+        <f>((175-40)/F44)-$G$7</f>
         <v>3031.114725000316</v>
       </c>
-      <c r="H38" s="7">
-        <f t="shared" ref="H38:H58" si="13">$A38/($F$31+H$7)</f>
-        <v>3.5335689045936403</v>
-      </c>
-      <c r="I38" s="8">
-        <f t="shared" ref="I38:I58" si="14">($A38-($F$31*H38))*H38</f>
-        <v>0.37458327610532927</v>
-      </c>
-      <c r="J38" s="9">
-        <f>((175-40)/I38)-$J$7</f>
-        <v>359.65050000000343</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="H44" s="7">
+        <f>$A44/($F$37+H$7)</f>
+        <v>3.5676061362825546</v>
+      </c>
+      <c r="I44" s="8">
+        <f t="shared" ref="I44:I64" si="22">($A44-($F$37*H44))*H44</f>
+        <v>3.8183440630925644E-2</v>
+      </c>
+      <c r="J44" s="9">
+        <f>((175-40)/I44)-$J$7</f>
+        <v>3534.8140499997376</v>
+      </c>
+      <c r="K44" s="11">
+        <f>$A44/($F$37+K$7)</f>
+        <v>3.5701535166012142</v>
+      </c>
+      <c r="L44" s="12">
+        <f t="shared" ref="L44:L64" si="23">($A44-($F$37*K44))*K44</f>
+        <v>1.2745996132096295E-2</v>
+      </c>
+      <c r="M44" s="13">
+        <f>((175-40)/L44)-$G$7</f>
+        <v>10591.11135000309</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
         <v>11</v>
       </c>
-      <c r="B39" s="3">
-        <f t="shared" si="9"/>
-        <v>3.8732394366197185</v>
-      </c>
-      <c r="C39" s="4">
-        <f t="shared" si="10"/>
-        <v>0.60007934933544682</v>
-      </c>
-      <c r="D39" s="5">
-        <f t="shared" ref="D39:D58" si="15">((175-40)/C39)-$D$7</f>
-        <v>223.92024793388521</v>
-      </c>
-      <c r="E39" s="11">
-        <f t="shared" si="11"/>
+      <c r="B45" s="3">
+        <f>$A45/($F$37+B$7)</f>
+        <v>3.9249268536359097</v>
+      </c>
+      <c r="C45" s="4">
+        <f t="shared" si="20"/>
+        <v>4.0053132096622583E-2</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" ref="D45:D64" si="24">((175-40)/C45)-$D$7</f>
+        <v>3369.4729262553392</v>
+      </c>
+      <c r="E45" s="11">
+        <f>$A45/($F$37+E$7)</f>
         <v>3.9236668450151599</v>
       </c>
-      <c r="F39" s="12">
-        <f t="shared" si="12"/>
+      <c r="F45" s="12">
+        <f t="shared" si="21"/>
         <v>5.3883065287348521E-2</v>
       </c>
-      <c r="G39" s="13">
-        <f t="shared" ref="G39:G58" si="16">((175-40)/F39)-$G$7</f>
+      <c r="G45" s="13">
+        <f t="shared" ref="G45:G64" si="25">((175-40)/F45)-$G$7</f>
         <v>2504.975392562018</v>
       </c>
-      <c r="H39" s="7">
-        <f t="shared" si="13"/>
-        <v>3.8869257950530041</v>
-      </c>
-      <c r="I39" s="8">
-        <f t="shared" si="14"/>
-        <v>0.4532457640874491</v>
-      </c>
-      <c r="J39" s="9">
-        <f t="shared" ref="J39:J58" si="17">((175-40)/I39)-$J$7</f>
-        <v>297.10165289256435</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="18">
+      <c r="H45" s="7">
+        <f>$A45/($F$37+H$7)</f>
+        <v>3.9243667499108099</v>
+      </c>
+      <c r="I45" s="8">
+        <f t="shared" si="22"/>
+        <v>4.6201963163421421E-2</v>
+      </c>
+      <c r="J45" s="9">
+        <f t="shared" ref="J45:J64" si="26">((175-40)/I45)-$J$7</f>
+        <v>2921.2037603302733</v>
+      </c>
+      <c r="K45" s="11">
+        <f>$A45/($F$37+K$7)</f>
+        <v>3.9271688682613357</v>
+      </c>
+      <c r="L45" s="12">
+        <f t="shared" si="23"/>
+        <v>1.5422655319838611E-2</v>
+      </c>
+      <c r="M45" s="13">
+        <f t="shared" ref="M45:M64" si="27">((175-40)/L45)-$G$7</f>
+        <v>8752.9064876046705</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="18">
         <v>12</v>
       </c>
-      <c r="B40" s="19">
-        <f t="shared" si="9"/>
-        <v>4.2253521126760569</v>
-      </c>
-      <c r="C40" s="20">
-        <f t="shared" si="10"/>
-        <v>0.71414401904383962</v>
-      </c>
-      <c r="D40" s="21">
-        <f t="shared" si="15"/>
-        <v>187.98750000000021</v>
-      </c>
-      <c r="E40" s="22">
-        <f t="shared" si="11"/>
+      <c r="B46" s="19">
+        <f>$A46/($F$37+B$7)</f>
+        <v>4.281738385784629</v>
+      </c>
+      <c r="C46" s="20">
+        <f t="shared" si="20"/>
+        <v>4.7666537371182371E-2</v>
+      </c>
+      <c r="D46" s="21">
+        <f t="shared" si="24"/>
+        <v>2831.1255144231764</v>
+      </c>
+      <c r="E46" s="22">
+        <f>$A46/($F$37+E$7)</f>
         <v>4.2803638309256291</v>
       </c>
-      <c r="F40" s="23">
-        <f t="shared" si="12"/>
+      <c r="F46" s="23">
+        <f t="shared" si="21"/>
         <v>6.4125300837833493E-2</v>
       </c>
-      <c r="G40" s="24">
-        <f t="shared" si="16"/>
+      <c r="G46" s="24">
+        <f t="shared" si="25"/>
         <v>2104.8032812501197</v>
       </c>
-      <c r="H40" s="25">
-        <f t="shared" si="13"/>
-        <v>4.2402826855123683</v>
-      </c>
-      <c r="I40" s="26">
-        <f t="shared" si="14"/>
-        <v>0.53939991759167571</v>
-      </c>
-      <c r="J40" s="27">
-        <f t="shared" si="17"/>
-        <v>249.52812500000164</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="H46" s="25">
+        <f>$A46/($F$37+H$7)</f>
+        <v>4.2811273635390652</v>
+      </c>
+      <c r="I46" s="26">
+        <f t="shared" si="22"/>
+        <v>5.4984154508535971E-2</v>
+      </c>
+      <c r="J46" s="62">
+        <f t="shared" si="26"/>
+        <v>2454.5028124996816</v>
+      </c>
+      <c r="K46" s="22">
+        <f>$A46/($F$37+K$7)</f>
+        <v>4.2841842199214568</v>
+      </c>
+      <c r="L46" s="23">
+        <f t="shared" si="23"/>
+        <v>1.8354234430223229E-2</v>
+      </c>
+      <c r="M46" s="24">
+        <f t="shared" si="27"/>
+        <v>7354.8009375003166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>13</v>
       </c>
-      <c r="B41" s="3">
-        <f t="shared" si="9"/>
-        <v>4.5774647887323949</v>
-      </c>
-      <c r="C41" s="4">
-        <f t="shared" si="10"/>
-        <v>0.83812735568338903</v>
-      </c>
-      <c r="D41" s="5">
-        <f t="shared" si="15"/>
-        <v>160.02337278106646</v>
-      </c>
-      <c r="E41" s="11">
-        <f t="shared" si="11"/>
+      <c r="B47" s="3">
+        <f>$A47/($F$37+B$7)</f>
+        <v>4.6385499179333474</v>
+      </c>
+      <c r="C47" s="4">
+        <f t="shared" si="20"/>
+        <v>5.5941977887024312E-2</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="24"/>
+        <v>2412.164639508002</v>
+      </c>
+      <c r="E47" s="11">
+        <f>$A47/($F$37+E$7)</f>
         <v>4.6370608168360983</v>
       </c>
-      <c r="F41" s="12">
-        <f t="shared" si="12"/>
+      <c r="F47" s="12">
+        <f t="shared" si="21"/>
         <v>7.5258165566621293E-2</v>
       </c>
-      <c r="G41" s="13">
-        <f t="shared" si="16"/>
+      <c r="G47" s="13">
+        <f t="shared" si="25"/>
         <v>1793.3752810652559</v>
       </c>
-      <c r="H41" s="7">
-        <f t="shared" si="13"/>
-        <v>4.5936395759717321</v>
-      </c>
-      <c r="I41" s="8">
-        <f t="shared" si="14"/>
-        <v>0.63304573661800889</v>
-      </c>
-      <c r="J41" s="9">
-        <f t="shared" si="17"/>
-        <v>212.50473372781184</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="H47" s="7">
+        <f>$A47/($F$37+H$7)</f>
+        <v>4.6378879771673205</v>
+      </c>
+      <c r="I47" s="8">
+        <f t="shared" si="22"/>
+        <v>6.4530014666269273E-2</v>
+      </c>
+      <c r="J47" s="9">
+        <f t="shared" si="26"/>
+        <v>2091.2997337274955</v>
+      </c>
+      <c r="K47" s="11">
+        <f>$A47/($F$37+K$7)</f>
+        <v>4.6411995715815788</v>
+      </c>
+      <c r="L47" s="12">
+        <f t="shared" si="23"/>
+        <v>2.1540733463241916E-2</v>
+      </c>
+      <c r="M47" s="13">
+        <f t="shared" si="27"/>
+        <v>6266.7460650908251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>14</v>
       </c>
-      <c r="B42" s="3">
-        <f t="shared" si="9"/>
-        <v>4.9295774647887329</v>
-      </c>
-      <c r="C42" s="4">
-        <f t="shared" si="10"/>
-        <v>0.97202935925411071</v>
-      </c>
-      <c r="D42" s="5">
-        <f t="shared" si="15"/>
-        <v>137.83469387755179</v>
-      </c>
-      <c r="E42" s="11">
-        <f t="shared" si="11"/>
+      <c r="B48" s="3">
+        <f>$A48/($F$37+B$7)</f>
+        <v>4.9953614500820667</v>
+      </c>
+      <c r="C48" s="4">
+        <f t="shared" si="20"/>
+        <v>6.4879453644116736E-2</v>
+      </c>
+      <c r="D48" s="5">
+        <f t="shared" si="24"/>
+        <v>2079.7320105963822</v>
+      </c>
+      <c r="E48" s="11">
+        <f>$A48/($F$37+E$7)</f>
         <v>4.9937578027465674</v>
       </c>
-      <c r="F42" s="12">
-        <f t="shared" si="12"/>
+      <c r="F48" s="12">
+        <f t="shared" si="21"/>
         <v>8.7281659473720768E-2</v>
       </c>
-      <c r="G42" s="13">
-        <f t="shared" si="16"/>
+      <c r="G48" s="13">
+        <f t="shared" si="25"/>
         <v>1546.2666964286068</v>
       </c>
-      <c r="H42" s="7">
-        <f t="shared" si="13"/>
-        <v>4.9469964664310959</v>
-      </c>
-      <c r="I42" s="8">
-        <f t="shared" si="14"/>
-        <v>0.73418322116644885</v>
-      </c>
-      <c r="J42" s="9">
-        <f t="shared" si="17"/>
-        <v>183.12780612244984</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="H48" s="7">
+        <f>$A48/($F$37+H$7)</f>
+        <v>4.9946485907955767</v>
+      </c>
+      <c r="I48" s="8">
+        <f t="shared" si="22"/>
+        <v>7.4839543636603625E-2</v>
+      </c>
+      <c r="J48" s="9">
+        <f t="shared" si="26"/>
+        <v>1803.1092091837959</v>
+      </c>
+      <c r="K48" s="11">
+        <f>$A48/($F$37+K$7)</f>
+        <v>4.9982149232416999</v>
+      </c>
+      <c r="L48" s="12">
+        <f t="shared" si="23"/>
+        <v>2.4982152418910514E-2</v>
+      </c>
+      <c r="M48" s="13">
+        <f t="shared" si="27"/>
+        <v>5403.4078316338455</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>15</v>
       </c>
-      <c r="B43" s="3">
-        <f t="shared" si="9"/>
-        <v>5.2816901408450709</v>
-      </c>
-      <c r="C43" s="4">
-        <f t="shared" si="10"/>
-        <v>1.115850029755997</v>
-      </c>
-      <c r="D43" s="5">
-        <f t="shared" si="15"/>
-        <v>119.93400000000041</v>
-      </c>
-      <c r="E43" s="11">
-        <f t="shared" si="11"/>
+      <c r="B49" s="3">
+        <f>$A49/($F$37+B$7)</f>
+        <v>5.352172982230786</v>
+      </c>
+      <c r="C49" s="4">
+        <f t="shared" si="20"/>
+        <v>7.4478964642474832E-2</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" si="24"/>
+        <v>1811.5423292307751</v>
+      </c>
+      <c r="E49" s="11">
+        <f>$A49/($F$37+E$7)</f>
         <v>5.3504547886570366</v>
       </c>
-      <c r="F43" s="12">
-        <f t="shared" si="12"/>
+      <c r="F49" s="12">
+        <f t="shared" si="21"/>
         <v>0.10019578255911483</v>
       </c>
-      <c r="G43" s="13">
-        <f t="shared" si="16"/>
+      <c r="G49" s="13">
+        <f t="shared" si="25"/>
         <v>1346.9121000000764</v>
       </c>
-      <c r="H43" s="7">
-        <f t="shared" si="13"/>
-        <v>5.3003533568904597</v>
-      </c>
-      <c r="I43" s="8">
-        <f t="shared" si="14"/>
-        <v>0.84281237123699548</v>
-      </c>
-      <c r="J43" s="9">
-        <f t="shared" si="17"/>
-        <v>159.42800000000065</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="H49" s="7">
+        <f>$A49/($F$37+H$7)</f>
+        <v>5.3514092044238319</v>
+      </c>
+      <c r="I49" s="8">
+        <f t="shared" si="22"/>
+        <v>8.5912741419573196E-2</v>
+      </c>
+      <c r="J49" s="9">
+        <f t="shared" si="26"/>
+        <v>1570.6118000000572</v>
+      </c>
+      <c r="K49" s="11">
+        <f>$A49/($F$37+K$7)</f>
+        <v>5.355230274901821</v>
+      </c>
+      <c r="L49" s="12">
+        <f t="shared" si="23"/>
+        <v>2.8678491297230931E-2</v>
+      </c>
+      <c r="M49" s="13">
+        <f t="shared" si="27"/>
+        <v>4706.9105999990315</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>16</v>
       </c>
-      <c r="B44" s="3">
-        <f t="shared" si="9"/>
-        <v>5.6338028169014089</v>
-      </c>
-      <c r="C44" s="4">
-        <f t="shared" si="10"/>
-        <v>1.2695893671890481</v>
-      </c>
-      <c r="D44" s="5">
-        <f t="shared" si="15"/>
-        <v>105.28359375000014</v>
-      </c>
-      <c r="E44" s="11">
-        <f t="shared" si="11"/>
+      <c r="B50" s="3">
+        <f>$A50/($F$37+B$7)</f>
+        <v>5.7089845143795044</v>
+      </c>
+      <c r="C50" s="4">
+        <f t="shared" si="20"/>
+        <v>8.4740510882118883E-2</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" si="24"/>
+        <v>1592.0487268627194</v>
+      </c>
+      <c r="E50" s="11">
+        <f>$A50/($F$37+E$7)</f>
         <v>5.7071517745675058</v>
       </c>
-      <c r="F44" s="12">
-        <f t="shared" si="12"/>
+      <c r="F50" s="12">
+        <f t="shared" si="21"/>
         <v>0.11400053482281172</v>
       </c>
-      <c r="G44" s="13">
-        <f t="shared" si="16"/>
+      <c r="G50" s="13">
+        <f t="shared" si="25"/>
         <v>1183.7549707032272</v>
       </c>
-      <c r="H44" s="7">
-        <f t="shared" si="13"/>
-        <v>5.6537102473498244</v>
-      </c>
-      <c r="I44" s="8">
-        <f t="shared" si="14"/>
-        <v>0.95893318682963891</v>
-      </c>
-      <c r="J44" s="9">
-        <f t="shared" si="17"/>
-        <v>140.03144531250192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="H50" s="7">
+        <f>$A50/($F$37+H$7)</f>
+        <v>5.7081698180520872</v>
+      </c>
+      <c r="I50" s="8">
+        <f t="shared" si="22"/>
+        <v>9.774960801516154E-2</v>
+      </c>
+      <c r="J50" s="9">
+        <f t="shared" si="26"/>
+        <v>1380.3297070312619</v>
+      </c>
+      <c r="K50" s="11">
+        <f>$A50/($F$37+K$7)</f>
+        <v>5.712245626561943</v>
+      </c>
+      <c r="L50" s="12">
+        <f t="shared" si="23"/>
+        <v>3.2629750098164489E-2</v>
+      </c>
+      <c r="M50" s="13">
+        <f t="shared" si="27"/>
+        <v>4136.8786523452145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>17</v>
       </c>
-      <c r="B45" s="3">
-        <f t="shared" si="9"/>
-        <v>5.9859154929577469</v>
-      </c>
-      <c r="C45" s="4">
-        <f t="shared" si="10"/>
-        <v>1.4332473715532534</v>
-      </c>
-      <c r="D45" s="5">
-        <f t="shared" si="15"/>
-        <v>93.141695501730752</v>
-      </c>
-      <c r="E45" s="11">
-        <f t="shared" si="11"/>
+      <c r="B51" s="3">
+        <f>$A51/($F$37+B$7)</f>
+        <v>6.0657960465282237</v>
+      </c>
+      <c r="C51" s="4">
+        <f t="shared" si="20"/>
+        <v>9.5664092363020398E-2</v>
+      </c>
+      <c r="D51" s="5">
+        <f t="shared" si="24"/>
+        <v>1410.1377995738469</v>
+      </c>
+      <c r="E51" s="11">
+        <f>$A51/($F$37+E$7)</f>
         <v>6.0638487604779749</v>
       </c>
-      <c r="F45" s="12">
-        <f t="shared" si="12"/>
+      <c r="F51" s="12">
+        <f t="shared" si="21"/>
         <v>0.12869591626481144</v>
       </c>
-      <c r="G45" s="13">
-        <f t="shared" si="16"/>
+      <c r="G51" s="13">
+        <f t="shared" si="25"/>
         <v>1048.5343339101526</v>
       </c>
-      <c r="H45" s="7">
-        <f t="shared" si="13"/>
-        <v>6.0070671378091882</v>
-      </c>
-      <c r="I45" s="8">
-        <f t="shared" si="14"/>
-        <v>1.0825456679443983</v>
-      </c>
-      <c r="J45" s="9">
-        <f t="shared" si="17"/>
-        <v>123.95605536332336</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="H51" s="7">
+        <f>$A51/($F$37+H$7)</f>
+        <v>6.0649304316803425</v>
+      </c>
+      <c r="I51" s="8">
+        <f t="shared" si="22"/>
+        <v>0.11035014342336864</v>
+      </c>
+      <c r="J51" s="9">
+        <f t="shared" si="26"/>
+        <v>1222.6285640138217</v>
+      </c>
+      <c r="K51" s="11">
+        <f>$A51/($F$37+K$7)</f>
+        <v>6.0692609782220641</v>
+      </c>
+      <c r="L51" s="12">
+        <f t="shared" si="23"/>
+        <v>3.6835928821770149E-2</v>
+      </c>
+      <c r="M51" s="13">
+        <f t="shared" si="27"/>
+        <v>3664.4501211071561</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>18</v>
       </c>
-      <c r="B46" s="3">
-        <f t="shared" si="9"/>
-        <v>6.3380281690140849</v>
-      </c>
-      <c r="C46" s="4">
-        <f t="shared" si="10"/>
-        <v>1.6068240428486447</v>
-      </c>
-      <c r="D46" s="5">
-        <f t="shared" si="15"/>
-        <v>82.966666666666484</v>
-      </c>
-      <c r="E46" s="11">
-        <f t="shared" si="11"/>
+      <c r="B52" s="3">
+        <f>$A52/($F$37+B$7)</f>
+        <v>6.422607578676943</v>
+      </c>
+      <c r="C52" s="4">
+        <f t="shared" si="20"/>
+        <v>0.10724970908517745</v>
+      </c>
+      <c r="D52" s="5">
+        <f t="shared" si="24"/>
+        <v>1257.6946730767665</v>
+      </c>
+      <c r="E52" s="11">
+        <f>$A52/($F$37+E$7)</f>
         <v>6.4205457463884441</v>
       </c>
-      <c r="F46" s="12">
-        <f t="shared" si="12"/>
+      <c r="F52" s="12">
+        <f t="shared" si="21"/>
         <v>0.14428192688512537</v>
       </c>
-      <c r="G46" s="13">
-        <f t="shared" si="16"/>
+      <c r="G52" s="13">
+        <f t="shared" si="25"/>
         <v>935.21812500005308</v>
       </c>
-      <c r="H46" s="7">
-        <f t="shared" si="13"/>
-        <v>6.360424028268552</v>
-      </c>
-      <c r="I46" s="8">
-        <f t="shared" si="14"/>
-        <v>1.2136498145812644</v>
-      </c>
-      <c r="J46" s="9">
-        <f t="shared" si="17"/>
-        <v>110.4847222222235</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="H52" s="7">
+        <f>$A52/($F$37+H$7)</f>
+        <v>6.4216910453085978</v>
+      </c>
+      <c r="I52" s="8">
+        <f t="shared" si="22"/>
+        <v>0.12371434764419452</v>
+      </c>
+      <c r="J52" s="9">
+        <f t="shared" si="26"/>
+        <v>1090.4734722221815</v>
+      </c>
+      <c r="K52" s="11">
+        <f>$A52/($F$37+K$7)</f>
+        <v>6.4262763298821852</v>
+      </c>
+      <c r="L52" s="12">
+        <f t="shared" si="23"/>
+        <v>4.1297027468007973E-2</v>
+      </c>
+      <c r="M52" s="13">
+        <f t="shared" si="27"/>
+        <v>3268.5504166663559</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>19</v>
       </c>
-      <c r="B47" s="3">
-        <f t="shared" si="9"/>
-        <v>6.6901408450704229</v>
-      </c>
-      <c r="C47" s="4">
-        <f t="shared" si="10"/>
-        <v>1.7903193810751783</v>
-      </c>
-      <c r="D47" s="5">
-        <f t="shared" si="15"/>
-        <v>74.355540166205202</v>
-      </c>
-      <c r="E47" s="11">
-        <f t="shared" si="11"/>
+      <c r="B53" s="3">
+        <f>$A53/($F$37+B$7)</f>
+        <v>6.7794191108256623</v>
+      </c>
+      <c r="C53" s="4">
+        <f t="shared" si="20"/>
+        <v>0.11949736104860018</v>
+      </c>
+      <c r="D53" s="5">
+        <f t="shared" si="24"/>
+        <v>1128.6820611548469</v>
+      </c>
+      <c r="E53" s="11">
+        <f>$A53/($F$37+E$7)</f>
         <v>6.7772427322989133</v>
       </c>
-      <c r="F47" s="12">
-        <f t="shared" si="12"/>
+      <c r="F53" s="12">
+        <f t="shared" si="21"/>
         <v>0.16075856668371932</v>
       </c>
-      <c r="G47" s="13">
-        <f t="shared" si="16"/>
+      <c r="G53" s="13">
+        <f t="shared" si="25"/>
         <v>839.31862188378784</v>
       </c>
-      <c r="H47" s="7">
-        <f t="shared" si="13"/>
-        <v>6.7137809187279158</v>
-      </c>
-      <c r="I47" s="8">
-        <f t="shared" si="14"/>
-        <v>1.3522456267402374</v>
-      </c>
-      <c r="J47" s="9">
-        <f t="shared" si="17"/>
-        <v>99.083933518006575</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="H53" s="7">
+        <f>$A53/($F$37+H$7)</f>
+        <v>6.7784516589368531</v>
+      </c>
+      <c r="I53" s="8">
+        <f t="shared" si="22"/>
+        <v>0.13784222067763915</v>
+      </c>
+      <c r="J53" s="9">
+        <f t="shared" si="26"/>
+        <v>978.63062326864258</v>
+      </c>
+      <c r="K53" s="11">
+        <f>$A53/($F$37+K$7)</f>
+        <v>6.7832916815423072</v>
+      </c>
+      <c r="L53" s="12">
+        <f t="shared" si="23"/>
+        <v>4.6013046036864014E-2</v>
+      </c>
+      <c r="M53" s="13">
+        <f t="shared" si="27"/>
+        <v>2933.5005124664603</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>20</v>
       </c>
-      <c r="B48" s="3">
-        <f t="shared" si="9"/>
-        <v>7.042253521126761</v>
-      </c>
-      <c r="C48" s="4">
-        <f t="shared" si="10"/>
-        <v>1.9837333862329003</v>
-      </c>
-      <c r="D48" s="5">
-        <f t="shared" si="15"/>
-        <v>67.003499999999661</v>
-      </c>
-      <c r="E48" s="11">
-        <f t="shared" si="11"/>
+      <c r="B54" s="3">
+        <f>$A54/($F$37+B$7)</f>
+        <v>7.1362306429743807</v>
+      </c>
+      <c r="C54" s="4">
+        <f t="shared" si="20"/>
+        <v>0.13240704825331392</v>
+      </c>
+      <c r="D54" s="5">
+        <f t="shared" si="24"/>
+        <v>1018.533185192116</v>
+      </c>
+      <c r="E54" s="11">
+        <f>$A54/($F$37+E$7)</f>
         <v>7.1339397182093824</v>
       </c>
-      <c r="F48" s="12">
-        <f t="shared" si="12"/>
+      <c r="F54" s="12">
+        <f t="shared" si="21"/>
         <v>0.17812583566064016</v>
       </c>
-      <c r="G48" s="13">
-        <f t="shared" si="16"/>
+      <c r="G54" s="13">
+        <f t="shared" si="25"/>
         <v>757.4411812500789</v>
       </c>
-      <c r="H48" s="7">
-        <f t="shared" si="13"/>
-        <v>7.0671378091872805</v>
-      </c>
-      <c r="I48" s="8">
-        <f t="shared" si="14"/>
-        <v>1.4983331044213171</v>
-      </c>
-      <c r="J48" s="9">
-        <f t="shared" si="17"/>
-        <v>89.350125000000858</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="H54" s="7">
+        <f>$A54/($F$37+H$7)</f>
+        <v>7.1352122725651093</v>
+      </c>
+      <c r="I54" s="8">
+        <f t="shared" si="22"/>
+        <v>0.15273376252370258</v>
+      </c>
+      <c r="J54" s="9">
+        <f t="shared" si="26"/>
+        <v>883.14101249993439</v>
+      </c>
+      <c r="K54" s="11">
+        <f>$A54/($F$37+K$7)</f>
+        <v>7.1403070332024283</v>
+      </c>
+      <c r="L54" s="12">
+        <f t="shared" si="23"/>
+        <v>5.0983984528385179E-2</v>
+      </c>
+      <c r="M54" s="13">
+        <f t="shared" si="27"/>
+        <v>2647.4403375007728</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>21</v>
       </c>
-      <c r="B49" s="3">
-        <f t="shared" si="9"/>
-        <v>7.394366197183099</v>
-      </c>
-      <c r="C49" s="4">
-        <f t="shared" si="10"/>
-        <v>2.1870660583217618</v>
-      </c>
-      <c r="D49" s="5">
-        <f t="shared" si="15"/>
-        <v>60.676530612244896</v>
-      </c>
-      <c r="E49" s="11">
-        <f t="shared" si="11"/>
+      <c r="B55" s="3">
+        <f>$A55/($F$37+B$7)</f>
+        <v>7.4930421751231</v>
+      </c>
+      <c r="C55" s="4">
+        <f t="shared" si="20"/>
+        <v>0.14597877069926929</v>
+      </c>
+      <c r="D55" s="5">
+        <f t="shared" si="24"/>
+        <v>923.74200470946118</v>
+      </c>
+      <c r="E55" s="11">
+        <f>$A55/($F$37+E$7)</f>
         <v>7.4906367041198507</v>
       </c>
-      <c r="F49" s="12">
-        <f t="shared" si="12"/>
+      <c r="F55" s="12">
+        <f t="shared" si="21"/>
         <v>0.19638373381586507</v>
       </c>
-      <c r="G49" s="13">
-        <f t="shared" si="16"/>
+      <c r="G55" s="13">
+        <f t="shared" si="25"/>
         <v>686.97964285718183</v>
       </c>
-      <c r="H49" s="7">
-        <f t="shared" si="13"/>
-        <v>7.4204946996466443</v>
-      </c>
-      <c r="I49" s="8">
-        <f t="shared" si="14"/>
-        <v>1.6519122476245034</v>
-      </c>
-      <c r="J49" s="9">
-        <f t="shared" si="17"/>
-        <v>80.973469387755813</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="H55" s="7">
+        <f>$A55/($F$37+H$7)</f>
+        <v>7.4919728861933645</v>
+      </c>
+      <c r="I55" s="8">
+        <f t="shared" si="22"/>
+        <v>0.16838897318238474</v>
+      </c>
+      <c r="J55" s="9">
+        <f t="shared" si="26"/>
+        <v>800.9652040815605</v>
+      </c>
+      <c r="K55" s="11">
+        <f>$A55/($F$37+K$7)</f>
+        <v>7.4973223848625494</v>
+      </c>
+      <c r="L55" s="12">
+        <f t="shared" si="23"/>
+        <v>5.6209842942575292E-2</v>
+      </c>
+      <c r="M55" s="13">
+        <f t="shared" si="27"/>
+        <v>2401.2645918361268</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>22</v>
       </c>
-      <c r="B50" s="3">
-        <f t="shared" si="9"/>
-        <v>7.746478873239437</v>
-      </c>
-      <c r="C50" s="4">
-        <f t="shared" si="10"/>
-        <v>2.4003173973417873</v>
-      </c>
-      <c r="D50" s="5">
-        <f t="shared" si="15"/>
-        <v>55.192561983471307</v>
-      </c>
-      <c r="E50" s="11">
-        <f t="shared" si="11"/>
+      <c r="B56" s="3">
+        <f>$A56/($F$37+B$7)</f>
+        <v>7.8498537072718193</v>
+      </c>
+      <c r="C56" s="4">
+        <f t="shared" si="20"/>
+        <v>0.16021252838649033</v>
+      </c>
+      <c r="D56" s="5">
+        <f t="shared" si="24"/>
+        <v>841.58073156383489</v>
+      </c>
+      <c r="E56" s="11">
+        <f>$A56/($F$37+E$7)</f>
         <v>7.8473336900303199</v>
       </c>
-      <c r="F50" s="12">
-        <f t="shared" si="12"/>
+      <c r="F56" s="12">
+        <f t="shared" si="21"/>
         <v>0.21553226114939408</v>
       </c>
-      <c r="G50" s="13">
-        <f t="shared" si="16"/>
+      <c r="G56" s="13">
+        <f t="shared" si="25"/>
         <v>625.90634814050441</v>
       </c>
-      <c r="H50" s="7">
-        <f t="shared" si="13"/>
-        <v>7.7738515901060081</v>
-      </c>
-      <c r="I50" s="8">
-        <f t="shared" si="14"/>
-        <v>1.8129830563497964</v>
-      </c>
-      <c r="J50" s="9">
-        <f t="shared" si="17"/>
-        <v>73.712913223141086</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="H56" s="7">
+        <f>$A56/($F$37+H$7)</f>
+        <v>7.8487334998216198</v>
+      </c>
+      <c r="I56" s="8">
+        <f t="shared" si="22"/>
+        <v>0.18480785265368568</v>
+      </c>
+      <c r="J56" s="9">
+        <f t="shared" si="26"/>
+        <v>729.73844008256833</v>
+      </c>
+      <c r="K56" s="11">
+        <f>$A56/($F$37+K$7)</f>
+        <v>7.8543377365226714</v>
+      </c>
+      <c r="L56" s="12">
+        <f t="shared" si="23"/>
+        <v>6.1690621279354443E-2</v>
+      </c>
+      <c r="M56" s="13">
+        <f t="shared" si="27"/>
+        <v>2187.889121901168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
         <v>23</v>
       </c>
-      <c r="B51" s="3">
-        <f t="shared" si="9"/>
-        <v>8.0985915492957758</v>
-      </c>
-      <c r="C51" s="4">
-        <f t="shared" si="10"/>
-        <v>2.6234874032929762</v>
-      </c>
-      <c r="D51" s="5">
-        <f t="shared" si="15"/>
-        <v>50.40822306238227</v>
-      </c>
-      <c r="E51" s="11">
-        <f t="shared" si="11"/>
+      <c r="B57" s="3">
+        <f>$A57/($F$37+B$7)</f>
+        <v>8.2066652394205377</v>
+      </c>
+      <c r="C57" s="4">
+        <f t="shared" si="20"/>
+        <v>0.17510832131500623</v>
+      </c>
+      <c r="D57" s="5">
+        <f t="shared" si="24"/>
+        <v>769.90136876531142</v>
+      </c>
+      <c r="E57" s="11">
+        <f>$A57/($F$37+E$7)</f>
         <v>8.2040306759407891</v>
       </c>
-      <c r="F51" s="12">
-        <f t="shared" si="12"/>
+      <c r="F57" s="12">
+        <f t="shared" si="21"/>
         <v>0.23557141766122719</v>
       </c>
-      <c r="G51" s="13">
-        <f t="shared" si="16"/>
+      <c r="G57" s="13">
+        <f t="shared" si="25"/>
         <v>572.62461720225372</v>
       </c>
-      <c r="H51" s="7">
-        <f t="shared" si="13"/>
-        <v>8.1272084805653719</v>
-      </c>
-      <c r="I51" s="8">
-        <f t="shared" si="14"/>
-        <v>1.9815455305971961</v>
-      </c>
-      <c r="J51" s="9">
-        <f t="shared" si="17"/>
-        <v>67.378638941399359</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="18">
+      <c r="H57" s="7">
+        <f>$A57/($F$37+H$7)</f>
+        <v>8.2054941134498751</v>
+      </c>
+      <c r="I57" s="8">
+        <f t="shared" si="22"/>
+        <v>0.2019904009376054</v>
+      </c>
+      <c r="J57" s="9">
+        <f t="shared" si="26"/>
+        <v>667.59859168234107</v>
+      </c>
+      <c r="K57" s="11">
+        <f>$A57/($F$37+K$7)</f>
+        <v>8.2113530881827934</v>
+      </c>
+      <c r="L57" s="12">
+        <f t="shared" si="23"/>
+        <v>6.7426319538773358E-2</v>
+      </c>
+      <c r="M57" s="13">
+        <f t="shared" si="27"/>
+        <v>2001.735510398036</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="18">
         <v>24</v>
       </c>
-      <c r="B52" s="19">
-        <f t="shared" si="9"/>
-        <v>8.4507042253521139</v>
-      </c>
-      <c r="C52" s="20">
-        <f t="shared" si="10"/>
-        <v>2.8565760761753585</v>
-      </c>
-      <c r="D52" s="21">
-        <f t="shared" si="15"/>
-        <v>46.209375000000058</v>
-      </c>
-      <c r="E52" s="22">
-        <f t="shared" si="11"/>
+      <c r="B58" s="19">
+        <f>$A58/($F$37+B$7)</f>
+        <v>8.5634767715692579</v>
+      </c>
+      <c r="C58" s="20">
+        <f t="shared" si="20"/>
+        <v>0.19066614948472949</v>
+      </c>
+      <c r="D58" s="21">
+        <f t="shared" si="24"/>
+        <v>706.99387860579418</v>
+      </c>
+      <c r="E58" s="22">
+        <f>$A58/($F$37+E$7)</f>
         <v>8.5607276618512582</v>
       </c>
-      <c r="F52" s="23">
-        <f t="shared" si="12"/>
+      <c r="F58" s="23">
+        <f t="shared" si="21"/>
         <v>0.25650120335133397</v>
       </c>
-      <c r="G52" s="24">
-        <f t="shared" si="16"/>
+      <c r="G58" s="24">
+        <f t="shared" si="25"/>
         <v>525.86332031252982</v>
       </c>
-      <c r="H52" s="25">
-        <f t="shared" si="13"/>
-        <v>8.4805653710247366</v>
-      </c>
-      <c r="I52" s="26">
-        <f t="shared" si="14"/>
-        <v>2.1575996703667029</v>
-      </c>
-      <c r="J52" s="27">
-        <f t="shared" si="17"/>
-        <v>61.819531250000409</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="H58" s="25">
+        <f>$A58/($F$37+H$7)</f>
+        <v>8.5622547270781304</v>
+      </c>
+      <c r="I58" s="26">
+        <f t="shared" si="22"/>
+        <v>0.21993661803414388</v>
+      </c>
+      <c r="J58" s="62">
+        <f t="shared" si="26"/>
+        <v>613.06320312492039</v>
+      </c>
+      <c r="K58" s="22">
+        <f>$A58/($F$37+K$7)</f>
+        <v>8.5683684398429136</v>
+      </c>
+      <c r="L58" s="23">
+        <f t="shared" si="23"/>
+        <v>7.3416937720892916E-2</v>
+      </c>
+      <c r="M58" s="24">
+        <f t="shared" si="27"/>
+        <v>1838.3627343750791</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>25</v>
       </c>
-      <c r="B53" s="3">
-        <f t="shared" si="9"/>
-        <v>8.8028169014084519</v>
-      </c>
-      <c r="C53" s="4">
-        <f t="shared" si="10"/>
-        <v>3.0995834159888758</v>
-      </c>
-      <c r="D53" s="5">
-        <f t="shared" si="15"/>
-        <v>42.504240000000216</v>
-      </c>
-      <c r="E53" s="11">
-        <f t="shared" si="11"/>
+      <c r="B59" s="3">
+        <f>$A59/($F$37+B$7)</f>
+        <v>8.9202883037179763</v>
+      </c>
+      <c r="C59" s="4">
+        <f t="shared" si="20"/>
+        <v>0.20688601289577926</v>
+      </c>
+      <c r="D59" s="5">
+        <f t="shared" si="24"/>
+        <v>651.48323852302917</v>
+      </c>
+      <c r="E59" s="11">
+        <f>$A59/($F$37+E$7)</f>
         <v>8.9174246477617274</v>
       </c>
-      <c r="F53" s="12">
-        <f t="shared" si="12"/>
+      <c r="F59" s="12">
+        <f t="shared" si="21"/>
         <v>0.27832161821977397</v>
       </c>
-      <c r="G53" s="13">
-        <f t="shared" si="16"/>
+      <c r="G59" s="13">
+        <f t="shared" si="25"/>
         <v>484.60035600000919</v>
       </c>
-      <c r="H53" s="7">
-        <f t="shared" si="13"/>
-        <v>8.8339222614840995</v>
-      </c>
-      <c r="I53" s="8">
-        <f t="shared" si="14"/>
-        <v>2.3411454756583154</v>
-      </c>
-      <c r="J53" s="9">
-        <f t="shared" si="17"/>
-        <v>56.914080000000361</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="H59" s="7">
+        <f>$A59/($F$37+H$7)</f>
+        <v>8.9190153407063857</v>
+      </c>
+      <c r="I59" s="8">
+        <f t="shared" si="22"/>
+        <v>0.23864650394330111</v>
+      </c>
+      <c r="J59" s="9">
+        <f t="shared" si="26"/>
+        <v>564.94024799992042</v>
+      </c>
+      <c r="K59" s="11">
+        <f>$A59/($F$37+K$7)</f>
+        <v>8.9253837915030356</v>
+      </c>
+      <c r="L59" s="12">
+        <f t="shared" si="23"/>
+        <v>7.9662475825625634E-2</v>
+      </c>
+      <c r="M59" s="13">
+        <f t="shared" si="27"/>
+        <v>1694.1998159999882</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>26</v>
       </c>
-      <c r="B54" s="3">
-        <f t="shared" si="9"/>
-        <v>9.1549295774647899</v>
-      </c>
-      <c r="C54" s="4">
-        <f t="shared" si="10"/>
-        <v>3.3525094227335561</v>
-      </c>
-      <c r="D54" s="5">
-        <f t="shared" si="15"/>
-        <v>39.21834319526662</v>
-      </c>
-      <c r="E54" s="11">
-        <f t="shared" si="11"/>
+      <c r="B60" s="3">
+        <f>$A60/($F$37+B$7)</f>
+        <v>9.2770998358666947</v>
+      </c>
+      <c r="C60" s="4">
+        <f t="shared" si="20"/>
+        <v>0.22376791154809725</v>
+      </c>
+      <c r="D60" s="5">
+        <f t="shared" si="24"/>
+        <v>602.25365987700059</v>
+      </c>
+      <c r="E60" s="11">
+        <f>$A60/($F$37+E$7)</f>
         <v>9.2741216336721966</v>
       </c>
-      <c r="F54" s="12">
-        <f t="shared" si="12"/>
+      <c r="F60" s="12">
+        <f t="shared" si="21"/>
         <v>0.30103266226648517</v>
       </c>
-      <c r="G54" s="13">
-        <f t="shared" si="16"/>
+      <c r="G60" s="13">
+        <f t="shared" si="25"/>
         <v>448.00632026631399</v>
       </c>
-      <c r="H54" s="7">
-        <f t="shared" si="13"/>
-        <v>9.1872791519434642</v>
-      </c>
-      <c r="I54" s="8">
-        <f t="shared" si="14"/>
-        <v>2.5321829464720356</v>
-      </c>
-      <c r="J54" s="9">
-        <f t="shared" si="17"/>
-        <v>52.56368343195296</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+      <c r="H60" s="7">
+        <f>$A60/($F$37+H$7)</f>
+        <v>9.275775954334641</v>
+      </c>
+      <c r="I60" s="8">
+        <f t="shared" si="22"/>
+        <v>0.25812005866507709</v>
+      </c>
+      <c r="J60" s="9">
+        <f t="shared" si="26"/>
+        <v>522.26243343187389</v>
+      </c>
+      <c r="K60" s="11">
+        <f>$A60/($F$37+K$7)</f>
+        <v>9.2823991431631576</v>
+      </c>
+      <c r="L60" s="12">
+        <f t="shared" si="23"/>
+        <v>8.6162933852967666E-2</v>
+      </c>
+      <c r="M60" s="13">
+        <f t="shared" si="27"/>
+        <v>1566.3490162727062</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>27</v>
       </c>
-      <c r="B55" s="3">
-        <f t="shared" si="9"/>
-        <v>9.5070422535211279</v>
-      </c>
-      <c r="C55" s="4">
-        <f t="shared" si="10"/>
-        <v>3.6153540964094342</v>
-      </c>
-      <c r="D55" s="5">
-        <f t="shared" si="15"/>
-        <v>36.29074074074083</v>
-      </c>
-      <c r="E55" s="11">
-        <f t="shared" si="11"/>
+      <c r="B61" s="3">
+        <f>$A61/($F$37+B$7)</f>
+        <v>9.6339113680154149</v>
+      </c>
+      <c r="C61" s="4">
+        <f t="shared" si="20"/>
+        <v>0.24131184544161505</v>
+      </c>
+      <c r="D61" s="5">
+        <f t="shared" si="24"/>
+        <v>558.39207692308673</v>
+      </c>
+      <c r="E61" s="11">
+        <f>$A61/($F$37+E$7)</f>
         <v>9.6308186195826657</v>
       </c>
-      <c r="F55" s="12">
-        <f t="shared" si="12"/>
+      <c r="F61" s="12">
+        <f t="shared" si="21"/>
         <v>0.32463433549153209</v>
       </c>
-      <c r="G55" s="13">
-        <f t="shared" si="16"/>
+      <c r="G61" s="13">
+        <f t="shared" si="25"/>
         <v>415.40250000002357</v>
       </c>
-      <c r="H55" s="7">
-        <f t="shared" si="13"/>
-        <v>9.5406360424028289</v>
-      </c>
-      <c r="I55" s="8">
-        <f t="shared" si="14"/>
-        <v>2.7307120828078286</v>
-      </c>
-      <c r="J55" s="9">
-        <f t="shared" si="17"/>
-        <v>48.687654320988514</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+      <c r="H61" s="7">
+        <f>$A61/($F$37+H$7)</f>
+        <v>9.6325365679628963</v>
+      </c>
+      <c r="I61" s="8">
+        <f t="shared" si="22"/>
+        <v>0.27835728219947187</v>
+      </c>
+      <c r="J61" s="9">
+        <f t="shared" si="26"/>
+        <v>484.23820987646553</v>
+      </c>
+      <c r="K61" s="11">
+        <f>$A61/($F$37+K$7)</f>
+        <v>9.6394144948232778</v>
+      </c>
+      <c r="L61" s="12">
+        <f t="shared" si="23"/>
+        <v>9.2918311803017947E-2</v>
+      </c>
+      <c r="M61" s="13">
+        <f t="shared" si="27"/>
+        <v>1452.4390740739357</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>28</v>
       </c>
-      <c r="B56" s="3">
-        <f t="shared" si="9"/>
-        <v>9.8591549295774659</v>
-      </c>
-      <c r="C56" s="4">
-        <f t="shared" si="10"/>
-        <v>3.8881174370164429</v>
-      </c>
-      <c r="D56" s="5">
-        <f t="shared" si="15"/>
-        <v>33.671173469387952</v>
-      </c>
-      <c r="E56" s="11">
-        <f t="shared" si="11"/>
+      <c r="B62" s="3">
+        <f>$A62/($F$37+B$7)</f>
+        <v>9.9907229001641333</v>
+      </c>
+      <c r="C62" s="4">
+        <f t="shared" si="20"/>
+        <v>0.25951781457646694</v>
+      </c>
+      <c r="D62" s="5">
+        <f t="shared" si="24"/>
+        <v>519.14550264909565</v>
+      </c>
+      <c r="E62" s="11">
+        <f>$A62/($F$37+E$7)</f>
         <v>9.9875156054931349</v>
       </c>
-      <c r="F56" s="12">
-        <f t="shared" si="12"/>
+      <c r="F62" s="12">
+        <f t="shared" si="21"/>
         <v>0.34912663789488307</v>
       </c>
-      <c r="G56" s="13">
-        <f t="shared" si="16"/>
+      <c r="G62" s="13">
+        <f t="shared" si="25"/>
         <v>386.22917410715172</v>
       </c>
-      <c r="H56" s="7">
-        <f t="shared" si="13"/>
-        <v>9.8939929328621918</v>
-      </c>
-      <c r="I56" s="8">
-        <f t="shared" si="14"/>
-        <v>2.9367328846657954</v>
-      </c>
-      <c r="J56" s="9">
-        <f t="shared" si="17"/>
-        <v>45.21945153061246</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+      <c r="H62" s="7">
+        <f>$A62/($F$37+H$7)</f>
+        <v>9.9892971815911533</v>
+      </c>
+      <c r="I62" s="8">
+        <f t="shared" si="22"/>
+        <v>0.2993581745464145</v>
+      </c>
+      <c r="J62" s="9">
+        <f t="shared" si="26"/>
+        <v>450.21480229594897</v>
+      </c>
+      <c r="K62" s="11">
+        <f>$A62/($F$37+K$7)</f>
+        <v>9.9964298464833998</v>
+      </c>
+      <c r="L62" s="12">
+        <f t="shared" si="23"/>
+        <v>9.9928609675642058E-2</v>
+      </c>
+      <c r="M62" s="13">
+        <f t="shared" si="27"/>
+        <v>1350.5144579084613</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>29</v>
       </c>
-      <c r="B57" s="3">
-        <f t="shared" si="9"/>
-        <v>10.211267605633804</v>
-      </c>
-      <c r="C57" s="4">
-        <f t="shared" si="10"/>
-        <v>4.1707994445546515</v>
-      </c>
-      <c r="D57" s="5">
-        <f t="shared" si="15"/>
-        <v>31.317895362663496</v>
-      </c>
-      <c r="E57" s="11">
-        <f t="shared" si="11"/>
+      <c r="B63" s="3">
+        <f>$A63/($F$37+B$7)</f>
+        <v>10.347534432312852</v>
+      </c>
+      <c r="C63" s="4">
+        <f t="shared" si="20"/>
+        <v>0.27838581895258702</v>
+      </c>
+      <c r="D63" s="5">
+        <f t="shared" si="24"/>
+        <v>483.88849474061169</v>
+      </c>
+      <c r="E63" s="11">
+        <f>$A63/($F$37+E$7)</f>
         <v>10.344212591403604</v>
       </c>
-      <c r="F57" s="12">
-        <f t="shared" si="12"/>
+      <c r="F63" s="12">
+        <f t="shared" si="21"/>
         <v>0.37450956947650144</v>
       </c>
-      <c r="G57" s="13">
-        <f t="shared" si="16"/>
+      <c r="G63" s="13">
+        <f t="shared" si="25"/>
         <v>360.02142984545435</v>
       </c>
-      <c r="H57" s="7">
-        <f t="shared" si="13"/>
-        <v>10.247349823321557</v>
-      </c>
-      <c r="I57" s="8">
-        <f t="shared" si="14"/>
-        <v>3.1502453520458356</v>
-      </c>
-      <c r="J57" s="9">
-        <f t="shared" si="17"/>
-        <v>42.103804994054883</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+      <c r="H63" s="7">
+        <f>$A63/($F$37+H$7)</f>
+        <v>10.346057795219409</v>
+      </c>
+      <c r="I63" s="8">
+        <f t="shared" si="22"/>
+        <v>0.32112273570604427</v>
+      </c>
+      <c r="J63" s="9">
+        <f t="shared" si="26"/>
+        <v>419.65000594532489</v>
+      </c>
+      <c r="K63" s="11">
+        <f>$A63/($F$37+K$7)</f>
+        <v>10.353445198143522</v>
+      </c>
+      <c r="L63" s="12">
+        <f t="shared" si="23"/>
+        <v>0.10719382747094272</v>
+      </c>
+      <c r="M63" s="13">
+        <f t="shared" si="27"/>
+        <v>1258.9508739597879</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>30</v>
       </c>
-      <c r="B58" s="3">
-        <f t="shared" si="9"/>
-        <v>10.563380281690142</v>
-      </c>
-      <c r="C58" s="4">
-        <f t="shared" si="10"/>
-        <v>4.463400119023988</v>
-      </c>
-      <c r="D58" s="5">
-        <f t="shared" si="15"/>
-        <v>29.196000000000101</v>
-      </c>
-      <c r="E58" s="11">
-        <f t="shared" si="11"/>
+      <c r="B64" s="3">
+        <f>$A64/($F$37+B$7)</f>
+        <v>10.704345964461572</v>
+      </c>
+      <c r="C64" s="4">
+        <f t="shared" si="20"/>
+        <v>0.29791585856989933</v>
+      </c>
+      <c r="D64" s="5">
+        <f t="shared" si="24"/>
+        <v>452.09808230769374</v>
+      </c>
+      <c r="E64" s="11">
+        <f>$A64/($F$37+E$7)</f>
         <v>10.700909577314073</v>
       </c>
-      <c r="F58" s="12">
-        <f t="shared" si="12"/>
+      <c r="F64" s="12">
+        <f t="shared" si="21"/>
         <v>0.40078313023645934</v>
       </c>
-      <c r="G58" s="13">
-        <f t="shared" si="16"/>
+      <c r="G64" s="13">
+        <f t="shared" si="25"/>
         <v>336.39052500001912</v>
       </c>
-      <c r="H58" s="7">
-        <f t="shared" si="13"/>
-        <v>10.600706713780919</v>
-      </c>
-      <c r="I58" s="8">
-        <f t="shared" si="14"/>
-        <v>3.3712494849479819</v>
-      </c>
-      <c r="J58" s="9">
-        <f t="shared" si="17"/>
-        <v>39.294500000000163</v>
+      <c r="H64" s="7">
+        <f>$A64/($F$37+H$7)</f>
+        <v>10.702818408847664</v>
+      </c>
+      <c r="I64" s="8">
+        <f t="shared" si="22"/>
+        <v>0.34365096567829279</v>
+      </c>
+      <c r="J64" s="9">
+        <f t="shared" si="26"/>
+        <v>392.0904500000143</v>
+      </c>
+      <c r="K64" s="11">
+        <f>$A64/($F$37+K$7)</f>
+        <v>10.710460549803642</v>
+      </c>
+      <c r="L64" s="12">
+        <f t="shared" si="23"/>
+        <v>0.11471396518892372</v>
+      </c>
+      <c r="M64" s="13">
+        <f t="shared" si="27"/>
+        <v>1176.3901499997578</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>31</v>
+      </c>
+      <c r="B65" s="3">
+        <f>$A65/($F$37+B$7)</f>
+        <v>11.06115749661029</v>
+      </c>
+      <c r="C65" s="4">
+        <f t="shared" ref="C65:C70" si="28">($A65-($F$37*B65))*B65</f>
+        <v>0.31810793342855331</v>
+      </c>
+      <c r="D65" s="5">
+        <f t="shared" ref="D65:D70" si="29">((175-40)/C65)-$D$7</f>
+        <v>423.33426022569114</v>
+      </c>
+      <c r="E65" s="11">
+        <f>$A65/($F$37+E$7)</f>
+        <v>11.057606563224542</v>
+      </c>
+      <c r="F65" s="12">
+        <f t="shared" ref="F65:F70" si="30">($A65-($F$37*E65))*E65</f>
+        <v>0.42794732017472137</v>
+      </c>
+      <c r="G65" s="13">
+        <f t="shared" ref="G65:G70" si="31">((175-40)/F65)-$G$7</f>
+        <v>315.00938865765653</v>
+      </c>
+      <c r="H65" s="7">
+        <f>$A65/($F$37+H$7)</f>
+        <v>11.059579022475919</v>
+      </c>
+      <c r="I65" s="8">
+        <f t="shared" ref="I65:I70" si="32">($A65-($F$37*H65))*H65</f>
+        <v>0.3669428644631601</v>
+      </c>
+      <c r="J65" s="9">
+        <f t="shared" ref="J65:J70" si="33">((175-40)/I65)-$J$7</f>
+        <v>367.15468782519019</v>
+      </c>
+      <c r="K65" s="11">
+        <f>$A65/($F$37+K$7)</f>
+        <v>11.067475901463764</v>
+      </c>
+      <c r="L65" s="12">
+        <f t="shared" ref="L65:L70" si="34">($A65-($F$37*K65))*K65</f>
+        <v>0.12248902282947095</v>
+      </c>
+      <c r="M65" s="13">
+        <f t="shared" ref="M65:M70" si="35">((175-40)/L65)-$G$7</f>
+        <v>1101.6895785640875</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>32</v>
+      </c>
+      <c r="B66" s="3">
+        <f>$A66/($F$37+B$7)</f>
+        <v>11.417969028759009</v>
+      </c>
+      <c r="C66" s="4">
+        <f t="shared" si="28"/>
+        <v>0.33896204352847553</v>
+      </c>
+      <c r="D66" s="5">
+        <f t="shared" si="29"/>
+        <v>397.22468171567982</v>
+      </c>
+      <c r="E66" s="11">
+        <f>$A66/($F$37+E$7)</f>
+        <v>11.414303549135012</v>
+      </c>
+      <c r="F66" s="12">
+        <f t="shared" si="30"/>
+        <v>0.45600213929124689</v>
+      </c>
+      <c r="G66" s="13">
+        <f t="shared" si="31"/>
+        <v>295.60124267580682</v>
+      </c>
+      <c r="H66" s="7">
+        <f>$A66/($F$37+H$7)</f>
+        <v>11.416339636104174</v>
+      </c>
+      <c r="I66" s="8">
+        <f t="shared" si="32"/>
+        <v>0.39099843206064616</v>
+      </c>
+      <c r="J66" s="9">
+        <f t="shared" si="33"/>
+        <v>344.51992675781548</v>
+      </c>
+      <c r="K66" s="11">
+        <f>$A66/($F$37+K$7)</f>
+        <v>11.424491253123886</v>
+      </c>
+      <c r="L66" s="12">
+        <f t="shared" si="34"/>
+        <v>0.13051900039265796</v>
+      </c>
+      <c r="M66" s="13">
+        <f t="shared" si="35"/>
+        <v>1033.8821630863035</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>33</v>
+      </c>
+      <c r="B67" s="3">
+        <f>$A67/($F$37+B$7)</f>
+        <v>11.774780560907729</v>
+      </c>
+      <c r="C67" s="4">
+        <f t="shared" si="28"/>
+        <v>0.36047818886958238</v>
+      </c>
+      <c r="D67" s="5">
+        <f t="shared" si="29"/>
+        <v>373.45254736172603</v>
+      </c>
+      <c r="E67" s="11">
+        <f>$A67/($F$37+E$7)</f>
+        <v>11.771000535045481</v>
+      </c>
+      <c r="F67" s="12">
+        <f t="shared" si="30"/>
+        <v>0.48494758758611584</v>
+      </c>
+      <c r="G67" s="13">
+        <f t="shared" si="31"/>
+        <v>277.93059917356953</v>
+      </c>
+      <c r="H67" s="7">
+        <f>$A67/($F$37+H$7)</f>
+        <v>11.77310024973243</v>
+      </c>
+      <c r="I67" s="8">
+        <f t="shared" si="32"/>
+        <v>0.41581766847079282</v>
+      </c>
+      <c r="J67" s="9">
+        <f t="shared" si="33"/>
+        <v>323.91152892558591</v>
+      </c>
+      <c r="K67" s="11">
+        <f>$A67/($F$37+K$7)</f>
+        <v>11.781506604784006</v>
+      </c>
+      <c r="L67" s="12">
+        <f t="shared" si="34"/>
+        <v>0.13880389787856842</v>
+      </c>
+      <c r="M67" s="13">
+        <f t="shared" si="35"/>
+        <v>972.14516528926129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>34</v>
+      </c>
+      <c r="B68" s="3">
+        <f>$A68/($F$37+B$7)</f>
+        <v>12.131592093056447</v>
+      </c>
+      <c r="C68" s="4">
+        <f t="shared" si="28"/>
+        <v>0.38265636945208159</v>
+      </c>
+      <c r="D68" s="5">
+        <f t="shared" si="29"/>
+        <v>351.7469498934617</v>
+      </c>
+      <c r="E68" s="11">
+        <f>$A68/($F$37+E$7)</f>
+        <v>12.12769752095595</v>
+      </c>
+      <c r="F68" s="12">
+        <f t="shared" si="30"/>
+        <v>0.51478366505924578</v>
+      </c>
+      <c r="G68" s="13">
+        <f t="shared" si="31"/>
+        <v>261.79608347753816</v>
+      </c>
+      <c r="H68" s="7">
+        <f>$A68/($F$37+H$7)</f>
+        <v>12.129860863360685</v>
+      </c>
+      <c r="I68" s="8">
+        <f t="shared" si="32"/>
+        <v>0.44140057369347457</v>
+      </c>
+      <c r="J68" s="9">
+        <f t="shared" si="33"/>
+        <v>305.09464100345542</v>
+      </c>
+      <c r="K68" s="11">
+        <f>$A68/($F$37+K$7)</f>
+        <v>12.138521956444128</v>
+      </c>
+      <c r="L68" s="12">
+        <f t="shared" si="34"/>
+        <v>0.1473437152870806</v>
+      </c>
+      <c r="M68" s="13">
+        <f t="shared" si="35"/>
+        <v>915.77503027678893</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>35</v>
+      </c>
+      <c r="B69" s="3">
+        <f>$A69/($F$37+B$7)</f>
+        <v>12.488403625205168</v>
+      </c>
+      <c r="C69" s="4">
+        <f t="shared" si="28"/>
+        <v>0.40549658527567412</v>
+      </c>
+      <c r="D69" s="5">
+        <f t="shared" si="29"/>
+        <v>331.8751216954667</v>
+      </c>
+      <c r="E69" s="11">
+        <f>$A69/($F$37+E$7)</f>
+        <v>12.484394506866419</v>
+      </c>
+      <c r="F69" s="12">
+        <f t="shared" si="30"/>
+        <v>0.54551037171076588</v>
+      </c>
+      <c r="G69" s="13">
+        <f t="shared" si="31"/>
+        <v>247.02467142857208</v>
+      </c>
+      <c r="H69" s="7">
+        <f>$A69/($F$37+H$7)</f>
+        <v>12.48662147698894</v>
+      </c>
+      <c r="I69" s="8">
+        <f t="shared" si="32"/>
+        <v>0.46774714772886133</v>
+      </c>
+      <c r="J69" s="9">
+        <f t="shared" si="33"/>
+        <v>287.8674734693526</v>
+      </c>
+      <c r="K69" s="11">
+        <f>$A69/($F$37+K$7)</f>
+        <v>12.49553730810425</v>
+      </c>
+      <c r="L69" s="12">
+        <f t="shared" si="34"/>
+        <v>0.15613845261823511</v>
+      </c>
+      <c r="M69" s="13">
+        <f t="shared" si="35"/>
+        <v>864.16725306116939</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="18">
+        <v>36</v>
+      </c>
+      <c r="B70" s="19">
+        <f>$A70/($F$37+B$7)</f>
+        <v>12.845215157353886</v>
+      </c>
+      <c r="C70" s="20">
+        <f t="shared" si="28"/>
+        <v>0.42899883634070979</v>
+      </c>
+      <c r="D70" s="21">
+        <f t="shared" si="29"/>
+        <v>313.63616826919161</v>
+      </c>
+      <c r="E70" s="22">
+        <f>$A70/($F$37+E$7)</f>
+        <v>12.841091492776888</v>
+      </c>
+      <c r="F70" s="23">
+        <f t="shared" si="30"/>
+        <v>0.57712770754050147</v>
+      </c>
+      <c r="G70" s="24">
+        <f t="shared" si="31"/>
+        <v>233.46703125001329</v>
+      </c>
+      <c r="H70" s="25">
+        <f>$A70/($F$37+H$7)</f>
+        <v>12.843382090617196</v>
+      </c>
+      <c r="I70" s="26">
+        <f t="shared" si="32"/>
+        <v>0.49485739057677808</v>
+      </c>
+      <c r="J70" s="62">
+        <f t="shared" si="33"/>
+        <v>272.05586805554537</v>
+      </c>
+      <c r="K70" s="22">
+        <f>$A70/($F$37+K$7)</f>
+        <v>12.85255265976437</v>
+      </c>
+      <c r="L70" s="23">
+        <f t="shared" si="34"/>
+        <v>0.16518810987203189</v>
+      </c>
+      <c r="M70" s="24">
+        <f t="shared" si="35"/>
+        <v>816.80010416658888</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:J34"/>
+  <mergeCells count="32">
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="B39:M39"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="A37:E38"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="F37:J38"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="F2:J3"/>
     <mergeCell ref="A2:E3"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="F31:J32"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="A31:E32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B4:M4"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="B6:C6"/>
@@ -2700,24 +3955,2851 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="48" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A1" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="50">
+        <v>1.3</v>
+      </c>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+    </row>
+    <row r="4" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="54"/>
+      <c r="H6" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="53"/>
+      <c r="K6" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="54"/>
+      <c r="N6" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="61">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="44">
+        <v>1.05</v>
+      </c>
+      <c r="F7" s="56">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="G7" s="56"/>
+      <c r="H7" s="41">
+        <v>0.45</v>
+      </c>
+      <c r="I7" s="60">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J7" s="60"/>
+      <c r="K7" s="45">
+        <v>0.75</v>
+      </c>
+      <c r="L7" s="56">
+        <v>1E-3</v>
+      </c>
+      <c r="M7" s="56"/>
+      <c r="N7" s="41">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>10</v>
+      </c>
+      <c r="B9" s="46">
+        <f>A9*L9</f>
+        <v>76.86395080707149</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" ref="C9:C29" si="0">$A9/($G$2+C$7)</f>
+        <v>7.6769537847382159</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" ref="D9:D29" si="1">($A9-($G$2*C9))*C9</f>
+        <v>0.15323261047381051</v>
+      </c>
+      <c r="E9" s="5">
+        <f>((175-40)/D9)-$E$7</f>
+        <v>879.96351000003551</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" ref="F9:F29" si="2">$A9/($G$2+F$7)</f>
+        <v>7.6716532412734937</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" ref="G9:G29" si="3">($A9-($G$2*F9))*F9</f>
+        <v>0.20598992209020012</v>
+      </c>
+      <c r="H9" s="13">
+        <f>((175-40)/G9)-$H$7</f>
+        <v>654.9218678571342</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" ref="I9:I29" si="4">$A9/($G$2+I$7)</f>
+        <v>7.6745970836531088</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" ref="J9:J29" si="5">($A9-($G$2*I9))*I9</f>
+        <v>0.17669832118924272</v>
+      </c>
+      <c r="K9" s="9">
+        <f>((175-40)/J9)-$K$7</f>
+        <v>763.26405000003308</v>
+      </c>
+      <c r="L9" s="11">
+        <f t="shared" ref="L9:L29" si="6">$A9/($G$2+L$7)</f>
+        <v>7.6863950807071486</v>
+      </c>
+      <c r="M9" s="12">
+        <f t="shared" ref="M9:M29" si="7">($A9-($G$2*L9))*L9</f>
+        <v>5.9080669336720543E-2</v>
+      </c>
+      <c r="N9" s="13">
+        <f t="shared" ref="N9:N29" si="8">((175-40)/M9)-$H$7</f>
+        <v>2284.5613499999426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>11</v>
+      </c>
+      <c r="B10" s="46">
+        <f t="shared" ref="B10:B29" si="9">A10*L10</f>
+        <v>93.005380476556496</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>8.4446491632120377</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.18541145867330622</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" ref="E10:E29" si="10">((175-40)/D10)-$E$7</f>
+        <v>727.06033884302224</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="2"/>
+        <v>8.4388185654008439</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="3"/>
+        <v>0.24924780572913019</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" ref="H10:H29" si="11">((175-40)/G10)-$H$7</f>
+        <v>541.17964285716164</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="4"/>
+        <v>8.4420567920184197</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="5"/>
+        <v>0.21380496863898521</v>
+      </c>
+      <c r="K10" s="9">
+        <f t="shared" ref="K10:K29" si="12">((175-40)/J10)-$K$7</f>
+        <v>630.66657024795677</v>
+      </c>
+      <c r="L10" s="11">
+        <f t="shared" si="6"/>
+        <v>8.4550345887778633</v>
+      </c>
+      <c r="M10" s="12">
+        <f t="shared" si="7"/>
+        <v>7.1487609897428847E-2</v>
+      </c>
+      <c r="N10" s="13">
+        <f t="shared" si="8"/>
+        <v>1887.9891322314368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <v>12</v>
+      </c>
+      <c r="B11" s="46">
+        <f t="shared" si="9"/>
+        <v>110.68408916218294</v>
+      </c>
+      <c r="C11" s="19">
+        <f t="shared" si="0"/>
+        <v>9.2123445416858587</v>
+      </c>
+      <c r="D11" s="20">
+        <f t="shared" si="1"/>
+        <v>0.22065495908229366</v>
+      </c>
+      <c r="E11" s="21">
+        <f t="shared" si="10"/>
+        <v>610.76493750000657</v>
+      </c>
+      <c r="F11" s="22">
+        <f t="shared" si="2"/>
+        <v>9.2059838895281931</v>
+      </c>
+      <c r="G11" s="23">
+        <f t="shared" si="3"/>
+        <v>0.29662548780987841</v>
+      </c>
+      <c r="H11" s="24">
+        <f t="shared" si="11"/>
+        <v>454.66935267858042</v>
+      </c>
+      <c r="I11" s="25">
+        <f t="shared" si="4"/>
+        <v>9.2095165003837298</v>
+      </c>
+      <c r="J11" s="26">
+        <f t="shared" si="5"/>
+        <v>0.25444558251251276</v>
+      </c>
+      <c r="K11" s="27">
+        <f t="shared" si="12"/>
+        <v>529.81531250001626</v>
+      </c>
+      <c r="L11" s="22">
+        <f t="shared" si="6"/>
+        <v>9.223674096848578</v>
+      </c>
+      <c r="M11" s="23">
+        <f t="shared" si="7"/>
+        <v>8.5076163844871017E-2</v>
+      </c>
+      <c r="N11" s="24">
+        <f t="shared" si="8"/>
+        <v>1586.3634375000822</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
+        <v>13</v>
+      </c>
+      <c r="B12" s="46">
+        <f t="shared" si="9"/>
+        <v>129.9000768639508</v>
+      </c>
+      <c r="C12" s="29">
+        <f t="shared" si="0"/>
+        <v>9.9800399201596814</v>
+      </c>
+      <c r="D12" s="30">
+        <f t="shared" si="1"/>
+        <v>0.25896311170074154</v>
+      </c>
+      <c r="E12" s="31">
+        <f t="shared" si="10"/>
+        <v>520.25976923078667</v>
+      </c>
+      <c r="F12" s="32">
+        <f t="shared" si="2"/>
+        <v>9.9731492136555424</v>
+      </c>
+      <c r="G12" s="33">
+        <f t="shared" si="3"/>
+        <v>0.34812296833243117</v>
+      </c>
+      <c r="H12" s="34">
+        <f t="shared" si="11"/>
+        <v>387.34400464919969</v>
+      </c>
+      <c r="I12" s="35">
+        <f t="shared" si="4"/>
+        <v>9.9769762087490417</v>
+      </c>
+      <c r="J12" s="36">
+        <f t="shared" si="5"/>
+        <v>0.2986201628098078</v>
+      </c>
+      <c r="K12" s="37">
+        <f t="shared" si="12"/>
+        <v>451.32931952666559</v>
+      </c>
+      <c r="L12" s="32">
+        <f t="shared" si="6"/>
+        <v>9.9923136049192927</v>
+      </c>
+      <c r="M12" s="33">
+        <f t="shared" si="7"/>
+        <v>9.9846331179047065E-2</v>
+      </c>
+      <c r="N12" s="34">
+        <f t="shared" si="8"/>
+        <v>1351.6277218936011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>14</v>
+      </c>
+      <c r="B13" s="46">
+        <f t="shared" si="9"/>
+        <v>150.65334358186013</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>10.747735298633502</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.30033591652866476</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="10"/>
+        <v>448.44668877553403</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="2"/>
+        <v>10.740314537782892</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="3"/>
+        <v>0.40374024729678842</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" si="11"/>
+        <v>333.92340196792878</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="4"/>
+        <v>10.744435917114352</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" si="5"/>
+        <v>0.34632870953092337</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="12"/>
+        <v>389.05308673470216</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" si="6"/>
+        <v>10.760953112990009</v>
+      </c>
+      <c r="M13" s="12">
+        <f t="shared" si="7"/>
+        <v>0.11579811189993787</v>
+      </c>
+      <c r="N13" s="13">
+        <f t="shared" si="8"/>
+        <v>1165.3721173472554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>15</v>
+      </c>
+      <c r="B14" s="46">
+        <f t="shared" si="9"/>
+        <v>172.94388931591087</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>11.515430677107323</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="1"/>
+        <v>0.34477337356608384</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="10"/>
+        <v>390.51156000000418</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="2"/>
+        <v>11.507479861910241</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="3"/>
+        <v>0.46347732470295028</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" si="11"/>
+        <v>290.82638571428186</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="4"/>
+        <v>11.511895625479664</v>
+      </c>
+      <c r="J14" s="8">
+        <f t="shared" si="5"/>
+        <v>0.39757122267578593</v>
+      </c>
+      <c r="K14" s="9">
+        <f t="shared" si="12"/>
+        <v>338.81180000002342</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="6"/>
+        <v>11.529592621060724</v>
+      </c>
+      <c r="M14" s="12">
+        <f t="shared" si="7"/>
+        <v>0.13293150600760076</v>
+      </c>
+      <c r="N14" s="13">
+        <f t="shared" si="8"/>
+        <v>1015.1106000001306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>16</v>
+      </c>
+      <c r="B15" s="46">
+        <f t="shared" si="9"/>
+        <v>196.77171406610302</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>12.283126055581146</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.39227548281295926</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="10"/>
+        <v>343.09590234376003</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="2"/>
+        <v>12.27464518603759</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="3"/>
+        <v>0.52733420055091673</v>
+      </c>
+      <c r="H15" s="13">
+        <f t="shared" si="11"/>
+        <v>255.5546358816909</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="4"/>
+        <v>12.279355333844974</v>
+      </c>
+      <c r="J15" s="8">
+        <f t="shared" si="5"/>
+        <v>0.45234770224447446</v>
+      </c>
+      <c r="K15" s="9">
+        <f t="shared" si="12"/>
+        <v>297.69298828125432</v>
+      </c>
+      <c r="L15" s="11">
+        <f t="shared" si="6"/>
+        <v>12.298232129131438</v>
+      </c>
+      <c r="M15" s="12">
+        <f t="shared" si="7"/>
+        <v>0.15124651350197837</v>
+      </c>
+      <c r="N15" s="13">
+        <f t="shared" si="8"/>
+        <v>892.1325585938821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>17</v>
+      </c>
+      <c r="B16" s="46">
+        <f t="shared" si="9"/>
+        <v>222.13681783243661</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>13.050821434054967</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="1"/>
+        <v>0.44284224426931007</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="10"/>
+        <v>303.79896539793771</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="2"/>
+        <v>13.04181051016494</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="3"/>
+        <v>0.59531087484066447</v>
+      </c>
+      <c r="H16" s="13">
+        <f t="shared" si="11"/>
+        <v>226.32227261493063</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="4"/>
+        <v>13.046815042210284</v>
+      </c>
+      <c r="J16" s="8">
+        <f t="shared" si="5"/>
+        <v>0.51065814823692768</v>
+      </c>
+      <c r="K16" s="9">
+        <f t="shared" si="12"/>
+        <v>263.61472318339406</v>
+      </c>
+      <c r="L16" s="11">
+        <f t="shared" si="6"/>
+        <v>13.066871637202153</v>
+      </c>
+      <c r="M16" s="12">
+        <f t="shared" si="7"/>
+        <v>0.17074313438308988</v>
+      </c>
+      <c r="N16" s="13">
+        <f t="shared" si="8"/>
+        <v>790.21136678213736</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>18</v>
+      </c>
+      <c r="B17" s="46">
+        <f t="shared" si="9"/>
+        <v>249.03920061491164</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>13.818516812528788</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.49647365793516074</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="10"/>
+        <v>270.8677500000029</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="2"/>
+        <v>13.808975834292289</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="3"/>
+        <v>0.66740734757223863</v>
+      </c>
+      <c r="H17" s="13">
+        <f t="shared" si="11"/>
+        <v>201.82526785714316</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="4"/>
+        <v>13.814274750575596</v>
+      </c>
+      <c r="J17" s="8">
+        <f t="shared" si="5"/>
+        <v>0.57250256065314153</v>
+      </c>
+      <c r="K17" s="9">
+        <f t="shared" si="12"/>
+        <v>235.05680555556779</v>
+      </c>
+      <c r="L17" s="11">
+        <f t="shared" si="6"/>
+        <v>13.835511145272868</v>
+      </c>
+      <c r="M17" s="12">
+        <f t="shared" si="7"/>
+        <v>0.19142136865093523</v>
+      </c>
+      <c r="N17" s="13">
+        <f t="shared" si="8"/>
+        <v>704.80041666679369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>19</v>
+      </c>
+      <c r="B18" s="46">
+        <f t="shared" si="9"/>
+        <v>277.47886241352808</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>14.586212191002611</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="1"/>
+        <v>0.55316972381043783</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="10"/>
+        <v>242.99806371192918</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" si="2"/>
+        <v>14.576141158419638</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="3"/>
+        <v>0.74362361874561733</v>
+      </c>
+      <c r="H18" s="13">
+        <f t="shared" si="11"/>
+        <v>181.09345370003842</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="4"/>
+        <v>14.581734458940906</v>
+      </c>
+      <c r="J18" s="8">
+        <f t="shared" si="5"/>
+        <v>0.63788093949318947</v>
+      </c>
+      <c r="K18" s="9">
+        <f t="shared" si="12"/>
+        <v>210.88824099723138</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" si="6"/>
+        <v>14.604150653343583</v>
+      </c>
+      <c r="M18" s="12">
+        <f t="shared" si="7"/>
+        <v>0.21328121630551447</v>
+      </c>
+      <c r="N18" s="13">
+        <f t="shared" si="8"/>
+        <v>632.5171329641114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>20</v>
+      </c>
+      <c r="B19" s="46">
+        <f t="shared" si="9"/>
+        <v>307.45580322828596</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>15.353907569476432</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="1"/>
+        <v>0.61293044189524204</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="10"/>
+        <v>219.20337750000886</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="2"/>
+        <v>15.343306482546987</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" si="3"/>
+        <v>0.82395968836080047</v>
+      </c>
+      <c r="H19" s="13">
+        <f t="shared" si="11"/>
+        <v>163.39296696428357</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="4"/>
+        <v>15.349194167306218</v>
+      </c>
+      <c r="J19" s="8">
+        <f t="shared" si="5"/>
+        <v>0.7067932847569709</v>
+      </c>
+      <c r="K19" s="9">
+        <f t="shared" si="12"/>
+        <v>190.25351250000827</v>
+      </c>
+      <c r="L19" s="11">
+        <f t="shared" si="6"/>
+        <v>15.372790161414297</v>
+      </c>
+      <c r="M19" s="12">
+        <f t="shared" si="7"/>
+        <v>0.23632267734688217</v>
+      </c>
+      <c r="N19" s="13">
+        <f t="shared" si="8"/>
+        <v>570.80283749998557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>21</v>
+      </c>
+      <c r="B20" s="46">
+        <f t="shared" si="9"/>
+        <v>338.97002305918528</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>16.121602947950255</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.67575581218946712</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="10"/>
+        <v>198.72630612246803</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" si="2"/>
+        <v>16.110471806674337</v>
+      </c>
+      <c r="G20" s="12">
+        <f t="shared" si="3"/>
+        <v>0.90841555641778826</v>
+      </c>
+      <c r="H20" s="13">
+        <f t="shared" si="11"/>
+        <v>148.16040087463267</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="4"/>
+        <v>16.116653875671528</v>
+      </c>
+      <c r="J20" s="8">
+        <f t="shared" si="5"/>
+        <v>0.77923959644459184</v>
+      </c>
+      <c r="K20" s="9">
+        <f t="shared" si="12"/>
+        <v>172.49581632653113</v>
+      </c>
+      <c r="L20" s="11">
+        <f t="shared" si="6"/>
+        <v>16.141429669485014</v>
+      </c>
+      <c r="M20" s="12">
+        <f t="shared" si="7"/>
+        <v>0.26054575177487455</v>
+      </c>
+      <c r="N20" s="13">
+        <f t="shared" si="8"/>
+        <v>517.69316326541832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>22</v>
+      </c>
+      <c r="B21" s="46">
+        <f t="shared" si="9"/>
+        <v>372.02152190622598</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>16.889298326424075</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="1"/>
+        <v>0.74164583469322487</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="10"/>
+        <v>180.97758471075554</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="2"/>
+        <v>16.877637130801688</v>
+      </c>
+      <c r="G21" s="12">
+        <f t="shared" si="3"/>
+        <v>0.99699122291652076</v>
+      </c>
+      <c r="H21" s="13">
+        <f t="shared" si="11"/>
+        <v>134.95741071429043</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="4"/>
+        <v>16.884113584036839</v>
+      </c>
+      <c r="J21" s="8">
+        <f t="shared" si="5"/>
+        <v>0.85521987455594084</v>
+      </c>
+      <c r="K21" s="9">
+        <f t="shared" si="12"/>
+        <v>157.10414256198919</v>
+      </c>
+      <c r="L21" s="11">
+        <f t="shared" si="6"/>
+        <v>16.910069177555727</v>
+      </c>
+      <c r="M21" s="12">
+        <f t="shared" si="7"/>
+        <v>0.28595043958971539</v>
+      </c>
+      <c r="N21" s="13">
+        <f t="shared" si="8"/>
+        <v>471.65978305785922</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>23</v>
+      </c>
+      <c r="B22" s="46">
+        <f t="shared" si="9"/>
+        <v>406.61029976940819</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>17.656993704897896</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="1"/>
+        <v>0.81060050940646067</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="10"/>
+        <v>165.49319659735957</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" si="2"/>
+        <v>17.644802454929035</v>
+      </c>
+      <c r="G22" s="12">
+        <f t="shared" si="3"/>
+        <v>1.0896866878571774</v>
+      </c>
+      <c r="H22" s="13">
+        <f t="shared" si="11"/>
+        <v>123.43882190115745</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="4"/>
+        <v>17.651573292402151</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" si="5"/>
+        <v>0.93473411909107218</v>
+      </c>
+      <c r="K22" s="9">
+        <f t="shared" si="12"/>
+        <v>143.67609640832723</v>
+      </c>
+      <c r="L22" s="11">
+        <f t="shared" si="6"/>
+        <v>17.678708685626443</v>
+      </c>
+      <c r="M22" s="12">
+        <f t="shared" si="7"/>
+        <v>0.31253674079117005</v>
+      </c>
+      <c r="N22" s="13">
+        <f t="shared" si="8"/>
+        <v>431.4992155010471</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18">
+        <v>24</v>
+      </c>
+      <c r="B23" s="46">
+        <f t="shared" si="9"/>
+        <v>442.73635664873177</v>
+      </c>
+      <c r="C23" s="19">
+        <f t="shared" si="0"/>
+        <v>18.424689083371717</v>
+      </c>
+      <c r="D23" s="20">
+        <f t="shared" si="1"/>
+        <v>0.88261983632917462</v>
+      </c>
+      <c r="E23" s="21">
+        <f t="shared" si="10"/>
+        <v>151.90373437500162</v>
+      </c>
+      <c r="F23" s="22">
+        <f t="shared" si="2"/>
+        <v>18.411967779056386</v>
+      </c>
+      <c r="G23" s="23">
+        <f t="shared" si="3"/>
+        <v>1.1865019512395136</v>
+      </c>
+      <c r="H23" s="24">
+        <f t="shared" si="11"/>
+        <v>113.3298381696451</v>
+      </c>
+      <c r="I23" s="25">
+        <f t="shared" si="4"/>
+        <v>18.41903300076746</v>
+      </c>
+      <c r="J23" s="26">
+        <f t="shared" si="5"/>
+        <v>1.017782330050051</v>
+      </c>
+      <c r="K23" s="27">
+        <f t="shared" si="12"/>
+        <v>131.89132812500407</v>
+      </c>
+      <c r="L23" s="22">
+        <f t="shared" si="6"/>
+        <v>18.447348193697156</v>
+      </c>
+      <c r="M23" s="23">
+        <f t="shared" si="7"/>
+        <v>0.34030465537948407</v>
+      </c>
+      <c r="N23" s="24">
+        <f t="shared" si="8"/>
+        <v>396.25335937502058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>25</v>
+      </c>
+      <c r="B24" s="46">
+        <f t="shared" si="9"/>
+        <v>480.3996925441968</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>19.192384461845538</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="1"/>
+        <v>0.95770381546136674</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="10"/>
+        <v>139.91216159999814</v>
+      </c>
+      <c r="F24" s="11">
+        <f t="shared" si="2"/>
+        <v>19.179133103183734</v>
+      </c>
+      <c r="G24" s="12">
+        <f t="shared" si="3"/>
+        <v>1.2874370130637849</v>
+      </c>
+      <c r="H24" s="13">
+        <f t="shared" si="11"/>
+        <v>104.40949885713869</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="4"/>
+        <v>19.186492709132771</v>
+      </c>
+      <c r="J24" s="8">
+        <f t="shared" si="5"/>
+        <v>1.1043645074327499</v>
+      </c>
+      <c r="K24" s="9">
+        <f t="shared" si="12"/>
+        <v>121.49224800000719</v>
+      </c>
+      <c r="L24" s="11">
+        <f t="shared" si="6"/>
+        <v>19.215987701767872</v>
+      </c>
+      <c r="M24" s="12">
+        <f t="shared" si="7"/>
+        <v>0.36925418335446925</v>
+      </c>
+      <c r="N24" s="13">
+        <f t="shared" si="8"/>
+        <v>365.15181600002455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>26</v>
+      </c>
+      <c r="B25" s="46">
+        <f t="shared" si="9"/>
+        <v>519.6003074558032</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>19.960079840319363</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0358524468029662</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="10"/>
+        <v>129.27744230769665</v>
+      </c>
+      <c r="F25" s="11">
+        <f t="shared" si="2"/>
+        <v>19.946298427311085</v>
+      </c>
+      <c r="G25" s="12">
+        <f t="shared" si="3"/>
+        <v>1.3924918733297247</v>
+      </c>
+      <c r="H25" s="13">
+        <f t="shared" si="11"/>
+        <v>96.498501162299917</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="4"/>
+        <v>19.953952417498083</v>
+      </c>
+      <c r="J25" s="8">
+        <f t="shared" si="5"/>
+        <v>1.1944806512392312</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" si="12"/>
+        <v>112.2698298816664</v>
+      </c>
+      <c r="L25" s="11">
+        <f t="shared" si="6"/>
+        <v>19.984627209838585</v>
+      </c>
+      <c r="M25" s="12">
+        <f t="shared" si="7"/>
+        <v>0.39938532471618826</v>
+      </c>
+      <c r="N25" s="13">
+        <f t="shared" si="8"/>
+        <v>337.5694304734003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>27</v>
+      </c>
+      <c r="B26" s="46">
+        <f t="shared" si="9"/>
+        <v>560.33820138355111</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>20.727775218793184</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1170657303541118</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="10"/>
+        <v>119.80233333333462</v>
+      </c>
+      <c r="F26" s="11">
+        <f t="shared" si="2"/>
+        <v>20.713463751438432</v>
+      </c>
+      <c r="G26" s="12">
+        <f t="shared" si="3"/>
+        <v>1.5016665320376104</v>
+      </c>
+      <c r="H26" s="13">
+        <f t="shared" si="11"/>
+        <v>89.450119047614777</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" si="4"/>
+        <v>20.721412125863392</v>
+      </c>
+      <c r="J26" s="8">
+        <f t="shared" si="5"/>
+        <v>1.288130761469642</v>
+      </c>
+      <c r="K26" s="9">
+        <f t="shared" si="12"/>
+        <v>104.05302469135748</v>
+      </c>
+      <c r="L26" s="11">
+        <f t="shared" si="6"/>
+        <v>20.753266717909302</v>
+      </c>
+      <c r="M26" s="12">
+        <f t="shared" si="7"/>
+        <v>0.43069807946464117</v>
+      </c>
+      <c r="N26" s="13">
+        <f t="shared" si="8"/>
+        <v>312.99462962965924</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>28</v>
+      </c>
+      <c r="B27" s="46">
+        <f>A27*L27</f>
+        <v>602.61337432744051</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>21.495470597267005</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="1"/>
+        <v>1.201343666114659</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="10"/>
+        <v>111.32417219388351</v>
+      </c>
+      <c r="F27" s="11">
+        <f t="shared" si="2"/>
+        <v>21.480629075565783</v>
+      </c>
+      <c r="G27" s="12">
+        <f t="shared" si="3"/>
+        <v>1.6149609891871537</v>
+      </c>
+      <c r="H27" s="13">
+        <f t="shared" si="11"/>
+        <v>83.14335049198219</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="4"/>
+        <v>21.488871834228704</v>
+      </c>
+      <c r="J27" s="8">
+        <f t="shared" si="5"/>
+        <v>1.3853148381236935</v>
+      </c>
+      <c r="K27" s="9">
+        <f t="shared" si="12"/>
+        <v>96.700771683675541</v>
+      </c>
+      <c r="L27" s="11">
+        <f t="shared" si="6"/>
+        <v>21.521906225980018</v>
+      </c>
+      <c r="M27" s="12">
+        <f t="shared" si="7"/>
+        <v>0.46319244759975148</v>
+      </c>
+      <c r="N27" s="13">
+        <f t="shared" si="8"/>
+        <v>291.00552933681388</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>29</v>
+      </c>
+      <c r="B28" s="46">
+        <f t="shared" si="9"/>
+        <v>646.42582628747118</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>22.263165975740826</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2886862540847581</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="10"/>
+        <v>103.70784898930172</v>
+      </c>
+      <c r="F28" s="11">
+        <f t="shared" si="2"/>
+        <v>22.247794399693131</v>
+      </c>
+      <c r="G28" s="12">
+        <f t="shared" si="3"/>
+        <v>1.7323752447786542</v>
+      </c>
+      <c r="H28" s="13">
+        <f t="shared" si="11"/>
+        <v>77.477689400369471</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="4"/>
+        <v>22.256331542594015</v>
+      </c>
+      <c r="J28" s="8">
+        <f t="shared" si="5"/>
+        <v>1.4860328812015273</v>
+      </c>
+      <c r="K28" s="9">
+        <f t="shared" si="12"/>
+        <v>90.095903686092171</v>
+      </c>
+      <c r="L28" s="11">
+        <f t="shared" si="6"/>
+        <v>22.290545734050731</v>
+      </c>
+      <c r="M28" s="12">
+        <f t="shared" si="7"/>
+        <v>0.4968684291217485</v>
+      </c>
+      <c r="N28" s="13">
+        <f t="shared" si="8"/>
+        <v>271.25170630205349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>30</v>
+      </c>
+      <c r="B29" s="46">
+        <f t="shared" si="9"/>
+        <v>691.77555726364346</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>23.030861354214647</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="1"/>
+        <v>1.3790934942643354</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="10"/>
+        <v>96.840390000001051</v>
+      </c>
+      <c r="F29" s="11">
+        <f t="shared" si="2"/>
+        <v>23.014959723820482</v>
+      </c>
+      <c r="G29" s="12">
+        <f t="shared" si="3"/>
+        <v>1.8539092988118011</v>
+      </c>
+      <c r="H29" s="13">
+        <f t="shared" si="11"/>
+        <v>72.369096428570458</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="4"/>
+        <v>23.023791250959327</v>
+      </c>
+      <c r="J29" s="8">
+        <f t="shared" si="5"/>
+        <v>1.5902848907031437</v>
+      </c>
+      <c r="K29" s="9">
+        <f t="shared" si="12"/>
+        <v>84.140450000005856</v>
+      </c>
+      <c r="L29" s="11">
+        <f t="shared" si="6"/>
+        <v>23.059185242121448</v>
+      </c>
+      <c r="M29" s="12">
+        <f t="shared" si="7"/>
+        <v>0.53172602403040303</v>
+      </c>
+      <c r="N29" s="13">
+        <f t="shared" si="8"/>
+        <v>253.44015000003267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A30" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="50">
+        <v>12</v>
+      </c>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+    </row>
+    <row r="33" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="1"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="55"/>
+      <c r="E35" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="54"/>
+      <c r="H35" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="53"/>
+      <c r="K35" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="M35" s="54"/>
+      <c r="N35" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="61">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="D36" s="61"/>
+      <c r="E36" s="44">
+        <v>1.05</v>
+      </c>
+      <c r="F36" s="56">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="G36" s="56"/>
+      <c r="H36" s="41">
+        <v>0.45</v>
+      </c>
+      <c r="I36" s="60">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J36" s="60"/>
+      <c r="K36" s="45">
+        <v>0.75</v>
+      </c>
+      <c r="L36" s="56">
+        <v>1E-3</v>
+      </c>
+      <c r="M36" s="56"/>
+      <c r="N36" s="41">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="M37" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="N37" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>10</v>
+      </c>
+      <c r="B38" s="46">
+        <f t="shared" ref="B38:B58" si="13">A38*L38</f>
+        <v>8.3326389467544377</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" ref="C38:C58" si="14">$A38/($G$31+C$7)</f>
+        <v>0.83315281688967391</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" ref="D38:D58" si="15">($A38-($G$31*C38))*C38</f>
+        <v>1.8047734023567022E-3</v>
+      </c>
+      <c r="E38" s="5">
+        <f>((175-40)/D38)-$E$7</f>
+        <v>74800.584279247923</v>
+      </c>
+      <c r="F38" s="11">
+        <f t="shared" ref="F38:F58" si="16">$A38/($G$31+F$7)</f>
+        <v>0.83309034864831089</v>
+      </c>
+      <c r="G38" s="12">
+        <f t="shared" ref="G38:G58" si="17">($A38-($G$31*F38))*F38</f>
+        <v>2.4291383515389828E-3</v>
+      </c>
+      <c r="H38" s="13">
+        <f>((175-40)/G38)-$H$7</f>
+        <v>55574.811867843237</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="shared" ref="I38:I58" si="18">$A38/($G$31+I$7)</f>
+        <v>0.83312505207031573</v>
+      </c>
+      <c r="J38" s="8">
+        <f t="shared" ref="J38:J58" si="19">($A38-($G$31*I38))*I38</f>
+        <v>2.08229205716248E-3</v>
+      </c>
+      <c r="K38" s="9">
+        <f>((175-40)/J38)-$K$7</f>
+        <v>64831.65404996946</v>
+      </c>
+      <c r="L38" s="11">
+        <f t="shared" ref="L38:L58" si="20">$A38/($G$31+L$7)</f>
+        <v>0.83326389467544371</v>
+      </c>
+      <c r="M38" s="12">
+        <f t="shared" ref="M38:M58" si="21">($A38-($G$31*L38))*L38</f>
+        <v>6.9432871816938987E-4</v>
+      </c>
+      <c r="N38" s="13">
+        <f>((175-40)/M38)-$H$7</f>
+        <v>194431.95135008375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>11</v>
+      </c>
+      <c r="B39" s="46">
+        <f t="shared" si="13"/>
+        <v>10.082493125572869</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="14"/>
+        <v>0.91646809857864131</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="15"/>
+        <v>2.1837758168519353E-3</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" ref="E39:E58" si="22">((175-40)/D39)-$E$7</f>
+        <v>61818.482462179149</v>
+      </c>
+      <c r="F39" s="11">
+        <f t="shared" si="16"/>
+        <v>0.91639938351314199</v>
+      </c>
+      <c r="G39" s="12">
+        <f t="shared" si="17"/>
+        <v>2.9392574053611923E-3</v>
+      </c>
+      <c r="H39" s="13">
+        <f t="shared" ref="H39:H58" si="23">((175-40)/G39)-$H$7</f>
+        <v>45929.518485836124</v>
+      </c>
+      <c r="I39" s="7">
+        <f t="shared" si="18"/>
+        <v>0.91643755727734733</v>
+      </c>
+      <c r="J39" s="8">
+        <f t="shared" si="19"/>
+        <v>2.5195733891646473E-3</v>
+      </c>
+      <c r="K39" s="9">
+        <f t="shared" ref="K39:K58" si="24">((175-40)/J39)-$K$7</f>
+        <v>53579.749214892334</v>
+      </c>
+      <c r="L39" s="11">
+        <f t="shared" si="20"/>
+        <v>0.91659028414298815</v>
+      </c>
+      <c r="M39" s="12">
+        <f t="shared" si="21"/>
+        <v>8.4013774898414773E-4</v>
+      </c>
+      <c r="N39" s="13">
+        <f t="shared" ref="N39:N58" si="25">((175-40)/M39)-$H$7</f>
+        <v>160687.4850002249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18">
+        <v>12</v>
+      </c>
+      <c r="B40" s="46">
+        <f t="shared" si="13"/>
+        <v>11.99900008332639</v>
+      </c>
+      <c r="C40" s="19">
+        <f t="shared" si="14"/>
+        <v>0.99978338026760871</v>
+      </c>
+      <c r="D40" s="20">
+        <f t="shared" si="15"/>
+        <v>2.5988736993943617E-3</v>
+      </c>
+      <c r="E40" s="21">
+        <f t="shared" si="22"/>
+        <v>51944.529360574634</v>
+      </c>
+      <c r="F40" s="22">
+        <f t="shared" si="16"/>
+        <v>0.99970841837797308</v>
+      </c>
+      <c r="G40" s="23">
+        <f t="shared" si="17"/>
+        <v>3.4979592262157798E-3</v>
+      </c>
+      <c r="H40" s="24">
+        <f t="shared" si="23"/>
+        <v>38593.481852672834</v>
+      </c>
+      <c r="I40" s="25">
+        <f t="shared" si="18"/>
+        <v>0.99975006248437892</v>
+      </c>
+      <c r="J40" s="26">
+        <f t="shared" si="19"/>
+        <v>2.9985005623132609E-3</v>
+      </c>
+      <c r="K40" s="27">
+        <f t="shared" si="24"/>
+        <v>45021.752812489452</v>
+      </c>
+      <c r="L40" s="22">
+        <f t="shared" si="20"/>
+        <v>0.99991667361053249</v>
+      </c>
+      <c r="M40" s="23">
+        <f t="shared" si="21"/>
+        <v>9.9983335416392138E-4</v>
+      </c>
+      <c r="N40" s="24">
+        <f t="shared" si="25"/>
+        <v>135022.05093755815</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>13</v>
+      </c>
+      <c r="B41" s="46">
+        <f t="shared" si="13"/>
+        <v>14.082159820015001</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="14"/>
+        <v>1.0830986619565761</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="15"/>
+        <v>3.050067049983981E-3</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="22"/>
+        <v>44260.27205870983</v>
+      </c>
+      <c r="F41" s="11">
+        <f t="shared" si="16"/>
+        <v>1.0830174532428041</v>
+      </c>
+      <c r="G41" s="12">
+        <f t="shared" si="17"/>
+        <v>4.1052438141012653E-3</v>
+      </c>
+      <c r="H41" s="13">
+        <f t="shared" si="23"/>
+        <v>32884.32033599884</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="shared" si="18"/>
+        <v>1.0830625676914105</v>
+      </c>
+      <c r="J41" s="8">
+        <f t="shared" si="19"/>
+        <v>3.5190735766015128E-3</v>
+      </c>
+      <c r="K41" s="9">
+        <f t="shared" si="24"/>
+        <v>38361.619260370513</v>
+      </c>
+      <c r="L41" s="11">
+        <f t="shared" si="20"/>
+        <v>1.0832430630780769</v>
+      </c>
+      <c r="M41" s="12">
+        <f t="shared" si="21"/>
+        <v>1.1734155337053069E-3</v>
+      </c>
+      <c r="N41" s="13">
+        <f t="shared" si="25"/>
+        <v>115048.30819541015</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>14</v>
+      </c>
+      <c r="B42" s="46">
+        <f t="shared" si="13"/>
+        <v>16.331972335638696</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="14"/>
+        <v>1.1664139436455436</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" si="15"/>
+        <v>3.5373558686166502E-3</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="22"/>
+        <v>38163.049122092089</v>
+      </c>
+      <c r="F42" s="11">
+        <f t="shared" si="16"/>
+        <v>1.1663264881076352</v>
+      </c>
+      <c r="G42" s="12">
+        <f t="shared" si="17"/>
+        <v>4.7611111690155769E-3</v>
+      </c>
+      <c r="H42" s="13">
+        <f t="shared" si="23"/>
+        <v>28354.275442782098</v>
+      </c>
+      <c r="I42" s="7">
+        <f t="shared" si="18"/>
+        <v>1.1663750728984421</v>
+      </c>
+      <c r="J42" s="8">
+        <f t="shared" si="19"/>
+        <v>4.0812924320368033E-3</v>
+      </c>
+      <c r="K42" s="9">
+        <f t="shared" si="24"/>
+        <v>33077.007168365199</v>
+      </c>
+      <c r="L42" s="11">
+        <f t="shared" si="20"/>
+        <v>1.1665694525456212</v>
+      </c>
+      <c r="M42" s="12">
+        <f t="shared" si="21"/>
+        <v>1.3608842876140764E-3</v>
+      </c>
+      <c r="N42" s="13">
+        <f t="shared" si="25"/>
+        <v>99199.754770299842</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>15</v>
+      </c>
+      <c r="B43" s="46">
+        <f t="shared" si="13"/>
+        <v>18.748437630197483</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="14"/>
+        <v>1.2497292253345109</v>
+      </c>
+      <c r="D43" s="4">
+        <f t="shared" si="15"/>
+        <v>4.06074015530258E-3</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="22"/>
+        <v>33244.120790776855</v>
+      </c>
+      <c r="F43" s="11">
+        <f t="shared" si="16"/>
+        <v>1.2496355229724663</v>
+      </c>
+      <c r="G43" s="12">
+        <f t="shared" si="17"/>
+        <v>5.4655612909627104E-3</v>
+      </c>
+      <c r="H43" s="13">
+        <f t="shared" si="23"/>
+        <v>24699.666385708108</v>
+      </c>
+      <c r="I43" s="7">
+        <f t="shared" si="18"/>
+        <v>1.2496875781054737</v>
+      </c>
+      <c r="J43" s="8">
+        <f t="shared" si="19"/>
+        <v>4.6851571286111405E-3</v>
+      </c>
+      <c r="K43" s="9">
+        <f t="shared" si="24"/>
+        <v>28813.651800013729</v>
+      </c>
+      <c r="L43" s="11">
+        <f t="shared" si="20"/>
+        <v>1.2498958420131656</v>
+      </c>
+      <c r="M43" s="12">
+        <f t="shared" si="21"/>
+        <v>1.5622396158800171E-3</v>
+      </c>
+      <c r="N43" s="13">
+        <f t="shared" si="25"/>
+        <v>86413.950600098629</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>16</v>
+      </c>
+      <c r="B44" s="46">
+        <f t="shared" si="13"/>
+        <v>21.331555703691361</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="14"/>
+        <v>1.3330445070234784</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" si="15"/>
+        <v>4.6202199100312639E-3</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="22"/>
+        <v>29218.338390343197</v>
+      </c>
+      <c r="F44" s="11">
+        <f t="shared" si="16"/>
+        <v>1.3329445578372974</v>
+      </c>
+      <c r="G44" s="12">
+        <f t="shared" si="17"/>
+        <v>6.2185941799407429E-3</v>
+      </c>
+      <c r="H44" s="13">
+        <f t="shared" si="23"/>
+        <v>21708.636667122955</v>
+      </c>
+      <c r="I44" s="7">
+        <f t="shared" si="18"/>
+        <v>1.3330000833125053</v>
+      </c>
+      <c r="J44" s="8">
+        <f t="shared" si="19"/>
+        <v>5.3306676663331075E-3</v>
+      </c>
+      <c r="K44" s="9">
+        <f t="shared" si="24"/>
+        <v>25324.407832032819</v>
+      </c>
+      <c r="L44" s="11">
+        <f t="shared" si="20"/>
+        <v>1.3332222314807101</v>
+      </c>
+      <c r="M44" s="12">
+        <f t="shared" si="21"/>
+        <v>1.7774815185136383E-3</v>
+      </c>
+      <c r="N44" s="13">
+        <f t="shared" si="25"/>
+        <v>75949.706777376457</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>17</v>
+      </c>
+      <c r="B45" s="46">
+        <f t="shared" si="13"/>
+        <v>24.081326556120324</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="14"/>
+        <v>1.4163597887124457</v>
+      </c>
+      <c r="D45" s="4">
+        <f t="shared" si="15"/>
+        <v>5.2157951328093595E-3</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="22"/>
+        <v>25881.868435733417</v>
+      </c>
+      <c r="F45" s="11">
+        <f t="shared" si="16"/>
+        <v>1.4162535927021285</v>
+      </c>
+      <c r="G45" s="12">
+        <f t="shared" si="17"/>
+        <v>7.0202098359471565E-3</v>
+      </c>
+      <c r="H45" s="13">
+        <f t="shared" si="23"/>
+        <v>19229.744417940215</v>
+      </c>
+      <c r="I45" s="7">
+        <f t="shared" si="18"/>
+        <v>1.4163125885195367</v>
+      </c>
+      <c r="J45" s="8">
+        <f t="shared" si="19"/>
+        <v>6.0178240451985599E-3</v>
+      </c>
+      <c r="K45" s="9">
+        <f t="shared" si="24"/>
+        <v>22432.607802761351</v>
+      </c>
+      <c r="L45" s="11">
+        <f t="shared" si="20"/>
+        <v>1.4165486209482543</v>
+      </c>
+      <c r="M45" s="12">
+        <f t="shared" si="21"/>
+        <v>2.0066099955107948E-3</v>
+      </c>
+      <c r="N45" s="13">
+        <f t="shared" si="25"/>
+        <v>67277.197525938362</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>18</v>
+      </c>
+      <c r="B46" s="46">
+        <f t="shared" si="13"/>
+        <v>26.997750187484378</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="14"/>
+        <v>1.499675070401413</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" si="15"/>
+        <v>5.8474658236346497E-3</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="22"/>
+        <v>23085.874160265914</v>
+      </c>
+      <c r="F46" s="11">
+        <f t="shared" si="16"/>
+        <v>1.4995626275669596</v>
+      </c>
+      <c r="G46" s="12">
+        <f t="shared" si="17"/>
+        <v>7.8704082589841733E-3</v>
+      </c>
+      <c r="H46" s="13">
+        <f t="shared" si="23"/>
+        <v>17152.408601190826</v>
+      </c>
+      <c r="I46" s="7">
+        <f t="shared" si="18"/>
+        <v>1.4996250937265683</v>
+      </c>
+      <c r="J46" s="8">
+        <f t="shared" si="19"/>
+        <v>6.7466262652021722E-3</v>
+      </c>
+      <c r="K46" s="9">
+        <f t="shared" si="24"/>
+        <v>20009.251250003217</v>
+      </c>
+      <c r="L46" s="11">
+        <f t="shared" si="20"/>
+        <v>1.4998750104157987</v>
+      </c>
+      <c r="M46" s="12">
+        <f t="shared" si="21"/>
+        <v>2.2496250468714875E-3</v>
+      </c>
+      <c r="N46" s="13">
+        <f t="shared" si="25"/>
+        <v>60009.550416621445</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>19</v>
+      </c>
+      <c r="B47" s="46">
+        <f t="shared" si="13"/>
+        <v>30.080826597783521</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="14"/>
+        <v>1.5829903520903805</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" si="15"/>
+        <v>6.5152319825071327E-3</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="22"/>
+        <v>20719.624315582932</v>
+      </c>
+      <c r="F47" s="11">
+        <f t="shared" si="16"/>
+        <v>1.5828716624317907</v>
+      </c>
+      <c r="G47" s="12">
+        <f t="shared" si="17"/>
+        <v>8.7691894490517907E-3</v>
+      </c>
+      <c r="H47" s="13">
+        <f t="shared" si="23"/>
+        <v>15394.359381680937</v>
+      </c>
+      <c r="I47" s="7">
+        <f t="shared" si="18"/>
+        <v>1.5829375989335999</v>
+      </c>
+      <c r="J47" s="8">
+        <f t="shared" si="19"/>
+        <v>7.5170743263543024E-3</v>
+      </c>
+      <c r="K47" s="9">
+        <f t="shared" si="24"/>
+        <v>17958.364695287775</v>
+      </c>
+      <c r="L47" s="11">
+        <f t="shared" si="20"/>
+        <v>1.5832013998833432</v>
+      </c>
+      <c r="M47" s="12">
+        <f t="shared" si="21"/>
+        <v>2.5065266725900915E-3</v>
+      </c>
+      <c r="N47" s="13">
+        <f t="shared" si="25"/>
+        <v>53858.940955732083</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>20</v>
+      </c>
+      <c r="B48" s="46">
+        <f t="shared" si="13"/>
+        <v>33.330555787017751</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="14"/>
+        <v>1.6663056337793478</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" si="15"/>
+        <v>7.2190936094268087E-3</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="22"/>
+        <v>18699.358569811982</v>
+      </c>
+      <c r="F48" s="11">
+        <f t="shared" si="16"/>
+        <v>1.6661806972966218</v>
+      </c>
+      <c r="G48" s="12">
+        <f t="shared" si="17"/>
+        <v>9.7165534061559311E-3</v>
+      </c>
+      <c r="H48" s="13">
+        <f t="shared" si="23"/>
+        <v>13893.365466960808</v>
+      </c>
+      <c r="I48" s="7">
+        <f t="shared" si="18"/>
+        <v>1.6662501041406315</v>
+      </c>
+      <c r="J48" s="8">
+        <f t="shared" si="19"/>
+        <v>8.3291682286499198E-3</v>
+      </c>
+      <c r="K48" s="9">
+        <f t="shared" si="24"/>
+        <v>16207.351012492365</v>
+      </c>
+      <c r="L48" s="11">
+        <f t="shared" si="20"/>
+        <v>1.6665277893508874</v>
+      </c>
+      <c r="M48" s="12">
+        <f t="shared" si="21"/>
+        <v>2.7773148726775595E-3</v>
+      </c>
+      <c r="N48" s="13">
+        <f t="shared" si="25"/>
+        <v>48607.650337520943</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>21</v>
+      </c>
+      <c r="B49" s="46">
+        <f t="shared" si="13"/>
+        <v>36.746937755187069</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" si="14"/>
+        <v>1.7496209154683153</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="15"/>
+        <v>7.9590507043936793E-3</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="22"/>
+        <v>16960.77183202768</v>
+      </c>
+      <c r="F49" s="11">
+        <f t="shared" si="16"/>
+        <v>1.7494897321614529</v>
+      </c>
+      <c r="G49" s="12">
+        <f t="shared" si="17"/>
+        <v>1.0712500130285048E-2</v>
+      </c>
+      <c r="H49" s="13">
+        <f t="shared" si="23"/>
+        <v>12601.650196792043</v>
+      </c>
+      <c r="I49" s="7">
+        <f t="shared" si="18"/>
+        <v>1.7495626093476631</v>
+      </c>
+      <c r="J49" s="8">
+        <f t="shared" si="19"/>
+        <v>9.1829079720828072E-3</v>
+      </c>
+      <c r="K49" s="9">
+        <f t="shared" si="24"/>
+        <v>14700.47540816231</v>
+      </c>
+      <c r="L49" s="11">
+        <f t="shared" si="20"/>
+        <v>1.7498541788184319</v>
+      </c>
+      <c r="M49" s="12">
+        <f t="shared" si="21"/>
+        <v>3.0619896471285636E-3</v>
+      </c>
+      <c r="N49" s="13">
+        <f t="shared" si="25"/>
+        <v>44088.529897955799</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>22</v>
+      </c>
+      <c r="B50" s="46">
+        <f t="shared" si="13"/>
+        <v>40.329972502291476</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="14"/>
+        <v>1.8329361971572826</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="15"/>
+        <v>8.7351032674077411E-3</v>
+      </c>
+      <c r="E50" s="5">
+        <f t="shared" si="22"/>
+        <v>15453.833115544789</v>
+      </c>
+      <c r="F50" s="11">
+        <f t="shared" si="16"/>
+        <v>1.832798767026284</v>
+      </c>
+      <c r="G50" s="12">
+        <f t="shared" si="17"/>
+        <v>1.1757029621444769E-2</v>
+      </c>
+      <c r="H50" s="13">
+        <f t="shared" si="23"/>
+        <v>11482.04212145903</v>
+      </c>
+      <c r="I50" s="7">
+        <f t="shared" si="18"/>
+        <v>1.8328751145546947</v>
+      </c>
+      <c r="J50" s="8">
+        <f t="shared" si="19"/>
+        <v>1.0078293556658589E-2</v>
+      </c>
+      <c r="K50" s="9">
+        <f t="shared" si="24"/>
+        <v>13394.374803723083</v>
+      </c>
+      <c r="L50" s="11">
+        <f t="shared" si="20"/>
+        <v>1.8331805682859763</v>
+      </c>
+      <c r="M50" s="12">
+        <f t="shared" si="21"/>
+        <v>3.3605509959365909E-3</v>
+      </c>
+      <c r="N50" s="13">
+        <f t="shared" si="25"/>
+        <v>40171.533750056231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>23</v>
+      </c>
+      <c r="B51" s="46">
+        <f t="shared" si="13"/>
+        <v>44.07966002833097</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="14"/>
+        <v>1.9162514788462501</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" si="15"/>
+        <v>9.5472512984689974E-3</v>
+      </c>
+      <c r="E51" s="5">
+        <f t="shared" si="22"/>
+        <v>14139.145515922859</v>
+      </c>
+      <c r="F51" s="11">
+        <f t="shared" si="16"/>
+        <v>1.9161078018911151</v>
+      </c>
+      <c r="G51" s="12">
+        <f t="shared" si="17"/>
+        <v>1.28501418796419E-2</v>
+      </c>
+      <c r="H51" s="13">
+        <f t="shared" si="23"/>
+        <v>10505.270579932001</v>
+      </c>
+      <c r="I51" s="7">
+        <f t="shared" si="18"/>
+        <v>1.9161876197617262</v>
+      </c>
+      <c r="J51" s="8">
+        <f t="shared" si="19"/>
+        <v>1.1015324982384073E-2</v>
+      </c>
+      <c r="K51" s="9">
+        <f t="shared" si="24"/>
+        <v>12254.902939508793</v>
+      </c>
+      <c r="L51" s="11">
+        <f t="shared" si="20"/>
+        <v>1.9165069577535205</v>
+      </c>
+      <c r="M51" s="12">
+        <f t="shared" si="21"/>
+        <v>3.6729989191211791E-3</v>
+      </c>
+      <c r="N51" s="13">
+        <f t="shared" si="25"/>
+        <v>36754.257249492141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="18">
+        <v>24</v>
+      </c>
+      <c r="B52" s="46">
+        <f t="shared" si="13"/>
+        <v>47.99600033330556</v>
+      </c>
+      <c r="C52" s="19">
+        <f t="shared" si="14"/>
+        <v>1.9995667605352174</v>
+      </c>
+      <c r="D52" s="20">
+        <f t="shared" si="15"/>
+        <v>1.0395494797577447E-2</v>
+      </c>
+      <c r="E52" s="21">
+        <f t="shared" si="22"/>
+        <v>12985.34484014366</v>
+      </c>
+      <c r="F52" s="22">
+        <f t="shared" si="16"/>
+        <v>1.9994168367559462</v>
+      </c>
+      <c r="G52" s="23">
+        <f t="shared" si="17"/>
+        <v>1.3991836904863119E-2</v>
+      </c>
+      <c r="H52" s="24">
+        <f t="shared" si="23"/>
+        <v>9648.0329631682071</v>
+      </c>
+      <c r="I52" s="25">
+        <f t="shared" si="18"/>
+        <v>1.9995001249687578</v>
+      </c>
+      <c r="J52" s="26">
+        <f t="shared" si="19"/>
+        <v>1.1994002249253044E-2</v>
+      </c>
+      <c r="K52" s="27">
+        <f t="shared" si="24"/>
+        <v>11254.875703122363</v>
+      </c>
+      <c r="L52" s="22">
+        <f t="shared" si="20"/>
+        <v>1.999833347221065</v>
+      </c>
+      <c r="M52" s="23">
+        <f t="shared" si="21"/>
+        <v>3.9993334166556855E-3</v>
+      </c>
+      <c r="N52" s="24">
+        <f t="shared" si="25"/>
+        <v>33755.175234389542</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>25</v>
+      </c>
+      <c r="B53" s="46">
+        <f t="shared" si="13"/>
+        <v>52.078993417215237</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="14"/>
+        <v>2.0828820422241847</v>
+      </c>
+      <c r="D53" s="4">
+        <f t="shared" si="15"/>
+        <v>1.1279833764733087E-2</v>
+      </c>
+      <c r="E53" s="5">
+        <f t="shared" si="22"/>
+        <v>11967.211484675745</v>
+      </c>
+      <c r="F53" s="11">
+        <f t="shared" si="16"/>
+        <v>2.0827258716207773</v>
+      </c>
+      <c r="G53" s="12">
+        <f t="shared" si="17"/>
+        <v>1.5182114697114942E-2</v>
+      </c>
+      <c r="H53" s="13">
+        <f t="shared" si="23"/>
+        <v>8891.5918988570829</v>
+      </c>
+      <c r="I53" s="7">
+        <f t="shared" si="18"/>
+        <v>2.0828126301757894</v>
+      </c>
+      <c r="J53" s="8">
+        <f t="shared" si="19"/>
+        <v>1.30143253572581E-2</v>
+      </c>
+      <c r="K53" s="9">
+        <f t="shared" si="24"/>
+        <v>10372.434648001012</v>
+      </c>
+      <c r="L53" s="11">
+        <f t="shared" si="20"/>
+        <v>2.0831597366886094</v>
+      </c>
+      <c r="M53" s="12">
+        <f t="shared" si="21"/>
+        <v>4.3395544885531361E-3</v>
+      </c>
+      <c r="N53" s="13">
+        <f t="shared" si="25"/>
+        <v>31108.734216053192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>26</v>
+      </c>
+      <c r="B54" s="46">
+        <f t="shared" si="13"/>
+        <v>56.328639280060003</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="14"/>
+        <v>2.1661973239131522</v>
+      </c>
+      <c r="D54" s="4">
+        <f t="shared" si="15"/>
+        <v>1.2200268199935924E-2</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="22"/>
+        <v>11064.280514677459</v>
+      </c>
+      <c r="F54" s="11">
+        <f t="shared" si="16"/>
+        <v>2.1660349064856081</v>
+      </c>
+      <c r="G54" s="12">
+        <f t="shared" si="17"/>
+        <v>1.6420975256405061E-2</v>
+      </c>
+      <c r="H54" s="13">
+        <f t="shared" si="23"/>
+        <v>8220.7425839997086</v>
+      </c>
+      <c r="I54" s="7">
+        <f t="shared" si="18"/>
+        <v>2.166125135382821</v>
+      </c>
+      <c r="J54" s="8">
+        <f t="shared" si="19"/>
+        <v>1.4076294306406051E-2</v>
+      </c>
+      <c r="K54" s="9">
+        <f t="shared" si="24"/>
+        <v>9589.8423150926283</v>
+      </c>
+      <c r="L54" s="11">
+        <f t="shared" si="20"/>
+        <v>2.1664861261561539</v>
+      </c>
+      <c r="M54" s="12">
+        <f t="shared" si="21"/>
+        <v>4.6936621348212275E-3</v>
+      </c>
+      <c r="N54" s="13">
+        <f t="shared" si="25"/>
+        <v>28761.739548852536</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>27</v>
+      </c>
+      <c r="B55" s="46">
+        <f t="shared" si="13"/>
+        <v>60.744937921839856</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" si="14"/>
+        <v>2.2495126056021197</v>
+      </c>
+      <c r="D55" s="4">
+        <f t="shared" si="15"/>
+        <v>1.3156798103177962E-2</v>
+      </c>
+      <c r="E55" s="5">
+        <f t="shared" si="22"/>
+        <v>10259.805182340406</v>
+      </c>
+      <c r="F55" s="11">
+        <f t="shared" si="16"/>
+        <v>2.2493439413504395</v>
+      </c>
+      <c r="G55" s="12">
+        <f t="shared" si="17"/>
+        <v>1.7708418582710394E-2</v>
+      </c>
+      <c r="H55" s="13">
+        <f t="shared" si="23"/>
+        <v>7623.0427116420879</v>
+      </c>
+      <c r="I55" s="7">
+        <f t="shared" si="18"/>
+        <v>2.2494376405898526</v>
+      </c>
+      <c r="J55" s="8">
+        <f t="shared" si="19"/>
+        <v>1.5179909096704889E-2</v>
+      </c>
+      <c r="K55" s="9">
+        <f t="shared" si="24"/>
+        <v>8892.5838888903181</v>
+      </c>
+      <c r="L55" s="11">
+        <f t="shared" si="20"/>
+        <v>2.2498125156236983</v>
+      </c>
+      <c r="M55" s="12">
+        <f t="shared" si="21"/>
+        <v>5.0616563554528541E-3</v>
+      </c>
+      <c r="N55" s="13">
+        <f t="shared" si="25"/>
+        <v>26670.661296318311</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>28</v>
+      </c>
+      <c r="B56" s="46">
+        <f t="shared" si="13"/>
+        <v>65.327889342554784</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" si="14"/>
+        <v>2.3328278872910873</v>
+      </c>
+      <c r="D56" s="4">
+        <f t="shared" si="15"/>
+        <v>1.4149423474466601E-2</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="22"/>
+        <v>9539.9747805230236</v>
+      </c>
+      <c r="F56" s="11">
+        <f t="shared" si="16"/>
+        <v>2.3326529762152703</v>
+      </c>
+      <c r="G56" s="12">
+        <f t="shared" si="17"/>
+        <v>1.9044444676062307E-2</v>
+      </c>
+      <c r="H56" s="13">
+        <f t="shared" si="23"/>
+        <v>7088.2313606955249</v>
+      </c>
+      <c r="I56" s="7">
+        <f t="shared" si="18"/>
+        <v>2.3327501457968842</v>
+      </c>
+      <c r="J56" s="8">
+        <f t="shared" si="19"/>
+        <v>1.6325169728147213E-2</v>
+      </c>
+      <c r="K56" s="9">
+        <f t="shared" si="24"/>
+        <v>8268.6892920912996</v>
+      </c>
+      <c r="L56" s="11">
+        <f t="shared" si="20"/>
+        <v>2.3331389050912423</v>
+      </c>
+      <c r="M56" s="12">
+        <f t="shared" si="21"/>
+        <v>5.4435371504563054E-3</v>
+      </c>
+      <c r="N56" s="13">
+        <f t="shared" si="25"/>
+        <v>24799.601192574959</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>29</v>
+      </c>
+      <c r="B57" s="46">
+        <f t="shared" si="13"/>
+        <v>70.07749354220482</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" si="14"/>
+        <v>2.4161431689800543</v>
+      </c>
+      <c r="D57" s="4">
+        <f t="shared" si="15"/>
+        <v>1.517814431382759E-2</v>
+      </c>
+      <c r="E57" s="5">
+        <f t="shared" si="22"/>
+        <v>8893.3179285624101</v>
+      </c>
+      <c r="F57" s="11">
+        <f t="shared" si="16"/>
+        <v>2.4159620110801017</v>
+      </c>
+      <c r="G57" s="12">
+        <f t="shared" si="17"/>
+        <v>2.0429053536436835E-2</v>
+      </c>
+      <c r="H57" s="13">
+        <f t="shared" si="23"/>
+        <v>6607.7856561069657</v>
+      </c>
+      <c r="I57" s="7">
+        <f t="shared" si="18"/>
+        <v>2.4160626510039158</v>
+      </c>
+      <c r="J57" s="8">
+        <f t="shared" si="19"/>
+        <v>1.7512076200724442E-2</v>
+      </c>
+      <c r="K57" s="9">
+        <f t="shared" si="24"/>
+        <v>7708.2159988125968</v>
+      </c>
+      <c r="L57" s="11">
+        <f t="shared" si="20"/>
+        <v>2.4164652945587868</v>
+      </c>
+      <c r="M57" s="12">
+        <f t="shared" si="21"/>
+        <v>5.8393045198067151E-3</v>
+      </c>
+      <c r="N57" s="13">
+        <f t="shared" si="25"/>
+        <v>23118.741599288023</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>30</v>
+      </c>
+      <c r="B58" s="46">
+        <f t="shared" si="13"/>
+        <v>74.993750520789931</v>
+      </c>
+      <c r="C58" s="3">
+        <f t="shared" si="14"/>
+        <v>2.4994584506690218</v>
+      </c>
+      <c r="D58" s="4">
+        <f t="shared" si="15"/>
+        <v>1.624296062121032E-2</v>
+      </c>
+      <c r="E58" s="5">
+        <f t="shared" si="22"/>
+        <v>8310.2426976942152</v>
+      </c>
+      <c r="F58" s="11">
+        <f t="shared" si="16"/>
+        <v>2.4992710459449325</v>
+      </c>
+      <c r="G58" s="12">
+        <f t="shared" si="17"/>
+        <v>2.1862245163850842E-2</v>
+      </c>
+      <c r="H58" s="13">
+        <f t="shared" si="23"/>
+        <v>6174.5790964270273</v>
+      </c>
+      <c r="I58" s="7">
+        <f t="shared" si="18"/>
+        <v>2.4993751562109474</v>
+      </c>
+      <c r="J58" s="8">
+        <f t="shared" si="19"/>
+        <v>1.8740628514444562E-2</v>
+      </c>
+      <c r="K58" s="9">
+        <f t="shared" si="24"/>
+        <v>7202.8504500034323</v>
+      </c>
+      <c r="L58" s="11">
+        <f t="shared" si="20"/>
+        <v>2.4997916840263312</v>
+      </c>
+      <c r="M58" s="12">
+        <f t="shared" si="21"/>
+        <v>6.2489584635200685E-3</v>
+      </c>
+      <c r="N58" s="13">
+        <f t="shared" si="25"/>
+        <v>21603.150150024656</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:F3"/>
+    <mergeCell ref="G2:K3"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A31:F32"/>
+    <mergeCell ref="G31:K32"/>
+    <mergeCell ref="C33:N33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="L36:M36"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Comparing Mosfets.xlsx
+++ b/Comparing Mosfets.xlsx
@@ -7,15 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle1 (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="12V" sheetId="1" r:id="rId1"/>
+    <sheet name="24V" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="17">
   <si>
     <t>Voltage</t>
   </si>
@@ -61,18 +61,25 @@
   <si>
     <t>IRFB7430</t>
   </si>
+  <si>
+    <t>2,8 ohm for 12V version</t>
+  </si>
+  <si>
+    <t>12 ohm for 24 V version</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0\ &quot;V&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;A&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00\ &quot;W&quot;"/>
     <numFmt numFmtId="167" formatCode="0\ &quot;K/W&quot;"/>
     <numFmt numFmtId="168" formatCode="0\ &quot;W&quot;"/>
+    <numFmt numFmtId="172" formatCode="0\ \W"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -128,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +163,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -309,31 +322,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -342,13 +356,25 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -651,3302 +677,3545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="8" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="65" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:14" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="62">
         <v>1.3</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-    </row>
-    <row r="4" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+    </row>
+    <row r="4" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="57" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="59" t="s">
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="57" t="s">
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="57"/>
+      <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="F6" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="51"/>
+      <c r="H6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="I6" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="58"/>
+      <c r="K6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="54" t="s">
+      <c r="L6" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="51"/>
+      <c r="N6" s="38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="61">
+      <c r="B7" s="63"/>
+      <c r="C7" s="54">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="15">
+      <c r="D7" s="54"/>
+      <c r="E7" s="15">
         <v>1.05</v>
       </c>
-      <c r="E7" s="56">
+      <c r="F7" s="52">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="16">
+      <c r="G7" s="52"/>
+      <c r="H7" s="16">
         <v>0.45</v>
       </c>
-      <c r="H7" s="60">
+      <c r="I7" s="55">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I7" s="60"/>
-      <c r="J7" s="17">
+      <c r="J7" s="55"/>
+      <c r="K7" s="17">
         <v>0.75</v>
       </c>
-      <c r="K7" s="56">
+      <c r="L7" s="52">
         <v>1E-3</v>
       </c>
-      <c r="L7" s="56"/>
-      <c r="M7" s="39">
+      <c r="M7" s="52"/>
+      <c r="N7" s="39">
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="H8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="38" t="s">
+      <c r="L8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="38" t="s">
+      <c r="M8" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="38" t="s">
+      <c r="N8" s="38" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10</v>
       </c>
-      <c r="B9" s="3">
-        <f t="shared" ref="B9:B35" si="0">$A9/($F$2+B$7)</f>
+      <c r="B9" s="63">
+        <f>A9*F9</f>
+        <v>76.716532412734935</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" ref="C9:C35" si="0">$A9/($G$2+C$7)</f>
         <v>7.6769537847382159</v>
       </c>
-      <c r="C9" s="4">
-        <f t="shared" ref="C9:C29" si="1">($A9-($F$2*B9))*B9</f>
+      <c r="D9" s="4">
+        <f t="shared" ref="D9:D29" si="1">($A9-($G$2*C9))*C9</f>
         <v>0.15323261047381051</v>
       </c>
-      <c r="D9" s="5">
-        <f>((175-40)/C9)-$D$7</f>
+      <c r="E9" s="5">
+        <f>((175-40)/D9)-$E$7</f>
         <v>879.96351000003551</v>
       </c>
-      <c r="E9" s="11">
-        <f t="shared" ref="E9:E35" si="2">$A9/($F$2+E$7)</f>
+      <c r="F9" s="11">
+        <f t="shared" ref="F9:F35" si="2">$A9/($G$2+F$7)</f>
         <v>7.6716532412734937</v>
       </c>
-      <c r="F9" s="12">
-        <f t="shared" ref="F9:F29" si="3">($A9-($F$2*E9))*E9</f>
+      <c r="G9" s="12">
+        <f t="shared" ref="G9:G29" si="3">($A9-($G$2*F9))*F9</f>
         <v>0.20598992209020012</v>
       </c>
-      <c r="G9" s="13">
-        <f>((175-40)/F9)-$G$7</f>
+      <c r="H9" s="13">
+        <f>((175-40)/G9)-$H$7</f>
         <v>654.9218678571342</v>
       </c>
-      <c r="H9" s="7">
-        <f t="shared" ref="H9:H35" si="4">$A9/($F$2+H$7)</f>
+      <c r="I9" s="7">
+        <f t="shared" ref="I9:I35" si="4">$A9/($G$2+I$7)</f>
         <v>7.6745970836531088</v>
       </c>
-      <c r="I9" s="8">
-        <f t="shared" ref="I9:I29" si="5">($A9-($F$2*H9))*H9</f>
+      <c r="J9" s="8">
+        <f t="shared" ref="J9:J29" si="5">($A9-($G$2*I9))*I9</f>
         <v>0.17669832118924272</v>
       </c>
-      <c r="J9" s="9">
-        <f>((175-40)/I9)-$J$7</f>
+      <c r="K9" s="9">
+        <f>((175-40)/J9)-$K$7</f>
         <v>763.26405000003308</v>
       </c>
-      <c r="K9" s="11">
-        <f t="shared" ref="K9:K35" si="6">$A9/($F$2+K$7)</f>
+      <c r="L9" s="11">
+        <f t="shared" ref="L9:L35" si="6">$A9/($G$2+L$7)</f>
         <v>7.6863950807071486</v>
       </c>
-      <c r="L9" s="12">
-        <f t="shared" ref="L9:L29" si="7">($A9-($F$2*K9))*K9</f>
+      <c r="M9" s="12">
+        <f t="shared" ref="M9:M29" si="7">($A9-($G$2*L9))*L9</f>
         <v>5.9080669336720543E-2</v>
       </c>
-      <c r="M9" s="13">
-        <f t="shared" ref="M9:M29" si="8">((175-40)/L9)-$G$7</f>
+      <c r="N9" s="13">
+        <f t="shared" ref="N9:N29" si="8">((175-40)/M9)-$H$7</f>
         <v>2284.5613499999426</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>11</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="63">
+        <f t="shared" ref="B10:B35" si="9">A10*F10</f>
+        <v>92.827004219409275</v>
+      </c>
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>8.4446491632120377</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <f t="shared" si="1"/>
         <v>0.18541145867330622</v>
       </c>
-      <c r="D10" s="5">
-        <f t="shared" ref="D10:D29" si="9">((175-40)/C10)-$D$7</f>
+      <c r="E10" s="5">
+        <f t="shared" ref="E10:E29" si="10">((175-40)/D10)-$E$7</f>
         <v>727.06033884302224</v>
       </c>
-      <c r="E10" s="11">
+      <c r="F10" s="11">
         <f t="shared" si="2"/>
         <v>8.4388185654008439</v>
       </c>
-      <c r="F10" s="12">
+      <c r="G10" s="12">
         <f t="shared" si="3"/>
         <v>0.24924780572913019</v>
       </c>
-      <c r="G10" s="13">
-        <f t="shared" ref="G10:G29" si="10">((175-40)/F10)-$G$7</f>
+      <c r="H10" s="13">
+        <f t="shared" ref="H10:H29" si="11">((175-40)/G10)-$H$7</f>
         <v>541.17964285716164</v>
       </c>
-      <c r="H10" s="7">
+      <c r="I10" s="7">
         <f t="shared" si="4"/>
         <v>8.4420567920184197</v>
       </c>
-      <c r="I10" s="8">
+      <c r="J10" s="8">
         <f t="shared" si="5"/>
         <v>0.21380496863898521</v>
       </c>
-      <c r="J10" s="9">
-        <f t="shared" ref="J10:J29" si="11">((175-40)/I10)-$J$7</f>
+      <c r="K10" s="9">
+        <f t="shared" ref="K10:K29" si="12">((175-40)/J10)-$K$7</f>
         <v>630.66657024795677</v>
       </c>
-      <c r="K10" s="11">
+      <c r="L10" s="11">
         <f t="shared" si="6"/>
         <v>8.4550345887778633</v>
       </c>
-      <c r="L10" s="12">
+      <c r="M10" s="12">
         <f t="shared" si="7"/>
         <v>7.1487609897428847E-2</v>
       </c>
-      <c r="M10" s="13">
+      <c r="N10" s="13">
         <f t="shared" si="8"/>
         <v>1887.9891322314368</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>12</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="67">
+        <f t="shared" si="9"/>
+        <v>110.47180667433832</v>
+      </c>
+      <c r="C11" s="19">
         <f t="shared" si="0"/>
         <v>9.2123445416858587</v>
       </c>
-      <c r="C11" s="20">
+      <c r="D11" s="20">
         <f t="shared" si="1"/>
         <v>0.22065495908229366</v>
       </c>
-      <c r="D11" s="21">
-        <f t="shared" si="9"/>
+      <c r="E11" s="21">
+        <f t="shared" si="10"/>
         <v>610.76493750000657</v>
       </c>
-      <c r="E11" s="22">
+      <c r="F11" s="22">
         <f t="shared" si="2"/>
         <v>9.2059838895281931</v>
       </c>
-      <c r="F11" s="23">
+      <c r="G11" s="23">
         <f t="shared" si="3"/>
         <v>0.29662548780987841</v>
       </c>
-      <c r="G11" s="24">
-        <f t="shared" si="10"/>
+      <c r="H11" s="24">
+        <f t="shared" si="11"/>
         <v>454.66935267858042</v>
       </c>
-      <c r="H11" s="25">
+      <c r="I11" s="25">
         <f t="shared" si="4"/>
         <v>9.2095165003837298</v>
       </c>
-      <c r="I11" s="26">
+      <c r="J11" s="26">
         <f t="shared" si="5"/>
         <v>0.25444558251251276</v>
       </c>
-      <c r="J11" s="62">
-        <f t="shared" si="11"/>
+      <c r="K11" s="49">
+        <f t="shared" si="12"/>
         <v>529.81531250001626</v>
       </c>
-      <c r="K11" s="22">
+      <c r="L11" s="22">
         <f t="shared" si="6"/>
         <v>9.223674096848578</v>
       </c>
-      <c r="L11" s="23">
+      <c r="M11" s="23">
         <f t="shared" si="7"/>
         <v>8.5076163844871017E-2</v>
       </c>
-      <c r="M11" s="24">
+      <c r="N11" s="24">
         <f t="shared" si="8"/>
         <v>1586.3634375000822</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>13</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="63">
+        <f t="shared" si="9"/>
+        <v>129.65093977752204</v>
+      </c>
+      <c r="C12" s="29">
         <f t="shared" si="0"/>
         <v>9.9800399201596814</v>
       </c>
-      <c r="C12" s="30">
+      <c r="D12" s="30">
         <f t="shared" si="1"/>
         <v>0.25896311170074154</v>
       </c>
-      <c r="D12" s="31">
-        <f t="shared" si="9"/>
+      <c r="E12" s="31">
+        <f t="shared" si="10"/>
         <v>520.25976923078667</v>
       </c>
-      <c r="E12" s="32">
+      <c r="F12" s="32">
         <f t="shared" si="2"/>
         <v>9.9731492136555424</v>
       </c>
-      <c r="F12" s="33">
+      <c r="G12" s="33">
         <f t="shared" si="3"/>
         <v>0.34812296833243117</v>
       </c>
-      <c r="G12" s="34">
-        <f t="shared" si="10"/>
+      <c r="H12" s="34">
+        <f t="shared" si="11"/>
         <v>387.34400464919969</v>
       </c>
-      <c r="H12" s="35">
+      <c r="I12" s="35">
         <f t="shared" si="4"/>
         <v>9.9769762087490417</v>
       </c>
-      <c r="I12" s="36">
+      <c r="J12" s="36">
         <f t="shared" si="5"/>
         <v>0.2986201628098078</v>
       </c>
-      <c r="J12" s="37">
-        <f t="shared" si="11"/>
+      <c r="K12" s="37">
+        <f t="shared" si="12"/>
         <v>451.32931952666559</v>
       </c>
-      <c r="K12" s="32">
+      <c r="L12" s="32">
         <f t="shared" si="6"/>
         <v>9.9923136049192927</v>
       </c>
-      <c r="L12" s="33">
+      <c r="M12" s="33">
         <f t="shared" si="7"/>
         <v>9.9846331179047065E-2</v>
       </c>
-      <c r="M12" s="34">
+      <c r="N12" s="34">
         <f t="shared" si="8"/>
         <v>1351.6277218936011</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>14</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="63">
+        <f t="shared" si="9"/>
+        <v>150.36440352896048</v>
+      </c>
+      <c r="C13" s="3">
         <f t="shared" si="0"/>
         <v>10.747735298633502</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <f t="shared" si="1"/>
         <v>0.30033591652866476</v>
       </c>
-      <c r="D13" s="5">
-        <f t="shared" si="9"/>
+      <c r="E13" s="5">
+        <f t="shared" si="10"/>
         <v>448.44668877553403</v>
       </c>
-      <c r="E13" s="11">
+      <c r="F13" s="11">
         <f t="shared" si="2"/>
         <v>10.740314537782892</v>
       </c>
-      <c r="F13" s="12">
+      <c r="G13" s="12">
         <f t="shared" si="3"/>
         <v>0.40374024729678842</v>
       </c>
-      <c r="G13" s="13">
-        <f t="shared" si="10"/>
+      <c r="H13" s="13">
+        <f t="shared" si="11"/>
         <v>333.92340196792878</v>
       </c>
-      <c r="H13" s="7">
+      <c r="I13" s="7">
         <f t="shared" si="4"/>
         <v>10.744435917114352</v>
       </c>
-      <c r="I13" s="8">
+      <c r="J13" s="8">
         <f t="shared" si="5"/>
         <v>0.34632870953092337</v>
       </c>
-      <c r="J13" s="9">
-        <f t="shared" si="11"/>
+      <c r="K13" s="9">
+        <f t="shared" si="12"/>
         <v>389.05308673470216</v>
       </c>
-      <c r="K13" s="11">
+      <c r="L13" s="11">
         <f t="shared" si="6"/>
         <v>10.760953112990009</v>
       </c>
-      <c r="L13" s="12">
+      <c r="M13" s="12">
         <f t="shared" si="7"/>
         <v>0.11579811189993787</v>
       </c>
-      <c r="M13" s="13">
+      <c r="N13" s="13">
         <f t="shared" si="8"/>
         <v>1165.3721173472554</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>15</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="63">
+        <f t="shared" si="9"/>
+        <v>172.61219792865361</v>
+      </c>
+      <c r="C14" s="3">
         <f t="shared" si="0"/>
         <v>11.515430677107323</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <f t="shared" si="1"/>
         <v>0.34477337356608384</v>
       </c>
-      <c r="D14" s="5">
-        <f t="shared" si="9"/>
+      <c r="E14" s="5">
+        <f t="shared" si="10"/>
         <v>390.51156000000418</v>
       </c>
-      <c r="E14" s="11">
+      <c r="F14" s="11">
         <f t="shared" si="2"/>
         <v>11.507479861910241</v>
       </c>
-      <c r="F14" s="12">
+      <c r="G14" s="12">
         <f t="shared" si="3"/>
         <v>0.46347732470295028</v>
       </c>
-      <c r="G14" s="13">
-        <f t="shared" si="10"/>
+      <c r="H14" s="13">
+        <f t="shared" si="11"/>
         <v>290.82638571428186</v>
       </c>
-      <c r="H14" s="7">
+      <c r="I14" s="7">
         <f t="shared" si="4"/>
         <v>11.511895625479664</v>
       </c>
-      <c r="I14" s="8">
+      <c r="J14" s="8">
         <f t="shared" si="5"/>
         <v>0.39757122267578593</v>
       </c>
-      <c r="J14" s="9">
-        <f t="shared" si="11"/>
+      <c r="K14" s="9">
+        <f t="shared" si="12"/>
         <v>338.81180000002342</v>
       </c>
-      <c r="K14" s="11">
+      <c r="L14" s="11">
         <f t="shared" si="6"/>
         <v>11.529592621060724</v>
       </c>
-      <c r="L14" s="12">
+      <c r="M14" s="12">
         <f t="shared" si="7"/>
         <v>0.13293150600760076</v>
       </c>
-      <c r="M14" s="13">
+      <c r="N14" s="13">
         <f t="shared" si="8"/>
         <v>1015.1106000001306</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>16</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="63">
+        <f t="shared" si="9"/>
+        <v>196.39432297660144</v>
+      </c>
+      <c r="C15" s="3">
         <f t="shared" si="0"/>
         <v>12.283126055581146</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="4">
         <f t="shared" si="1"/>
         <v>0.39227548281295926</v>
       </c>
-      <c r="D15" s="5">
-        <f t="shared" si="9"/>
+      <c r="E15" s="5">
+        <f t="shared" si="10"/>
         <v>343.09590234376003</v>
       </c>
-      <c r="E15" s="11">
+      <c r="F15" s="11">
         <f t="shared" si="2"/>
         <v>12.27464518603759</v>
       </c>
-      <c r="F15" s="12">
+      <c r="G15" s="12">
         <f t="shared" si="3"/>
         <v>0.52733420055091673</v>
       </c>
-      <c r="G15" s="13">
-        <f t="shared" si="10"/>
+      <c r="H15" s="13">
+        <f t="shared" si="11"/>
         <v>255.5546358816909</v>
       </c>
-      <c r="H15" s="7">
+      <c r="I15" s="7">
         <f t="shared" si="4"/>
         <v>12.279355333844974</v>
       </c>
-      <c r="I15" s="8">
+      <c r="J15" s="8">
         <f t="shared" si="5"/>
         <v>0.45234770224447446</v>
       </c>
-      <c r="J15" s="9">
-        <f t="shared" si="11"/>
+      <c r="K15" s="9">
+        <f t="shared" si="12"/>
         <v>297.69298828125432</v>
       </c>
-      <c r="K15" s="11">
+      <c r="L15" s="11">
         <f t="shared" si="6"/>
         <v>12.298232129131438</v>
       </c>
-      <c r="L15" s="12">
+      <c r="M15" s="12">
         <f t="shared" si="7"/>
         <v>0.15124651350197837</v>
       </c>
-      <c r="M15" s="13">
+      <c r="N15" s="13">
         <f t="shared" si="8"/>
         <v>892.1325585938821</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>17</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="63">
+        <f t="shared" si="9"/>
+        <v>221.71077867280397</v>
+      </c>
+      <c r="C16" s="3">
         <f t="shared" si="0"/>
         <v>13.050821434054967</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16" s="4">
         <f t="shared" si="1"/>
         <v>0.44284224426931007</v>
       </c>
-      <c r="D16" s="5">
-        <f t="shared" si="9"/>
+      <c r="E16" s="5">
+        <f t="shared" si="10"/>
         <v>303.79896539793771</v>
       </c>
-      <c r="E16" s="11">
+      <c r="F16" s="11">
         <f t="shared" si="2"/>
         <v>13.04181051016494</v>
       </c>
-      <c r="F16" s="12">
+      <c r="G16" s="12">
         <f t="shared" si="3"/>
         <v>0.59531087484066447</v>
       </c>
-      <c r="G16" s="13">
-        <f t="shared" si="10"/>
+      <c r="H16" s="13">
+        <f t="shared" si="11"/>
         <v>226.32227261493063</v>
       </c>
-      <c r="H16" s="7">
+      <c r="I16" s="7">
         <f t="shared" si="4"/>
         <v>13.046815042210284</v>
       </c>
-      <c r="I16" s="8">
+      <c r="J16" s="8">
         <f t="shared" si="5"/>
         <v>0.51065814823692768</v>
       </c>
-      <c r="J16" s="9">
-        <f t="shared" si="11"/>
+      <c r="K16" s="9">
+        <f t="shared" si="12"/>
         <v>263.61472318339406</v>
       </c>
-      <c r="K16" s="11">
+      <c r="L16" s="11">
         <f t="shared" si="6"/>
         <v>13.066871637202153</v>
       </c>
-      <c r="L16" s="12">
+      <c r="M16" s="12">
         <f t="shared" si="7"/>
         <v>0.17074313438308988</v>
       </c>
-      <c r="M16" s="13">
+      <c r="N16" s="13">
         <f t="shared" si="8"/>
         <v>790.21136678213736</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>18</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="63">
+        <f t="shared" si="9"/>
+        <v>248.56156501726119</v>
+      </c>
+      <c r="C17" s="3">
         <f t="shared" si="0"/>
         <v>13.818516812528788</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <f t="shared" si="1"/>
         <v>0.49647365793516074</v>
       </c>
-      <c r="D17" s="5">
-        <f t="shared" si="9"/>
+      <c r="E17" s="5">
+        <f t="shared" si="10"/>
         <v>270.8677500000029</v>
       </c>
-      <c r="E17" s="11">
+      <c r="F17" s="11">
         <f t="shared" si="2"/>
         <v>13.808975834292289</v>
       </c>
-      <c r="F17" s="12">
+      <c r="G17" s="12">
         <f t="shared" si="3"/>
         <v>0.66740734757223863</v>
       </c>
-      <c r="G17" s="13">
-        <f t="shared" si="10"/>
+      <c r="H17" s="13">
+        <f t="shared" si="11"/>
         <v>201.82526785714316</v>
       </c>
-      <c r="H17" s="7">
+      <c r="I17" s="7">
         <f t="shared" si="4"/>
         <v>13.814274750575596</v>
       </c>
-      <c r="I17" s="8">
+      <c r="J17" s="8">
         <f t="shared" si="5"/>
         <v>0.57250256065314153</v>
       </c>
-      <c r="J17" s="9">
-        <f t="shared" si="11"/>
+      <c r="K17" s="9">
+        <f t="shared" si="12"/>
         <v>235.05680555556779</v>
       </c>
-      <c r="K17" s="11">
+      <c r="L17" s="11">
         <f t="shared" si="6"/>
         <v>13.835511145272868</v>
       </c>
-      <c r="L17" s="12">
+      <c r="M17" s="12">
         <f t="shared" si="7"/>
         <v>0.19142136865093523</v>
       </c>
-      <c r="M17" s="13">
+      <c r="N17" s="13">
         <f t="shared" si="8"/>
         <v>704.80041666679369</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>19</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="63">
+        <f t="shared" si="9"/>
+        <v>276.94668200997313</v>
+      </c>
+      <c r="C18" s="3">
         <f t="shared" si="0"/>
         <v>14.586212191002611</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <f t="shared" si="1"/>
         <v>0.55316972381043783</v>
       </c>
-      <c r="D18" s="5">
-        <f t="shared" si="9"/>
+      <c r="E18" s="5">
+        <f t="shared" si="10"/>
         <v>242.99806371192918</v>
       </c>
-      <c r="E18" s="11">
+      <c r="F18" s="11">
         <f t="shared" si="2"/>
         <v>14.576141158419638</v>
       </c>
-      <c r="F18" s="12">
+      <c r="G18" s="12">
         <f t="shared" si="3"/>
         <v>0.74362361874561733</v>
       </c>
-      <c r="G18" s="13">
-        <f t="shared" si="10"/>
+      <c r="H18" s="13">
+        <f t="shared" si="11"/>
         <v>181.09345370003842</v>
       </c>
-      <c r="H18" s="7">
+      <c r="I18" s="7">
         <f t="shared" si="4"/>
         <v>14.581734458940906</v>
       </c>
-      <c r="I18" s="8">
+      <c r="J18" s="8">
         <f t="shared" si="5"/>
         <v>0.63788093949318947</v>
       </c>
-      <c r="J18" s="9">
-        <f t="shared" si="11"/>
+      <c r="K18" s="9">
+        <f t="shared" si="12"/>
         <v>210.88824099723138</v>
       </c>
-      <c r="K18" s="11">
+      <c r="L18" s="11">
         <f t="shared" si="6"/>
         <v>14.604150653343583</v>
       </c>
-      <c r="L18" s="12">
+      <c r="M18" s="12">
         <f t="shared" si="7"/>
         <v>0.21328121630551447</v>
       </c>
-      <c r="M18" s="13">
+      <c r="N18" s="13">
         <f t="shared" si="8"/>
         <v>632.5171329641114</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>20</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="63">
+        <f t="shared" si="9"/>
+        <v>306.86612965093974</v>
+      </c>
+      <c r="C19" s="3">
         <f t="shared" si="0"/>
         <v>15.353907569476432</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D19" s="4">
         <f t="shared" si="1"/>
         <v>0.61293044189524204</v>
       </c>
-      <c r="D19" s="5">
-        <f t="shared" si="9"/>
+      <c r="E19" s="5">
+        <f t="shared" si="10"/>
         <v>219.20337750000886</v>
       </c>
-      <c r="E19" s="11">
+      <c r="F19" s="11">
         <f t="shared" si="2"/>
         <v>15.343306482546987</v>
       </c>
-      <c r="F19" s="12">
+      <c r="G19" s="12">
         <f t="shared" si="3"/>
         <v>0.82395968836080047</v>
       </c>
-      <c r="G19" s="13">
-        <f t="shared" si="10"/>
+      <c r="H19" s="13">
+        <f t="shared" si="11"/>
         <v>163.39296696428357</v>
       </c>
-      <c r="H19" s="7">
+      <c r="I19" s="7">
         <f t="shared" si="4"/>
         <v>15.349194167306218</v>
       </c>
-      <c r="I19" s="8">
+      <c r="J19" s="8">
         <f t="shared" si="5"/>
         <v>0.7067932847569709</v>
       </c>
-      <c r="J19" s="9">
-        <f t="shared" si="11"/>
+      <c r="K19" s="9">
+        <f t="shared" si="12"/>
         <v>190.25351250000827</v>
       </c>
-      <c r="K19" s="11">
+      <c r="L19" s="11">
         <f t="shared" si="6"/>
         <v>15.372790161414297</v>
       </c>
-      <c r="L19" s="12">
+      <c r="M19" s="12">
         <f t="shared" si="7"/>
         <v>0.23632267734688217</v>
       </c>
-      <c r="M19" s="13">
+      <c r="N19" s="13">
         <f t="shared" si="8"/>
         <v>570.80283749998557</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>21</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="63">
+        <f t="shared" si="9"/>
+        <v>338.31990794016104</v>
+      </c>
+      <c r="C20" s="3">
         <f t="shared" si="0"/>
         <v>16.121602947950255</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
         <f t="shared" si="1"/>
         <v>0.67575581218946712</v>
       </c>
-      <c r="D20" s="5">
-        <f t="shared" si="9"/>
+      <c r="E20" s="5">
+        <f t="shared" si="10"/>
         <v>198.72630612246803</v>
       </c>
-      <c r="E20" s="11">
+      <c r="F20" s="11">
         <f t="shared" si="2"/>
         <v>16.110471806674337</v>
       </c>
-      <c r="F20" s="12">
+      <c r="G20" s="12">
         <f t="shared" si="3"/>
         <v>0.90841555641778826</v>
       </c>
-      <c r="G20" s="13">
-        <f t="shared" si="10"/>
+      <c r="H20" s="13">
+        <f t="shared" si="11"/>
         <v>148.16040087463267</v>
       </c>
-      <c r="H20" s="7">
+      <c r="I20" s="7">
         <f t="shared" si="4"/>
         <v>16.116653875671528</v>
       </c>
-      <c r="I20" s="8">
+      <c r="J20" s="8">
         <f t="shared" si="5"/>
         <v>0.77923959644459184</v>
       </c>
-      <c r="J20" s="9">
-        <f t="shared" si="11"/>
+      <c r="K20" s="9">
+        <f t="shared" si="12"/>
         <v>172.49581632653113</v>
       </c>
-      <c r="K20" s="11">
+      <c r="L20" s="11">
         <f t="shared" si="6"/>
         <v>16.141429669485014</v>
       </c>
-      <c r="L20" s="12">
+      <c r="M20" s="12">
         <f t="shared" si="7"/>
         <v>0.26054575177487455</v>
       </c>
-      <c r="M20" s="13">
+      <c r="N20" s="13">
         <f t="shared" si="8"/>
         <v>517.69316326541832</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>22</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="63">
+        <f t="shared" si="9"/>
+        <v>371.3080168776371</v>
+      </c>
+      <c r="C21" s="3">
         <f t="shared" si="0"/>
         <v>16.889298326424075</v>
       </c>
-      <c r="C21" s="4">
+      <c r="D21" s="4">
         <f t="shared" si="1"/>
         <v>0.74164583469322487</v>
       </c>
-      <c r="D21" s="5">
-        <f t="shared" si="9"/>
+      <c r="E21" s="5">
+        <f t="shared" si="10"/>
         <v>180.97758471075554</v>
       </c>
-      <c r="E21" s="11">
+      <c r="F21" s="11">
         <f t="shared" si="2"/>
         <v>16.877637130801688</v>
       </c>
-      <c r="F21" s="12">
+      <c r="G21" s="12">
         <f t="shared" si="3"/>
         <v>0.99699122291652076</v>
       </c>
-      <c r="G21" s="13">
-        <f t="shared" si="10"/>
+      <c r="H21" s="13">
+        <f t="shared" si="11"/>
         <v>134.95741071429043</v>
       </c>
-      <c r="H21" s="7">
+      <c r="I21" s="7">
         <f t="shared" si="4"/>
         <v>16.884113584036839</v>
       </c>
-      <c r="I21" s="8">
+      <c r="J21" s="8">
         <f t="shared" si="5"/>
         <v>0.85521987455594084</v>
       </c>
-      <c r="J21" s="9">
-        <f t="shared" si="11"/>
+      <c r="K21" s="9">
+        <f t="shared" si="12"/>
         <v>157.10414256198919</v>
       </c>
-      <c r="K21" s="11">
+      <c r="L21" s="11">
         <f t="shared" si="6"/>
         <v>16.910069177555727</v>
       </c>
-      <c r="L21" s="12">
+      <c r="M21" s="12">
         <f t="shared" si="7"/>
         <v>0.28595043958971539</v>
       </c>
-      <c r="M21" s="13">
+      <c r="N21" s="13">
         <f t="shared" si="8"/>
         <v>471.65978305785922</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>23</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="63">
+        <f t="shared" si="9"/>
+        <v>405.8304564633678</v>
+      </c>
+      <c r="C22" s="3">
         <f t="shared" si="0"/>
         <v>17.656993704897896</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
         <f t="shared" si="1"/>
         <v>0.81060050940646067</v>
       </c>
-      <c r="D22" s="5">
-        <f t="shared" si="9"/>
+      <c r="E22" s="5">
+        <f t="shared" si="10"/>
         <v>165.49319659735957</v>
       </c>
-      <c r="E22" s="11">
+      <c r="F22" s="11">
         <f t="shared" si="2"/>
         <v>17.644802454929035</v>
       </c>
-      <c r="F22" s="12">
+      <c r="G22" s="12">
         <f t="shared" si="3"/>
         <v>1.0896866878571774</v>
       </c>
-      <c r="G22" s="13">
-        <f t="shared" si="10"/>
+      <c r="H22" s="13">
+        <f t="shared" si="11"/>
         <v>123.43882190115745</v>
       </c>
-      <c r="H22" s="7">
+      <c r="I22" s="7">
         <f t="shared" si="4"/>
         <v>17.651573292402151</v>
       </c>
-      <c r="I22" s="8">
+      <c r="J22" s="8">
         <f t="shared" si="5"/>
         <v>0.93473411909107218</v>
       </c>
-      <c r="J22" s="9">
-        <f t="shared" si="11"/>
+      <c r="K22" s="9">
+        <f t="shared" si="12"/>
         <v>143.67609640832723</v>
       </c>
-      <c r="K22" s="11">
+      <c r="L22" s="11">
         <f t="shared" si="6"/>
         <v>17.678708685626443</v>
       </c>
-      <c r="L22" s="12">
+      <c r="M22" s="12">
         <f t="shared" si="7"/>
         <v>0.31253674079117005</v>
       </c>
-      <c r="M22" s="13">
+      <c r="N22" s="13">
         <f t="shared" si="8"/>
         <v>431.4992155010471</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>24</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="67">
+        <f t="shared" si="9"/>
+        <v>441.8872266973533</v>
+      </c>
+      <c r="C23" s="19">
         <f t="shared" si="0"/>
         <v>18.424689083371717</v>
       </c>
-      <c r="C23" s="20">
+      <c r="D23" s="20">
         <f t="shared" si="1"/>
         <v>0.88261983632917462</v>
       </c>
-      <c r="D23" s="21">
-        <f t="shared" si="9"/>
+      <c r="E23" s="21">
+        <f t="shared" si="10"/>
         <v>151.90373437500162</v>
       </c>
-      <c r="E23" s="22">
+      <c r="F23" s="22">
         <f t="shared" si="2"/>
         <v>18.411967779056386</v>
       </c>
-      <c r="F23" s="23">
+      <c r="G23" s="23">
         <f t="shared" si="3"/>
         <v>1.1865019512395136</v>
       </c>
-      <c r="G23" s="24">
-        <f t="shared" si="10"/>
+      <c r="H23" s="24">
+        <f t="shared" si="11"/>
         <v>113.3298381696451</v>
       </c>
-      <c r="H23" s="25">
+      <c r="I23" s="25">
         <f t="shared" si="4"/>
         <v>18.41903300076746</v>
       </c>
-      <c r="I23" s="26">
+      <c r="J23" s="26">
         <f t="shared" si="5"/>
         <v>1.017782330050051</v>
       </c>
-      <c r="J23" s="62">
-        <f t="shared" si="11"/>
+      <c r="K23" s="49">
+        <f t="shared" si="12"/>
         <v>131.89132812500407</v>
       </c>
-      <c r="K23" s="22">
+      <c r="L23" s="22">
         <f t="shared" si="6"/>
         <v>18.447348193697156</v>
       </c>
-      <c r="L23" s="23">
+      <c r="M23" s="23">
         <f t="shared" si="7"/>
         <v>0.34030465537948407</v>
       </c>
-      <c r="M23" s="24">
+      <c r="N23" s="24">
         <f t="shared" si="8"/>
         <v>396.25335937502058</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>25</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="63">
+        <f t="shared" si="9"/>
+        <v>479.47832757959333</v>
+      </c>
+      <c r="C24" s="3">
         <f t="shared" si="0"/>
         <v>19.192384461845538</v>
       </c>
-      <c r="C24" s="4">
+      <c r="D24" s="4">
         <f t="shared" si="1"/>
         <v>0.95770381546136674</v>
       </c>
-      <c r="D24" s="5">
-        <f t="shared" si="9"/>
+      <c r="E24" s="5">
+        <f t="shared" si="10"/>
         <v>139.91216159999814</v>
       </c>
-      <c r="E24" s="11">
+      <c r="F24" s="11">
         <f t="shared" si="2"/>
         <v>19.179133103183734</v>
       </c>
-      <c r="F24" s="12">
+      <c r="G24" s="12">
         <f t="shared" si="3"/>
         <v>1.2874370130637849</v>
       </c>
-      <c r="G24" s="13">
-        <f t="shared" si="10"/>
+      <c r="H24" s="13">
+        <f t="shared" si="11"/>
         <v>104.40949885713869</v>
       </c>
-      <c r="H24" s="7">
+      <c r="I24" s="7">
         <f t="shared" si="4"/>
         <v>19.186492709132771</v>
       </c>
-      <c r="I24" s="8">
+      <c r="J24" s="8">
         <f t="shared" si="5"/>
         <v>1.1043645074327499</v>
       </c>
-      <c r="J24" s="9">
-        <f t="shared" si="11"/>
+      <c r="K24" s="9">
+        <f t="shared" si="12"/>
         <v>121.49224800000719</v>
       </c>
-      <c r="K24" s="11">
+      <c r="L24" s="11">
         <f t="shared" si="6"/>
         <v>19.215987701767872</v>
       </c>
-      <c r="L24" s="12">
+      <c r="M24" s="12">
         <f t="shared" si="7"/>
         <v>0.36925418335446925</v>
       </c>
-      <c r="M24" s="13">
+      <c r="N24" s="13">
         <f t="shared" si="8"/>
         <v>365.15181600002455</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>26</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="63">
+        <f t="shared" si="9"/>
+        <v>518.60375911008816</v>
+      </c>
+      <c r="C25" s="3">
         <f t="shared" si="0"/>
         <v>19.960079840319363</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D25" s="4">
         <f t="shared" si="1"/>
         <v>1.0358524468029662</v>
       </c>
-      <c r="D25" s="5">
-        <f t="shared" si="9"/>
+      <c r="E25" s="5">
+        <f t="shared" si="10"/>
         <v>129.27744230769665</v>
       </c>
-      <c r="E25" s="11">
+      <c r="F25" s="11">
         <f t="shared" si="2"/>
         <v>19.946298427311085</v>
       </c>
-      <c r="F25" s="12">
+      <c r="G25" s="12">
         <f t="shared" si="3"/>
         <v>1.3924918733297247</v>
       </c>
-      <c r="G25" s="13">
-        <f t="shared" si="10"/>
+      <c r="H25" s="13">
+        <f t="shared" si="11"/>
         <v>96.498501162299917</v>
       </c>
-      <c r="H25" s="7">
+      <c r="I25" s="7">
         <f t="shared" si="4"/>
         <v>19.953952417498083</v>
       </c>
-      <c r="I25" s="8">
+      <c r="J25" s="8">
         <f t="shared" si="5"/>
         <v>1.1944806512392312</v>
       </c>
-      <c r="J25" s="9">
-        <f t="shared" si="11"/>
+      <c r="K25" s="9">
+        <f t="shared" si="12"/>
         <v>112.2698298816664</v>
       </c>
-      <c r="K25" s="11">
+      <c r="L25" s="11">
         <f t="shared" si="6"/>
         <v>19.984627209838585</v>
       </c>
-      <c r="L25" s="12">
+      <c r="M25" s="12">
         <f t="shared" si="7"/>
         <v>0.39938532471618826</v>
       </c>
-      <c r="M25" s="13">
+      <c r="N25" s="13">
         <f t="shared" si="8"/>
         <v>337.5694304734003</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>27</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="63">
+        <f t="shared" si="9"/>
+        <v>559.26352128883764</v>
+      </c>
+      <c r="C26" s="3">
         <f t="shared" si="0"/>
         <v>20.727775218793184</v>
       </c>
-      <c r="C26" s="4">
+      <c r="D26" s="4">
         <f t="shared" si="1"/>
         <v>1.1170657303541118</v>
       </c>
-      <c r="D26" s="5">
-        <f t="shared" si="9"/>
+      <c r="E26" s="5">
+        <f t="shared" si="10"/>
         <v>119.80233333333462</v>
       </c>
-      <c r="E26" s="11">
+      <c r="F26" s="11">
         <f t="shared" si="2"/>
         <v>20.713463751438432</v>
       </c>
-      <c r="F26" s="12">
+      <c r="G26" s="12">
         <f t="shared" si="3"/>
         <v>1.5016665320376104</v>
       </c>
-      <c r="G26" s="13">
-        <f t="shared" si="10"/>
+      <c r="H26" s="13">
+        <f t="shared" si="11"/>
         <v>89.450119047614777</v>
       </c>
-      <c r="H26" s="7">
+      <c r="I26" s="7">
         <f t="shared" si="4"/>
         <v>20.721412125863392</v>
       </c>
-      <c r="I26" s="8">
+      <c r="J26" s="8">
         <f t="shared" si="5"/>
         <v>1.288130761469642</v>
       </c>
-      <c r="J26" s="9">
-        <f t="shared" si="11"/>
+      <c r="K26" s="9">
+        <f t="shared" si="12"/>
         <v>104.05302469135748</v>
       </c>
-      <c r="K26" s="11">
+      <c r="L26" s="11">
         <f t="shared" si="6"/>
         <v>20.753266717909302</v>
       </c>
-      <c r="L26" s="12">
+      <c r="M26" s="12">
         <f t="shared" si="7"/>
         <v>0.43069807946464117</v>
       </c>
-      <c r="M26" s="13">
+      <c r="N26" s="13">
         <f t="shared" si="8"/>
         <v>312.99462962965924</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>28</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="63">
+        <f t="shared" si="9"/>
+        <v>601.45761411584192</v>
+      </c>
+      <c r="C27" s="3">
         <f t="shared" si="0"/>
         <v>21.495470597267005</v>
       </c>
-      <c r="C27" s="4">
+      <c r="D27" s="4">
         <f t="shared" si="1"/>
         <v>1.201343666114659</v>
       </c>
-      <c r="D27" s="5">
-        <f t="shared" si="9"/>
+      <c r="E27" s="5">
+        <f t="shared" si="10"/>
         <v>111.32417219388351</v>
       </c>
-      <c r="E27" s="11">
+      <c r="F27" s="11">
         <f t="shared" si="2"/>
         <v>21.480629075565783</v>
       </c>
-      <c r="F27" s="12">
+      <c r="G27" s="12">
         <f t="shared" si="3"/>
         <v>1.6149609891871537</v>
       </c>
-      <c r="G27" s="13">
-        <f t="shared" si="10"/>
+      <c r="H27" s="13">
+        <f t="shared" si="11"/>
         <v>83.14335049198219</v>
       </c>
-      <c r="H27" s="7">
+      <c r="I27" s="7">
         <f t="shared" si="4"/>
         <v>21.488871834228704</v>
       </c>
-      <c r="I27" s="8">
+      <c r="J27" s="8">
         <f t="shared" si="5"/>
         <v>1.3853148381236935</v>
       </c>
-      <c r="J27" s="9">
-        <f t="shared" si="11"/>
+      <c r="K27" s="9">
+        <f t="shared" si="12"/>
         <v>96.700771683675541</v>
       </c>
-      <c r="K27" s="11">
+      <c r="L27" s="11">
         <f t="shared" si="6"/>
         <v>21.521906225980018</v>
       </c>
-      <c r="L27" s="12">
+      <c r="M27" s="12">
         <f t="shared" si="7"/>
         <v>0.46319244759975148</v>
       </c>
-      <c r="M27" s="13">
+      <c r="N27" s="13">
         <f t="shared" si="8"/>
         <v>291.00552933681388</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>29</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="63">
+        <f t="shared" si="9"/>
+        <v>645.18603759110078</v>
+      </c>
+      <c r="C28" s="3">
         <f t="shared" si="0"/>
         <v>22.263165975740826</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D28" s="4">
         <f t="shared" si="1"/>
         <v>1.2886862540847581</v>
       </c>
-      <c r="D28" s="5">
-        <f t="shared" si="9"/>
+      <c r="E28" s="5">
+        <f t="shared" si="10"/>
         <v>103.70784898930172</v>
       </c>
-      <c r="E28" s="11">
+      <c r="F28" s="11">
         <f t="shared" si="2"/>
         <v>22.247794399693131</v>
       </c>
-      <c r="F28" s="12">
+      <c r="G28" s="12">
         <f t="shared" si="3"/>
         <v>1.7323752447786542</v>
       </c>
-      <c r="G28" s="13">
-        <f t="shared" si="10"/>
+      <c r="H28" s="13">
+        <f t="shared" si="11"/>
         <v>77.477689400369471</v>
       </c>
-      <c r="H28" s="7">
+      <c r="I28" s="7">
         <f t="shared" si="4"/>
         <v>22.256331542594015</v>
       </c>
-      <c r="I28" s="8">
+      <c r="J28" s="8">
         <f t="shared" si="5"/>
         <v>1.4860328812015273</v>
       </c>
-      <c r="J28" s="9">
-        <f t="shared" si="11"/>
+      <c r="K28" s="9">
+        <f t="shared" si="12"/>
         <v>90.095903686092171</v>
       </c>
-      <c r="K28" s="11">
+      <c r="L28" s="11">
         <f t="shared" si="6"/>
         <v>22.290545734050731</v>
       </c>
-      <c r="L28" s="12">
+      <c r="M28" s="12">
         <f t="shared" si="7"/>
         <v>0.4968684291217485</v>
       </c>
-      <c r="M28" s="13">
+      <c r="N28" s="13">
         <f t="shared" si="8"/>
         <v>271.25170630205349</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="63">
+        <f t="shared" si="9"/>
+        <v>690.44879171461446</v>
+      </c>
+      <c r="C29" s="3">
         <f t="shared" si="0"/>
         <v>23.030861354214647</v>
       </c>
-      <c r="C29" s="4">
+      <c r="D29" s="4">
         <f t="shared" si="1"/>
         <v>1.3790934942643354</v>
       </c>
-      <c r="D29" s="5">
-        <f t="shared" si="9"/>
+      <c r="E29" s="5">
+        <f t="shared" si="10"/>
         <v>96.840390000001051</v>
       </c>
-      <c r="E29" s="11">
+      <c r="F29" s="11">
         <f t="shared" si="2"/>
         <v>23.014959723820482</v>
       </c>
-      <c r="F29" s="12">
+      <c r="G29" s="12">
         <f t="shared" si="3"/>
         <v>1.8539092988118011</v>
       </c>
-      <c r="G29" s="13">
-        <f t="shared" si="10"/>
+      <c r="H29" s="13">
+        <f t="shared" si="11"/>
         <v>72.369096428570458</v>
       </c>
-      <c r="H29" s="7">
+      <c r="I29" s="7">
         <f t="shared" si="4"/>
         <v>23.023791250959327</v>
       </c>
-      <c r="I29" s="8">
+      <c r="J29" s="8">
         <f t="shared" si="5"/>
         <v>1.5902848907031437</v>
       </c>
-      <c r="J29" s="9">
-        <f t="shared" si="11"/>
+      <c r="K29" s="9">
+        <f t="shared" si="12"/>
         <v>84.140450000005856</v>
       </c>
-      <c r="K29" s="11">
+      <c r="L29" s="11">
         <f t="shared" si="6"/>
         <v>23.059185242121448</v>
       </c>
-      <c r="L29" s="12">
+      <c r="M29" s="12">
         <f t="shared" si="7"/>
         <v>0.53172602403040303</v>
       </c>
-      <c r="M29" s="13">
+      <c r="N29" s="13">
         <f t="shared" si="8"/>
         <v>253.44015000003267</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>31</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="63">
+        <f t="shared" si="9"/>
+        <v>737.24587648638271</v>
+      </c>
+      <c r="C30" s="3">
         <f t="shared" si="0"/>
         <v>23.798556732688471</v>
       </c>
-      <c r="C30" s="4">
-        <f t="shared" ref="C30:C35" si="12">($A30-($F$2*B30))*B30</f>
+      <c r="D30" s="4">
+        <f t="shared" ref="D30:D35" si="13">($A30-($G$2*C30))*C30</f>
         <v>1.4725653866533064</v>
       </c>
-      <c r="D30" s="5">
-        <f t="shared" ref="D30:D35" si="13">((175-40)/C30)-$D$7</f>
+      <c r="E30" s="5">
+        <f t="shared" ref="E30:E35" si="14">((175-40)/D30)-$E$7</f>
         <v>90.626744016653802</v>
       </c>
-      <c r="E30" s="11">
+      <c r="F30" s="11">
         <f t="shared" si="2"/>
         <v>23.782125047947829</v>
       </c>
-      <c r="F30" s="12">
-        <f t="shared" ref="F30:F35" si="14">($A30-($F$2*E30))*E30</f>
+      <c r="G30" s="12">
+        <f t="shared" ref="G30:G35" si="15">($A30-($G$2*F30))*F30</f>
         <v>1.9795631512869161</v>
       </c>
-      <c r="G30" s="13">
-        <f t="shared" ref="G30:G35" si="15">((175-40)/F30)-$G$7</f>
+      <c r="H30" s="13">
+        <f t="shared" ref="H30:H35" si="16">((175-40)/G30)-$H$7</f>
         <v>67.746864501259452</v>
       </c>
-      <c r="H30" s="7">
+      <c r="I30" s="7">
         <f t="shared" si="4"/>
         <v>23.791250959324636</v>
       </c>
-      <c r="I30" s="8">
-        <f t="shared" ref="I30:I35" si="16">($A30-($F$2*H30))*H30</f>
+      <c r="J30" s="8">
+        <f t="shared" ref="J30:J35" si="17">($A30-($G$2*I30))*I30</f>
         <v>1.6980708666287112</v>
       </c>
-      <c r="J30" s="9">
-        <f t="shared" ref="J30:J35" si="17">((175-40)/I30)-$J$7</f>
+      <c r="K30" s="9">
+        <f t="shared" ref="K30:K35" si="18">((175-40)/J30)-$K$7</f>
         <v>78.751982310092941</v>
       </c>
-      <c r="K30" s="11">
+      <c r="L30" s="11">
         <f t="shared" si="6"/>
         <v>23.827824750192161</v>
       </c>
-      <c r="L30" s="12">
-        <f t="shared" ref="L30:L35" si="18">($A30-($F$2*K30))*K30</f>
+      <c r="M30" s="12">
+        <f t="shared" ref="M30:M35" si="19">($A30-($G$2*L30))*L30</f>
         <v>0.56776523232579124</v>
       </c>
-      <c r="M30" s="13">
-        <f t="shared" ref="M30:M35" si="19">((175-40)/L30)-$G$7</f>
+      <c r="N30" s="13">
+        <f t="shared" ref="N30:N35" si="20">((175-40)/M30)-$H$7</f>
         <v>237.32433402708818</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>32</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="63">
+        <f t="shared" si="9"/>
+        <v>785.57729190640578</v>
+      </c>
+      <c r="C31" s="3">
         <f t="shared" si="0"/>
         <v>24.566252111162292</v>
       </c>
-      <c r="C31" s="4">
-        <f t="shared" si="12"/>
+      <c r="D31" s="4">
+        <f t="shared" si="13"/>
         <v>1.5691019312518371</v>
       </c>
-      <c r="D31" s="5">
-        <f t="shared" si="13"/>
+      <c r="E31" s="5">
+        <f t="shared" si="14"/>
         <v>84.986475585940013</v>
       </c>
-      <c r="E31" s="11">
+      <c r="F31" s="11">
         <f t="shared" si="2"/>
         <v>24.54929037207518</v>
       </c>
-      <c r="F31" s="12">
-        <f t="shared" si="14"/>
+      <c r="G31" s="12">
+        <f t="shared" si="15"/>
         <v>2.1093368022036669</v>
       </c>
-      <c r="G31" s="13">
-        <f t="shared" si="15"/>
+      <c r="H31" s="13">
+        <f t="shared" si="16"/>
         <v>63.551158970422719</v>
       </c>
-      <c r="H31" s="7">
+      <c r="I31" s="7">
         <f t="shared" si="4"/>
         <v>24.558710667689947</v>
       </c>
-      <c r="I31" s="8">
-        <f t="shared" si="16"/>
+      <c r="J31" s="8">
+        <f t="shared" si="17"/>
         <v>1.8093908089778978</v>
       </c>
-      <c r="J31" s="9">
-        <f t="shared" si="17"/>
+      <c r="K31" s="9">
+        <f t="shared" si="18"/>
         <v>73.860747070313579</v>
       </c>
-      <c r="K31" s="11">
+      <c r="L31" s="11">
         <f t="shared" si="6"/>
         <v>24.596464258262877</v>
       </c>
-      <c r="L31" s="12">
-        <f t="shared" si="18"/>
+      <c r="M31" s="12">
+        <f t="shared" si="19"/>
         <v>0.6049860540079135</v>
       </c>
-      <c r="M31" s="13">
-        <f t="shared" si="19"/>
+      <c r="N31" s="13">
+        <f t="shared" si="20"/>
         <v>222.69563964847055</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>33</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="63">
+        <f t="shared" si="9"/>
+        <v>835.44303797468342</v>
+      </c>
+      <c r="C32" s="3">
         <f t="shared" si="0"/>
         <v>25.333947489636113</v>
       </c>
-      <c r="C32" s="4">
-        <f t="shared" si="12"/>
+      <c r="D32" s="4">
+        <f t="shared" si="13"/>
         <v>1.668703128059756</v>
       </c>
-      <c r="D32" s="5">
-        <f t="shared" si="13"/>
+      <c r="E32" s="5">
+        <f t="shared" si="14"/>
         <v>79.851148760335803</v>
       </c>
-      <c r="E32" s="11">
+      <c r="F32" s="11">
         <f t="shared" si="2"/>
         <v>25.316455696202528</v>
       </c>
-      <c r="F32" s="12">
-        <f t="shared" si="14"/>
+      <c r="G32" s="12">
+        <f t="shared" si="15"/>
         <v>2.2432302515623062</v>
       </c>
-      <c r="G32" s="13">
-        <f t="shared" si="15"/>
+      <c r="H32" s="13">
+        <f t="shared" si="16"/>
         <v>59.731071428569912</v>
       </c>
-      <c r="H32" s="7">
+      <c r="I32" s="7">
         <f t="shared" si="4"/>
         <v>25.326170376055259</v>
       </c>
-      <c r="I32" s="8">
-        <f t="shared" si="16"/>
+      <c r="J32" s="8">
+        <f t="shared" si="17"/>
         <v>1.9242447177508668</v>
       </c>
-      <c r="J32" s="9">
-        <f t="shared" si="17"/>
+      <c r="K32" s="9">
+        <f t="shared" si="18"/>
         <v>69.407396694217425</v>
       </c>
-      <c r="K32" s="11">
+      <c r="L32" s="11">
         <f t="shared" si="6"/>
         <v>25.36510376633359</v>
       </c>
-      <c r="L32" s="12">
-        <f t="shared" si="18"/>
+      <c r="M32" s="12">
+        <f t="shared" si="19"/>
         <v>0.64338848907685964</v>
       </c>
-      <c r="M32" s="13">
-        <f t="shared" si="19"/>
+      <c r="N32" s="13">
+        <f t="shared" si="20"/>
         <v>209.37657024793742</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>34</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="63">
+        <f t="shared" si="9"/>
+        <v>886.84311469121587</v>
+      </c>
+      <c r="C33" s="3">
         <f t="shared" si="0"/>
         <v>26.101642868109934</v>
       </c>
-      <c r="C33" s="4">
-        <f t="shared" si="12"/>
+      <c r="D33" s="4">
+        <f t="shared" si="13"/>
         <v>1.7713689770772403</v>
       </c>
-      <c r="D33" s="5">
-        <f t="shared" si="13"/>
+      <c r="E33" s="5">
+        <f t="shared" si="14"/>
         <v>75.162241349484432</v>
       </c>
-      <c r="E33" s="11">
+      <c r="F33" s="11">
         <f t="shared" si="2"/>
         <v>26.083621020329879</v>
       </c>
-      <c r="F33" s="12">
-        <f t="shared" si="14"/>
+      <c r="G33" s="12">
+        <f t="shared" si="15"/>
         <v>2.3812434993626579</v>
       </c>
-      <c r="G33" s="13">
-        <f t="shared" si="15"/>
+      <c r="H33" s="13">
+        <f t="shared" si="16"/>
         <v>56.243068153732651</v>
       </c>
-      <c r="H33" s="7">
+      <c r="I33" s="7">
         <f t="shared" si="4"/>
         <v>26.093630084420568</v>
       </c>
-      <c r="I33" s="8">
-        <f t="shared" si="16"/>
+      <c r="J33" s="8">
+        <f t="shared" si="17"/>
         <v>2.0426325929477107</v>
       </c>
-      <c r="J33" s="9">
-        <f t="shared" si="17"/>
+      <c r="K33" s="9">
+        <f t="shared" si="18"/>
         <v>65.341180795848516</v>
       </c>
-      <c r="K33" s="11">
+      <c r="L33" s="11">
         <f t="shared" si="6"/>
         <v>26.133743274404306</v>
       </c>
-      <c r="L33" s="12">
-        <f t="shared" si="18"/>
+      <c r="M33" s="12">
+        <f t="shared" si="19"/>
         <v>0.68297253753235954</v>
       </c>
-      <c r="M33" s="13">
-        <f t="shared" si="19"/>
+      <c r="N33" s="13">
+        <f t="shared" si="20"/>
         <v>197.21534169553436</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>35</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="63">
+        <f t="shared" si="9"/>
+        <v>939.77752205600302</v>
+      </c>
+      <c r="C34" s="3">
         <f t="shared" si="0"/>
         <v>26.869338246583755</v>
       </c>
-      <c r="C34" s="4">
-        <f t="shared" si="12"/>
+      <c r="D34" s="4">
+        <f t="shared" si="13"/>
         <v>1.8770994783042025</v>
       </c>
-      <c r="D34" s="5">
-        <f t="shared" si="13"/>
+      <c r="E34" s="5">
+        <f t="shared" si="14"/>
         <v>70.869470204083626</v>
       </c>
-      <c r="E34" s="11">
+      <c r="F34" s="11">
         <f t="shared" si="2"/>
         <v>26.85078634445723</v>
       </c>
-      <c r="F34" s="12">
-        <f t="shared" si="14"/>
+      <c r="G34" s="12">
+        <f t="shared" si="15"/>
         <v>2.5233765456048087</v>
       </c>
-      <c r="G34" s="13">
-        <f t="shared" si="15"/>
+      <c r="H34" s="13">
+        <f t="shared" si="16"/>
         <v>53.04974431487112</v>
       </c>
-      <c r="H34" s="7">
+      <c r="I34" s="7">
         <f t="shared" si="4"/>
         <v>26.861089792785879</v>
       </c>
-      <c r="I34" s="8">
-        <f t="shared" si="16"/>
+      <c r="J34" s="8">
+        <f t="shared" si="17"/>
         <v>2.1645544345683425</v>
       </c>
-      <c r="J34" s="9">
-        <f t="shared" si="17"/>
+      <c r="K34" s="9">
+        <f t="shared" si="18"/>
         <v>61.618493877550293</v>
       </c>
-      <c r="K34" s="11">
+      <c r="L34" s="11">
         <f t="shared" si="6"/>
         <v>26.902382782475019</v>
       </c>
-      <c r="L34" s="12">
-        <f t="shared" si="18"/>
+      <c r="M34" s="12">
+        <f t="shared" si="19"/>
         <v>0.72373819937477879</v>
       </c>
-      <c r="M34" s="13">
-        <f t="shared" si="19"/>
+      <c r="N34" s="13">
+        <f t="shared" si="20"/>
         <v>186.08153877551783</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>36</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="67">
+        <f t="shared" si="9"/>
+        <v>994.24626006904475</v>
+      </c>
+      <c r="C35" s="19">
         <f t="shared" si="0"/>
         <v>27.637033625057576</v>
       </c>
-      <c r="C35" s="20">
-        <f t="shared" si="12"/>
+      <c r="D35" s="20">
+        <f t="shared" si="13"/>
         <v>1.985894631740643</v>
       </c>
-      <c r="D35" s="21">
-        <f t="shared" si="13"/>
+      <c r="E35" s="21">
+        <f t="shared" si="14"/>
         <v>66.929437500000731</v>
       </c>
-      <c r="E35" s="22">
+      <c r="F35" s="22">
         <f t="shared" si="2"/>
         <v>27.617951668584578</v>
       </c>
-      <c r="F35" s="23">
-        <f t="shared" si="14"/>
+      <c r="G35" s="23">
+        <f t="shared" si="15"/>
         <v>2.6696293902889545</v>
       </c>
-      <c r="G35" s="24">
-        <f t="shared" si="15"/>
+      <c r="H35" s="24">
+        <f t="shared" si="16"/>
         <v>50.118816964285784</v>
       </c>
-      <c r="H35" s="25">
+      <c r="I35" s="25">
         <f t="shared" si="4"/>
         <v>27.628549501151191</v>
       </c>
-      <c r="I35" s="26">
-        <f t="shared" si="16"/>
+      <c r="J35" s="26">
+        <f t="shared" si="17"/>
         <v>2.2900102426125661</v>
       </c>
-      <c r="J35" s="62">
-        <f t="shared" si="17"/>
+      <c r="K35" s="49">
+        <f t="shared" si="18"/>
         <v>58.201701388891948</v>
       </c>
-      <c r="K35" s="22">
+      <c r="L35" s="22">
         <f t="shared" si="6"/>
         <v>27.671022290545736</v>
       </c>
-      <c r="L35" s="23">
-        <f t="shared" si="18"/>
+      <c r="M35" s="23">
+        <f t="shared" si="19"/>
         <v>0.76568547460374092</v>
       </c>
-      <c r="M35" s="24">
-        <f t="shared" si="19"/>
+      <c r="N35" s="24">
+        <f t="shared" si="20"/>
         <v>175.86260416669845</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A36" s="49" t="s">
+    <row r="36" spans="1:14" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A36" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="51" t="s">
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="50">
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="62">
         <v>2.8</v>
       </c>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="M37" s="66"/>
+      <c r="N37" s="66"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="56"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+    </row>
+    <row r="39" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="63"/>
+      <c r="C39" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="63"/>
+      <c r="C40" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="57" t="s">
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="59" t="s">
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="57" t="s">
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="63"/>
+      <c r="C41" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="57"/>
+      <c r="E41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="54" t="s">
+      <c r="F41" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F41" s="54"/>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="51"/>
+      <c r="H41" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="53" t="s">
+      <c r="I41" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="I41" s="53"/>
-      <c r="J41" s="6" t="s">
+      <c r="J41" s="58"/>
+      <c r="K41" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K41" s="54" t="s">
+      <c r="L41" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="L41" s="54"/>
-      <c r="M41" s="38" t="s">
+      <c r="M41" s="51"/>
+      <c r="N41" s="38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="61">
+      <c r="B42" s="63"/>
+      <c r="C42" s="54">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="C42" s="61"/>
-      <c r="D42" s="15">
+      <c r="D42" s="54"/>
+      <c r="E42" s="15">
         <v>1.05</v>
       </c>
-      <c r="E42" s="56">
+      <c r="F42" s="52">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="F42" s="56"/>
-      <c r="G42" s="16">
+      <c r="G42" s="52"/>
+      <c r="H42" s="16">
         <v>0.45</v>
       </c>
-      <c r="H42" s="60">
+      <c r="I42" s="55">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I42" s="60"/>
-      <c r="J42" s="17">
+      <c r="J42" s="55"/>
+      <c r="K42" s="17">
         <v>0.75</v>
       </c>
-      <c r="K42" s="56">
+      <c r="L42" s="52">
         <v>1E-3</v>
       </c>
-      <c r="L42" s="56"/>
-      <c r="M42" s="39">
+      <c r="M42" s="52"/>
+      <c r="N42" s="39">
         <v>0.4</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="F43" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="G43" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="H43" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="I43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="J43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="K43" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K43" s="38" t="s">
+      <c r="L43" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="L43" s="38" t="s">
+      <c r="M43" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="M43" s="38" t="s">
+      <c r="N43" s="38" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>10</v>
       </c>
-      <c r="B44" s="3">
-        <f>$A44/($F$37+B$7)</f>
+      <c r="B44" s="63">
+        <f>A44*F44</f>
+        <v>35.66969859104691</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" ref="C44:C70" si="21">$A44/($G$37+C$7)</f>
         <v>3.5681153214871904</v>
       </c>
-      <c r="C44" s="4">
-        <f t="shared" ref="C44:C64" si="20">($A44-($F$37*B44))*B44</f>
+      <c r="D44" s="4">
+        <f t="shared" ref="D44:D64" si="22">($A44-($G$37*C44))*C44</f>
         <v>3.3101762063328481E-2</v>
       </c>
-      <c r="D44" s="5">
-        <f>((175-40)/C44)-$D$7</f>
+      <c r="E44" s="5">
+        <f>((175-40)/D44)-$E$7</f>
         <v>4077.2827407684636</v>
       </c>
-      <c r="E44" s="11">
-        <f>$A44/($F$37+E$7)</f>
+      <c r="F44" s="11">
+        <f t="shared" ref="F44:F70" si="23">$A44/($G$37+F$7)</f>
         <v>3.5669698591046912</v>
       </c>
-      <c r="F44" s="12">
-        <f t="shared" ref="F44:F64" si="21">($A44-($F$37*E44))*E44</f>
+      <c r="G44" s="12">
+        <f t="shared" ref="G44:G64" si="24">($A44-($G$37*F44))*F44</f>
         <v>4.4531458915160041E-2</v>
       </c>
-      <c r="G44" s="13">
-        <f>((175-40)/F44)-$G$7</f>
+      <c r="H44" s="13">
+        <f>((175-40)/G44)-$H$7</f>
         <v>3031.114725000316</v>
       </c>
-      <c r="H44" s="7">
-        <f>$A44/($F$37+H$7)</f>
+      <c r="I44" s="7">
+        <f t="shared" ref="I44:I70" si="25">$A44/($G$37+I$7)</f>
         <v>3.5676061362825546</v>
       </c>
-      <c r="I44" s="8">
-        <f t="shared" ref="I44:I64" si="22">($A44-($F$37*H44))*H44</f>
+      <c r="J44" s="8">
+        <f t="shared" ref="J44:J64" si="26">($A44-($G$37*I44))*I44</f>
         <v>3.8183440630925644E-2</v>
       </c>
-      <c r="J44" s="9">
-        <f>((175-40)/I44)-$J$7</f>
+      <c r="K44" s="9">
+        <f>((175-40)/J44)-$K$7</f>
         <v>3534.8140499997376</v>
       </c>
-      <c r="K44" s="11">
-        <f>$A44/($F$37+K$7)</f>
+      <c r="L44" s="11">
+        <f t="shared" ref="L44:L70" si="27">$A44/($G$37+L$7)</f>
         <v>3.5701535166012142</v>
       </c>
-      <c r="L44" s="12">
-        <f t="shared" ref="L44:L64" si="23">($A44-($F$37*K44))*K44</f>
+      <c r="M44" s="12">
+        <f t="shared" ref="M44:M64" si="28">($A44-($G$37*L44))*L44</f>
         <v>1.2745996132096295E-2</v>
       </c>
-      <c r="M44" s="13">
-        <f>((175-40)/L44)-$G$7</f>
+      <c r="N44" s="13">
+        <f>((175-40)/M44)-$H$7</f>
         <v>10591.11135000309</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>11</v>
       </c>
-      <c r="B45" s="3">
-        <f>$A45/($F$37+B$7)</f>
+      <c r="B45" s="63">
+        <f t="shared" ref="B45:B70" si="29">A45*F45</f>
+        <v>43.16033529516676</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="21"/>
         <v>3.9249268536359097</v>
       </c>
-      <c r="C45" s="4">
-        <f t="shared" si="20"/>
+      <c r="D45" s="4">
+        <f t="shared" si="22"/>
         <v>4.0053132096622583E-2</v>
       </c>
-      <c r="D45" s="5">
-        <f t="shared" ref="D45:D64" si="24">((175-40)/C45)-$D$7</f>
+      <c r="E45" s="5">
+        <f t="shared" ref="E45:E64" si="30">((175-40)/D45)-$E$7</f>
         <v>3369.4729262553392</v>
       </c>
-      <c r="E45" s="11">
-        <f>$A45/($F$37+E$7)</f>
+      <c r="F45" s="11">
+        <f t="shared" si="23"/>
         <v>3.9236668450151599</v>
       </c>
-      <c r="F45" s="12">
-        <f t="shared" si="21"/>
+      <c r="G45" s="12">
+        <f t="shared" si="24"/>
         <v>5.3883065287348521E-2</v>
       </c>
-      <c r="G45" s="13">
-        <f t="shared" ref="G45:G64" si="25">((175-40)/F45)-$G$7</f>
+      <c r="H45" s="13">
+        <f t="shared" ref="H45:H64" si="31">((175-40)/G45)-$H$7</f>
         <v>2504.975392562018</v>
       </c>
-      <c r="H45" s="7">
-        <f>$A45/($F$37+H$7)</f>
+      <c r="I45" s="7">
+        <f t="shared" si="25"/>
         <v>3.9243667499108099</v>
       </c>
-      <c r="I45" s="8">
-        <f t="shared" si="22"/>
+      <c r="J45" s="8">
+        <f t="shared" si="26"/>
         <v>4.6201963163421421E-2</v>
       </c>
-      <c r="J45" s="9">
-        <f t="shared" ref="J45:J64" si="26">((175-40)/I45)-$J$7</f>
+      <c r="K45" s="9">
+        <f t="shared" ref="K45:K64" si="32">((175-40)/J45)-$K$7</f>
         <v>2921.2037603302733</v>
       </c>
-      <c r="K45" s="11">
-        <f>$A45/($F$37+K$7)</f>
+      <c r="L45" s="11">
+        <f t="shared" si="27"/>
         <v>3.9271688682613357</v>
       </c>
-      <c r="L45" s="12">
-        <f t="shared" si="23"/>
+      <c r="M45" s="12">
+        <f t="shared" si="28"/>
         <v>1.5422655319838611E-2</v>
       </c>
-      <c r="M45" s="13">
-        <f t="shared" ref="M45:M64" si="27">((175-40)/L45)-$G$7</f>
+      <c r="N45" s="13">
+        <f t="shared" ref="N45:N64" si="33">((175-40)/M45)-$H$7</f>
         <v>8752.9064876046705</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
         <v>12</v>
       </c>
-      <c r="B46" s="19">
-        <f>$A46/($F$37+B$7)</f>
+      <c r="B46" s="67">
+        <f t="shared" si="29"/>
+        <v>51.364365971107546</v>
+      </c>
+      <c r="C46" s="19">
+        <f t="shared" si="21"/>
         <v>4.281738385784629</v>
       </c>
-      <c r="C46" s="20">
-        <f t="shared" si="20"/>
+      <c r="D46" s="20">
+        <f t="shared" si="22"/>
         <v>4.7666537371182371E-2</v>
       </c>
-      <c r="D46" s="21">
+      <c r="E46" s="21">
+        <f t="shared" si="30"/>
+        <v>2831.1255144231764</v>
+      </c>
+      <c r="F46" s="22">
+        <f t="shared" si="23"/>
+        <v>4.2803638309256291</v>
+      </c>
+      <c r="G46" s="23">
         <f t="shared" si="24"/>
-        <v>2831.1255144231764</v>
-      </c>
-      <c r="E46" s="22">
-        <f>$A46/($F$37+E$7)</f>
-        <v>4.2803638309256291</v>
-      </c>
-      <c r="F46" s="23">
-        <f t="shared" si="21"/>
         <v>6.4125300837833493E-2</v>
       </c>
-      <c r="G46" s="24">
+      <c r="H46" s="24">
+        <f t="shared" si="31"/>
+        <v>2104.8032812501197</v>
+      </c>
+      <c r="I46" s="25">
         <f t="shared" si="25"/>
-        <v>2104.8032812501197</v>
-      </c>
-      <c r="H46" s="25">
-        <f>$A46/($F$37+H$7)</f>
         <v>4.2811273635390652</v>
       </c>
-      <c r="I46" s="26">
-        <f t="shared" si="22"/>
+      <c r="J46" s="26">
+        <f t="shared" si="26"/>
         <v>5.4984154508535971E-2</v>
       </c>
-      <c r="J46" s="62">
-        <f t="shared" si="26"/>
+      <c r="K46" s="49">
+        <f t="shared" si="32"/>
         <v>2454.5028124996816</v>
       </c>
-      <c r="K46" s="22">
-        <f>$A46/($F$37+K$7)</f>
+      <c r="L46" s="22">
+        <f t="shared" si="27"/>
         <v>4.2841842199214568</v>
       </c>
-      <c r="L46" s="23">
-        <f t="shared" si="23"/>
+      <c r="M46" s="23">
+        <f t="shared" si="28"/>
         <v>1.8354234430223229E-2</v>
       </c>
-      <c r="M46" s="24">
-        <f t="shared" si="27"/>
+      <c r="N46" s="24">
+        <f t="shared" si="33"/>
         <v>7354.8009375003166</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>13</v>
       </c>
-      <c r="B47" s="3">
-        <f>$A47/($F$37+B$7)</f>
+      <c r="B47" s="63">
+        <f t="shared" si="29"/>
+        <v>60.28179061886928</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="21"/>
         <v>4.6385499179333474</v>
       </c>
-      <c r="C47" s="4">
-        <f t="shared" si="20"/>
+      <c r="D47" s="4">
+        <f t="shared" si="22"/>
         <v>5.5941977887024312E-2</v>
       </c>
-      <c r="D47" s="5">
+      <c r="E47" s="5">
+        <f t="shared" si="30"/>
+        <v>2412.164639508002</v>
+      </c>
+      <c r="F47" s="11">
+        <f t="shared" si="23"/>
+        <v>4.6370608168360983</v>
+      </c>
+      <c r="G47" s="12">
         <f t="shared" si="24"/>
-        <v>2412.164639508002</v>
-      </c>
-      <c r="E47" s="11">
-        <f>$A47/($F$37+E$7)</f>
-        <v>4.6370608168360983</v>
-      </c>
-      <c r="F47" s="12">
-        <f t="shared" si="21"/>
         <v>7.5258165566621293E-2</v>
       </c>
-      <c r="G47" s="13">
+      <c r="H47" s="13">
+        <f t="shared" si="31"/>
+        <v>1793.3752810652559</v>
+      </c>
+      <c r="I47" s="7">
         <f t="shared" si="25"/>
-        <v>1793.3752810652559</v>
-      </c>
-      <c r="H47" s="7">
-        <f>$A47/($F$37+H$7)</f>
         <v>4.6378879771673205</v>
       </c>
-      <c r="I47" s="8">
-        <f t="shared" si="22"/>
+      <c r="J47" s="8">
+        <f t="shared" si="26"/>
         <v>6.4530014666269273E-2</v>
       </c>
-      <c r="J47" s="9">
-        <f t="shared" si="26"/>
+      <c r="K47" s="9">
+        <f t="shared" si="32"/>
         <v>2091.2997337274955</v>
       </c>
-      <c r="K47" s="11">
-        <f>$A47/($F$37+K$7)</f>
+      <c r="L47" s="11">
+        <f t="shared" si="27"/>
         <v>4.6411995715815788</v>
       </c>
-      <c r="L47" s="12">
-        <f t="shared" si="23"/>
+      <c r="M47" s="12">
+        <f t="shared" si="28"/>
         <v>2.1540733463241916E-2</v>
       </c>
-      <c r="M47" s="13">
-        <f t="shared" si="27"/>
+      <c r="N47" s="13">
+        <f t="shared" si="33"/>
         <v>6266.7460650908251</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>14</v>
       </c>
-      <c r="B48" s="3">
-        <f>$A48/($F$37+B$7)</f>
+      <c r="B48" s="63">
+        <f t="shared" si="29"/>
+        <v>69.91260923845195</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="21"/>
         <v>4.9953614500820667</v>
       </c>
-      <c r="C48" s="4">
-        <f t="shared" si="20"/>
+      <c r="D48" s="4">
+        <f t="shared" si="22"/>
         <v>6.4879453644116736E-2</v>
       </c>
-      <c r="D48" s="5">
+      <c r="E48" s="5">
+        <f t="shared" si="30"/>
+        <v>2079.7320105963822</v>
+      </c>
+      <c r="F48" s="11">
+        <f t="shared" si="23"/>
+        <v>4.9937578027465674</v>
+      </c>
+      <c r="G48" s="12">
         <f t="shared" si="24"/>
-        <v>2079.7320105963822</v>
-      </c>
-      <c r="E48" s="11">
-        <f>$A48/($F$37+E$7)</f>
-        <v>4.9937578027465674</v>
-      </c>
-      <c r="F48" s="12">
-        <f t="shared" si="21"/>
         <v>8.7281659473720768E-2</v>
       </c>
-      <c r="G48" s="13">
+      <c r="H48" s="13">
+        <f t="shared" si="31"/>
+        <v>1546.2666964286068</v>
+      </c>
+      <c r="I48" s="7">
         <f t="shared" si="25"/>
-        <v>1546.2666964286068</v>
-      </c>
-      <c r="H48" s="7">
-        <f>$A48/($F$37+H$7)</f>
         <v>4.9946485907955767</v>
       </c>
-      <c r="I48" s="8">
-        <f t="shared" si="22"/>
+      <c r="J48" s="8">
+        <f t="shared" si="26"/>
         <v>7.4839543636603625E-2</v>
       </c>
-      <c r="J48" s="9">
-        <f t="shared" si="26"/>
+      <c r="K48" s="9">
+        <f t="shared" si="32"/>
         <v>1803.1092091837959</v>
       </c>
-      <c r="K48" s="11">
-        <f>$A48/($F$37+K$7)</f>
+      <c r="L48" s="11">
+        <f t="shared" si="27"/>
         <v>4.9982149232416999</v>
       </c>
-      <c r="L48" s="12">
-        <f t="shared" si="23"/>
+      <c r="M48" s="12">
+        <f t="shared" si="28"/>
         <v>2.4982152418910514E-2</v>
       </c>
-      <c r="M48" s="13">
-        <f t="shared" si="27"/>
+      <c r="N48" s="13">
+        <f t="shared" si="33"/>
         <v>5403.4078316338455</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>15</v>
       </c>
-      <c r="B49" s="3">
-        <f>$A49/($F$37+B$7)</f>
+      <c r="B49" s="63">
+        <f t="shared" si="29"/>
+        <v>80.256821829855554</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" si="21"/>
         <v>5.352172982230786</v>
       </c>
-      <c r="C49" s="4">
-        <f t="shared" si="20"/>
+      <c r="D49" s="4">
+        <f t="shared" si="22"/>
         <v>7.4478964642474832E-2</v>
       </c>
-      <c r="D49" s="5">
+      <c r="E49" s="5">
+        <f t="shared" si="30"/>
+        <v>1811.5423292307751</v>
+      </c>
+      <c r="F49" s="11">
+        <f t="shared" si="23"/>
+        <v>5.3504547886570366</v>
+      </c>
+      <c r="G49" s="12">
         <f t="shared" si="24"/>
-        <v>1811.5423292307751</v>
-      </c>
-      <c r="E49" s="11">
-        <f>$A49/($F$37+E$7)</f>
-        <v>5.3504547886570366</v>
-      </c>
-      <c r="F49" s="12">
-        <f t="shared" si="21"/>
         <v>0.10019578255911483</v>
       </c>
-      <c r="G49" s="13">
+      <c r="H49" s="13">
+        <f t="shared" si="31"/>
+        <v>1346.9121000000764</v>
+      </c>
+      <c r="I49" s="7">
         <f t="shared" si="25"/>
-        <v>1346.9121000000764</v>
-      </c>
-      <c r="H49" s="7">
-        <f>$A49/($F$37+H$7)</f>
         <v>5.3514092044238319</v>
       </c>
-      <c r="I49" s="8">
-        <f t="shared" si="22"/>
+      <c r="J49" s="8">
+        <f t="shared" si="26"/>
         <v>8.5912741419573196E-2</v>
       </c>
-      <c r="J49" s="9">
-        <f t="shared" si="26"/>
+      <c r="K49" s="9">
+        <f t="shared" si="32"/>
         <v>1570.6118000000572</v>
       </c>
-      <c r="K49" s="11">
-        <f>$A49/($F$37+K$7)</f>
+      <c r="L49" s="11">
+        <f t="shared" si="27"/>
         <v>5.355230274901821</v>
       </c>
-      <c r="L49" s="12">
-        <f t="shared" si="23"/>
+      <c r="M49" s="12">
+        <f t="shared" si="28"/>
         <v>2.8678491297230931E-2</v>
       </c>
-      <c r="M49" s="13">
-        <f t="shared" si="27"/>
+      <c r="N49" s="13">
+        <f t="shared" si="33"/>
         <v>4706.9105999990315</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>16</v>
       </c>
-      <c r="B50" s="3">
-        <f>$A50/($F$37+B$7)</f>
+      <c r="B50" s="63">
+        <f t="shared" si="29"/>
+        <v>91.314428393080092</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="21"/>
         <v>5.7089845143795044</v>
       </c>
-      <c r="C50" s="4">
-        <f t="shared" si="20"/>
+      <c r="D50" s="4">
+        <f t="shared" si="22"/>
         <v>8.4740510882118883E-2</v>
       </c>
-      <c r="D50" s="5">
+      <c r="E50" s="5">
+        <f t="shared" si="30"/>
+        <v>1592.0487268627194</v>
+      </c>
+      <c r="F50" s="11">
+        <f t="shared" si="23"/>
+        <v>5.7071517745675058</v>
+      </c>
+      <c r="G50" s="12">
         <f t="shared" si="24"/>
-        <v>1592.0487268627194</v>
-      </c>
-      <c r="E50" s="11">
-        <f>$A50/($F$37+E$7)</f>
-        <v>5.7071517745675058</v>
-      </c>
-      <c r="F50" s="12">
-        <f t="shared" si="21"/>
         <v>0.11400053482281172</v>
       </c>
-      <c r="G50" s="13">
+      <c r="H50" s="13">
+        <f t="shared" si="31"/>
+        <v>1183.7549707032272</v>
+      </c>
+      <c r="I50" s="7">
         <f t="shared" si="25"/>
-        <v>1183.7549707032272</v>
-      </c>
-      <c r="H50" s="7">
-        <f>$A50/($F$37+H$7)</f>
         <v>5.7081698180520872</v>
       </c>
-      <c r="I50" s="8">
-        <f t="shared" si="22"/>
+      <c r="J50" s="8">
+        <f t="shared" si="26"/>
         <v>9.774960801516154E-2</v>
       </c>
-      <c r="J50" s="9">
-        <f t="shared" si="26"/>
+      <c r="K50" s="9">
+        <f t="shared" si="32"/>
         <v>1380.3297070312619</v>
       </c>
-      <c r="K50" s="11">
-        <f>$A50/($F$37+K$7)</f>
+      <c r="L50" s="11">
+        <f t="shared" si="27"/>
         <v>5.712245626561943</v>
       </c>
-      <c r="L50" s="12">
-        <f t="shared" si="23"/>
+      <c r="M50" s="12">
+        <f t="shared" si="28"/>
         <v>3.2629750098164489E-2</v>
       </c>
-      <c r="M50" s="13">
-        <f t="shared" si="27"/>
+      <c r="N50" s="13">
+        <f t="shared" si="33"/>
         <v>4136.8786523452145</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>17</v>
       </c>
-      <c r="B51" s="3">
-        <f>$A51/($F$37+B$7)</f>
+      <c r="B51" s="63">
+        <f t="shared" si="29"/>
+        <v>103.08542892812558</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="21"/>
         <v>6.0657960465282237</v>
       </c>
-      <c r="C51" s="4">
-        <f t="shared" si="20"/>
+      <c r="D51" s="4">
+        <f t="shared" si="22"/>
         <v>9.5664092363020398E-2</v>
       </c>
-      <c r="D51" s="5">
+      <c r="E51" s="5">
+        <f t="shared" si="30"/>
+        <v>1410.1377995738469</v>
+      </c>
+      <c r="F51" s="11">
+        <f t="shared" si="23"/>
+        <v>6.0638487604779749</v>
+      </c>
+      <c r="G51" s="12">
         <f t="shared" si="24"/>
-        <v>1410.1377995738469</v>
-      </c>
-      <c r="E51" s="11">
-        <f>$A51/($F$37+E$7)</f>
-        <v>6.0638487604779749</v>
-      </c>
-      <c r="F51" s="12">
-        <f t="shared" si="21"/>
         <v>0.12869591626481144</v>
       </c>
-      <c r="G51" s="13">
+      <c r="H51" s="13">
+        <f t="shared" si="31"/>
+        <v>1048.5343339101526</v>
+      </c>
+      <c r="I51" s="7">
         <f t="shared" si="25"/>
-        <v>1048.5343339101526</v>
-      </c>
-      <c r="H51" s="7">
-        <f>$A51/($F$37+H$7)</f>
         <v>6.0649304316803425</v>
       </c>
-      <c r="I51" s="8">
-        <f t="shared" si="22"/>
+      <c r="J51" s="8">
+        <f t="shared" si="26"/>
         <v>0.11035014342336864</v>
       </c>
-      <c r="J51" s="9">
-        <f t="shared" si="26"/>
+      <c r="K51" s="9">
+        <f t="shared" si="32"/>
         <v>1222.6285640138217</v>
       </c>
-      <c r="K51" s="11">
-        <f>$A51/($F$37+K$7)</f>
+      <c r="L51" s="11">
+        <f t="shared" si="27"/>
         <v>6.0692609782220641</v>
       </c>
-      <c r="L51" s="12">
-        <f t="shared" si="23"/>
+      <c r="M51" s="12">
+        <f t="shared" si="28"/>
         <v>3.6835928821770149E-2</v>
       </c>
-      <c r="M51" s="13">
-        <f t="shared" si="27"/>
+      <c r="N51" s="13">
+        <f t="shared" si="33"/>
         <v>3664.4501211071561</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>18</v>
       </c>
-      <c r="B52" s="3">
-        <f>$A52/($F$37+B$7)</f>
+      <c r="B52" s="63">
+        <f t="shared" si="29"/>
+        <v>115.56982343499199</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="21"/>
         <v>6.422607578676943</v>
       </c>
-      <c r="C52" s="4">
-        <f t="shared" si="20"/>
+      <c r="D52" s="4">
+        <f t="shared" si="22"/>
         <v>0.10724970908517745</v>
       </c>
-      <c r="D52" s="5">
+      <c r="E52" s="5">
+        <f t="shared" si="30"/>
+        <v>1257.6946730767665</v>
+      </c>
+      <c r="F52" s="11">
+        <f t="shared" si="23"/>
+        <v>6.4205457463884441</v>
+      </c>
+      <c r="G52" s="12">
         <f t="shared" si="24"/>
-        <v>1257.6946730767665</v>
-      </c>
-      <c r="E52" s="11">
-        <f>$A52/($F$37+E$7)</f>
-        <v>6.4205457463884441</v>
-      </c>
-      <c r="F52" s="12">
-        <f t="shared" si="21"/>
         <v>0.14428192688512537</v>
       </c>
-      <c r="G52" s="13">
+      <c r="H52" s="13">
+        <f t="shared" si="31"/>
+        <v>935.21812500005308</v>
+      </c>
+      <c r="I52" s="7">
         <f t="shared" si="25"/>
-        <v>935.21812500005308</v>
-      </c>
-      <c r="H52" s="7">
-        <f>$A52/($F$37+H$7)</f>
         <v>6.4216910453085978</v>
       </c>
-      <c r="I52" s="8">
-        <f t="shared" si="22"/>
+      <c r="J52" s="8">
+        <f t="shared" si="26"/>
         <v>0.12371434764419452</v>
       </c>
-      <c r="J52" s="9">
-        <f t="shared" si="26"/>
+      <c r="K52" s="9">
+        <f t="shared" si="32"/>
         <v>1090.4734722221815</v>
       </c>
-      <c r="K52" s="11">
-        <f>$A52/($F$37+K$7)</f>
+      <c r="L52" s="11">
+        <f t="shared" si="27"/>
         <v>6.4262763298821852</v>
       </c>
-      <c r="L52" s="12">
-        <f t="shared" si="23"/>
+      <c r="M52" s="12">
+        <f t="shared" si="28"/>
         <v>4.1297027468007973E-2</v>
       </c>
-      <c r="M52" s="13">
-        <f t="shared" si="27"/>
+      <c r="N52" s="13">
+        <f t="shared" si="33"/>
         <v>3268.5504166663559</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>19</v>
       </c>
-      <c r="B53" s="3">
-        <f>$A53/($F$37+B$7)</f>
+      <c r="B53" s="63">
+        <f t="shared" si="29"/>
+        <v>128.76761191367936</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="21"/>
         <v>6.7794191108256623</v>
       </c>
-      <c r="C53" s="4">
-        <f t="shared" si="20"/>
+      <c r="D53" s="4">
+        <f t="shared" si="22"/>
         <v>0.11949736104860018</v>
       </c>
-      <c r="D53" s="5">
+      <c r="E53" s="5">
+        <f t="shared" si="30"/>
+        <v>1128.6820611548469</v>
+      </c>
+      <c r="F53" s="11">
+        <f t="shared" si="23"/>
+        <v>6.7772427322989133</v>
+      </c>
+      <c r="G53" s="12">
         <f t="shared" si="24"/>
-        <v>1128.6820611548469</v>
-      </c>
-      <c r="E53" s="11">
-        <f>$A53/($F$37+E$7)</f>
-        <v>6.7772427322989133</v>
-      </c>
-      <c r="F53" s="12">
-        <f t="shared" si="21"/>
         <v>0.16075856668371932</v>
       </c>
-      <c r="G53" s="13">
+      <c r="H53" s="13">
+        <f t="shared" si="31"/>
+        <v>839.31862188378784</v>
+      </c>
+      <c r="I53" s="7">
         <f t="shared" si="25"/>
-        <v>839.31862188378784</v>
-      </c>
-      <c r="H53" s="7">
-        <f>$A53/($F$37+H$7)</f>
         <v>6.7784516589368531</v>
       </c>
-      <c r="I53" s="8">
-        <f t="shared" si="22"/>
+      <c r="J53" s="8">
+        <f t="shared" si="26"/>
         <v>0.13784222067763915</v>
       </c>
-      <c r="J53" s="9">
-        <f t="shared" si="26"/>
+      <c r="K53" s="9">
+        <f t="shared" si="32"/>
         <v>978.63062326864258</v>
       </c>
-      <c r="K53" s="11">
-        <f>$A53/($F$37+K$7)</f>
+      <c r="L53" s="11">
+        <f t="shared" si="27"/>
         <v>6.7832916815423072</v>
       </c>
-      <c r="L53" s="12">
-        <f t="shared" si="23"/>
+      <c r="M53" s="12">
+        <f t="shared" si="28"/>
         <v>4.6013046036864014E-2</v>
       </c>
-      <c r="M53" s="13">
-        <f t="shared" si="27"/>
+      <c r="N53" s="13">
+        <f t="shared" si="33"/>
         <v>2933.5005124664603</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>20</v>
       </c>
-      <c r="B54" s="3">
-        <f>$A54/($F$37+B$7)</f>
+      <c r="B54" s="63">
+        <f t="shared" si="29"/>
+        <v>142.67879436418764</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="21"/>
         <v>7.1362306429743807</v>
       </c>
-      <c r="C54" s="4">
-        <f t="shared" si="20"/>
+      <c r="D54" s="4">
+        <f t="shared" si="22"/>
         <v>0.13240704825331392</v>
       </c>
-      <c r="D54" s="5">
+      <c r="E54" s="5">
+        <f t="shared" si="30"/>
+        <v>1018.533185192116</v>
+      </c>
+      <c r="F54" s="11">
+        <f t="shared" si="23"/>
+        <v>7.1339397182093824</v>
+      </c>
+      <c r="G54" s="12">
         <f t="shared" si="24"/>
-        <v>1018.533185192116</v>
-      </c>
-      <c r="E54" s="11">
-        <f>$A54/($F$37+E$7)</f>
-        <v>7.1339397182093824</v>
-      </c>
-      <c r="F54" s="12">
-        <f t="shared" si="21"/>
         <v>0.17812583566064016</v>
       </c>
-      <c r="G54" s="13">
+      <c r="H54" s="13">
+        <f t="shared" si="31"/>
+        <v>757.4411812500789</v>
+      </c>
+      <c r="I54" s="7">
         <f t="shared" si="25"/>
-        <v>757.4411812500789</v>
-      </c>
-      <c r="H54" s="7">
-        <f>$A54/($F$37+H$7)</f>
         <v>7.1352122725651093</v>
       </c>
-      <c r="I54" s="8">
-        <f t="shared" si="22"/>
+      <c r="J54" s="8">
+        <f t="shared" si="26"/>
         <v>0.15273376252370258</v>
       </c>
-      <c r="J54" s="9">
-        <f t="shared" si="26"/>
+      <c r="K54" s="9">
+        <f t="shared" si="32"/>
         <v>883.14101249993439</v>
       </c>
-      <c r="K54" s="11">
-        <f>$A54/($F$37+K$7)</f>
+      <c r="L54" s="11">
+        <f t="shared" si="27"/>
         <v>7.1403070332024283</v>
       </c>
-      <c r="L54" s="12">
-        <f t="shared" si="23"/>
+      <c r="M54" s="12">
+        <f t="shared" si="28"/>
         <v>5.0983984528385179E-2</v>
       </c>
-      <c r="M54" s="13">
-        <f t="shared" si="27"/>
+      <c r="N54" s="13">
+        <f t="shared" si="33"/>
         <v>2647.4403375007728</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>21</v>
       </c>
-      <c r="B55" s="3">
-        <f>$A55/($F$37+B$7)</f>
+      <c r="B55" s="63">
+        <f t="shared" si="29"/>
+        <v>157.30337078651687</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" si="21"/>
         <v>7.4930421751231</v>
       </c>
-      <c r="C55" s="4">
-        <f t="shared" si="20"/>
+      <c r="D55" s="4">
+        <f t="shared" si="22"/>
         <v>0.14597877069926929</v>
       </c>
-      <c r="D55" s="5">
+      <c r="E55" s="5">
+        <f t="shared" si="30"/>
+        <v>923.74200470946118</v>
+      </c>
+      <c r="F55" s="11">
+        <f t="shared" si="23"/>
+        <v>7.4906367041198507</v>
+      </c>
+      <c r="G55" s="12">
         <f t="shared" si="24"/>
-        <v>923.74200470946118</v>
-      </c>
-      <c r="E55" s="11">
-        <f>$A55/($F$37+E$7)</f>
-        <v>7.4906367041198507</v>
-      </c>
-      <c r="F55" s="12">
-        <f t="shared" si="21"/>
         <v>0.19638373381586507</v>
       </c>
-      <c r="G55" s="13">
+      <c r="H55" s="13">
+        <f t="shared" si="31"/>
+        <v>686.97964285718183</v>
+      </c>
+      <c r="I55" s="7">
         <f t="shared" si="25"/>
-        <v>686.97964285718183</v>
-      </c>
-      <c r="H55" s="7">
-        <f>$A55/($F$37+H$7)</f>
         <v>7.4919728861933645</v>
       </c>
-      <c r="I55" s="8">
-        <f t="shared" si="22"/>
+      <c r="J55" s="8">
+        <f t="shared" si="26"/>
         <v>0.16838897318238474</v>
       </c>
-      <c r="J55" s="9">
-        <f t="shared" si="26"/>
+      <c r="K55" s="9">
+        <f t="shared" si="32"/>
         <v>800.9652040815605</v>
       </c>
-      <c r="K55" s="11">
-        <f>$A55/($F$37+K$7)</f>
+      <c r="L55" s="11">
+        <f t="shared" si="27"/>
         <v>7.4973223848625494</v>
       </c>
-      <c r="L55" s="12">
-        <f t="shared" si="23"/>
+      <c r="M55" s="12">
+        <f t="shared" si="28"/>
         <v>5.6209842942575292E-2</v>
       </c>
-      <c r="M55" s="13">
-        <f t="shared" si="27"/>
+      <c r="N55" s="13">
+        <f t="shared" si="33"/>
         <v>2401.2645918361268</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>22</v>
       </c>
-      <c r="B56" s="3">
-        <f>$A56/($F$37+B$7)</f>
+      <c r="B56" s="63">
+        <f t="shared" si="29"/>
+        <v>172.64134118066704</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" si="21"/>
         <v>7.8498537072718193</v>
       </c>
-      <c r="C56" s="4">
-        <f t="shared" si="20"/>
+      <c r="D56" s="4">
+        <f t="shared" si="22"/>
         <v>0.16021252838649033</v>
       </c>
-      <c r="D56" s="5">
+      <c r="E56" s="5">
+        <f t="shared" si="30"/>
+        <v>841.58073156383489</v>
+      </c>
+      <c r="F56" s="11">
+        <f t="shared" si="23"/>
+        <v>7.8473336900303199</v>
+      </c>
+      <c r="G56" s="12">
         <f t="shared" si="24"/>
-        <v>841.58073156383489</v>
-      </c>
-      <c r="E56" s="11">
-        <f>$A56/($F$37+E$7)</f>
-        <v>7.8473336900303199</v>
-      </c>
-      <c r="F56" s="12">
-        <f t="shared" si="21"/>
         <v>0.21553226114939408</v>
       </c>
-      <c r="G56" s="13">
+      <c r="H56" s="13">
+        <f t="shared" si="31"/>
+        <v>625.90634814050441</v>
+      </c>
+      <c r="I56" s="7">
         <f t="shared" si="25"/>
-        <v>625.90634814050441</v>
-      </c>
-      <c r="H56" s="7">
-        <f>$A56/($F$37+H$7)</f>
         <v>7.8487334998216198</v>
       </c>
-      <c r="I56" s="8">
-        <f t="shared" si="22"/>
+      <c r="J56" s="8">
+        <f t="shared" si="26"/>
         <v>0.18480785265368568</v>
       </c>
-      <c r="J56" s="9">
-        <f t="shared" si="26"/>
+      <c r="K56" s="9">
+        <f t="shared" si="32"/>
         <v>729.73844008256833</v>
       </c>
-      <c r="K56" s="11">
-        <f>$A56/($F$37+K$7)</f>
+      <c r="L56" s="11">
+        <f t="shared" si="27"/>
         <v>7.8543377365226714</v>
       </c>
-      <c r="L56" s="12">
-        <f t="shared" si="23"/>
+      <c r="M56" s="12">
+        <f t="shared" si="28"/>
         <v>6.1690621279354443E-2</v>
       </c>
-      <c r="M56" s="13">
-        <f t="shared" si="27"/>
+      <c r="N56" s="13">
+        <f t="shared" si="33"/>
         <v>2187.889121901168</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>23</v>
       </c>
-      <c r="B57" s="3">
-        <f>$A57/($F$37+B$7)</f>
+      <c r="B57" s="63">
+        <f t="shared" si="29"/>
+        <v>188.69270554663814</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" si="21"/>
         <v>8.2066652394205377</v>
       </c>
-      <c r="C57" s="4">
-        <f t="shared" si="20"/>
+      <c r="D57" s="4">
+        <f t="shared" si="22"/>
         <v>0.17510832131500623</v>
       </c>
-      <c r="D57" s="5">
+      <c r="E57" s="5">
+        <f t="shared" si="30"/>
+        <v>769.90136876531142</v>
+      </c>
+      <c r="F57" s="11">
+        <f t="shared" si="23"/>
+        <v>8.2040306759407891</v>
+      </c>
+      <c r="G57" s="12">
         <f t="shared" si="24"/>
-        <v>769.90136876531142</v>
-      </c>
-      <c r="E57" s="11">
-        <f>$A57/($F$37+E$7)</f>
-        <v>8.2040306759407891</v>
-      </c>
-      <c r="F57" s="12">
-        <f t="shared" si="21"/>
         <v>0.23557141766122719</v>
       </c>
-      <c r="G57" s="13">
+      <c r="H57" s="13">
+        <f t="shared" si="31"/>
+        <v>572.62461720225372</v>
+      </c>
+      <c r="I57" s="7">
         <f t="shared" si="25"/>
-        <v>572.62461720225372</v>
-      </c>
-      <c r="H57" s="7">
-        <f>$A57/($F$37+H$7)</f>
         <v>8.2054941134498751</v>
       </c>
-      <c r="I57" s="8">
-        <f t="shared" si="22"/>
+      <c r="J57" s="8">
+        <f t="shared" si="26"/>
         <v>0.2019904009376054</v>
       </c>
-      <c r="J57" s="9">
-        <f t="shared" si="26"/>
+      <c r="K57" s="9">
+        <f t="shared" si="32"/>
         <v>667.59859168234107</v>
       </c>
-      <c r="K57" s="11">
-        <f>$A57/($F$37+K$7)</f>
+      <c r="L57" s="11">
+        <f t="shared" si="27"/>
         <v>8.2113530881827934</v>
       </c>
-      <c r="L57" s="12">
-        <f t="shared" si="23"/>
+      <c r="M57" s="12">
+        <f t="shared" si="28"/>
         <v>6.7426319538773358E-2</v>
       </c>
-      <c r="M57" s="13">
-        <f t="shared" si="27"/>
+      <c r="N57" s="13">
+        <f t="shared" si="33"/>
         <v>2001.735510398036</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="18">
         <v>24</v>
       </c>
-      <c r="B58" s="19">
-        <f>$A58/($F$37+B$7)</f>
+      <c r="B58" s="67">
+        <f t="shared" si="29"/>
+        <v>205.45746388443018</v>
+      </c>
+      <c r="C58" s="19">
+        <f t="shared" si="21"/>
         <v>8.5634767715692579</v>
       </c>
-      <c r="C58" s="20">
-        <f t="shared" si="20"/>
+      <c r="D58" s="20">
+        <f t="shared" si="22"/>
         <v>0.19066614948472949</v>
       </c>
-      <c r="D58" s="21">
+      <c r="E58" s="21">
+        <f t="shared" si="30"/>
+        <v>706.99387860579418</v>
+      </c>
+      <c r="F58" s="22">
+        <f t="shared" si="23"/>
+        <v>8.5607276618512582</v>
+      </c>
+      <c r="G58" s="23">
         <f t="shared" si="24"/>
-        <v>706.99387860579418</v>
-      </c>
-      <c r="E58" s="22">
-        <f>$A58/($F$37+E$7)</f>
-        <v>8.5607276618512582</v>
-      </c>
-      <c r="F58" s="23">
-        <f t="shared" si="21"/>
         <v>0.25650120335133397</v>
       </c>
-      <c r="G58" s="24">
+      <c r="H58" s="24">
+        <f t="shared" si="31"/>
+        <v>525.86332031252982</v>
+      </c>
+      <c r="I58" s="25">
         <f t="shared" si="25"/>
-        <v>525.86332031252982</v>
-      </c>
-      <c r="H58" s="25">
-        <f>$A58/($F$37+H$7)</f>
         <v>8.5622547270781304</v>
       </c>
-      <c r="I58" s="26">
-        <f t="shared" si="22"/>
+      <c r="J58" s="26">
+        <f t="shared" si="26"/>
         <v>0.21993661803414388</v>
       </c>
-      <c r="J58" s="62">
-        <f t="shared" si="26"/>
+      <c r="K58" s="49">
+        <f t="shared" si="32"/>
         <v>613.06320312492039</v>
       </c>
-      <c r="K58" s="22">
-        <f>$A58/($F$37+K$7)</f>
+      <c r="L58" s="22">
+        <f t="shared" si="27"/>
         <v>8.5683684398429136</v>
       </c>
-      <c r="L58" s="23">
-        <f t="shared" si="23"/>
+      <c r="M58" s="23">
+        <f t="shared" si="28"/>
         <v>7.3416937720892916E-2</v>
       </c>
-      <c r="M58" s="24">
-        <f t="shared" si="27"/>
+      <c r="N58" s="24">
+        <f t="shared" si="33"/>
         <v>1838.3627343750791</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>25</v>
       </c>
-      <c r="B59" s="3">
-        <f>$A59/($F$37+B$7)</f>
+      <c r="B59" s="63">
+        <f t="shared" si="29"/>
+        <v>222.93561619404318</v>
+      </c>
+      <c r="C59" s="3">
+        <f t="shared" si="21"/>
         <v>8.9202883037179763</v>
       </c>
-      <c r="C59" s="4">
-        <f t="shared" si="20"/>
+      <c r="D59" s="4">
+        <f t="shared" si="22"/>
         <v>0.20688601289577926</v>
       </c>
-      <c r="D59" s="5">
+      <c r="E59" s="5">
+        <f t="shared" si="30"/>
+        <v>651.48323852302917</v>
+      </c>
+      <c r="F59" s="11">
+        <f t="shared" si="23"/>
+        <v>8.9174246477617274</v>
+      </c>
+      <c r="G59" s="12">
         <f t="shared" si="24"/>
-        <v>651.48323852302917</v>
-      </c>
-      <c r="E59" s="11">
-        <f>$A59/($F$37+E$7)</f>
-        <v>8.9174246477617274</v>
-      </c>
-      <c r="F59" s="12">
-        <f t="shared" si="21"/>
         <v>0.27832161821977397</v>
       </c>
-      <c r="G59" s="13">
+      <c r="H59" s="13">
+        <f t="shared" si="31"/>
+        <v>484.60035600000919</v>
+      </c>
+      <c r="I59" s="7">
         <f t="shared" si="25"/>
-        <v>484.60035600000919</v>
-      </c>
-      <c r="H59" s="7">
-        <f>$A59/($F$37+H$7)</f>
         <v>8.9190153407063857</v>
       </c>
-      <c r="I59" s="8">
-        <f t="shared" si="22"/>
+      <c r="J59" s="8">
+        <f t="shared" si="26"/>
         <v>0.23864650394330111</v>
       </c>
-      <c r="J59" s="9">
-        <f t="shared" si="26"/>
+      <c r="K59" s="9">
+        <f t="shared" si="32"/>
         <v>564.94024799992042</v>
       </c>
-      <c r="K59" s="11">
-        <f>$A59/($F$37+K$7)</f>
+      <c r="L59" s="11">
+        <f t="shared" si="27"/>
         <v>8.9253837915030356</v>
       </c>
-      <c r="L59" s="12">
-        <f t="shared" si="23"/>
+      <c r="M59" s="12">
+        <f t="shared" si="28"/>
         <v>7.9662475825625634E-2</v>
       </c>
-      <c r="M59" s="13">
-        <f t="shared" si="27"/>
+      <c r="N59" s="13">
+        <f t="shared" si="33"/>
         <v>1694.1998159999882</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>26</v>
       </c>
-      <c r="B60" s="3">
-        <f>$A60/($F$37+B$7)</f>
+      <c r="B60" s="63">
+        <f t="shared" si="29"/>
+        <v>241.12716247547712</v>
+      </c>
+      <c r="C60" s="3">
+        <f t="shared" si="21"/>
         <v>9.2770998358666947</v>
       </c>
-      <c r="C60" s="4">
-        <f t="shared" si="20"/>
+      <c r="D60" s="4">
+        <f t="shared" si="22"/>
         <v>0.22376791154809725</v>
       </c>
-      <c r="D60" s="5">
+      <c r="E60" s="5">
+        <f t="shared" si="30"/>
+        <v>602.25365987700059</v>
+      </c>
+      <c r="F60" s="11">
+        <f t="shared" si="23"/>
+        <v>9.2741216336721966</v>
+      </c>
+      <c r="G60" s="12">
         <f t="shared" si="24"/>
-        <v>602.25365987700059</v>
-      </c>
-      <c r="E60" s="11">
-        <f>$A60/($F$37+E$7)</f>
-        <v>9.2741216336721966</v>
-      </c>
-      <c r="F60" s="12">
-        <f t="shared" si="21"/>
         <v>0.30103266226648517</v>
       </c>
-      <c r="G60" s="13">
+      <c r="H60" s="13">
+        <f t="shared" si="31"/>
+        <v>448.00632026631399</v>
+      </c>
+      <c r="I60" s="7">
         <f t="shared" si="25"/>
-        <v>448.00632026631399</v>
-      </c>
-      <c r="H60" s="7">
-        <f>$A60/($F$37+H$7)</f>
         <v>9.275775954334641</v>
       </c>
-      <c r="I60" s="8">
-        <f t="shared" si="22"/>
+      <c r="J60" s="8">
+        <f t="shared" si="26"/>
         <v>0.25812005866507709</v>
       </c>
-      <c r="J60" s="9">
-        <f t="shared" si="26"/>
+      <c r="K60" s="9">
+        <f t="shared" si="32"/>
         <v>522.26243343187389</v>
       </c>
-      <c r="K60" s="11">
-        <f>$A60/($F$37+K$7)</f>
+      <c r="L60" s="11">
+        <f t="shared" si="27"/>
         <v>9.2823991431631576</v>
       </c>
-      <c r="L60" s="12">
-        <f t="shared" si="23"/>
+      <c r="M60" s="12">
+        <f t="shared" si="28"/>
         <v>8.6162933852967666E-2</v>
       </c>
-      <c r="M60" s="13">
-        <f t="shared" si="27"/>
+      <c r="N60" s="13">
+        <f t="shared" si="33"/>
         <v>1566.3490162727062</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>27</v>
       </c>
-      <c r="B61" s="3">
-        <f>$A61/($F$37+B$7)</f>
+      <c r="B61" s="63">
+        <f t="shared" si="29"/>
+        <v>260.03210272873196</v>
+      </c>
+      <c r="C61" s="3">
+        <f t="shared" si="21"/>
         <v>9.6339113680154149</v>
       </c>
-      <c r="C61" s="4">
-        <f t="shared" si="20"/>
+      <c r="D61" s="4">
+        <f t="shared" si="22"/>
         <v>0.24131184544161505</v>
       </c>
-      <c r="D61" s="5">
+      <c r="E61" s="5">
+        <f t="shared" si="30"/>
+        <v>558.39207692308673</v>
+      </c>
+      <c r="F61" s="11">
+        <f t="shared" si="23"/>
+        <v>9.6308186195826657</v>
+      </c>
+      <c r="G61" s="12">
         <f t="shared" si="24"/>
-        <v>558.39207692308673</v>
-      </c>
-      <c r="E61" s="11">
-        <f>$A61/($F$37+E$7)</f>
-        <v>9.6308186195826657</v>
-      </c>
-      <c r="F61" s="12">
-        <f t="shared" si="21"/>
         <v>0.32463433549153209</v>
       </c>
-      <c r="G61" s="13">
+      <c r="H61" s="13">
+        <f t="shared" si="31"/>
+        <v>415.40250000002357</v>
+      </c>
+      <c r="I61" s="7">
         <f t="shared" si="25"/>
-        <v>415.40250000002357</v>
-      </c>
-      <c r="H61" s="7">
-        <f>$A61/($F$37+H$7)</f>
         <v>9.6325365679628963</v>
       </c>
-      <c r="I61" s="8">
-        <f t="shared" si="22"/>
+      <c r="J61" s="8">
+        <f t="shared" si="26"/>
         <v>0.27835728219947187</v>
       </c>
-      <c r="J61" s="9">
-        <f t="shared" si="26"/>
+      <c r="K61" s="9">
+        <f t="shared" si="32"/>
         <v>484.23820987646553</v>
       </c>
-      <c r="K61" s="11">
-        <f>$A61/($F$37+K$7)</f>
+      <c r="L61" s="11">
+        <f t="shared" si="27"/>
         <v>9.6394144948232778</v>
       </c>
-      <c r="L61" s="12">
-        <f t="shared" si="23"/>
+      <c r="M61" s="12">
+        <f t="shared" si="28"/>
         <v>9.2918311803017947E-2</v>
       </c>
-      <c r="M61" s="13">
-        <f t="shared" si="27"/>
+      <c r="N61" s="13">
+        <f t="shared" si="33"/>
         <v>1452.4390740739357</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>28</v>
       </c>
-      <c r="B62" s="3">
-        <f>$A62/($F$37+B$7)</f>
+      <c r="B62" s="63">
+        <f t="shared" si="29"/>
+        <v>279.6504369538078</v>
+      </c>
+      <c r="C62" s="3">
+        <f t="shared" si="21"/>
         <v>9.9907229001641333</v>
       </c>
-      <c r="C62" s="4">
-        <f t="shared" si="20"/>
+      <c r="D62" s="4">
+        <f t="shared" si="22"/>
         <v>0.25951781457646694</v>
       </c>
-      <c r="D62" s="5">
+      <c r="E62" s="5">
+        <f t="shared" si="30"/>
+        <v>519.14550264909565</v>
+      </c>
+      <c r="F62" s="11">
+        <f t="shared" si="23"/>
+        <v>9.9875156054931349</v>
+      </c>
+      <c r="G62" s="12">
         <f t="shared" si="24"/>
-        <v>519.14550264909565</v>
-      </c>
-      <c r="E62" s="11">
-        <f>$A62/($F$37+E$7)</f>
-        <v>9.9875156054931349</v>
-      </c>
-      <c r="F62" s="12">
-        <f t="shared" si="21"/>
         <v>0.34912663789488307</v>
       </c>
-      <c r="G62" s="13">
+      <c r="H62" s="13">
+        <f t="shared" si="31"/>
+        <v>386.22917410715172</v>
+      </c>
+      <c r="I62" s="7">
         <f t="shared" si="25"/>
-        <v>386.22917410715172</v>
-      </c>
-      <c r="H62" s="7">
-        <f>$A62/($F$37+H$7)</f>
         <v>9.9892971815911533</v>
       </c>
-      <c r="I62" s="8">
-        <f t="shared" si="22"/>
+      <c r="J62" s="8">
+        <f t="shared" si="26"/>
         <v>0.2993581745464145</v>
       </c>
-      <c r="J62" s="9">
-        <f t="shared" si="26"/>
+      <c r="K62" s="9">
+        <f t="shared" si="32"/>
         <v>450.21480229594897</v>
       </c>
-      <c r="K62" s="11">
-        <f>$A62/($F$37+K$7)</f>
+      <c r="L62" s="11">
+        <f t="shared" si="27"/>
         <v>9.9964298464833998</v>
       </c>
-      <c r="L62" s="12">
-        <f t="shared" si="23"/>
+      <c r="M62" s="12">
+        <f t="shared" si="28"/>
         <v>9.9928609675642058E-2</v>
       </c>
-      <c r="M62" s="13">
-        <f t="shared" si="27"/>
+      <c r="N62" s="13">
+        <f t="shared" si="33"/>
         <v>1350.5144579084613</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>29</v>
       </c>
-      <c r="B63" s="3">
-        <f>$A63/($F$37+B$7)</f>
+      <c r="B63" s="63">
+        <f t="shared" si="29"/>
+        <v>299.98216515070453</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" si="21"/>
         <v>10.347534432312852</v>
       </c>
-      <c r="C63" s="4">
-        <f t="shared" si="20"/>
+      <c r="D63" s="4">
+        <f t="shared" si="22"/>
         <v>0.27838581895258702</v>
       </c>
-      <c r="D63" s="5">
+      <c r="E63" s="5">
+        <f t="shared" si="30"/>
+        <v>483.88849474061169</v>
+      </c>
+      <c r="F63" s="11">
+        <f t="shared" si="23"/>
+        <v>10.344212591403604</v>
+      </c>
+      <c r="G63" s="12">
         <f t="shared" si="24"/>
-        <v>483.88849474061169</v>
-      </c>
-      <c r="E63" s="11">
-        <f>$A63/($F$37+E$7)</f>
-        <v>10.344212591403604</v>
-      </c>
-      <c r="F63" s="12">
-        <f t="shared" si="21"/>
         <v>0.37450956947650144</v>
       </c>
-      <c r="G63" s="13">
+      <c r="H63" s="13">
+        <f t="shared" si="31"/>
+        <v>360.02142984545435</v>
+      </c>
+      <c r="I63" s="7">
         <f t="shared" si="25"/>
-        <v>360.02142984545435</v>
-      </c>
-      <c r="H63" s="7">
-        <f>$A63/($F$37+H$7)</f>
         <v>10.346057795219409</v>
       </c>
-      <c r="I63" s="8">
-        <f t="shared" si="22"/>
+      <c r="J63" s="8">
+        <f t="shared" si="26"/>
         <v>0.32112273570604427</v>
       </c>
-      <c r="J63" s="9">
-        <f t="shared" si="26"/>
+      <c r="K63" s="9">
+        <f t="shared" si="32"/>
         <v>419.65000594532489</v>
       </c>
-      <c r="K63" s="11">
-        <f>$A63/($F$37+K$7)</f>
+      <c r="L63" s="11">
+        <f t="shared" si="27"/>
         <v>10.353445198143522</v>
       </c>
-      <c r="L63" s="12">
-        <f t="shared" si="23"/>
+      <c r="M63" s="12">
+        <f t="shared" si="28"/>
         <v>0.10719382747094272</v>
       </c>
-      <c r="M63" s="13">
-        <f t="shared" si="27"/>
+      <c r="N63" s="13">
+        <f t="shared" si="33"/>
         <v>1258.9508739597879</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>30</v>
       </c>
-      <c r="B64" s="3">
-        <f>$A64/($F$37+B$7)</f>
+      <c r="B64" s="63">
+        <f t="shared" si="29"/>
+        <v>321.02728731942221</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" si="21"/>
         <v>10.704345964461572</v>
       </c>
-      <c r="C64" s="4">
-        <f t="shared" si="20"/>
+      <c r="D64" s="4">
+        <f t="shared" si="22"/>
         <v>0.29791585856989933</v>
       </c>
-      <c r="D64" s="5">
+      <c r="E64" s="5">
+        <f t="shared" si="30"/>
+        <v>452.09808230769374</v>
+      </c>
+      <c r="F64" s="11">
+        <f t="shared" si="23"/>
+        <v>10.700909577314073</v>
+      </c>
+      <c r="G64" s="12">
         <f t="shared" si="24"/>
-        <v>452.09808230769374</v>
-      </c>
-      <c r="E64" s="11">
-        <f>$A64/($F$37+E$7)</f>
-        <v>10.700909577314073</v>
-      </c>
-      <c r="F64" s="12">
-        <f t="shared" si="21"/>
         <v>0.40078313023645934</v>
       </c>
-      <c r="G64" s="13">
+      <c r="H64" s="13">
+        <f t="shared" si="31"/>
+        <v>336.39052500001912</v>
+      </c>
+      <c r="I64" s="7">
         <f t="shared" si="25"/>
-        <v>336.39052500001912</v>
-      </c>
-      <c r="H64" s="7">
-        <f>$A64/($F$37+H$7)</f>
         <v>10.702818408847664</v>
       </c>
-      <c r="I64" s="8">
-        <f t="shared" si="22"/>
+      <c r="J64" s="8">
+        <f t="shared" si="26"/>
         <v>0.34365096567829279</v>
       </c>
-      <c r="J64" s="9">
-        <f t="shared" si="26"/>
+      <c r="K64" s="9">
+        <f t="shared" si="32"/>
         <v>392.0904500000143</v>
       </c>
-      <c r="K64" s="11">
-        <f>$A64/($F$37+K$7)</f>
+      <c r="L64" s="11">
+        <f t="shared" si="27"/>
         <v>10.710460549803642</v>
       </c>
-      <c r="L64" s="12">
-        <f t="shared" si="23"/>
+      <c r="M64" s="12">
+        <f t="shared" si="28"/>
         <v>0.11471396518892372</v>
       </c>
-      <c r="M64" s="13">
-        <f t="shared" si="27"/>
+      <c r="N64" s="13">
+        <f t="shared" si="33"/>
         <v>1176.3901499997578</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>31</v>
       </c>
-      <c r="B65" s="3">
-        <f>$A65/($F$37+B$7)</f>
+      <c r="B65" s="63">
+        <f t="shared" si="29"/>
+        <v>342.78580345996079</v>
+      </c>
+      <c r="C65" s="3">
+        <f t="shared" si="21"/>
         <v>11.06115749661029</v>
       </c>
-      <c r="C65" s="4">
-        <f t="shared" ref="C65:C70" si="28">($A65-($F$37*B65))*B65</f>
+      <c r="D65" s="4">
+        <f t="shared" ref="D65:D70" si="34">($A65-($G$37*C65))*C65</f>
         <v>0.31810793342855331</v>
       </c>
-      <c r="D65" s="5">
-        <f t="shared" ref="D65:D70" si="29">((175-40)/C65)-$D$7</f>
+      <c r="E65" s="5">
+        <f t="shared" ref="E65:E70" si="35">((175-40)/D65)-$E$7</f>
         <v>423.33426022569114</v>
       </c>
-      <c r="E65" s="11">
-        <f>$A65/($F$37+E$7)</f>
+      <c r="F65" s="11">
+        <f t="shared" si="23"/>
         <v>11.057606563224542</v>
       </c>
-      <c r="F65" s="12">
-        <f t="shared" ref="F65:F70" si="30">($A65-($F$37*E65))*E65</f>
+      <c r="G65" s="12">
+        <f t="shared" ref="G65:G70" si="36">($A65-($G$37*F65))*F65</f>
         <v>0.42794732017472137</v>
       </c>
-      <c r="G65" s="13">
-        <f t="shared" ref="G65:G70" si="31">((175-40)/F65)-$G$7</f>
+      <c r="H65" s="13">
+        <f t="shared" ref="H65:H70" si="37">((175-40)/G65)-$H$7</f>
         <v>315.00938865765653</v>
       </c>
-      <c r="H65" s="7">
-        <f>$A65/($F$37+H$7)</f>
+      <c r="I65" s="7">
+        <f t="shared" si="25"/>
         <v>11.059579022475919</v>
       </c>
-      <c r="I65" s="8">
-        <f t="shared" ref="I65:I70" si="32">($A65-($F$37*H65))*H65</f>
+      <c r="J65" s="8">
+        <f t="shared" ref="J65:J70" si="38">($A65-($G$37*I65))*I65</f>
         <v>0.3669428644631601</v>
       </c>
-      <c r="J65" s="9">
-        <f t="shared" ref="J65:J70" si="33">((175-40)/I65)-$J$7</f>
+      <c r="K65" s="9">
+        <f t="shared" ref="K65:K70" si="39">((175-40)/J65)-$K$7</f>
         <v>367.15468782519019</v>
       </c>
-      <c r="K65" s="11">
-        <f>$A65/($F$37+K$7)</f>
+      <c r="L65" s="11">
+        <f t="shared" si="27"/>
         <v>11.067475901463764</v>
       </c>
-      <c r="L65" s="12">
-        <f t="shared" ref="L65:L70" si="34">($A65-($F$37*K65))*K65</f>
+      <c r="M65" s="12">
+        <f t="shared" ref="M65:M70" si="40">($A65-($G$37*L65))*L65</f>
         <v>0.12248902282947095</v>
       </c>
-      <c r="M65" s="13">
-        <f t="shared" ref="M65:M70" si="35">((175-40)/L65)-$G$7</f>
+      <c r="N65" s="13">
+        <f t="shared" ref="N65:N70" si="41">((175-40)/M65)-$H$7</f>
         <v>1101.6895785640875</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>32</v>
       </c>
-      <c r="B66" s="3">
-        <f>$A66/($F$37+B$7)</f>
+      <c r="B66" s="63">
+        <f t="shared" si="29"/>
+        <v>365.25771357232037</v>
+      </c>
+      <c r="C66" s="3">
+        <f t="shared" si="21"/>
         <v>11.417969028759009</v>
       </c>
-      <c r="C66" s="4">
-        <f t="shared" si="28"/>
+      <c r="D66" s="4">
+        <f t="shared" si="34"/>
         <v>0.33896204352847553</v>
       </c>
-      <c r="D66" s="5">
-        <f t="shared" si="29"/>
+      <c r="E66" s="5">
+        <f t="shared" si="35"/>
         <v>397.22468171567982</v>
       </c>
-      <c r="E66" s="11">
-        <f>$A66/($F$37+E$7)</f>
+      <c r="F66" s="11">
+        <f t="shared" si="23"/>
         <v>11.414303549135012</v>
       </c>
-      <c r="F66" s="12">
-        <f t="shared" si="30"/>
+      <c r="G66" s="12">
+        <f t="shared" si="36"/>
         <v>0.45600213929124689</v>
       </c>
-      <c r="G66" s="13">
-        <f t="shared" si="31"/>
+      <c r="H66" s="13">
+        <f t="shared" si="37"/>
         <v>295.60124267580682</v>
       </c>
-      <c r="H66" s="7">
-        <f>$A66/($F$37+H$7)</f>
+      <c r="I66" s="7">
+        <f t="shared" si="25"/>
         <v>11.416339636104174</v>
       </c>
-      <c r="I66" s="8">
-        <f t="shared" si="32"/>
+      <c r="J66" s="8">
+        <f t="shared" si="38"/>
         <v>0.39099843206064616</v>
       </c>
-      <c r="J66" s="9">
-        <f t="shared" si="33"/>
+      <c r="K66" s="9">
+        <f t="shared" si="39"/>
         <v>344.51992675781548</v>
       </c>
-      <c r="K66" s="11">
-        <f>$A66/($F$37+K$7)</f>
+      <c r="L66" s="11">
+        <f t="shared" si="27"/>
         <v>11.424491253123886</v>
       </c>
-      <c r="L66" s="12">
-        <f t="shared" si="34"/>
+      <c r="M66" s="12">
+        <f t="shared" si="40"/>
         <v>0.13051900039265796</v>
       </c>
-      <c r="M66" s="13">
-        <f t="shared" si="35"/>
+      <c r="N66" s="13">
+        <f t="shared" si="41"/>
         <v>1033.8821630863035</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>33</v>
       </c>
-      <c r="B67" s="3">
-        <f>$A67/($F$37+B$7)</f>
+      <c r="B67" s="63">
+        <f t="shared" si="29"/>
+        <v>388.44301765650084</v>
+      </c>
+      <c r="C67" s="3">
+        <f t="shared" si="21"/>
         <v>11.774780560907729</v>
       </c>
-      <c r="C67" s="4">
-        <f t="shared" si="28"/>
+      <c r="D67" s="4">
+        <f t="shared" si="34"/>
         <v>0.36047818886958238</v>
       </c>
-      <c r="D67" s="5">
-        <f t="shared" si="29"/>
+      <c r="E67" s="5">
+        <f t="shared" si="35"/>
         <v>373.45254736172603</v>
       </c>
-      <c r="E67" s="11">
-        <f>$A67/($F$37+E$7)</f>
+      <c r="F67" s="11">
+        <f t="shared" si="23"/>
         <v>11.771000535045481</v>
       </c>
-      <c r="F67" s="12">
-        <f t="shared" si="30"/>
+      <c r="G67" s="12">
+        <f t="shared" si="36"/>
         <v>0.48494758758611584</v>
       </c>
-      <c r="G67" s="13">
-        <f t="shared" si="31"/>
+      <c r="H67" s="13">
+        <f t="shared" si="37"/>
         <v>277.93059917356953</v>
       </c>
-      <c r="H67" s="7">
-        <f>$A67/($F$37+H$7)</f>
+      <c r="I67" s="7">
+        <f t="shared" si="25"/>
         <v>11.77310024973243</v>
       </c>
-      <c r="I67" s="8">
-        <f t="shared" si="32"/>
+      <c r="J67" s="8">
+        <f t="shared" si="38"/>
         <v>0.41581766847079282</v>
       </c>
-      <c r="J67" s="9">
-        <f t="shared" si="33"/>
+      <c r="K67" s="9">
+        <f t="shared" si="39"/>
         <v>323.91152892558591</v>
       </c>
-      <c r="K67" s="11">
-        <f>$A67/($F$37+K$7)</f>
+      <c r="L67" s="11">
+        <f t="shared" si="27"/>
         <v>11.781506604784006</v>
       </c>
-      <c r="L67" s="12">
-        <f t="shared" si="34"/>
+      <c r="M67" s="12">
+        <f t="shared" si="40"/>
         <v>0.13880389787856842</v>
       </c>
-      <c r="M67" s="13">
-        <f t="shared" si="35"/>
+      <c r="N67" s="13">
+        <f t="shared" si="41"/>
         <v>972.14516528926129</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>34</v>
       </c>
-      <c r="B68" s="3">
-        <f>$A68/($F$37+B$7)</f>
+      <c r="B68" s="63">
+        <f t="shared" si="29"/>
+        <v>412.34171571250232</v>
+      </c>
+      <c r="C68" s="3">
+        <f t="shared" si="21"/>
         <v>12.131592093056447</v>
       </c>
-      <c r="C68" s="4">
-        <f t="shared" si="28"/>
+      <c r="D68" s="4">
+        <f t="shared" si="34"/>
         <v>0.38265636945208159</v>
       </c>
-      <c r="D68" s="5">
-        <f t="shared" si="29"/>
+      <c r="E68" s="5">
+        <f t="shared" si="35"/>
         <v>351.7469498934617</v>
       </c>
-      <c r="E68" s="11">
-        <f>$A68/($F$37+E$7)</f>
+      <c r="F68" s="11">
+        <f t="shared" si="23"/>
         <v>12.12769752095595</v>
       </c>
-      <c r="F68" s="12">
-        <f t="shared" si="30"/>
+      <c r="G68" s="12">
+        <f t="shared" si="36"/>
         <v>0.51478366505924578</v>
       </c>
-      <c r="G68" s="13">
-        <f t="shared" si="31"/>
+      <c r="H68" s="13">
+        <f t="shared" si="37"/>
         <v>261.79608347753816</v>
       </c>
-      <c r="H68" s="7">
-        <f>$A68/($F$37+H$7)</f>
+      <c r="I68" s="7">
+        <f t="shared" si="25"/>
         <v>12.129860863360685</v>
       </c>
-      <c r="I68" s="8">
-        <f t="shared" si="32"/>
+      <c r="J68" s="8">
+        <f t="shared" si="38"/>
         <v>0.44140057369347457</v>
       </c>
-      <c r="J68" s="9">
-        <f t="shared" si="33"/>
+      <c r="K68" s="9">
+        <f t="shared" si="39"/>
         <v>305.09464100345542</v>
       </c>
-      <c r="K68" s="11">
-        <f>$A68/($F$37+K$7)</f>
+      <c r="L68" s="11">
+        <f t="shared" si="27"/>
         <v>12.138521956444128</v>
       </c>
-      <c r="L68" s="12">
-        <f t="shared" si="34"/>
+      <c r="M68" s="12">
+        <f t="shared" si="40"/>
         <v>0.1473437152870806</v>
       </c>
-      <c r="M68" s="13">
-        <f t="shared" si="35"/>
+      <c r="N68" s="13">
+        <f t="shared" si="41"/>
         <v>915.77503027678893</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>35</v>
       </c>
-      <c r="B69" s="3">
-        <f>$A69/($F$37+B$7)</f>
+      <c r="B69" s="63">
+        <f t="shared" si="29"/>
+        <v>436.95380774032469</v>
+      </c>
+      <c r="C69" s="3">
+        <f t="shared" si="21"/>
         <v>12.488403625205168</v>
       </c>
-      <c r="C69" s="4">
-        <f t="shared" si="28"/>
+      <c r="D69" s="4">
+        <f t="shared" si="34"/>
         <v>0.40549658527567412</v>
       </c>
-      <c r="D69" s="5">
-        <f t="shared" si="29"/>
+      <c r="E69" s="5">
+        <f t="shared" si="35"/>
         <v>331.8751216954667</v>
       </c>
-      <c r="E69" s="11">
-        <f>$A69/($F$37+E$7)</f>
+      <c r="F69" s="11">
+        <f t="shared" si="23"/>
         <v>12.484394506866419</v>
       </c>
-      <c r="F69" s="12">
-        <f t="shared" si="30"/>
+      <c r="G69" s="12">
+        <f t="shared" si="36"/>
         <v>0.54551037171076588</v>
       </c>
-      <c r="G69" s="13">
-        <f t="shared" si="31"/>
+      <c r="H69" s="13">
+        <f t="shared" si="37"/>
         <v>247.02467142857208</v>
       </c>
-      <c r="H69" s="7">
-        <f>$A69/($F$37+H$7)</f>
+      <c r="I69" s="7">
+        <f t="shared" si="25"/>
         <v>12.48662147698894</v>
       </c>
-      <c r="I69" s="8">
-        <f t="shared" si="32"/>
+      <c r="J69" s="8">
+        <f t="shared" si="38"/>
         <v>0.46774714772886133</v>
       </c>
-      <c r="J69" s="9">
-        <f t="shared" si="33"/>
+      <c r="K69" s="9">
+        <f t="shared" si="39"/>
         <v>287.8674734693526</v>
       </c>
-      <c r="K69" s="11">
-        <f>$A69/($F$37+K$7)</f>
+      <c r="L69" s="11">
+        <f t="shared" si="27"/>
         <v>12.49553730810425</v>
       </c>
-      <c r="L69" s="12">
-        <f t="shared" si="34"/>
+      <c r="M69" s="12">
+        <f t="shared" si="40"/>
         <v>0.15613845261823511</v>
       </c>
-      <c r="M69" s="13">
-        <f t="shared" si="35"/>
+      <c r="N69" s="13">
+        <f t="shared" si="41"/>
         <v>864.16725306116939</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="18">
         <v>36</v>
       </c>
-      <c r="B70" s="19">
-        <f>$A70/($F$37+B$7)</f>
+      <c r="B70" s="67">
+        <f t="shared" si="29"/>
+        <v>462.27929373996795</v>
+      </c>
+      <c r="C70" s="19">
+        <f t="shared" si="21"/>
         <v>12.845215157353886</v>
       </c>
-      <c r="C70" s="20">
-        <f t="shared" si="28"/>
+      <c r="D70" s="20">
+        <f t="shared" si="34"/>
         <v>0.42899883634070979</v>
       </c>
-      <c r="D70" s="21">
-        <f t="shared" si="29"/>
+      <c r="E70" s="21">
+        <f t="shared" si="35"/>
         <v>313.63616826919161</v>
       </c>
-      <c r="E70" s="22">
-        <f>$A70/($F$37+E$7)</f>
+      <c r="F70" s="22">
+        <f t="shared" si="23"/>
         <v>12.841091492776888</v>
       </c>
-      <c r="F70" s="23">
-        <f t="shared" si="30"/>
+      <c r="G70" s="23">
+        <f t="shared" si="36"/>
         <v>0.57712770754050147</v>
       </c>
-      <c r="G70" s="24">
-        <f t="shared" si="31"/>
+      <c r="H70" s="24">
+        <f t="shared" si="37"/>
         <v>233.46703125001329</v>
       </c>
-      <c r="H70" s="25">
-        <f>$A70/($F$37+H$7)</f>
+      <c r="I70" s="25">
+        <f t="shared" si="25"/>
         <v>12.843382090617196</v>
       </c>
-      <c r="I70" s="26">
-        <f t="shared" si="32"/>
+      <c r="J70" s="26">
+        <f t="shared" si="38"/>
         <v>0.49485739057677808</v>
       </c>
-      <c r="J70" s="62">
-        <f t="shared" si="33"/>
+      <c r="K70" s="49">
+        <f t="shared" si="39"/>
         <v>272.05586805554537</v>
       </c>
-      <c r="K70" s="22">
-        <f>$A70/($F$37+K$7)</f>
+      <c r="L70" s="22">
+        <f t="shared" si="27"/>
         <v>12.85255265976437</v>
       </c>
-      <c r="L70" s="23">
-        <f t="shared" si="34"/>
+      <c r="M70" s="23">
+        <f t="shared" si="40"/>
         <v>0.16518810987203189</v>
       </c>
-      <c r="M70" s="24">
-        <f t="shared" si="35"/>
+      <c r="N70" s="24">
+        <f t="shared" si="41"/>
         <v>816.80010416658888</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="B39:M39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="A37:E38"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="F37:J38"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="F2:J3"/>
-    <mergeCell ref="A2:E3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B6:C6"/>
+  <mergeCells count="34">
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="G2:K3"/>
+    <mergeCell ref="A2:F3"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="G37:K38"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="C39:N39"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:J42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3957,8 +4226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3981,120 +4250,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="50">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="62">
         <v>1.3</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="46"/>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="46"/>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="57" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="59" t="s">
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="57" t="s">
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="46"/>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="55"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="54"/>
+      <c r="G6" s="51"/>
       <c r="H6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="53"/>
+      <c r="J6" s="58"/>
       <c r="K6" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="54" t="s">
+      <c r="L6" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="54"/>
+      <c r="M6" s="51"/>
       <c r="N6" s="40" t="s">
         <v>13</v>
       </c>
@@ -4102,31 +4371,31 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="46"/>
-      <c r="C7" s="61">
+      <c r="C7" s="54">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="D7" s="61"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="44">
         <v>1.05</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="52">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="G7" s="56"/>
+      <c r="G7" s="52"/>
       <c r="H7" s="41">
         <v>0.45</v>
       </c>
-      <c r="I7" s="60">
+      <c r="I7" s="55">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J7" s="60"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="45">
         <v>0.75</v>
       </c>
-      <c r="L7" s="56">
+      <c r="L7" s="52">
         <v>1E-3</v>
       </c>
-      <c r="M7" s="56"/>
+      <c r="M7" s="52"/>
       <c r="N7" s="41">
         <v>0.4</v>
       </c>
@@ -5373,120 +5642,120 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="50">
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="62">
         <v>12</v>
       </c>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
     </row>
     <row r="33" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="57" t="s">
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="59" t="s">
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="57" t="s">
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="55"/>
+      <c r="D35" s="57"/>
       <c r="E35" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="54" t="s">
+      <c r="F35" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="54"/>
+      <c r="G35" s="51"/>
       <c r="H35" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="I35" s="53" t="s">
+      <c r="I35" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="J35" s="53"/>
+      <c r="J35" s="58"/>
       <c r="K35" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="L35" s="54" t="s">
+      <c r="L35" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="M35" s="54"/>
+      <c r="M35" s="51"/>
       <c r="N35" s="40" t="s">
         <v>13</v>
       </c>
@@ -5494,31 +5763,31 @@
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="46"/>
-      <c r="C36" s="61">
+      <c r="C36" s="54">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="D36" s="61"/>
+      <c r="D36" s="54"/>
       <c r="E36" s="44">
         <v>1.05</v>
       </c>
-      <c r="F36" s="56">
+      <c r="F36" s="52">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="G36" s="56"/>
+      <c r="G36" s="52"/>
       <c r="H36" s="41">
         <v>0.45</v>
       </c>
-      <c r="I36" s="60">
+      <c r="I36" s="55">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J36" s="60"/>
+      <c r="J36" s="55"/>
       <c r="K36" s="45">
         <v>0.75</v>
       </c>
-      <c r="L36" s="56">
+      <c r="L36" s="52">
         <v>1E-3</v>
       </c>
-      <c r="M36" s="56"/>
+      <c r="M36" s="52"/>
       <c r="N36" s="41">
         <v>0.4</v>
       </c>
@@ -6766,6 +7035,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A31:F32"/>
+    <mergeCell ref="G31:K32"/>
+    <mergeCell ref="C33:N33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:F3"/>
     <mergeCell ref="G2:K3"/>
@@ -6774,30 +7067,6 @@
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="L5:N5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A31:F32"/>
-    <mergeCell ref="G31:K32"/>
-    <mergeCell ref="C33:N33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="L36:M36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Comparing Mosfets.xlsx
+++ b/Comparing Mosfets.xlsx
@@ -79,7 +79,7 @@
     <numFmt numFmtId="166" formatCode="0.00\ &quot;W&quot;"/>
     <numFmt numFmtId="167" formatCode="0\ &quot;K/W&quot;"/>
     <numFmt numFmtId="168" formatCode="0\ &quot;W&quot;"/>
-    <numFmt numFmtId="172" formatCode="0\ \W"/>
+    <numFmt numFmtId="169" formatCode="0\ \W"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -323,31 +323,44 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -356,23 +369,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -680,13 +680,13 @@
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="65" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="52" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
@@ -703,152 +703,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="62">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="56">
         <v>1.3</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="59" t="s">
+      <c r="B5" s="50"/>
+      <c r="C5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="50" t="s">
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="60" t="s">
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="50" t="s">
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="57" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="57"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="51"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="58"/>
+      <c r="J6" s="59"/>
       <c r="K6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="51" t="s">
+      <c r="L6" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="51"/>
+      <c r="M6" s="60"/>
       <c r="N6" s="38" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="54">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="D7" s="54"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="67">
+        <v>3.3E-3</v>
+      </c>
+      <c r="D7" s="67"/>
       <c r="E7" s="15">
         <v>1.05</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="62">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="G7" s="52"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="16">
-        <v>0.45</v>
-      </c>
-      <c r="I7" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="I7" s="66">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J7" s="55"/>
+      <c r="J7" s="66"/>
       <c r="K7" s="17">
         <v>0.75</v>
       </c>
-      <c r="L7" s="52">
+      <c r="L7" s="62">
         <v>1E-3</v>
       </c>
-      <c r="M7" s="52"/>
+      <c r="M7" s="62"/>
       <c r="N7" s="39">
         <v>0.4</v>
       </c>
@@ -857,7 +857,7 @@
       <c r="A8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="51" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -901,21 +901,21 @@
       <c r="A9" s="1">
         <v>10</v>
       </c>
-      <c r="B9" s="63">
+      <c r="B9" s="50">
         <f>A9*F9</f>
         <v>76.716532412734935</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ref="C9:C35" si="0">$A9/($G$2+C$7)</f>
-        <v>7.6769537847382159</v>
+        <v>7.6728305071740959</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ref="D9:D29" si="1">($A9-($G$2*C9))*C9</f>
-        <v>0.15323261047381051</v>
+        <v>0.19427868237301338</v>
       </c>
       <c r="E9" s="5">
         <f>((175-40)/D9)-$E$7</f>
-        <v>879.96351000003551</v>
+        <v>693.82809136362778</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" ref="F9:F35" si="2">$A9/($G$2+F$7)</f>
@@ -927,7 +927,7 @@
       </c>
       <c r="H9" s="13">
         <f>((175-40)/G9)-$H$7</f>
-        <v>654.9218678571342</v>
+        <v>654.97186785713427</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" ref="I9:I35" si="4">$A9/($G$2+I$7)</f>
@@ -951,28 +951,28 @@
       </c>
       <c r="N9" s="13">
         <f t="shared" ref="N9:N29" si="8">((175-40)/M9)-$H$7</f>
-        <v>2284.5613499999426</v>
+        <v>2284.6113499999424</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>11</v>
       </c>
-      <c r="B10" s="63">
+      <c r="B10" s="50">
         <f t="shared" ref="B10:B35" si="9">A10*F10</f>
         <v>92.827004219409275</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="0"/>
-        <v>8.4446491632120377</v>
+        <v>8.4401135578915056</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="1"/>
-        <v>0.18541145867330622</v>
+        <v>0.23507720567135068</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ref="E10:E29" si="10">((175-40)/D10)-$E$7</f>
-        <v>727.06033884302224</v>
+        <v>573.22941435009466</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="2"/>
@@ -984,7 +984,7 @@
       </c>
       <c r="H10" s="13">
         <f t="shared" ref="H10:H29" si="11">((175-40)/G10)-$H$7</f>
-        <v>541.17964285716164</v>
+        <v>541.22964285716171</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="4"/>
@@ -1008,28 +1008,28 @@
       </c>
       <c r="N10" s="13">
         <f t="shared" si="8"/>
-        <v>1887.9891322314368</v>
+        <v>1888.0391322314367</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>12</v>
       </c>
-      <c r="B11" s="67">
+      <c r="B11" s="53">
         <f t="shared" si="9"/>
         <v>110.47180667433832</v>
       </c>
       <c r="C11" s="19">
         <f t="shared" si="0"/>
-        <v>9.2123445416858587</v>
+        <v>9.2073966086089154</v>
       </c>
       <c r="D11" s="20">
         <f t="shared" si="1"/>
-        <v>0.22065495908229366</v>
+        <v>0.27976130261713272</v>
       </c>
       <c r="E11" s="21">
         <f t="shared" si="10"/>
-        <v>610.76493750000657</v>
+        <v>481.50423011364165</v>
       </c>
       <c r="F11" s="22">
         <f t="shared" si="2"/>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="H11" s="24">
         <f t="shared" si="11"/>
-        <v>454.66935267858042</v>
+        <v>454.71935267858044</v>
       </c>
       <c r="I11" s="25">
         <f t="shared" si="4"/>
@@ -1065,28 +1065,28 @@
       </c>
       <c r="N11" s="24">
         <f t="shared" si="8"/>
-        <v>1586.3634375000822</v>
+        <v>1586.4134375000822</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>13</v>
       </c>
-      <c r="B12" s="63">
+      <c r="B12" s="50">
         <f t="shared" si="9"/>
         <v>129.65093977752204</v>
       </c>
       <c r="C12" s="29">
         <f t="shared" si="0"/>
-        <v>9.9800399201596814</v>
+        <v>9.9746796593263252</v>
       </c>
       <c r="D12" s="30">
         <f t="shared" si="1"/>
-        <v>0.25896311170074154</v>
+        <v>0.32833097321039084</v>
       </c>
       <c r="E12" s="31">
         <f t="shared" si="10"/>
-        <v>520.25976923078667</v>
+        <v>410.12046826250383</v>
       </c>
       <c r="F12" s="32">
         <f t="shared" si="2"/>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="H12" s="34">
         <f t="shared" si="11"/>
-        <v>387.34400464919969</v>
+        <v>387.3940046491997</v>
       </c>
       <c r="I12" s="35">
         <f t="shared" si="4"/>
@@ -1122,28 +1122,28 @@
       </c>
       <c r="N12" s="34">
         <f t="shared" si="8"/>
-        <v>1351.6277218936011</v>
+        <v>1351.6777218936011</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>14</v>
       </c>
-      <c r="B13" s="63">
+      <c r="B13" s="50">
         <f t="shared" si="9"/>
         <v>150.36440352896048</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="0"/>
-        <v>10.747735298633502</v>
+        <v>10.741962710043735</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="1"/>
-        <v>0.30033591652866476</v>
+        <v>0.38078621745109098</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="10"/>
-        <v>448.44668877553403</v>
+        <v>353.47963845084467</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="2"/>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="H13" s="13">
         <f t="shared" si="11"/>
-        <v>333.92340196792878</v>
+        <v>333.97340196792879</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="4"/>
@@ -1179,28 +1179,28 @@
       </c>
       <c r="N13" s="13">
         <f t="shared" si="8"/>
-        <v>1165.3721173472554</v>
+        <v>1165.4221173472554</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>15</v>
       </c>
-      <c r="B14" s="63">
+      <c r="B14" s="50">
         <f t="shared" si="9"/>
         <v>172.61219792865361</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" si="0"/>
-        <v>11.515430677107323</v>
+        <v>11.509245760761143</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="1"/>
-        <v>0.34477337356608384</v>
+        <v>0.43712703533929026</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="10"/>
-        <v>390.51156000000418</v>
+        <v>307.78470727271622</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="2"/>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H14" s="13">
         <f t="shared" si="11"/>
-        <v>290.82638571428186</v>
+        <v>290.87638571428187</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="4"/>
@@ -1236,28 +1236,28 @@
       </c>
       <c r="N14" s="13">
         <f t="shared" si="8"/>
-        <v>1015.1106000001306</v>
+        <v>1015.1606000001307</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>16</v>
       </c>
-      <c r="B15" s="63">
+      <c r="B15" s="50">
         <f t="shared" si="9"/>
         <v>196.39432297660144</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>12.283126055581146</v>
+        <v>12.276528811478553</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="1"/>
-        <v>0.39227548281295926</v>
+        <v>0.49735342687493167</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="10"/>
-        <v>343.09590234376003</v>
+        <v>270.38675443890753</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="2"/>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="H15" s="13">
         <f t="shared" si="11"/>
-        <v>255.5546358816909</v>
+        <v>255.60463588169088</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="4"/>
@@ -1293,28 +1293,28 @@
       </c>
       <c r="N15" s="13">
         <f t="shared" si="8"/>
-        <v>892.1325585938821</v>
+        <v>892.18255859388216</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>17</v>
       </c>
-      <c r="B16" s="63">
+      <c r="B16" s="50">
         <f t="shared" si="9"/>
         <v>221.71077867280397</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" si="0"/>
-        <v>13.050821434054967</v>
+        <v>13.043811862195962</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="1"/>
-        <v>0.44284224426931007</v>
+        <v>0.56146539205803414</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="10"/>
-        <v>303.79896539793771</v>
+        <v>239.39224614657306</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="2"/>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="H16" s="13">
         <f t="shared" si="11"/>
-        <v>226.32227261493063</v>
+        <v>226.37227261493061</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="4"/>
@@ -1350,28 +1350,28 @@
       </c>
       <c r="N16" s="13">
         <f t="shared" si="8"/>
-        <v>790.21136678213736</v>
+        <v>790.26136678213743</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>18</v>
       </c>
-      <c r="B17" s="63">
+      <c r="B17" s="50">
         <f t="shared" si="9"/>
         <v>248.56156501726119</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" si="0"/>
-        <v>13.818516812528788</v>
+        <v>13.811094912913372</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" si="1"/>
-        <v>0.49647365793516074</v>
+        <v>0.62946293088859762</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="10"/>
-        <v>270.8677500000029</v>
+        <v>213.41854671715737</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="2"/>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="H17" s="13">
         <f t="shared" si="11"/>
-        <v>201.82526785714316</v>
+        <v>201.87526785714314</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="4"/>
@@ -1407,28 +1407,28 @@
       </c>
       <c r="N17" s="13">
         <f t="shared" si="8"/>
-        <v>704.80041666679369</v>
+        <v>704.85041666679376</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>19</v>
       </c>
-      <c r="B18" s="63">
+      <c r="B18" s="50">
         <f t="shared" si="9"/>
         <v>276.94668200997313</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" si="0"/>
-        <v>14.586212191002611</v>
+        <v>14.578377963630782</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="1"/>
-        <v>0.55316972381043783</v>
+        <v>0.70134604336657047</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="10"/>
-        <v>242.99806371192918</v>
+        <v>191.43700591790454</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="2"/>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="H18" s="13">
         <f t="shared" si="11"/>
-        <v>181.09345370003842</v>
+        <v>181.14345370003841</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="4"/>
@@ -1464,28 +1464,28 @@
       </c>
       <c r="N18" s="13">
         <f t="shared" si="8"/>
-        <v>632.5171329641114</v>
+        <v>632.56713296411147</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>20</v>
       </c>
-      <c r="B19" s="63">
+      <c r="B19" s="50">
         <f t="shared" si="9"/>
         <v>306.86612965093974</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" si="0"/>
-        <v>15.353907569476432</v>
+        <v>15.345661014348192</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="1"/>
-        <v>0.61293044189524204</v>
+        <v>0.77711472949205351</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="10"/>
-        <v>219.20337750000886</v>
+        <v>172.66952284090692</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="2"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="H19" s="13">
         <f t="shared" si="11"/>
-        <v>163.39296696428357</v>
+        <v>163.44296696428356</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="4"/>
@@ -1521,28 +1521,28 @@
       </c>
       <c r="N19" s="13">
         <f t="shared" si="8"/>
-        <v>570.80283749998557</v>
+        <v>570.85283749998564</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>21</v>
       </c>
-      <c r="B20" s="63">
+      <c r="B20" s="50">
         <f t="shared" si="9"/>
         <v>338.31990794016104</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" si="0"/>
-        <v>16.121602947950255</v>
+        <v>16.112944065065602</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" si="1"/>
-        <v>0.67575581218946712</v>
+        <v>0.85676898926499756</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="10"/>
-        <v>198.72630612246803</v>
+        <v>156.51872820036752</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="H20" s="13">
         <f t="shared" si="11"/>
-        <v>148.16040087463267</v>
+        <v>148.21040087463265</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="4"/>
@@ -1578,28 +1578,28 @@
       </c>
       <c r="N20" s="13">
         <f t="shared" si="8"/>
-        <v>517.69316326541832</v>
+        <v>517.74316326541839</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>22</v>
       </c>
-      <c r="B21" s="63">
+      <c r="B21" s="50">
         <f t="shared" si="9"/>
         <v>371.3080168776371</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" si="0"/>
-        <v>16.889298326424075</v>
+        <v>16.880227115783011</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" si="1"/>
-        <v>0.74164583469322487</v>
+        <v>0.94030882268540272</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="10"/>
-        <v>180.97758471075554</v>
+        <v>142.51985358752364</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="2"/>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="H21" s="13">
         <f t="shared" si="11"/>
-        <v>134.95741071429043</v>
+        <v>135.00741071429042</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="4"/>
@@ -1635,28 +1635,28 @@
       </c>
       <c r="N21" s="13">
         <f t="shared" si="8"/>
-        <v>471.65978305785922</v>
+        <v>471.70978305785923</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>23</v>
       </c>
-      <c r="B22" s="63">
+      <c r="B22" s="50">
         <f t="shared" si="9"/>
         <v>405.8304564633678</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" si="0"/>
-        <v>17.656993704897896</v>
+        <v>17.647510166500421</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="1"/>
-        <v>0.81060050940646067</v>
+        <v>1.0277342297532064</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="10"/>
-        <v>165.49319659735957</v>
+        <v>130.3069170819756</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="2"/>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="H22" s="13">
         <f t="shared" si="11"/>
-        <v>123.43882190115745</v>
+        <v>123.48882190115745</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="4"/>
@@ -1692,28 +1692,28 @@
       </c>
       <c r="N22" s="13">
         <f t="shared" si="8"/>
-        <v>431.4992155010471</v>
+        <v>431.54921550104712</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>24</v>
       </c>
-      <c r="B23" s="67">
+      <c r="B23" s="53">
         <f t="shared" si="9"/>
         <v>441.8872266973533</v>
       </c>
       <c r="C23" s="19">
         <f t="shared" si="0"/>
-        <v>18.424689083371717</v>
+        <v>18.414793217217831</v>
       </c>
       <c r="D23" s="20">
         <f t="shared" si="1"/>
-        <v>0.88261983632917462</v>
+        <v>1.1190452104685309</v>
       </c>
       <c r="E23" s="21">
         <f t="shared" si="10"/>
-        <v>151.90373437500162</v>
+        <v>119.58855752841042</v>
       </c>
       <c r="F23" s="22">
         <f t="shared" si="2"/>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="H23" s="24">
         <f t="shared" si="11"/>
-        <v>113.3298381696451</v>
+        <v>113.3798381696451</v>
       </c>
       <c r="I23" s="25">
         <f t="shared" si="4"/>
@@ -1749,28 +1749,28 @@
       </c>
       <c r="N23" s="24">
         <f t="shared" si="8"/>
-        <v>396.25335937502058</v>
+        <v>396.30335937502059</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>25</v>
       </c>
-      <c r="B24" s="63">
+      <c r="B24" s="50">
         <f t="shared" si="9"/>
         <v>479.47832757959333</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" si="0"/>
-        <v>19.192384461845538</v>
+        <v>19.182076267935241</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="1"/>
-        <v>0.95770381546136674</v>
+        <v>1.2142417648313166</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" si="10"/>
-        <v>139.91216159999814</v>
+        <v>110.130494618182</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="2"/>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="H24" s="13">
         <f t="shared" si="11"/>
-        <v>104.40949885713869</v>
+        <v>104.45949885713868</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="4"/>
@@ -1806,28 +1806,28 @@
       </c>
       <c r="N24" s="13">
         <f t="shared" si="8"/>
-        <v>365.15181600002455</v>
+        <v>365.20181600002456</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>26</v>
       </c>
-      <c r="B25" s="63">
+      <c r="B25" s="50">
         <f t="shared" si="9"/>
         <v>518.60375911008816</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" si="0"/>
-        <v>19.960079840319363</v>
+        <v>19.94935931865265</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="1"/>
-        <v>1.0358524468029662</v>
+        <v>1.3133238928415634</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="10"/>
-        <v>129.27744230769665</v>
+        <v>101.74261706562596</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="2"/>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="H25" s="13">
         <f t="shared" si="11"/>
-        <v>96.498501162299917</v>
+        <v>96.548501162299914</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="4"/>
@@ -1863,28 +1863,28 @@
       </c>
       <c r="N25" s="13">
         <f t="shared" si="8"/>
-        <v>337.5694304734003</v>
+        <v>337.61943047340031</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>27</v>
       </c>
-      <c r="B26" s="63">
+      <c r="B26" s="50">
         <f t="shared" si="9"/>
         <v>559.26352128883764</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" si="0"/>
-        <v>20.727775218793184</v>
+        <v>20.71664236937006</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="1"/>
-        <v>1.1170657303541118</v>
+        <v>1.4162915944992713</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" si="10"/>
-        <v>119.80233333333462</v>
+        <v>94.269354096519322</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="2"/>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H26" s="13">
         <f t="shared" si="11"/>
-        <v>89.450119047614777</v>
+        <v>89.500119047614774</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="4"/>
@@ -1920,28 +1920,28 @@
       </c>
       <c r="N26" s="13">
         <f t="shared" si="8"/>
-        <v>312.99462962965924</v>
+        <v>313.04462962965925</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>28</v>
       </c>
-      <c r="B27" s="63">
+      <c r="B27" s="50">
         <f t="shared" si="9"/>
         <v>601.45761411584192</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" si="0"/>
-        <v>21.495470597267005</v>
+        <v>21.48392542008747</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" si="1"/>
-        <v>1.201343666114659</v>
+        <v>1.5231448698043639</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="10"/>
-        <v>111.32417219388351</v>
+        <v>87.582409612711174</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="2"/>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H27" s="13">
         <f t="shared" si="11"/>
-        <v>83.14335049198219</v>
+        <v>83.193350491982187</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="4"/>
@@ -1977,28 +1977,28 @@
       </c>
       <c r="N27" s="13">
         <f t="shared" si="8"/>
-        <v>291.00552933681388</v>
+        <v>291.05552933681389</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>29</v>
       </c>
-      <c r="B28" s="63">
+      <c r="B28" s="50">
         <f t="shared" si="9"/>
         <v>645.18603759110078</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" si="0"/>
-        <v>22.263165975740826</v>
+        <v>22.251208470804876</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" si="1"/>
-        <v>1.2886862540847581</v>
+        <v>1.6338837187571491</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="10"/>
-        <v>103.70784898930172</v>
+        <v>81.575218949296357</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" si="2"/>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="H28" s="13">
         <f t="shared" si="11"/>
-        <v>77.477689400369471</v>
+        <v>77.527689400369468</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="4"/>
@@ -2034,28 +2034,28 @@
       </c>
       <c r="N28" s="13">
         <f t="shared" si="8"/>
-        <v>271.25170630205349</v>
+        <v>271.3017063020535</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>30</v>
       </c>
-      <c r="B29" s="63">
+      <c r="B29" s="50">
         <f t="shared" si="9"/>
         <v>690.44879171461446</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" si="0"/>
-        <v>23.030861354214647</v>
+        <v>23.018491521522286</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" si="1"/>
-        <v>1.3790934942643354</v>
+        <v>1.748508141357161</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" si="10"/>
-        <v>96.840390000001051</v>
+        <v>76.15867681817906</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" si="2"/>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="H29" s="13">
         <f t="shared" si="11"/>
-        <v>72.369096428570458</v>
+        <v>72.419096428570455</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="4"/>
@@ -2091,28 +2091,28 @@
       </c>
       <c r="N29" s="13">
         <f t="shared" si="8"/>
-        <v>253.44015000003267</v>
+        <v>253.49015000003266</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>31</v>
       </c>
-      <c r="B30" s="63">
+      <c r="B30" s="50">
         <f t="shared" si="9"/>
         <v>737.24587648638271</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" si="0"/>
-        <v>23.798556732688471</v>
+        <v>23.785774572239696</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ref="D30:D35" si="13">($A30-($G$2*C30))*C30</f>
-        <v>1.4725653866533064</v>
+        <v>1.8670181376047132</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ref="E30:E35" si="14">((175-40)/D30)-$E$7</f>
-        <v>90.626744016653802</v>
+        <v>71.257813877586614</v>
       </c>
       <c r="F30" s="11">
         <f t="shared" si="2"/>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="H30" s="13">
         <f t="shared" ref="H30:H35" si="16">((175-40)/G30)-$H$7</f>
-        <v>67.746864501259452</v>
+        <v>67.796864501259449</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="4"/>
@@ -2148,28 +2148,28 @@
       </c>
       <c r="N30" s="13">
         <f t="shared" ref="N30:N35" si="20">((175-40)/M30)-$H$7</f>
-        <v>237.32433402708818</v>
+        <v>237.37433402708817</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>32</v>
       </c>
-      <c r="B31" s="63">
+      <c r="B31" s="50">
         <f t="shared" si="9"/>
         <v>785.57729190640578</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" si="0"/>
-        <v>24.566252111162292</v>
+        <v>24.553057622957105</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" si="13"/>
-        <v>1.5691019312518371</v>
+        <v>1.9894137074997267</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" si="14"/>
-        <v>84.986475585940013</v>
+        <v>66.809188609726888</v>
       </c>
       <c r="F31" s="11">
         <f t="shared" si="2"/>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="H31" s="13">
         <f t="shared" si="16"/>
-        <v>63.551158970422719</v>
+        <v>63.601158970422723</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="4"/>
@@ -2205,28 +2205,28 @@
       </c>
       <c r="N31" s="13">
         <f t="shared" si="20"/>
-        <v>222.69563964847055</v>
+        <v>222.74563964847053</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>33</v>
       </c>
-      <c r="B32" s="63">
+      <c r="B32" s="50">
         <f t="shared" si="9"/>
         <v>835.44303797468342</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" si="0"/>
-        <v>25.333947489636113</v>
+        <v>25.320340673674515</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" si="13"/>
-        <v>1.668703128059756</v>
+        <v>2.115694851042111</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="14"/>
-        <v>79.851148760335803</v>
+        <v>62.758823816678543</v>
       </c>
       <c r="F32" s="11">
         <f t="shared" si="2"/>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="H32" s="13">
         <f t="shared" si="16"/>
-        <v>59.731071428569912</v>
+        <v>59.781071428569916</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="4"/>
@@ -2262,28 +2262,28 @@
       </c>
       <c r="N32" s="13">
         <f t="shared" si="20"/>
-        <v>209.37657024793742</v>
+        <v>209.42657024793741</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>34</v>
       </c>
-      <c r="B33" s="63">
+      <c r="B33" s="50">
         <f t="shared" si="9"/>
         <v>886.84311469121587</v>
       </c>
       <c r="C33" s="3">
         <f t="shared" si="0"/>
-        <v>26.101642868109934</v>
+        <v>26.087623724391925</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" si="13"/>
-        <v>1.7713689770772403</v>
+        <v>2.2458615682321366</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" si="14"/>
-        <v>75.162241349484432</v>
+        <v>59.06056153664327</v>
       </c>
       <c r="F33" s="11">
         <f t="shared" si="2"/>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="H33" s="13">
         <f t="shared" si="16"/>
-        <v>56.243068153732651</v>
+        <v>56.293068153732655</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="4"/>
@@ -2319,28 +2319,28 @@
       </c>
       <c r="N33" s="13">
         <f t="shared" si="20"/>
-        <v>197.21534169553436</v>
+        <v>197.26534169553435</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>35</v>
       </c>
-      <c r="B34" s="63">
+      <c r="B34" s="50">
         <f t="shared" si="9"/>
         <v>939.77752205600302</v>
       </c>
       <c r="C34" s="3">
         <f t="shared" si="0"/>
-        <v>26.869338246583755</v>
+        <v>26.854906775109335</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" si="13"/>
-        <v>1.8770994783042025</v>
+        <v>2.3799138590694375</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" si="14"/>
-        <v>70.869470204083626</v>
+        <v>55.674742152132318</v>
       </c>
       <c r="F34" s="11">
         <f t="shared" si="2"/>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="H34" s="13">
         <f t="shared" si="16"/>
-        <v>53.04974431487112</v>
+        <v>53.099744314871124</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="4"/>
@@ -2376,28 +2376,28 @@
       </c>
       <c r="N34" s="13">
         <f t="shared" si="20"/>
-        <v>186.08153877551783</v>
+        <v>186.13153877551781</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>36</v>
       </c>
-      <c r="B35" s="67">
+      <c r="B35" s="53">
         <f t="shared" si="9"/>
         <v>994.24626006904475</v>
       </c>
       <c r="C35" s="19">
         <f t="shared" si="0"/>
-        <v>27.637033625057576</v>
+        <v>27.622189825826744</v>
       </c>
       <c r="D35" s="20">
         <f t="shared" si="13"/>
-        <v>1.985894631740643</v>
+        <v>2.5178517235543905</v>
       </c>
       <c r="E35" s="21">
         <f t="shared" si="14"/>
-        <v>66.929437500000731</v>
+        <v>52.567136679289348</v>
       </c>
       <c r="F35" s="22">
         <f t="shared" si="2"/>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="H35" s="24">
         <f t="shared" si="16"/>
-        <v>50.118816964285784</v>
+        <v>50.168816964285789</v>
       </c>
       <c r="I35" s="25">
         <f t="shared" si="4"/>
@@ -2433,166 +2433,166 @@
       </c>
       <c r="N35" s="24">
         <f t="shared" si="20"/>
-        <v>175.86260416669845</v>
+        <v>175.91260416669843</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="62">
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="56">
         <v>2.8</v>
       </c>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="66" t="s">
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="M37" s="66"/>
-      <c r="N37" s="66"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="66" t="s">
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
     </row>
     <row r="39" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="53" t="s">
+      <c r="B39" s="50"/>
+      <c r="C39" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="59" t="s">
+      <c r="B40" s="50"/>
+      <c r="C40" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="50" t="s">
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="60" t="s">
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="50" t="s">
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="57" t="s">
+      <c r="B41" s="50"/>
+      <c r="C41" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="57"/>
+      <c r="D41" s="61"/>
       <c r="E41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="51" t="s">
+      <c r="F41" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="G41" s="51"/>
+      <c r="G41" s="60"/>
       <c r="H41" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="58" t="s">
+      <c r="I41" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="J41" s="58"/>
+      <c r="J41" s="59"/>
       <c r="K41" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L41" s="51" t="s">
+      <c r="L41" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="M41" s="51"/>
+      <c r="M41" s="60"/>
       <c r="N41" s="38" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="54">
+      <c r="B42" s="50"/>
+      <c r="C42" s="67">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="D42" s="54"/>
+      <c r="D42" s="67"/>
       <c r="E42" s="15">
         <v>1.05</v>
       </c>
-      <c r="F42" s="52">
+      <c r="F42" s="62">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="G42" s="52"/>
+      <c r="G42" s="62"/>
       <c r="H42" s="16">
         <v>0.45</v>
       </c>
-      <c r="I42" s="55">
+      <c r="I42" s="66">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J42" s="55"/>
+      <c r="J42" s="66"/>
       <c r="K42" s="17">
         <v>0.75</v>
       </c>
-      <c r="L42" s="52">
+      <c r="L42" s="62">
         <v>1E-3</v>
       </c>
-      <c r="M42" s="52"/>
+      <c r="M42" s="62"/>
       <c r="N42" s="39">
         <v>0.4</v>
       </c>
@@ -2601,7 +2601,7 @@
       <c r="A43" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="51" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -2645,21 +2645,21 @@
       <c r="A44" s="1">
         <v>10</v>
       </c>
-      <c r="B44" s="63">
+      <c r="B44" s="50">
         <f>A44*F44</f>
         <v>35.66969859104691</v>
       </c>
       <c r="C44" s="3">
         <f t="shared" ref="C44:C70" si="21">$A44/($G$37+C$7)</f>
-        <v>3.5681153214871904</v>
+        <v>3.5672243427389154</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" ref="D44:D64" si="22">($A44-($G$37*C44))*C44</f>
-        <v>3.3101762063328481E-2</v>
+        <v>4.1992795387714714E-2</v>
       </c>
       <c r="E44" s="5">
         <f>((175-40)/D44)-$E$7</f>
-        <v>4077.2827407684636</v>
+        <v>3213.7871822728234</v>
       </c>
       <c r="F44" s="11">
         <f t="shared" ref="F44:F70" si="23">$A44/($G$37+F$7)</f>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="H44" s="13">
         <f>((175-40)/G44)-$H$7</f>
-        <v>3031.114725000316</v>
+        <v>3031.1647250003157</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" ref="I44:I70" si="25">$A44/($G$37+I$7)</f>
@@ -2695,28 +2695,28 @@
       </c>
       <c r="N44" s="13">
         <f>((175-40)/M44)-$H$7</f>
-        <v>10591.11135000309</v>
+        <v>10591.161350003091</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>11</v>
       </c>
-      <c r="B45" s="63">
+      <c r="B45" s="50">
         <f t="shared" ref="B45:B70" si="29">A45*F45</f>
         <v>43.16033529516676</v>
       </c>
       <c r="C45" s="3">
         <f t="shared" si="21"/>
-        <v>3.9249268536359097</v>
+        <v>3.9239467770128069</v>
       </c>
       <c r="D45" s="4">
         <f t="shared" si="22"/>
-        <v>4.0053132096622583E-2</v>
+        <v>5.0811282419134109E-2</v>
       </c>
       <c r="E45" s="5">
         <f t="shared" ref="E45:E64" si="30">((175-40)/D45)-$E$7</f>
-        <v>3369.4729262553392</v>
+        <v>2655.8402332833616</v>
       </c>
       <c r="F45" s="11">
         <f t="shared" si="23"/>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="H45" s="13">
         <f t="shared" ref="H45:H64" si="31">((175-40)/G45)-$H$7</f>
-        <v>2504.975392562018</v>
+        <v>2505.0253925620177</v>
       </c>
       <c r="I45" s="7">
         <f t="shared" si="25"/>
@@ -2752,28 +2752,28 @@
       </c>
       <c r="N45" s="13">
         <f t="shared" ref="N45:N64" si="33">((175-40)/M45)-$H$7</f>
-        <v>8752.9064876046705</v>
+        <v>8752.9564876046716</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
         <v>12</v>
       </c>
-      <c r="B46" s="67">
+      <c r="B46" s="53">
         <f t="shared" si="29"/>
         <v>51.364365971107546</v>
       </c>
       <c r="C46" s="19">
         <f t="shared" si="21"/>
-        <v>4.281738385784629</v>
+        <v>4.280669211286698</v>
       </c>
       <c r="D46" s="20">
         <f t="shared" si="22"/>
-        <v>4.7666537371182371E-2</v>
+        <v>6.0469625358315265E-2</v>
       </c>
       <c r="E46" s="21">
         <f t="shared" si="30"/>
-        <v>2831.1255144231764</v>
+        <v>2231.4758210225696</v>
       </c>
       <c r="F46" s="22">
         <f t="shared" si="23"/>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="H46" s="24">
         <f t="shared" si="31"/>
-        <v>2104.8032812501197</v>
+        <v>2104.8532812501194</v>
       </c>
       <c r="I46" s="25">
         <f t="shared" si="25"/>
@@ -2809,28 +2809,28 @@
       </c>
       <c r="N46" s="24">
         <f t="shared" si="33"/>
-        <v>7354.8009375003166</v>
+        <v>7354.8509375003168</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>13</v>
       </c>
-      <c r="B47" s="63">
+      <c r="B47" s="50">
         <f t="shared" si="29"/>
         <v>60.28179061886928</v>
       </c>
       <c r="C47" s="3">
         <f t="shared" si="21"/>
-        <v>4.6385499179333474</v>
+        <v>4.6373916455605899</v>
       </c>
       <c r="D47" s="4">
         <f t="shared" si="22"/>
-        <v>5.5941977887024312E-2</v>
+        <v>7.0967824205235397E-2</v>
       </c>
       <c r="E47" s="5">
         <f t="shared" si="30"/>
-        <v>2412.164639508002</v>
+        <v>1901.2205220549915</v>
       </c>
       <c r="F47" s="11">
         <f t="shared" si="23"/>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="H47" s="13">
         <f t="shared" si="31"/>
-        <v>1793.3752810652559</v>
+        <v>1793.4252810652558</v>
       </c>
       <c r="I47" s="7">
         <f t="shared" si="25"/>
@@ -2866,28 +2866,28 @@
       </c>
       <c r="N47" s="13">
         <f t="shared" si="33"/>
-        <v>6266.7460650908251</v>
+        <v>6266.7960650908253</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>14</v>
       </c>
-      <c r="B48" s="63">
+      <c r="B48" s="50">
         <f t="shared" si="29"/>
         <v>69.91260923845195</v>
       </c>
       <c r="C48" s="3">
         <f t="shared" si="21"/>
-        <v>4.9953614500820667</v>
+        <v>4.994114079834481</v>
       </c>
       <c r="D48" s="4">
         <f t="shared" si="22"/>
-        <v>6.4879453644116736E-2</v>
+        <v>8.2305878959926151E-2</v>
       </c>
       <c r="E48" s="5">
         <f t="shared" si="30"/>
-        <v>2079.7320105963822</v>
+        <v>1639.1730521799063</v>
       </c>
       <c r="F48" s="11">
         <f t="shared" si="23"/>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="H48" s="13">
         <f t="shared" si="31"/>
-        <v>1546.2666964286068</v>
+        <v>1546.3166964286067</v>
       </c>
       <c r="I48" s="7">
         <f t="shared" si="25"/>
@@ -2923,28 +2923,28 @@
       </c>
       <c r="N48" s="13">
         <f t="shared" si="33"/>
-        <v>5403.4078316338455</v>
+        <v>5403.4578316338457</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>15</v>
       </c>
-      <c r="B49" s="63">
+      <c r="B49" s="50">
         <f t="shared" si="29"/>
         <v>80.256821829855554</v>
       </c>
       <c r="C49" s="3">
         <f t="shared" si="21"/>
-        <v>5.352172982230786</v>
+        <v>5.3508365141083729</v>
       </c>
       <c r="D49" s="4">
         <f t="shared" si="22"/>
-        <v>7.4478964642474832E-2</v>
+        <v>9.4483789622353348E-2</v>
       </c>
       <c r="E49" s="5">
         <f t="shared" si="30"/>
-        <v>1811.5423292307751</v>
+        <v>1427.7665254546603</v>
       </c>
       <c r="F49" s="11">
         <f t="shared" si="23"/>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="H49" s="13">
         <f t="shared" si="31"/>
-        <v>1346.9121000000764</v>
+        <v>1346.9621000000764</v>
       </c>
       <c r="I49" s="7">
         <f t="shared" si="25"/>
@@ -2980,28 +2980,28 @@
       </c>
       <c r="N49" s="13">
         <f t="shared" si="33"/>
-        <v>4706.9105999990315</v>
+        <v>4706.9605999990317</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>16</v>
       </c>
-      <c r="B50" s="63">
+      <c r="B50" s="50">
         <f t="shared" si="29"/>
         <v>91.314428393080092</v>
       </c>
       <c r="C50" s="3">
         <f t="shared" si="21"/>
-        <v>5.7089845143795044</v>
+        <v>5.7075589483822649</v>
       </c>
       <c r="D50" s="4">
         <f t="shared" si="22"/>
-        <v>8.4740510882118883E-2</v>
+        <v>0.10750155619254359</v>
       </c>
       <c r="E50" s="5">
         <f t="shared" si="30"/>
-        <v>1592.0487268627194</v>
+        <v>1254.7457743253929</v>
       </c>
       <c r="F50" s="11">
         <f t="shared" si="23"/>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="H50" s="13">
         <f t="shared" si="31"/>
-        <v>1183.7549707032272</v>
+        <v>1183.8049707032271</v>
       </c>
       <c r="I50" s="7">
         <f t="shared" si="25"/>
@@ -3037,28 +3037,28 @@
       </c>
       <c r="N50" s="13">
         <f t="shared" si="33"/>
-        <v>4136.8786523452145</v>
+        <v>4136.9286523452147</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>17</v>
       </c>
-      <c r="B51" s="63">
+      <c r="B51" s="50">
         <f t="shared" si="29"/>
         <v>103.08542892812558</v>
       </c>
       <c r="C51" s="3">
         <f t="shared" si="21"/>
-        <v>6.0657960465282237</v>
+        <v>6.0642813826561559</v>
       </c>
       <c r="D51" s="4">
         <f t="shared" si="22"/>
-        <v>9.5664092363020398E-2</v>
+        <v>0.12135917867049875</v>
       </c>
       <c r="E51" s="5">
         <f t="shared" si="30"/>
-        <v>1410.1377995738469</v>
+        <v>1111.350409090913</v>
       </c>
       <c r="F51" s="11">
         <f t="shared" si="23"/>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="H51" s="13">
         <f t="shared" si="31"/>
-        <v>1048.5343339101526</v>
+        <v>1048.5843339101525</v>
       </c>
       <c r="I51" s="7">
         <f t="shared" si="25"/>
@@ -3094,28 +3094,28 @@
       </c>
       <c r="N51" s="13">
         <f t="shared" si="33"/>
-        <v>3664.4501211071561</v>
+        <v>3664.5001211071558</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>18</v>
       </c>
-      <c r="B52" s="63">
+      <c r="B52" s="50">
         <f t="shared" si="29"/>
         <v>115.56982343499199</v>
       </c>
       <c r="C52" s="3">
         <f t="shared" si="21"/>
-        <v>6.422607578676943</v>
+        <v>6.4210038169300478</v>
       </c>
       <c r="D52" s="4">
         <f t="shared" si="22"/>
-        <v>0.10724970908517745</v>
+        <v>0.13605665705619796</v>
       </c>
       <c r="E52" s="5">
         <f t="shared" si="30"/>
-        <v>1257.6946730767665</v>
+        <v>991.18369823233638</v>
       </c>
       <c r="F52" s="11">
         <f t="shared" si="23"/>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="H52" s="13">
         <f t="shared" si="31"/>
-        <v>935.21812500005308</v>
+        <v>935.26812500005315</v>
       </c>
       <c r="I52" s="7">
         <f t="shared" si="25"/>
@@ -3151,28 +3151,28 @@
       </c>
       <c r="N52" s="13">
         <f t="shared" si="33"/>
-        <v>3268.5504166663559</v>
+        <v>3268.6004166663556</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>19</v>
       </c>
-      <c r="B53" s="63">
+      <c r="B53" s="50">
         <f t="shared" si="29"/>
         <v>128.76761191367936</v>
       </c>
       <c r="C53" s="3">
         <f t="shared" si="21"/>
-        <v>6.7794191108256623</v>
+        <v>6.7777262512039389</v>
       </c>
       <c r="D53" s="4">
         <f t="shared" si="22"/>
-        <v>0.11949736104860018</v>
+        <v>0.15159399134965132</v>
       </c>
       <c r="E53" s="5">
         <f t="shared" si="30"/>
-        <v>1128.6820611548469</v>
+        <v>889.48661558803281</v>
       </c>
       <c r="F53" s="11">
         <f t="shared" si="23"/>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="H53" s="13">
         <f t="shared" si="31"/>
-        <v>839.31862188378784</v>
+        <v>839.36862188378791</v>
       </c>
       <c r="I53" s="7">
         <f t="shared" si="25"/>
@@ -3208,28 +3208,28 @@
       </c>
       <c r="N53" s="13">
         <f t="shared" si="33"/>
-        <v>2933.5005124664603</v>
+        <v>2933.5505124664601</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>20</v>
       </c>
-      <c r="B54" s="63">
+      <c r="B54" s="50">
         <f t="shared" si="29"/>
         <v>142.67879436418764</v>
       </c>
       <c r="C54" s="3">
         <f t="shared" si="21"/>
-        <v>7.1362306429743807</v>
+        <v>7.1344486854778308</v>
       </c>
       <c r="D54" s="4">
         <f t="shared" si="22"/>
-        <v>0.13240704825331392</v>
+        <v>0.16797118155085886</v>
       </c>
       <c r="E54" s="5">
         <f t="shared" si="30"/>
-        <v>1018.533185192116</v>
+        <v>802.65929556820595</v>
       </c>
       <c r="F54" s="11">
         <f t="shared" si="23"/>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="H54" s="13">
         <f t="shared" si="31"/>
-        <v>757.4411812500789</v>
+        <v>757.49118125007897</v>
       </c>
       <c r="I54" s="7">
         <f t="shared" si="25"/>
@@ -3265,28 +3265,28 @@
       </c>
       <c r="N54" s="13">
         <f t="shared" si="33"/>
-        <v>2647.4403375007728</v>
+        <v>2647.4903375007725</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>21</v>
       </c>
-      <c r="B55" s="63">
+      <c r="B55" s="50">
         <f t="shared" si="29"/>
         <v>157.30337078651687</v>
       </c>
       <c r="C55" s="3">
         <f t="shared" si="21"/>
-        <v>7.4930421751231</v>
+        <v>7.4911711197517219</v>
       </c>
       <c r="D55" s="4">
         <f t="shared" si="22"/>
-        <v>0.14597877069926929</v>
+        <v>0.18518822765982054</v>
       </c>
       <c r="E55" s="5">
         <f t="shared" si="30"/>
-        <v>923.74200470946118</v>
+        <v>727.93802319112183</v>
       </c>
       <c r="F55" s="11">
         <f t="shared" si="23"/>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="H55" s="13">
         <f t="shared" si="31"/>
-        <v>686.97964285718183</v>
+        <v>687.0296428571819</v>
       </c>
       <c r="I55" s="7">
         <f t="shared" si="25"/>
@@ -3322,28 +3322,28 @@
       </c>
       <c r="N55" s="13">
         <f t="shared" si="33"/>
-        <v>2401.2645918361268</v>
+        <v>2401.3145918361265</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>22</v>
       </c>
-      <c r="B56" s="63">
+      <c r="B56" s="50">
         <f t="shared" si="29"/>
         <v>172.64134118066704</v>
       </c>
       <c r="C56" s="3">
         <f t="shared" si="21"/>
-        <v>7.8498537072718193</v>
+        <v>7.8478935540256138</v>
       </c>
       <c r="D56" s="4">
         <f t="shared" si="22"/>
-        <v>0.16021252838649033</v>
+        <v>0.20324512967653643</v>
       </c>
       <c r="E56" s="5">
         <f t="shared" si="30"/>
-        <v>841.58073156383489</v>
+        <v>663.17255832084049</v>
       </c>
       <c r="F56" s="11">
         <f t="shared" si="23"/>
@@ -3355,7 +3355,7 @@
       </c>
       <c r="H56" s="13">
         <f t="shared" si="31"/>
-        <v>625.90634814050441</v>
+        <v>625.95634814050447</v>
       </c>
       <c r="I56" s="7">
         <f t="shared" si="25"/>
@@ -3379,28 +3379,28 @@
       </c>
       <c r="N56" s="13">
         <f t="shared" si="33"/>
-        <v>2187.889121901168</v>
+        <v>2187.9391219011677</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>23</v>
       </c>
-      <c r="B57" s="63">
+      <c r="B57" s="50">
         <f t="shared" si="29"/>
         <v>188.69270554663814</v>
       </c>
       <c r="C57" s="3">
         <f t="shared" si="21"/>
-        <v>8.2066652394205377</v>
+        <v>8.2046159882995049</v>
       </c>
       <c r="D57" s="4">
         <f t="shared" si="22"/>
-        <v>0.17510832131500623</v>
+        <v>0.22214188760100645</v>
       </c>
       <c r="E57" s="5">
         <f t="shared" si="30"/>
-        <v>769.90136876531142</v>
+        <v>606.6696941914721</v>
       </c>
       <c r="F57" s="11">
         <f t="shared" si="23"/>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="H57" s="13">
         <f t="shared" si="31"/>
-        <v>572.62461720225372</v>
+        <v>572.67461720225378</v>
       </c>
       <c r="I57" s="7">
         <f t="shared" si="25"/>
@@ -3436,28 +3436,28 @@
       </c>
       <c r="N57" s="13">
         <f t="shared" si="33"/>
-        <v>2001.735510398036</v>
+        <v>2001.785510398036</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="18">
         <v>24</v>
       </c>
-      <c r="B58" s="67">
+      <c r="B58" s="53">
         <f t="shared" si="29"/>
         <v>205.45746388443018</v>
       </c>
       <c r="C58" s="19">
         <f t="shared" si="21"/>
-        <v>8.5634767715692579</v>
+        <v>8.5613384225733959</v>
       </c>
       <c r="D58" s="20">
         <f t="shared" si="22"/>
-        <v>0.19066614948472949</v>
+        <v>0.24187850143326106</v>
       </c>
       <c r="E58" s="21">
         <f t="shared" si="30"/>
-        <v>706.99387860579418</v>
+        <v>557.08145525564248</v>
       </c>
       <c r="F58" s="22">
         <f t="shared" si="23"/>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="H58" s="24">
         <f t="shared" si="31"/>
-        <v>525.86332031252982</v>
+        <v>525.91332031252989</v>
       </c>
       <c r="I58" s="25">
         <f t="shared" si="25"/>
@@ -3493,28 +3493,28 @@
       </c>
       <c r="N58" s="24">
         <f t="shared" si="33"/>
-        <v>1838.3627343750791</v>
+        <v>1838.412734375079</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>25</v>
       </c>
-      <c r="B59" s="63">
+      <c r="B59" s="50">
         <f t="shared" si="29"/>
         <v>222.93561619404318</v>
       </c>
       <c r="C59" s="3">
         <f t="shared" si="21"/>
-        <v>8.9202883037179763</v>
+        <v>8.9180608568472888</v>
       </c>
       <c r="D59" s="4">
         <f t="shared" si="22"/>
-        <v>0.20688601289577926</v>
+        <v>0.26245497117320904</v>
       </c>
       <c r="E59" s="5">
         <f t="shared" si="30"/>
-        <v>651.48323852302917</v>
+        <v>513.32394916366741</v>
       </c>
       <c r="F59" s="11">
         <f t="shared" si="23"/>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="H59" s="13">
         <f t="shared" si="31"/>
-        <v>484.60035600000919</v>
+        <v>484.6503560000092</v>
       </c>
       <c r="I59" s="7">
         <f t="shared" si="25"/>
@@ -3550,28 +3550,28 @@
       </c>
       <c r="N59" s="13">
         <f t="shared" si="33"/>
-        <v>1694.1998159999882</v>
+        <v>1694.2498159999882</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>26</v>
       </c>
-      <c r="B60" s="63">
+      <c r="B60" s="50">
         <f t="shared" si="29"/>
         <v>241.12716247547712</v>
       </c>
       <c r="C60" s="3">
         <f t="shared" si="21"/>
-        <v>9.2770998358666947</v>
+        <v>9.2747832911211798</v>
       </c>
       <c r="D60" s="4">
         <f t="shared" si="22"/>
-        <v>0.22376791154809725</v>
+        <v>0.28387129682094159</v>
       </c>
       <c r="E60" s="5">
         <f t="shared" si="30"/>
-        <v>602.25365987700059</v>
+        <v>474.51763051374786</v>
       </c>
       <c r="F60" s="11">
         <f t="shared" si="23"/>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="H60" s="13">
         <f t="shared" si="31"/>
-        <v>448.00632026631399</v>
+        <v>448.056320266314</v>
       </c>
       <c r="I60" s="7">
         <f t="shared" si="25"/>
@@ -3607,28 +3607,28 @@
       </c>
       <c r="N60" s="13">
         <f t="shared" si="33"/>
-        <v>1566.3490162727062</v>
+        <v>1566.3990162727061</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>27</v>
       </c>
-      <c r="B61" s="63">
+      <c r="B61" s="50">
         <f t="shared" si="29"/>
         <v>260.03210272873196</v>
       </c>
       <c r="C61" s="3">
         <f t="shared" si="21"/>
-        <v>9.6339113680154149</v>
+        <v>9.6315057253950709</v>
       </c>
       <c r="D61" s="4">
         <f t="shared" si="22"/>
-        <v>0.24131184544161505</v>
+        <v>0.30612747837642829</v>
       </c>
       <c r="E61" s="5">
         <f t="shared" si="30"/>
-        <v>558.39207692308673</v>
+        <v>439.94275476995193</v>
       </c>
       <c r="F61" s="11">
         <f t="shared" si="23"/>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="H61" s="13">
         <f t="shared" si="31"/>
-        <v>415.40250000002357</v>
+        <v>415.45250000002358</v>
       </c>
       <c r="I61" s="7">
         <f t="shared" si="25"/>
@@ -3664,28 +3664,28 @@
       </c>
       <c r="N61" s="13">
         <f t="shared" si="33"/>
-        <v>1452.4390740739357</v>
+        <v>1452.4890740739356</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>28</v>
       </c>
-      <c r="B62" s="63">
+      <c r="B62" s="50">
         <f t="shared" si="29"/>
         <v>279.6504369538078</v>
       </c>
       <c r="C62" s="3">
         <f t="shared" si="21"/>
-        <v>9.9907229001641333</v>
+        <v>9.9882281596689619</v>
       </c>
       <c r="D62" s="4">
         <f t="shared" si="22"/>
-        <v>0.25951781457646694</v>
+        <v>0.32922351583970461</v>
       </c>
       <c r="E62" s="5">
         <f t="shared" si="30"/>
-        <v>519.14550264909565</v>
+        <v>409.00576304497656</v>
       </c>
       <c r="F62" s="11">
         <f t="shared" si="23"/>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="H62" s="13">
         <f t="shared" si="31"/>
-        <v>386.22917410715172</v>
+        <v>386.27917410715173</v>
       </c>
       <c r="I62" s="7">
         <f t="shared" si="25"/>
@@ -3721,28 +3721,28 @@
       </c>
       <c r="N62" s="13">
         <f t="shared" si="33"/>
-        <v>1350.5144579084613</v>
+        <v>1350.5644579084612</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>29</v>
       </c>
-      <c r="B63" s="63">
+      <c r="B63" s="50">
         <f t="shared" si="29"/>
         <v>299.98216515070453</v>
       </c>
       <c r="C63" s="3">
         <f t="shared" si="21"/>
-        <v>10.347534432312852</v>
+        <v>10.344950593942855</v>
       </c>
       <c r="D63" s="4">
         <f t="shared" si="22"/>
-        <v>0.27838581895258702</v>
+        <v>0.35315940921066419</v>
       </c>
       <c r="E63" s="5">
         <f t="shared" si="30"/>
-        <v>483.88849474061169</v>
+        <v>381.21363641771393</v>
       </c>
       <c r="F63" s="11">
         <f t="shared" si="23"/>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="H63" s="13">
         <f t="shared" si="31"/>
-        <v>360.02142984545435</v>
+        <v>360.07142984545436</v>
       </c>
       <c r="I63" s="7">
         <f t="shared" si="25"/>
@@ -3778,28 +3778,28 @@
       </c>
       <c r="N63" s="13">
         <f t="shared" si="33"/>
-        <v>1258.9508739597879</v>
+        <v>1259.0008739597879</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>30</v>
       </c>
-      <c r="B64" s="63">
+      <c r="B64" s="50">
         <f t="shared" si="29"/>
         <v>321.02728731942221</v>
       </c>
       <c r="C64" s="3">
         <f t="shared" si="21"/>
-        <v>10.704345964461572</v>
+        <v>10.701673028216746</v>
       </c>
       <c r="D64" s="4">
         <f t="shared" si="22"/>
-        <v>0.29791585856989933</v>
+        <v>0.37793515848941339</v>
       </c>
       <c r="E64" s="5">
         <f t="shared" si="30"/>
-        <v>452.09808230769374</v>
+        <v>356.15413136366504</v>
       </c>
       <c r="F64" s="11">
         <f t="shared" si="23"/>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="H64" s="13">
         <f t="shared" si="31"/>
-        <v>336.39052500001912</v>
+        <v>336.44052500001914</v>
       </c>
       <c r="I64" s="7">
         <f t="shared" si="25"/>
@@ -3835,28 +3835,28 @@
       </c>
       <c r="N64" s="13">
         <f t="shared" si="33"/>
-        <v>1176.3901499997578</v>
+        <v>1176.4401499997578</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>31</v>
       </c>
-      <c r="B65" s="63">
+      <c r="B65" s="50">
         <f t="shared" si="29"/>
         <v>342.78580345996079</v>
       </c>
       <c r="C65" s="3">
         <f t="shared" si="21"/>
-        <v>11.06115749661029</v>
+        <v>11.058395462490637</v>
       </c>
       <c r="D65" s="4">
         <f t="shared" ref="D65:D70" si="34">($A65-($G$37*C65))*C65</f>
-        <v>0.31810793342855331</v>
+        <v>0.40355076367595605</v>
       </c>
       <c r="E65" s="5">
         <f t="shared" ref="E65:E70" si="35">((175-40)/D65)-$E$7</f>
-        <v>423.33426022569114</v>
+        <v>333.48040398258928</v>
       </c>
       <c r="F65" s="11">
         <f t="shared" si="23"/>
@@ -3868,7 +3868,7 @@
       </c>
       <c r="H65" s="13">
         <f t="shared" ref="H65:H70" si="37">((175-40)/G65)-$H$7</f>
-        <v>315.00938865765653</v>
+        <v>315.05938865765654</v>
       </c>
       <c r="I65" s="7">
         <f t="shared" si="25"/>
@@ -3892,28 +3892,28 @@
       </c>
       <c r="N65" s="13">
         <f t="shared" ref="N65:N70" si="41">((175-40)/M65)-$H$7</f>
-        <v>1101.6895785640875</v>
+        <v>1101.7395785640874</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>32</v>
       </c>
-      <c r="B66" s="63">
+      <c r="B66" s="50">
         <f t="shared" si="29"/>
         <v>365.25771357232037</v>
       </c>
       <c r="C66" s="3">
         <f t="shared" si="21"/>
-        <v>11.417969028759009</v>
+        <v>11.41511789676453</v>
       </c>
       <c r="D66" s="4">
         <f t="shared" si="34"/>
-        <v>0.33896204352847553</v>
+        <v>0.43000622477017436</v>
       </c>
       <c r="E66" s="5">
         <f t="shared" si="35"/>
-        <v>397.22468171567982</v>
+        <v>312.89894358134819</v>
       </c>
       <c r="F66" s="11">
         <f t="shared" si="23"/>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="H66" s="13">
         <f t="shared" si="37"/>
-        <v>295.60124267580682</v>
+        <v>295.65124267580683</v>
       </c>
       <c r="I66" s="7">
         <f t="shared" si="25"/>
@@ -3949,28 +3949,28 @@
       </c>
       <c r="N66" s="13">
         <f t="shared" si="41"/>
-        <v>1033.8821630863035</v>
+        <v>1033.9321630863035</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>33</v>
       </c>
-      <c r="B67" s="63">
+      <c r="B67" s="50">
         <f t="shared" si="29"/>
         <v>388.44301765650084</v>
       </c>
       <c r="C67" s="3">
         <f t="shared" si="21"/>
-        <v>11.774780560907729</v>
+        <v>11.771840331038421</v>
       </c>
       <c r="D67" s="4">
         <f t="shared" si="34"/>
-        <v>0.36047818886958238</v>
+        <v>0.45730154177222787</v>
       </c>
       <c r="E67" s="5">
         <f t="shared" si="35"/>
-        <v>373.45254736172603</v>
+        <v>294.16002592036006</v>
       </c>
       <c r="F67" s="11">
         <f t="shared" si="23"/>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="H67" s="13">
         <f t="shared" si="37"/>
-        <v>277.93059917356953</v>
+        <v>277.98059917356954</v>
       </c>
       <c r="I67" s="7">
         <f t="shared" si="25"/>
@@ -4006,28 +4006,28 @@
       </c>
       <c r="N67" s="13">
         <f t="shared" si="41"/>
-        <v>972.14516528926129</v>
+        <v>972.19516528926135</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>34</v>
       </c>
-      <c r="B68" s="63">
+      <c r="B68" s="50">
         <f t="shared" si="29"/>
         <v>412.34171571250232</v>
       </c>
       <c r="C68" s="3">
         <f t="shared" si="21"/>
-        <v>12.131592093056447</v>
+        <v>12.128562765312312</v>
       </c>
       <c r="D68" s="4">
         <f t="shared" si="34"/>
-        <v>0.38265636945208159</v>
+        <v>0.48543671468199501</v>
       </c>
       <c r="E68" s="5">
         <f t="shared" si="35"/>
-        <v>351.7469498934617</v>
+        <v>277.05010227272822</v>
       </c>
       <c r="F68" s="11">
         <f t="shared" si="23"/>
@@ -4039,7 +4039,7 @@
       </c>
       <c r="H68" s="13">
         <f t="shared" si="37"/>
-        <v>261.79608347753816</v>
+        <v>261.84608347753817</v>
       </c>
       <c r="I68" s="7">
         <f t="shared" si="25"/>
@@ -4063,28 +4063,28 @@
       </c>
       <c r="N68" s="13">
         <f t="shared" si="41"/>
-        <v>915.77503027678893</v>
+        <v>915.82503027678899</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>35</v>
       </c>
-      <c r="B69" s="63">
+      <c r="B69" s="50">
         <f t="shared" si="29"/>
         <v>436.95380774032469</v>
       </c>
       <c r="C69" s="3">
         <f t="shared" si="21"/>
-        <v>12.488403625205168</v>
+        <v>12.485285199586203</v>
       </c>
       <c r="D69" s="4">
         <f t="shared" si="34"/>
-        <v>0.40549658527567412</v>
+        <v>0.51441174349951624</v>
       </c>
       <c r="E69" s="5">
         <f t="shared" si="35"/>
-        <v>331.8751216954667</v>
+        <v>261.38568834879629</v>
       </c>
       <c r="F69" s="11">
         <f t="shared" si="23"/>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="H69" s="13">
         <f t="shared" si="37"/>
-        <v>247.02467142857208</v>
+        <v>247.07467142857206</v>
       </c>
       <c r="I69" s="7">
         <f t="shared" si="25"/>
@@ -4120,28 +4120,28 @@
       </c>
       <c r="N69" s="13">
         <f t="shared" si="41"/>
-        <v>864.16725306116939</v>
+        <v>864.21725306116946</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="18">
         <v>36</v>
       </c>
-      <c r="B70" s="67">
+      <c r="B70" s="53">
         <f t="shared" si="29"/>
         <v>462.27929373996795</v>
       </c>
       <c r="C70" s="19">
         <f t="shared" si="21"/>
-        <v>12.845215157353886</v>
+        <v>12.842007633860096</v>
       </c>
       <c r="D70" s="20">
         <f t="shared" si="34"/>
-        <v>0.42899883634070979</v>
+        <v>0.54422662822479184</v>
       </c>
       <c r="E70" s="21">
         <f t="shared" si="35"/>
-        <v>313.63616826919161</v>
+        <v>247.00842455808407</v>
       </c>
       <c r="F70" s="22">
         <f t="shared" si="23"/>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="H70" s="24">
         <f t="shared" si="37"/>
-        <v>233.46703125001329</v>
+        <v>233.51703125001328</v>
       </c>
       <c r="I70" s="25">
         <f t="shared" si="25"/>
@@ -4177,11 +4177,29 @@
       </c>
       <c r="N70" s="24">
         <f t="shared" si="41"/>
-        <v>816.80010416658888</v>
+        <v>816.85010416658895</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="C39:N39"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="G37:K38"/>
     <mergeCell ref="L37:N37"/>
     <mergeCell ref="L38:N38"/>
     <mergeCell ref="A1:K1"/>
@@ -4198,24 +4216,6 @@
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="A37:F38"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="G37:K38"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="C39:N39"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:J42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4250,120 +4250,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="62">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="56">
         <v>1.3</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="46"/>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="46"/>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="50" t="s">
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="60" t="s">
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="50" t="s">
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="46"/>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="57"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="51"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="58"/>
+      <c r="J6" s="59"/>
       <c r="K6" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="51" t="s">
+      <c r="L6" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="51"/>
+      <c r="M6" s="60"/>
       <c r="N6" s="40" t="s">
         <v>13</v>
       </c>
@@ -4371,31 +4371,31 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="46"/>
-      <c r="C7" s="54">
+      <c r="C7" s="67">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="D7" s="54"/>
+      <c r="D7" s="67"/>
       <c r="E7" s="44">
         <v>1.05</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="62">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="G7" s="52"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="41">
         <v>0.45</v>
       </c>
-      <c r="I7" s="55">
+      <c r="I7" s="66">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J7" s="55"/>
+      <c r="J7" s="66"/>
       <c r="K7" s="45">
         <v>0.75</v>
       </c>
-      <c r="L7" s="52">
+      <c r="L7" s="62">
         <v>1E-3</v>
       </c>
-      <c r="M7" s="52"/>
+      <c r="M7" s="62"/>
       <c r="N7" s="41">
         <v>0.4</v>
       </c>
@@ -5642,120 +5642,120 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="62">
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="56">
         <v>12</v>
       </c>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
     </row>
     <row r="33" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="53" t="s">
+      <c r="C33" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="50" t="s">
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="60" t="s">
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="50" t="s">
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="57" t="s">
+      <c r="C35" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="57"/>
+      <c r="D35" s="61"/>
       <c r="E35" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="51" t="s">
+      <c r="F35" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="51"/>
+      <c r="G35" s="60"/>
       <c r="H35" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="I35" s="58" t="s">
+      <c r="I35" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="J35" s="58"/>
+      <c r="J35" s="59"/>
       <c r="K35" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="L35" s="51" t="s">
+      <c r="L35" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="M35" s="51"/>
+      <c r="M35" s="60"/>
       <c r="N35" s="40" t="s">
         <v>13</v>
       </c>
@@ -5763,31 +5763,31 @@
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="46"/>
-      <c r="C36" s="54">
+      <c r="C36" s="67">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="D36" s="54"/>
+      <c r="D36" s="67"/>
       <c r="E36" s="44">
         <v>1.05</v>
       </c>
-      <c r="F36" s="52">
+      <c r="F36" s="62">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="G36" s="52"/>
+      <c r="G36" s="62"/>
       <c r="H36" s="41">
         <v>0.45</v>
       </c>
-      <c r="I36" s="55">
+      <c r="I36" s="66">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J36" s="55"/>
+      <c r="J36" s="66"/>
       <c r="K36" s="45">
         <v>0.75</v>
       </c>
-      <c r="L36" s="52">
+      <c r="L36" s="62">
         <v>1E-3</v>
       </c>
-      <c r="M36" s="52"/>
+      <c r="M36" s="62"/>
       <c r="N36" s="41">
         <v>0.4</v>
       </c>
@@ -7035,6 +7035,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:F3"/>
+    <mergeCell ref="G2:K3"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A31:F32"/>
+    <mergeCell ref="G31:K32"/>
+    <mergeCell ref="C33:N33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L34:N34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="I35:J35"/>
@@ -7043,30 +7067,6 @@
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="L36:M36"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A31:F32"/>
-    <mergeCell ref="G31:K32"/>
-    <mergeCell ref="C33:N33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:F3"/>
-    <mergeCell ref="G2:K3"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Comparing Mosfets.xlsx
+++ b/Comparing Mosfets.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -10,7 +10,7 @@
     <sheet name="12V" sheetId="1" r:id="rId1"/>
     <sheet name="24V" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -62,10 +62,10 @@
     <t>IRFB7430</t>
   </si>
   <si>
-    <t>2,8 ohm for 12V version</t>
+    <t>2,8 ohm for 12V version (50W)</t>
   </si>
   <si>
-    <t>12 ohm for 24 V version</t>
+    <t>12 ohm for 24 V version (50W)</t>
   </si>
 </sst>
 </file>
@@ -333,7 +333,34 @@
     <xf numFmtId="169" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -342,38 +369,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,120 +703,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="56">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="65">
         <v>1.3</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="50"/>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="50"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="63" t="s">
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="65" t="s">
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="63" t="s">
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="50"/>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="61"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="60"/>
+      <c r="G6" s="55"/>
       <c r="H6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="59"/>
+      <c r="J6" s="61"/>
       <c r="K6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="60" t="s">
+      <c r="L6" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="60"/>
+      <c r="M6" s="55"/>
       <c r="N6" s="38" t="s">
         <v>13</v>
       </c>
@@ -824,31 +824,31 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="50"/>
-      <c r="C7" s="67">
+      <c r="C7" s="58">
         <v>3.3E-3</v>
       </c>
-      <c r="D7" s="67"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="15">
         <v>1.05</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="56">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="G7" s="62"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="16">
         <v>0.4</v>
       </c>
-      <c r="I7" s="66">
+      <c r="I7" s="59">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J7" s="66"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="17">
         <v>0.75</v>
       </c>
-      <c r="L7" s="62">
+      <c r="L7" s="56">
         <v>1E-3</v>
       </c>
-      <c r="M7" s="62"/>
+      <c r="M7" s="56"/>
       <c r="N7" s="39">
         <v>0.4</v>
       </c>
@@ -950,7 +950,7 @@
         <v>5.9080669336720543E-2</v>
       </c>
       <c r="N9" s="13">
-        <f t="shared" ref="N9:N29" si="8">((175-40)/M9)-$H$7</f>
+        <f>((175-40)/M9)-$N$7</f>
         <v>2284.6113499999424</v>
       </c>
     </row>
@@ -959,7 +959,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="50">
-        <f t="shared" ref="B10:B35" si="9">A10*F10</f>
+        <f t="shared" ref="B10:B35" si="8">A10*F10</f>
         <v>92.827004219409275</v>
       </c>
       <c r="C10" s="3">
@@ -971,7 +971,7 @@
         <v>0.23507720567135068</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" ref="E10:E29" si="10">((175-40)/D10)-$E$7</f>
+        <f t="shared" ref="E10:E29" si="9">((175-40)/D10)-$E$7</f>
         <v>573.22941435009466</v>
       </c>
       <c r="F10" s="11">
@@ -983,7 +983,7 @@
         <v>0.24924780572913019</v>
       </c>
       <c r="H10" s="13">
-        <f t="shared" ref="H10:H29" si="11">((175-40)/G10)-$H$7</f>
+        <f t="shared" ref="H10:H29" si="10">((175-40)/G10)-$H$7</f>
         <v>541.22964285716171</v>
       </c>
       <c r="I10" s="7">
@@ -995,7 +995,7 @@
         <v>0.21380496863898521</v>
       </c>
       <c r="K10" s="9">
-        <f t="shared" ref="K10:K29" si="12">((175-40)/J10)-$K$7</f>
+        <f>((175-40)/J10)-$K$7</f>
         <v>630.66657024795677</v>
       </c>
       <c r="L10" s="11">
@@ -1007,7 +1007,7 @@
         <v>7.1487609897428847E-2</v>
       </c>
       <c r="N10" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="N10:N35" si="11">((175-40)/M10)-$N$7</f>
         <v>1888.0391322314367</v>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>110.47180667433832</v>
       </c>
       <c r="C11" s="19">
@@ -1028,7 +1028,7 @@
         <v>0.27976130261713272</v>
       </c>
       <c r="E11" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>481.50423011364165</v>
       </c>
       <c r="F11" s="22">
@@ -1040,7 +1040,7 @@
         <v>0.29662548780987841</v>
       </c>
       <c r="H11" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>454.71935267858044</v>
       </c>
       <c r="I11" s="25">
@@ -1052,7 +1052,7 @@
         <v>0.25444558251251276</v>
       </c>
       <c r="K11" s="49">
-        <f t="shared" si="12"/>
+        <f>((175-40)/J11)-$K$7</f>
         <v>529.81531250001626</v>
       </c>
       <c r="L11" s="22">
@@ -1063,8 +1063,8 @@
         <f t="shared" si="7"/>
         <v>8.5076163844871017E-2</v>
       </c>
-      <c r="N11" s="24">
-        <f t="shared" si="8"/>
+      <c r="N11" s="23">
+        <f t="shared" si="11"/>
         <v>1586.4134375000822</v>
       </c>
     </row>
@@ -1073,7 +1073,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>129.65093977752204</v>
       </c>
       <c r="C12" s="29">
@@ -1085,7 +1085,7 @@
         <v>0.32833097321039084</v>
       </c>
       <c r="E12" s="31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>410.12046826250383</v>
       </c>
       <c r="F12" s="32">
@@ -1097,7 +1097,7 @@
         <v>0.34812296833243117</v>
       </c>
       <c r="H12" s="34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>387.3940046491997</v>
       </c>
       <c r="I12" s="35">
@@ -1109,7 +1109,7 @@
         <v>0.2986201628098078</v>
       </c>
       <c r="K12" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="K12:K29" si="12">((175-40)/J12)-$K$7</f>
         <v>451.32931952666559</v>
       </c>
       <c r="L12" s="32">
@@ -1120,8 +1120,8 @@
         <f t="shared" si="7"/>
         <v>9.9846331179047065E-2</v>
       </c>
-      <c r="N12" s="34">
-        <f t="shared" si="8"/>
+      <c r="N12" s="13">
+        <f t="shared" si="11"/>
         <v>1351.6777218936011</v>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>150.36440352896048</v>
       </c>
       <c r="C13" s="3">
@@ -1142,7 +1142,7 @@
         <v>0.38078621745109098</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>353.47963845084467</v>
       </c>
       <c r="F13" s="11">
@@ -1154,7 +1154,7 @@
         <v>0.40374024729678842</v>
       </c>
       <c r="H13" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>333.97340196792879</v>
       </c>
       <c r="I13" s="7">
@@ -1178,7 +1178,7 @@
         <v>0.11579811189993787</v>
       </c>
       <c r="N13" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1165.4221173472554</v>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>172.61219792865361</v>
       </c>
       <c r="C14" s="3">
@@ -1199,7 +1199,7 @@
         <v>0.43712703533929026</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>307.78470727271622</v>
       </c>
       <c r="F14" s="11">
@@ -1211,7 +1211,7 @@
         <v>0.46347732470295028</v>
       </c>
       <c r="H14" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>290.87638571428187</v>
       </c>
       <c r="I14" s="7">
@@ -1235,7 +1235,7 @@
         <v>0.13293150600760076</v>
       </c>
       <c r="N14" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1015.1606000001307</v>
       </c>
     </row>
@@ -1244,7 +1244,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>196.39432297660144</v>
       </c>
       <c r="C15" s="3">
@@ -1256,7 +1256,7 @@
         <v>0.49735342687493167</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>270.38675443890753</v>
       </c>
       <c r="F15" s="11">
@@ -1268,7 +1268,7 @@
         <v>0.52733420055091673</v>
       </c>
       <c r="H15" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>255.60463588169088</v>
       </c>
       <c r="I15" s="7">
@@ -1292,7 +1292,7 @@
         <v>0.15124651350197837</v>
       </c>
       <c r="N15" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>892.18255859388216</v>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>221.71077867280397</v>
       </c>
       <c r="C16" s="3">
@@ -1313,7 +1313,7 @@
         <v>0.56146539205803414</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>239.39224614657306</v>
       </c>
       <c r="F16" s="11">
@@ -1325,7 +1325,7 @@
         <v>0.59531087484066447</v>
       </c>
       <c r="H16" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>226.37227261493061</v>
       </c>
       <c r="I16" s="7">
@@ -1349,7 +1349,7 @@
         <v>0.17074313438308988</v>
       </c>
       <c r="N16" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>790.26136678213743</v>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>248.56156501726119</v>
       </c>
       <c r="C17" s="3">
@@ -1370,7 +1370,7 @@
         <v>0.62946293088859762</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>213.41854671715737</v>
       </c>
       <c r="F17" s="11">
@@ -1382,7 +1382,7 @@
         <v>0.66740734757223863</v>
       </c>
       <c r="H17" s="13">
-        <f t="shared" si="11"/>
+        <f>((175-40)/G17)-$H$7</f>
         <v>201.87526785714314</v>
       </c>
       <c r="I17" s="7">
@@ -1406,7 +1406,7 @@
         <v>0.19142136865093523</v>
       </c>
       <c r="N17" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>704.85041666679376</v>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>276.94668200997313</v>
       </c>
       <c r="C18" s="3">
@@ -1427,7 +1427,7 @@
         <v>0.70134604336657047</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>191.43700591790454</v>
       </c>
       <c r="F18" s="11">
@@ -1439,7 +1439,7 @@
         <v>0.74362361874561733</v>
       </c>
       <c r="H18" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>181.14345370003841</v>
       </c>
       <c r="I18" s="7">
@@ -1463,7 +1463,7 @@
         <v>0.21328121630551447</v>
       </c>
       <c r="N18" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>632.56713296411147</v>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>306.86612965093974</v>
       </c>
       <c r="C19" s="3">
@@ -1484,7 +1484,7 @@
         <v>0.77711472949205351</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>172.66952284090692</v>
       </c>
       <c r="F19" s="11">
@@ -1496,7 +1496,7 @@
         <v>0.82395968836080047</v>
       </c>
       <c r="H19" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>163.44296696428356</v>
       </c>
       <c r="I19" s="7">
@@ -1520,7 +1520,7 @@
         <v>0.23632267734688217</v>
       </c>
       <c r="N19" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>570.85283749998564</v>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>338.31990794016104</v>
       </c>
       <c r="C20" s="3">
@@ -1541,7 +1541,7 @@
         <v>0.85676898926499756</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>156.51872820036752</v>
       </c>
       <c r="F20" s="11">
@@ -1553,7 +1553,7 @@
         <v>0.90841555641778826</v>
       </c>
       <c r="H20" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>148.21040087463265</v>
       </c>
       <c r="I20" s="7">
@@ -1577,7 +1577,7 @@
         <v>0.26054575177487455</v>
       </c>
       <c r="N20" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>517.74316326541839</v>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>371.3080168776371</v>
       </c>
       <c r="C21" s="3">
@@ -1598,7 +1598,7 @@
         <v>0.94030882268540272</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>142.51985358752364</v>
       </c>
       <c r="F21" s="11">
@@ -1610,7 +1610,7 @@
         <v>0.99699122291652076</v>
       </c>
       <c r="H21" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>135.00741071429042</v>
       </c>
       <c r="I21" s="7">
@@ -1634,7 +1634,7 @@
         <v>0.28595043958971539</v>
       </c>
       <c r="N21" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>471.70978305785923</v>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>405.8304564633678</v>
       </c>
       <c r="C22" s="3">
@@ -1655,7 +1655,7 @@
         <v>1.0277342297532064</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>130.3069170819756</v>
       </c>
       <c r="F22" s="11">
@@ -1667,7 +1667,7 @@
         <v>1.0896866878571774</v>
       </c>
       <c r="H22" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>123.48882190115745</v>
       </c>
       <c r="I22" s="7">
@@ -1691,7 +1691,7 @@
         <v>0.31253674079117005</v>
       </c>
       <c r="N22" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>431.54921550104712</v>
       </c>
     </row>
@@ -1700,7 +1700,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>441.8872266973533</v>
       </c>
       <c r="C23" s="19">
@@ -1712,7 +1712,7 @@
         <v>1.1190452104685309</v>
       </c>
       <c r="E23" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>119.58855752841042</v>
       </c>
       <c r="F23" s="22">
@@ -1724,7 +1724,7 @@
         <v>1.1865019512395136</v>
       </c>
       <c r="H23" s="24">
-        <f t="shared" si="11"/>
+        <f>((175-40)/G23)-$H$7</f>
         <v>113.3798381696451</v>
       </c>
       <c r="I23" s="25">
@@ -1747,8 +1747,8 @@
         <f t="shared" si="7"/>
         <v>0.34030465537948407</v>
       </c>
-      <c r="N23" s="24">
-        <f t="shared" si="8"/>
+      <c r="N23" s="23">
+        <f t="shared" si="11"/>
         <v>396.30335937502059</v>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>479.47832757959333</v>
       </c>
       <c r="C24" s="3">
@@ -1769,7 +1769,7 @@
         <v>1.2142417648313166</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>110.130494618182</v>
       </c>
       <c r="F24" s="11">
@@ -1781,7 +1781,7 @@
         <v>1.2874370130637849</v>
       </c>
       <c r="H24" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>104.45949885713868</v>
       </c>
       <c r="I24" s="7">
@@ -1805,7 +1805,7 @@
         <v>0.36925418335446925</v>
       </c>
       <c r="N24" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>365.20181600002456</v>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>518.60375911008816</v>
       </c>
       <c r="C25" s="3">
@@ -1826,7 +1826,7 @@
         <v>1.3133238928415634</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>101.74261706562596</v>
       </c>
       <c r="F25" s="11">
@@ -1838,7 +1838,7 @@
         <v>1.3924918733297247</v>
       </c>
       <c r="H25" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>96.548501162299914</v>
       </c>
       <c r="I25" s="7">
@@ -1862,7 +1862,7 @@
         <v>0.39938532471618826</v>
       </c>
       <c r="N25" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>337.61943047340031</v>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>559.26352128883764</v>
       </c>
       <c r="C26" s="3">
@@ -1883,7 +1883,7 @@
         <v>1.4162915944992713</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>94.269354096519322</v>
       </c>
       <c r="F26" s="11">
@@ -1895,7 +1895,7 @@
         <v>1.5016665320376104</v>
       </c>
       <c r="H26" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>89.500119047614774</v>
       </c>
       <c r="I26" s="7">
@@ -1919,7 +1919,7 @@
         <v>0.43069807946464117</v>
       </c>
       <c r="N26" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>313.04462962965925</v>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>601.45761411584192</v>
       </c>
       <c r="C27" s="3">
@@ -1940,7 +1940,7 @@
         <v>1.5231448698043639</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>87.582409612711174</v>
       </c>
       <c r="F27" s="11">
@@ -1952,7 +1952,7 @@
         <v>1.6149609891871537</v>
       </c>
       <c r="H27" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>83.193350491982187</v>
       </c>
       <c r="I27" s="7">
@@ -1976,7 +1976,7 @@
         <v>0.46319244759975148</v>
       </c>
       <c r="N27" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>291.05552933681389</v>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>645.18603759110078</v>
       </c>
       <c r="C28" s="3">
@@ -1997,7 +1997,7 @@
         <v>1.6338837187571491</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>81.575218949296357</v>
       </c>
       <c r="F28" s="11">
@@ -2009,7 +2009,7 @@
         <v>1.7323752447786542</v>
       </c>
       <c r="H28" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>77.527689400369468</v>
       </c>
       <c r="I28" s="7">
@@ -2033,7 +2033,7 @@
         <v>0.4968684291217485</v>
       </c>
       <c r="N28" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>271.3017063020535</v>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>690.44879171461446</v>
       </c>
       <c r="C29" s="3">
@@ -2054,7 +2054,7 @@
         <v>1.748508141357161</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>76.15867681817906</v>
       </c>
       <c r="F29" s="11">
@@ -2066,7 +2066,7 @@
         <v>1.8539092988118011</v>
       </c>
       <c r="H29" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>72.419096428570455</v>
       </c>
       <c r="I29" s="7">
@@ -2090,7 +2090,7 @@
         <v>0.53172602403040303</v>
       </c>
       <c r="N29" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>253.49015000003266</v>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>737.24587648638271</v>
       </c>
       <c r="C30" s="3">
@@ -2147,7 +2147,7 @@
         <v>0.56776523232579124</v>
       </c>
       <c r="N30" s="13">
-        <f t="shared" ref="N30:N35" si="20">((175-40)/M30)-$H$7</f>
+        <f t="shared" si="11"/>
         <v>237.37433402708817</v>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>785.57729190640578</v>
       </c>
       <c r="C31" s="3">
@@ -2204,7 +2204,7 @@
         <v>0.6049860540079135</v>
       </c>
       <c r="N31" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>222.74563964847053</v>
       </c>
     </row>
@@ -2213,7 +2213,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>835.44303797468342</v>
       </c>
       <c r="C32" s="3">
@@ -2261,7 +2261,7 @@
         <v>0.64338848907685964</v>
       </c>
       <c r="N32" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>209.42657024793741</v>
       </c>
     </row>
@@ -2270,7 +2270,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>886.84311469121587</v>
       </c>
       <c r="C33" s="3">
@@ -2318,7 +2318,7 @@
         <v>0.68297253753235954</v>
       </c>
       <c r="N33" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>197.26534169553435</v>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>939.77752205600302</v>
       </c>
       <c r="C34" s="3">
@@ -2375,7 +2375,7 @@
         <v>0.72373819937477879</v>
       </c>
       <c r="N34" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>186.13153877551781</v>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>994.24626006904475</v>
       </c>
       <c r="C35" s="19">
@@ -2431,136 +2431,136 @@
         <f t="shared" si="19"/>
         <v>0.76568547460374092</v>
       </c>
-      <c r="N35" s="24">
-        <f t="shared" si="20"/>
+      <c r="N35" s="23">
+        <f t="shared" si="11"/>
         <v>175.91260416669843</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="56">
-        <v>2.8</v>
-      </c>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="54" t="s">
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="65">
+        <v>7</v>
+      </c>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="M37" s="54"/>
-      <c r="N37" s="54"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="66"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="54" t="s">
+      <c r="A38" s="67"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
     </row>
     <row r="39" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="50"/>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="58"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="50"/>
-      <c r="C40" s="64" t="s">
+      <c r="C40" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="63" t="s">
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="65" t="s">
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="63" t="s">
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="M40" s="63"/>
-      <c r="N40" s="63"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="50"/>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="61"/>
+      <c r="D41" s="60"/>
       <c r="E41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="60" t="s">
+      <c r="F41" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="G41" s="60"/>
+      <c r="G41" s="55"/>
       <c r="H41" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="59" t="s">
+      <c r="I41" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="J41" s="59"/>
+      <c r="J41" s="61"/>
       <c r="K41" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L41" s="60" t="s">
+      <c r="L41" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="M41" s="60"/>
+      <c r="M41" s="55"/>
       <c r="N41" s="38" t="s">
         <v>13</v>
       </c>
@@ -2568,31 +2568,31 @@
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="50"/>
-      <c r="C42" s="67">
+      <c r="C42" s="58">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="D42" s="67"/>
+      <c r="D42" s="58"/>
       <c r="E42" s="15">
         <v>1.05</v>
       </c>
-      <c r="F42" s="62">
+      <c r="F42" s="56">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="G42" s="62"/>
+      <c r="G42" s="56"/>
       <c r="H42" s="16">
         <v>0.45</v>
       </c>
-      <c r="I42" s="66">
+      <c r="I42" s="59">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J42" s="66"/>
+      <c r="J42" s="59"/>
       <c r="K42" s="17">
         <v>0.75</v>
       </c>
-      <c r="L42" s="62">
+      <c r="L42" s="56">
         <v>1E-3</v>
       </c>
-      <c r="M42" s="62"/>
+      <c r="M42" s="56"/>
       <c r="N42" s="39">
         <v>0.4</v>
       </c>
@@ -2647,55 +2647,55 @@
       </c>
       <c r="B44" s="50">
         <f>A44*F44</f>
-        <v>35.66969859104691</v>
+        <v>14.278574998215179</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" ref="C44:C70" si="21">$A44/($G$37+C$7)</f>
-        <v>3.5672243427389154</v>
+        <f t="shared" ref="C44:C70" si="20">$A44/($G$37+C$7)</f>
+        <v>1.4278982765267803</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" ref="D44:D64" si="22">($A44-($G$37*C44))*C44</f>
-        <v>4.1992795387714714E-2</v>
+        <f t="shared" ref="D44:D64" si="21">($A44-($G$37*C44))*C44</f>
+        <v>6.7283485107576422E-3</v>
       </c>
       <c r="E44" s="5">
         <f>((175-40)/D44)-$E$7</f>
-        <v>3213.7871822728234</v>
+        <v>20063.309000452311</v>
       </c>
       <c r="F44" s="11">
-        <f t="shared" ref="F44:F70" si="23">$A44/($G$37+F$7)</f>
-        <v>3.5669698591046912</v>
+        <f t="shared" ref="F44:F70" si="22">$A44/($G$37+F$7)</f>
+        <v>1.4278574998215179</v>
       </c>
       <c r="G44" s="12">
-        <f t="shared" ref="G44:G64" si="24">($A44-($G$37*F44))*F44</f>
-        <v>4.4531458915160041E-2</v>
+        <f t="shared" ref="G44:G64" si="23">($A44-($G$37*F44))*F44</f>
+        <v>7.1357196392859657E-3</v>
       </c>
       <c r="H44" s="13">
         <f>((175-40)/G44)-$H$7</f>
-        <v>3031.1647250003157</v>
+        <v>18918.504725005245</v>
       </c>
       <c r="I44" s="7">
-        <f t="shared" ref="I44:I70" si="25">$A44/($G$37+I$7)</f>
-        <v>3.5676061362825546</v>
+        <f t="shared" ref="I44:I70" si="24">$A44/($G$37+I$7)</f>
+        <v>1.4279594459517349</v>
       </c>
       <c r="J44" s="8">
-        <f t="shared" ref="J44:J64" si="26">($A44-($G$37*I44))*I44</f>
-        <v>3.8183440630925644E-2</v>
+        <f t="shared" ref="J44:J64" si="25">($A44-($G$37*I44))*I44</f>
+        <v>6.1172045378505005E-3</v>
       </c>
       <c r="K44" s="9">
         <f>((175-40)/J44)-$K$7</f>
-        <v>3534.8140499997376</v>
+        <v>22068.15404999227</v>
       </c>
       <c r="L44" s="11">
-        <f t="shared" ref="L44:L70" si="27">$A44/($G$37+L$7)</f>
-        <v>3.5701535166012142</v>
+        <f t="shared" ref="L44:L70" si="26">$A44/($G$37+L$7)</f>
+        <v>1.42836737608913</v>
       </c>
       <c r="M44" s="12">
-        <f t="shared" ref="M44:M64" si="28">($A44-($G$37*L44))*L44</f>
-        <v>1.2745996132096295E-2</v>
+        <f t="shared" ref="M44:M64" si="27">($A44-($G$37*L44))*L44</f>
+        <v>2.0402333610760066E-3</v>
       </c>
       <c r="N44" s="13">
         <f>((175-40)/M44)-$H$7</f>
-        <v>10591.161350003091</v>
+        <v>66168.501349991566</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2703,56 +2703,56 @@
         <v>11</v>
       </c>
       <c r="B45" s="50">
-        <f t="shared" ref="B45:B70" si="29">A45*F45</f>
-        <v>43.16033529516676</v>
+        <f t="shared" ref="B45:B70" si="28">A45*F45</f>
+        <v>17.277075747840364</v>
       </c>
       <c r="C45" s="3">
+        <f t="shared" si="20"/>
+        <v>1.5706881041794583</v>
+      </c>
+      <c r="D45" s="4">
         <f t="shared" si="21"/>
-        <v>3.9239467770128069</v>
-      </c>
-      <c r="D45" s="4">
+        <v>8.1413016980161883E-3</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" ref="E45:E64" si="29">((175-40)/D45)-$E$7</f>
+        <v>16581.064876408007</v>
+      </c>
+      <c r="F45" s="11">
         <f t="shared" si="22"/>
-        <v>5.0811282419134109E-2</v>
-      </c>
-      <c r="E45" s="5">
-        <f t="shared" ref="E45:E64" si="30">((175-40)/D45)-$E$7</f>
-        <v>2655.8402332833616</v>
-      </c>
-      <c r="F45" s="11">
+        <v>1.5706432498036695</v>
+      </c>
+      <c r="G45" s="12">
         <f t="shared" si="23"/>
-        <v>3.9236668450151599</v>
-      </c>
-      <c r="G45" s="12">
+        <v>8.6342207635393652E-3</v>
+      </c>
+      <c r="H45" s="13">
+        <f t="shared" ref="H45:H64" si="30">((175-40)/G45)-$H$7</f>
+        <v>15635.0584504115</v>
+      </c>
+      <c r="I45" s="7">
         <f t="shared" si="24"/>
-        <v>5.3883065287348521E-2</v>
-      </c>
-      <c r="H45" s="13">
-        <f t="shared" ref="H45:H64" si="31">((175-40)/G45)-$H$7</f>
-        <v>2505.0253925620177</v>
-      </c>
-      <c r="I45" s="7">
+        <v>1.5707553905469085</v>
+      </c>
+      <c r="J45" s="8">
         <f t="shared" si="25"/>
-        <v>3.9243667499108099</v>
-      </c>
-      <c r="J45" s="8">
+        <v>7.401817490796595E-3</v>
+      </c>
+      <c r="K45" s="9">
+        <f t="shared" ref="K45:K64" si="31">((175-40)/J45)-$K$7</f>
+        <v>18238.013677685747</v>
+      </c>
+      <c r="L45" s="11">
         <f t="shared" si="26"/>
-        <v>4.6201963163421421E-2</v>
-      </c>
-      <c r="K45" s="9">
-        <f t="shared" ref="K45:K64" si="32">((175-40)/J45)-$K$7</f>
-        <v>2921.2037603302733</v>
-      </c>
-      <c r="L45" s="11">
+        <v>1.571204113698043</v>
+      </c>
+      <c r="M45" s="12">
         <f t="shared" si="27"/>
-        <v>3.9271688682613357</v>
-      </c>
-      <c r="M45" s="12">
-        <f t="shared" si="28"/>
-        <v>1.5422655319838611E-2</v>
+        <v>2.468682366902526E-3</v>
       </c>
       <c r="N45" s="13">
-        <f t="shared" ref="N45:N64" si="33">((175-40)/M45)-$H$7</f>
-        <v>8752.9564876046716</v>
+        <f t="shared" ref="N45:N64" si="32">((175-40)/M45)-$H$7</f>
+        <v>54684.642437997194</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2760,56 +2760,56 @@
         <v>12</v>
       </c>
       <c r="B46" s="53">
+        <f t="shared" si="28"/>
+        <v>20.561147997429856</v>
+      </c>
+      <c r="C46" s="19">
+        <f t="shared" si="20"/>
+        <v>1.7134779318321363</v>
+      </c>
+      <c r="D46" s="20">
+        <f t="shared" si="21"/>
+        <v>9.6888218554897869E-3</v>
+      </c>
+      <c r="E46" s="21">
         <f t="shared" si="29"/>
-        <v>51.364365971107546</v>
-      </c>
-      <c r="C46" s="19">
-        <f t="shared" si="21"/>
-        <v>4.280669211286698</v>
-      </c>
-      <c r="D46" s="20">
+        <v>13932.532639204746</v>
+      </c>
+      <c r="F46" s="22">
         <f t="shared" si="22"/>
-        <v>6.0469625358315265E-2</v>
-      </c>
-      <c r="E46" s="21">
+        <v>1.7134289997858214</v>
+      </c>
+      <c r="G46" s="23">
+        <f t="shared" si="23"/>
+        <v>1.0275436280573008E-2</v>
+      </c>
+      <c r="H46" s="24">
         <f t="shared" si="30"/>
-        <v>2231.4758210225696</v>
-      </c>
-      <c r="F46" s="22">
-        <f t="shared" si="23"/>
-        <v>4.2803638309256291</v>
-      </c>
-      <c r="G46" s="23">
+        <v>13137.728281252088</v>
+      </c>
+      <c r="I46" s="25">
         <f t="shared" si="24"/>
-        <v>6.4125300837833493E-2</v>
-      </c>
-      <c r="H46" s="24">
+        <v>1.7135513351420819</v>
+      </c>
+      <c r="J46" s="26">
+        <f t="shared" si="25"/>
+        <v>8.8087745345022863E-3</v>
+      </c>
+      <c r="K46" s="49">
         <f t="shared" si="31"/>
-        <v>2104.8532812501194</v>
-      </c>
-      <c r="I46" s="25">
-        <f t="shared" si="25"/>
-        <v>4.2811273635390652</v>
-      </c>
-      <c r="J46" s="26">
+        <v>15324.877812498868</v>
+      </c>
+      <c r="L46" s="22">
         <f t="shared" si="26"/>
-        <v>5.4984154508535971E-2</v>
-      </c>
-      <c r="K46" s="49">
+        <v>1.714040851306956</v>
+      </c>
+      <c r="M46" s="23">
+        <f t="shared" si="27"/>
+        <v>2.9379360399506673E-3</v>
+      </c>
+      <c r="N46" s="24">
         <f t="shared" si="32"/>
-        <v>2454.5028124996816</v>
-      </c>
-      <c r="L46" s="22">
-        <f t="shared" si="27"/>
-        <v>4.2841842199214568</v>
-      </c>
-      <c r="M46" s="23">
-        <f t="shared" si="28"/>
-        <v>1.8354234430223229E-2</v>
-      </c>
-      <c r="N46" s="24">
-        <f t="shared" si="33"/>
-        <v>7354.8509375003168</v>
+        <v>45950.225937475094</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -2817,56 +2817,56 @@
         <v>13</v>
       </c>
       <c r="B47" s="50">
+        <f t="shared" si="28"/>
+        <v>24.130791746983654</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="20"/>
+        <v>1.8562677594848143</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" si="21"/>
+        <v>1.1370908983178437E-2</v>
+      </c>
+      <c r="E47" s="5">
         <f t="shared" si="29"/>
-        <v>60.28179061886928</v>
-      </c>
-      <c r="C47" s="3">
-        <f t="shared" si="21"/>
-        <v>4.6373916455605899</v>
-      </c>
-      <c r="D47" s="4">
+        <v>11871.351775417636</v>
+      </c>
+      <c r="F47" s="11">
         <f t="shared" si="22"/>
-        <v>7.0967824205235397E-2</v>
-      </c>
-      <c r="E47" s="5">
+        <v>1.8562147497679733</v>
+      </c>
+      <c r="G47" s="12">
+        <f t="shared" si="23"/>
+        <v>1.2059366190395261E-2</v>
+      </c>
+      <c r="H47" s="13">
         <f t="shared" si="30"/>
-        <v>1901.2205220549915</v>
-      </c>
-      <c r="F47" s="11">
-        <f t="shared" si="23"/>
-        <v>4.6370608168360983</v>
-      </c>
-      <c r="G47" s="12">
+        <v>11194.218180474641</v>
+      </c>
+      <c r="I47" s="7">
         <f t="shared" si="24"/>
-        <v>7.5258165566621293E-2</v>
-      </c>
-      <c r="H47" s="13">
+        <v>1.8563472797372553</v>
+      </c>
+      <c r="J47" s="8">
+        <f t="shared" si="25"/>
+        <v>1.0338075668965038E-2</v>
+      </c>
+      <c r="K47" s="9">
         <f t="shared" si="31"/>
-        <v>1793.4252810652558</v>
-      </c>
-      <c r="I47" s="7">
-        <f t="shared" si="25"/>
-        <v>4.6378879771673205</v>
-      </c>
-      <c r="J47" s="8">
+        <v>13057.773106507217</v>
+      </c>
+      <c r="L47" s="11">
         <f t="shared" si="26"/>
-        <v>6.4530014666269273E-2</v>
-      </c>
-      <c r="K47" s="9">
+        <v>1.8568775889158691</v>
+      </c>
+      <c r="M47" s="12">
+        <f t="shared" si="27"/>
+        <v>3.4479943802204305E-3</v>
+      </c>
+      <c r="N47" s="13">
         <f t="shared" si="32"/>
-        <v>2091.2997337274955</v>
-      </c>
-      <c r="L47" s="11">
-        <f t="shared" si="27"/>
-        <v>4.6411995715815788</v>
-      </c>
-      <c r="M47" s="12">
-        <f t="shared" si="28"/>
-        <v>2.1540733463241916E-2</v>
-      </c>
-      <c r="N47" s="13">
-        <f t="shared" si="33"/>
-        <v>6266.7960650908253</v>
+        <v>39152.796065061288</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -2874,56 +2874,56 @@
         <v>14</v>
       </c>
       <c r="B48" s="50">
+        <f t="shared" si="28"/>
+        <v>27.98600699650175</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="20"/>
+        <v>1.9990575871374923</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" si="21"/>
+        <v>1.3187563081085688E-2</v>
+      </c>
+      <c r="E48" s="5">
         <f t="shared" si="29"/>
-        <v>69.91260923845195</v>
-      </c>
-      <c r="C48" s="3">
-        <f t="shared" si="21"/>
-        <v>4.994114079834481</v>
-      </c>
-      <c r="D48" s="4">
+        <v>10235.867857373078</v>
+      </c>
+      <c r="F48" s="11">
         <f t="shared" si="22"/>
-        <v>8.2305878959926151E-2</v>
-      </c>
-      <c r="E48" s="5">
+        <v>1.9990004997501249</v>
+      </c>
+      <c r="G48" s="12">
+        <f t="shared" si="23"/>
+        <v>1.3986010493003333E-2</v>
+      </c>
+      <c r="H48" s="13">
         <f t="shared" si="30"/>
-        <v>1639.1730521799063</v>
-      </c>
-      <c r="F48" s="11">
-        <f t="shared" si="23"/>
-        <v>4.9937578027465674</v>
-      </c>
-      <c r="G48" s="12">
+        <v>9652.1024107150042</v>
+      </c>
+      <c r="I48" s="7">
         <f t="shared" si="24"/>
-        <v>8.7281659473720768E-2</v>
-      </c>
-      <c r="H48" s="13">
+        <v>1.999143224332429</v>
+      </c>
+      <c r="J48" s="8">
+        <f t="shared" si="25"/>
+        <v>1.1989720894181301E-2</v>
+      </c>
+      <c r="K48" s="9">
         <f t="shared" si="31"/>
-        <v>1546.3166964286067</v>
-      </c>
-      <c r="I48" s="7">
-        <f t="shared" si="25"/>
-        <v>4.9946485907955767</v>
-      </c>
-      <c r="J48" s="8">
+        <v>11258.894923470778</v>
+      </c>
+      <c r="L48" s="11">
         <f t="shared" si="26"/>
-        <v>7.4839543636603625E-2</v>
-      </c>
-      <c r="K48" s="9">
+        <v>1.9997143265247821</v>
+      </c>
+      <c r="M48" s="12">
+        <f t="shared" si="27"/>
+        <v>3.9988573877082628E-3</v>
+      </c>
+      <c r="N48" s="13">
         <f t="shared" si="32"/>
-        <v>1803.1092091837959</v>
-      </c>
-      <c r="L48" s="11">
-        <f t="shared" si="27"/>
-        <v>4.9982149232416999</v>
-      </c>
-      <c r="M48" s="12">
-        <f t="shared" si="28"/>
-        <v>2.4982152418910514E-2</v>
-      </c>
-      <c r="N48" s="13">
-        <f t="shared" si="33"/>
-        <v>5403.4578316338457</v>
+        <v>33759.243545920057</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -2931,56 +2931,56 @@
         <v>15</v>
       </c>
       <c r="B49" s="50">
+        <f t="shared" si="28"/>
+        <v>32.126793745984152</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" si="20"/>
+        <v>2.14184741479017</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="21"/>
+        <v>1.5138784149208497E-2</v>
+      </c>
+      <c r="E49" s="5">
         <f t="shared" si="29"/>
-        <v>80.256821829855554</v>
-      </c>
-      <c r="C49" s="3">
-        <f t="shared" si="21"/>
-        <v>5.3508365141083729</v>
-      </c>
-      <c r="D49" s="4">
+        <v>8916.442889087677</v>
+      </c>
+      <c r="F49" s="11">
         <f t="shared" si="22"/>
-        <v>9.4483789622353348E-2</v>
-      </c>
-      <c r="E49" s="5">
+        <v>2.1417862497322768</v>
+      </c>
+      <c r="G49" s="12">
+        <f t="shared" si="23"/>
+        <v>1.6055369188397228E-2</v>
+      </c>
+      <c r="H49" s="13">
         <f t="shared" si="30"/>
-        <v>1427.7665254546603</v>
-      </c>
-      <c r="F49" s="11">
-        <f t="shared" si="23"/>
-        <v>5.3504547886570366</v>
-      </c>
-      <c r="G49" s="12">
+        <v>8408.0021000003399</v>
+      </c>
+      <c r="I49" s="7">
         <f t="shared" si="24"/>
-        <v>0.10019578255911483</v>
-      </c>
-      <c r="H49" s="13">
+        <v>2.1419391689276024</v>
+      </c>
+      <c r="J49" s="8">
+        <f t="shared" si="25"/>
+        <v>1.3763710210161725E-2</v>
+      </c>
+      <c r="K49" s="9">
         <f t="shared" si="31"/>
-        <v>1346.9621000000764</v>
-      </c>
-      <c r="I49" s="7">
-        <f t="shared" si="25"/>
-        <v>5.3514092044238319</v>
-      </c>
-      <c r="J49" s="8">
+        <v>9807.6517999979187</v>
+      </c>
+      <c r="L49" s="11">
         <f t="shared" si="26"/>
-        <v>8.5912741419573196E-2</v>
-      </c>
-      <c r="K49" s="9">
+        <v>2.1425510641336949</v>
+      </c>
+      <c r="M49" s="12">
+        <f t="shared" si="27"/>
+        <v>4.5905250624248203E-3</v>
+      </c>
+      <c r="N49" s="13">
         <f t="shared" si="32"/>
-        <v>1570.6118000000572</v>
-      </c>
-      <c r="L49" s="11">
-        <f t="shared" si="27"/>
-        <v>5.355230274901821</v>
-      </c>
-      <c r="M49" s="12">
-        <f t="shared" si="28"/>
-        <v>2.8678491297230931E-2</v>
-      </c>
-      <c r="N49" s="13">
-        <f t="shared" si="33"/>
-        <v>4706.9605999990317</v>
+        <v>29408.000599971871</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -2988,56 +2988,56 @@
         <v>16</v>
       </c>
       <c r="B50" s="50">
+        <f t="shared" si="28"/>
+        <v>36.553151995430859</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="20"/>
+        <v>2.2846372424428485</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="21"/>
+        <v>1.7224572187534693E-2</v>
+      </c>
+      <c r="E50" s="5">
         <f t="shared" si="29"/>
-        <v>91.314428393080092</v>
-      </c>
-      <c r="C50" s="3">
-        <f t="shared" si="21"/>
-        <v>5.7075589483822649</v>
-      </c>
-      <c r="D50" s="4">
+        <v>7836.5902345538998</v>
+      </c>
+      <c r="F50" s="11">
         <f t="shared" si="22"/>
-        <v>0.10750155619254359</v>
-      </c>
-      <c r="E50" s="5">
+        <v>2.2845719997144287</v>
+      </c>
+      <c r="G50" s="12">
+        <f t="shared" si="23"/>
+        <v>1.8267442276572884E-2</v>
+      </c>
+      <c r="H50" s="13">
         <f t="shared" si="30"/>
-        <v>1254.7457743253929</v>
-      </c>
-      <c r="F50" s="11">
-        <f t="shared" si="23"/>
-        <v>5.7071517745675058</v>
-      </c>
-      <c r="G50" s="12">
+        <v>7389.7971582048467</v>
+      </c>
+      <c r="I50" s="7">
         <f t="shared" si="24"/>
-        <v>0.11400053482281172</v>
-      </c>
-      <c r="H50" s="13">
+        <v>2.284735113522776</v>
+      </c>
+      <c r="J50" s="8">
+        <f t="shared" si="25"/>
+        <v>1.5660043616891602E-2</v>
+      </c>
+      <c r="K50" s="9">
         <f t="shared" si="31"/>
-        <v>1183.8049707032271</v>
-      </c>
-      <c r="I50" s="7">
-        <f t="shared" si="25"/>
-        <v>5.7081698180520872</v>
-      </c>
-      <c r="J50" s="8">
+        <v>8619.9156445313565</v>
+      </c>
+      <c r="L50" s="11">
         <f t="shared" si="26"/>
-        <v>9.774960801516154E-2</v>
-      </c>
-      <c r="K50" s="9">
+        <v>2.2853878017426079</v>
+      </c>
+      <c r="M50" s="12">
+        <f t="shared" si="27"/>
+        <v>5.2229974043594479E-3</v>
+      </c>
+      <c r="N50" s="13">
         <f t="shared" si="32"/>
-        <v>1380.3297070312619</v>
-      </c>
-      <c r="L50" s="11">
-        <f t="shared" si="27"/>
-        <v>5.712245626561943</v>
-      </c>
-      <c r="M50" s="12">
-        <f t="shared" si="28"/>
-        <v>3.2629750098164489E-2</v>
-      </c>
-      <c r="N50" s="13">
-        <f t="shared" si="33"/>
-        <v>4136.9286523452147</v>
+        <v>25846.827089816346</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -3045,56 +3045,56 @@
         <v>17</v>
       </c>
       <c r="B51" s="50">
+        <f t="shared" si="28"/>
+        <v>41.265081744841865</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="20"/>
+        <v>2.4274270700955265</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" si="21"/>
+        <v>1.9444927196083549E-2</v>
+      </c>
+      <c r="E51" s="5">
         <f t="shared" si="29"/>
-        <v>103.08542892812558</v>
-      </c>
-      <c r="C51" s="3">
-        <f t="shared" si="21"/>
-        <v>6.0642813826561559</v>
-      </c>
-      <c r="D51" s="4">
+        <v>6941.6347752451693</v>
+      </c>
+      <c r="F51" s="11">
         <f t="shared" si="22"/>
-        <v>0.12135917867049875</v>
-      </c>
-      <c r="E51" s="5">
+        <v>2.4273577496965801</v>
+      </c>
+      <c r="G51" s="12">
+        <f t="shared" si="23"/>
+        <v>2.0622229757542476E-2</v>
+      </c>
+      <c r="H51" s="13">
         <f t="shared" si="30"/>
-        <v>1111.350409090913</v>
-      </c>
-      <c r="F51" s="11">
-        <f t="shared" si="23"/>
-        <v>6.0638487604779749</v>
-      </c>
-      <c r="G51" s="12">
+        <v>6545.9338148787938</v>
+      </c>
+      <c r="I51" s="7">
         <f t="shared" si="24"/>
-        <v>0.12869591626481144</v>
-      </c>
-      <c r="H51" s="13">
+        <v>2.4275310581179492</v>
+      </c>
+      <c r="J51" s="8">
+        <f t="shared" si="25"/>
+        <v>1.7678721114386651E-2</v>
+      </c>
+      <c r="K51" s="9">
         <f t="shared" si="31"/>
-        <v>1048.5843339101525</v>
-      </c>
-      <c r="I51" s="7">
-        <f t="shared" si="25"/>
-        <v>6.0649304316803425</v>
-      </c>
-      <c r="J51" s="8">
+        <v>7635.5489792366388</v>
+      </c>
+      <c r="L51" s="11">
         <f t="shared" si="26"/>
-        <v>0.11035014342336864</v>
-      </c>
-      <c r="K51" s="9">
+        <v>2.4282245393515209</v>
+      </c>
+      <c r="M51" s="12">
+        <f t="shared" si="27"/>
+        <v>5.8962744135156973E-3</v>
+      </c>
+      <c r="N51" s="13">
         <f t="shared" si="32"/>
-        <v>1222.6285640138217</v>
-      </c>
-      <c r="L51" s="11">
-        <f t="shared" si="27"/>
-        <v>6.0692609782220641</v>
-      </c>
-      <c r="M51" s="12">
-        <f t="shared" si="28"/>
-        <v>3.6835928821770149E-2</v>
-      </c>
-      <c r="N51" s="13">
-        <f t="shared" si="33"/>
-        <v>3664.5001211071558</v>
+        <v>22895.413615890586</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -3102,56 +3102,56 @@
         <v>18</v>
       </c>
       <c r="B52" s="50">
+        <f t="shared" si="28"/>
+        <v>46.262582994217176</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="20"/>
+        <v>2.5702168977482045</v>
+      </c>
+      <c r="D52" s="4">
+        <f t="shared" si="21"/>
+        <v>2.1799849174847456E-2</v>
+      </c>
+      <c r="E52" s="5">
         <f t="shared" si="29"/>
-        <v>115.56982343499199</v>
-      </c>
-      <c r="C52" s="3">
-        <f t="shared" si="21"/>
-        <v>6.4210038169300478</v>
-      </c>
-      <c r="D52" s="4">
+        <v>6191.6533952034051</v>
+      </c>
+      <c r="F52" s="11">
         <f t="shared" si="22"/>
-        <v>0.13605665705619796</v>
-      </c>
-      <c r="E52" s="5">
+        <v>2.570143499678732</v>
+      </c>
+      <c r="G52" s="12">
+        <f t="shared" si="23"/>
+        <v>2.3119731631293831E-2</v>
+      </c>
+      <c r="H52" s="13">
         <f t="shared" si="30"/>
-        <v>991.18369823233638</v>
-      </c>
-      <c r="F52" s="11">
-        <f t="shared" si="23"/>
-        <v>6.4205457463884441</v>
-      </c>
-      <c r="G52" s="12">
+        <v>5838.7681249997759</v>
+      </c>
+      <c r="I52" s="7">
         <f t="shared" si="24"/>
-        <v>0.14428192688512537</v>
-      </c>
-      <c r="H52" s="13">
+        <v>2.5703270027131229</v>
+      </c>
+      <c r="J52" s="8">
+        <f t="shared" si="25"/>
+        <v>1.9819742702625577E-2</v>
+      </c>
+      <c r="K52" s="9">
         <f t="shared" si="31"/>
-        <v>935.26812500005315</v>
-      </c>
-      <c r="I52" s="7">
-        <f t="shared" si="25"/>
-        <v>6.4216910453085978</v>
-      </c>
-      <c r="J52" s="8">
+        <v>6810.6401388899549</v>
+      </c>
+      <c r="L52" s="11">
         <f t="shared" si="26"/>
-        <v>0.12371434764419452</v>
-      </c>
-      <c r="K52" s="9">
+        <v>2.571061276960434</v>
+      </c>
+      <c r="M52" s="12">
+        <f t="shared" si="27"/>
+        <v>6.6103560898935687E-3</v>
+      </c>
+      <c r="N52" s="13">
         <f t="shared" si="32"/>
-        <v>1090.4734722221815</v>
-      </c>
-      <c r="L52" s="11">
-        <f t="shared" si="27"/>
-        <v>6.4262763298821852</v>
-      </c>
-      <c r="M52" s="12">
-        <f t="shared" si="28"/>
-        <v>4.1297027468007973E-2</v>
-      </c>
-      <c r="N52" s="13">
-        <f t="shared" si="33"/>
-        <v>3268.6004166663556</v>
+        <v>20422.100416641486</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -3159,56 +3159,56 @@
         <v>19</v>
       </c>
       <c r="B53" s="50">
+        <f t="shared" si="28"/>
+        <v>51.545655743556793</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="20"/>
+        <v>2.7130067254008825</v>
+      </c>
+      <c r="D53" s="4">
+        <f t="shared" si="21"/>
+        <v>2.4289338123826415E-2</v>
+      </c>
+      <c r="E53" s="5">
         <f t="shared" si="29"/>
-        <v>128.76761191367936</v>
-      </c>
-      <c r="C53" s="3">
-        <f t="shared" si="21"/>
-        <v>6.7777262512039389</v>
-      </c>
-      <c r="D53" s="4">
+        <v>5556.9441829527632</v>
+      </c>
+      <c r="F53" s="11">
         <f t="shared" si="22"/>
-        <v>0.15159399134965132</v>
-      </c>
-      <c r="E53" s="5">
+        <v>2.7129292496608839</v>
+      </c>
+      <c r="G53" s="12">
+        <f t="shared" si="23"/>
+        <v>2.5759947897831009E-2</v>
+      </c>
+      <c r="H53" s="13">
         <f t="shared" si="30"/>
-        <v>889.48661558803281</v>
-      </c>
-      <c r="F53" s="11">
-        <f t="shared" si="23"/>
-        <v>6.7772427322989133</v>
-      </c>
-      <c r="G53" s="12">
+        <v>5240.2938296395787</v>
+      </c>
+      <c r="I53" s="7">
         <f t="shared" si="24"/>
-        <v>0.16075856668371932</v>
-      </c>
-      <c r="H53" s="13">
+        <v>2.7131229473082965</v>
+      </c>
+      <c r="J53" s="8">
+        <f t="shared" si="25"/>
+        <v>2.2083108381630186E-2</v>
+      </c>
+      <c r="K53" s="9">
         <f t="shared" si="31"/>
-        <v>839.36862188378791</v>
-      </c>
-      <c r="I53" s="7">
-        <f t="shared" si="25"/>
-        <v>6.7784516589368531</v>
-      </c>
-      <c r="J53" s="8">
+        <v>6112.5198199452589</v>
+      </c>
+      <c r="L53" s="11">
         <f t="shared" si="26"/>
-        <v>0.13784222067763915</v>
-      </c>
-      <c r="K53" s="9">
+        <v>2.713898014569347</v>
+      </c>
+      <c r="M53" s="12">
+        <f t="shared" si="27"/>
+        <v>7.3652424334834194E-3</v>
+      </c>
+      <c r="N53" s="13">
         <f t="shared" si="32"/>
-        <v>978.63062326864258</v>
-      </c>
-      <c r="L53" s="11">
-        <f t="shared" si="27"/>
-        <v>6.7832916815423072</v>
-      </c>
-      <c r="M53" s="12">
-        <f t="shared" si="28"/>
-        <v>4.6013046036864014E-2</v>
-      </c>
-      <c r="N53" s="13">
-        <f t="shared" si="33"/>
-        <v>2933.5505124664601</v>
+        <v>18328.935554016683</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -3216,56 +3216,56 @@
         <v>20</v>
       </c>
       <c r="B54" s="50">
+        <f t="shared" si="28"/>
+        <v>57.114299992860715</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="20"/>
+        <v>2.8557965530535605</v>
+      </c>
+      <c r="D54" s="4">
+        <f t="shared" si="21"/>
+        <v>2.6913394043030569E-2</v>
+      </c>
+      <c r="E54" s="5">
         <f t="shared" si="29"/>
-        <v>142.67879436418764</v>
-      </c>
-      <c r="C54" s="3">
-        <f t="shared" si="21"/>
-        <v>7.1344486854778308</v>
-      </c>
-      <c r="D54" s="4">
+        <v>5015.0397501130774</v>
+      </c>
+      <c r="F54" s="11">
         <f t="shared" si="22"/>
-        <v>0.16797118155085886</v>
-      </c>
-      <c r="E54" s="5">
+        <v>2.8557149996430358</v>
+      </c>
+      <c r="G54" s="12">
+        <f t="shared" si="23"/>
+        <v>2.8542878557143863E-2</v>
+      </c>
+      <c r="H54" s="13">
         <f t="shared" si="30"/>
-        <v>802.65929556820595</v>
-      </c>
-      <c r="F54" s="11">
-        <f t="shared" si="23"/>
-        <v>7.1339397182093824</v>
-      </c>
-      <c r="G54" s="12">
+        <v>4729.3261812513119</v>
+      </c>
+      <c r="I54" s="7">
         <f t="shared" si="24"/>
-        <v>0.17812583566064016</v>
-      </c>
-      <c r="H54" s="13">
+        <v>2.8559188919034697</v>
+      </c>
+      <c r="J54" s="8">
+        <f t="shared" si="25"/>
+        <v>2.4468818151402002E-2</v>
+      </c>
+      <c r="K54" s="9">
         <f t="shared" si="31"/>
-        <v>757.49118125007897</v>
-      </c>
-      <c r="I54" s="7">
-        <f t="shared" si="25"/>
-        <v>7.1352122725651093</v>
-      </c>
-      <c r="J54" s="8">
+        <v>5516.4760124980676</v>
+      </c>
+      <c r="L54" s="11">
         <f t="shared" si="26"/>
-        <v>0.15273376252370258</v>
-      </c>
-      <c r="K54" s="9">
+        <v>2.85673475217826</v>
+      </c>
+      <c r="M54" s="12">
+        <f t="shared" si="27"/>
+        <v>8.1609334443040263E-3</v>
+      </c>
+      <c r="N54" s="13">
         <f t="shared" si="32"/>
-        <v>883.14101249993439</v>
-      </c>
-      <c r="L54" s="11">
-        <f t="shared" si="27"/>
-        <v>7.1403070332024283</v>
-      </c>
-      <c r="M54" s="12">
-        <f t="shared" si="28"/>
-        <v>5.0983984528385179E-2</v>
-      </c>
-      <c r="N54" s="13">
-        <f t="shared" si="33"/>
-        <v>2647.4903375007725</v>
+        <v>16541.825337497889</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -3273,56 +3273,56 @@
         <v>21</v>
       </c>
       <c r="B55" s="50">
+        <f t="shared" si="28"/>
+        <v>62.968515742128943</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" si="20"/>
+        <v>2.9985863807062385</v>
+      </c>
+      <c r="D55" s="4">
+        <f t="shared" si="21"/>
+        <v>2.9672016932440138E-2</v>
+      </c>
+      <c r="E55" s="5">
         <f t="shared" si="29"/>
-        <v>157.30337078651687</v>
-      </c>
-      <c r="C55" s="3">
-        <f t="shared" si="21"/>
-        <v>7.4911711197517219</v>
-      </c>
-      <c r="D55" s="4">
+        <v>4548.6912699439972</v>
+      </c>
+      <c r="F55" s="11">
         <f t="shared" si="22"/>
-        <v>0.18518822765982054</v>
-      </c>
-      <c r="E55" s="5">
+        <v>2.9985007496251876</v>
+      </c>
+      <c r="G55" s="12">
+        <f t="shared" si="23"/>
+        <v>3.1468523609252175E-2</v>
+      </c>
+      <c r="H55" s="13">
         <f t="shared" si="30"/>
-        <v>727.93802319112183</v>
-      </c>
-      <c r="F55" s="11">
-        <f t="shared" si="23"/>
-        <v>7.4906367041198507</v>
-      </c>
-      <c r="G55" s="12">
+        <v>4289.6010714296162</v>
+      </c>
+      <c r="I55" s="7">
         <f t="shared" si="24"/>
-        <v>0.19638373381586507</v>
-      </c>
-      <c r="H55" s="13">
+        <v>2.9987148364986433</v>
+      </c>
+      <c r="J55" s="8">
+        <f t="shared" si="25"/>
+        <v>2.6976872011910586E-2</v>
+      </c>
+      <c r="K55" s="9">
         <f t="shared" si="31"/>
-        <v>687.0296428571819</v>
-      </c>
-      <c r="I55" s="7">
-        <f t="shared" si="25"/>
-        <v>7.4919728861933645</v>
-      </c>
-      <c r="J55" s="8">
+        <v>5003.5366326531857</v>
+      </c>
+      <c r="L55" s="11">
         <f t="shared" si="26"/>
-        <v>0.16838897318238474</v>
-      </c>
-      <c r="K55" s="9">
+        <v>2.999571489787173</v>
+      </c>
+      <c r="M55" s="12">
+        <f t="shared" si="27"/>
+        <v>8.9974291223462542E-3</v>
+      </c>
+      <c r="N55" s="13">
         <f t="shared" si="32"/>
-        <v>800.9652040815605</v>
-      </c>
-      <c r="L55" s="11">
-        <f t="shared" si="27"/>
-        <v>7.4973223848625494</v>
-      </c>
-      <c r="M55" s="12">
-        <f t="shared" si="28"/>
-        <v>5.6209842942575292E-2</v>
-      </c>
-      <c r="N55" s="13">
-        <f t="shared" si="33"/>
-        <v>2401.3145918361265</v>
+        <v>15003.886020404474</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -3330,56 +3330,56 @@
         <v>22</v>
       </c>
       <c r="B56" s="50">
+        <f t="shared" si="28"/>
+        <v>69.108302991361455</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" si="20"/>
+        <v>3.1413762083589165</v>
+      </c>
+      <c r="D56" s="4">
+        <f t="shared" si="21"/>
+        <v>3.2565206792064753E-2</v>
+      </c>
+      <c r="E56" s="5">
         <f t="shared" si="29"/>
-        <v>172.64134118066704</v>
-      </c>
-      <c r="C56" s="3">
-        <f t="shared" si="21"/>
-        <v>7.8478935540256138</v>
-      </c>
-      <c r="D56" s="4">
+        <v>4144.4787191020014</v>
+      </c>
+      <c r="F56" s="11">
         <f t="shared" si="22"/>
-        <v>0.20324512967653643</v>
-      </c>
-      <c r="E56" s="5">
+        <v>3.1412864996073391</v>
+      </c>
+      <c r="G56" s="12">
+        <f t="shared" si="23"/>
+        <v>3.4536883054157461E-2</v>
+      </c>
+      <c r="H56" s="13">
         <f t="shared" si="30"/>
-        <v>663.17255832084049</v>
-      </c>
-      <c r="F56" s="11">
-        <f t="shared" si="23"/>
-        <v>7.8473336900303199</v>
-      </c>
-      <c r="G56" s="12">
+        <v>3908.4646126028747</v>
+      </c>
+      <c r="I56" s="7">
         <f t="shared" si="24"/>
-        <v>0.21553226114939408</v>
-      </c>
-      <c r="H56" s="13">
+        <v>3.141510781093817</v>
+      </c>
+      <c r="J56" s="8">
+        <f t="shared" si="25"/>
+        <v>2.960726996318638E-2</v>
+      </c>
+      <c r="K56" s="9">
         <f t="shared" si="31"/>
-        <v>625.95634814050447</v>
-      </c>
-      <c r="I56" s="7">
-        <f t="shared" si="25"/>
-        <v>7.8487334998216198</v>
-      </c>
-      <c r="J56" s="8">
+        <v>4558.9409194214368</v>
+      </c>
+      <c r="L56" s="11">
         <f t="shared" si="26"/>
-        <v>0.18480785265368568</v>
-      </c>
-      <c r="K56" s="9">
+        <v>3.1424082273960861</v>
+      </c>
+      <c r="M56" s="12">
+        <f t="shared" si="27"/>
+        <v>9.8747294676101039E-3</v>
+      </c>
+      <c r="N56" s="13">
         <f t="shared" si="32"/>
-        <v>729.73844008256833</v>
-      </c>
-      <c r="L56" s="11">
-        <f t="shared" si="27"/>
-        <v>7.8543377365226714</v>
-      </c>
-      <c r="M56" s="12">
-        <f t="shared" si="28"/>
-        <v>6.1690621279354443E-2</v>
-      </c>
-      <c r="N56" s="13">
-        <f t="shared" si="33"/>
-        <v>2187.9391219011677</v>
+        <v>13670.860609499299</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3387,56 +3387,56 @@
         <v>23</v>
       </c>
       <c r="B57" s="50">
+        <f t="shared" si="28"/>
+        <v>75.533661740558287</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" si="20"/>
+        <v>3.2841660360115945</v>
+      </c>
+      <c r="D57" s="4">
+        <f t="shared" si="21"/>
+        <v>3.5592963621904429E-2</v>
+      </c>
+      <c r="E57" s="5">
         <f t="shared" si="29"/>
-        <v>188.69270554663814</v>
-      </c>
-      <c r="C57" s="3">
-        <f t="shared" si="21"/>
-        <v>8.2046159882995049</v>
-      </c>
-      <c r="D57" s="4">
+        <v>3791.8344991406962</v>
+      </c>
+      <c r="F57" s="11">
         <f t="shared" si="22"/>
-        <v>0.22214188760100645</v>
-      </c>
-      <c r="E57" s="5">
+        <v>3.284072249589491</v>
+      </c>
+      <c r="G57" s="12">
+        <f t="shared" si="23"/>
+        <v>3.7747956891837922E-2</v>
+      </c>
+      <c r="H57" s="13">
         <f t="shared" si="30"/>
-        <v>606.6696941914721</v>
-      </c>
-      <c r="F57" s="11">
-        <f t="shared" si="23"/>
-        <v>8.2040306759407891</v>
-      </c>
-      <c r="G57" s="12">
+        <v>3575.9524999995551</v>
+      </c>
+      <c r="I57" s="7">
         <f t="shared" si="24"/>
-        <v>0.23557141766122719</v>
-      </c>
-      <c r="H57" s="13">
+        <v>3.2843067256889902</v>
+      </c>
+      <c r="J57" s="8">
+        <f t="shared" si="25"/>
+        <v>3.2360012005219228E-2</v>
+      </c>
+      <c r="K57" s="9">
         <f t="shared" si="31"/>
-        <v>572.67461720225378</v>
-      </c>
-      <c r="I57" s="7">
-        <f t="shared" si="25"/>
-        <v>8.2054941134498751</v>
-      </c>
-      <c r="J57" s="8">
+        <v>4171.0655103967929</v>
+      </c>
+      <c r="L57" s="11">
         <f t="shared" si="26"/>
-        <v>0.2019904009376054</v>
-      </c>
-      <c r="K57" s="9">
+        <v>3.2852449650049991</v>
+      </c>
+      <c r="M57" s="12">
+        <f t="shared" si="27"/>
+        <v>1.0792834480095576E-2</v>
+      </c>
+      <c r="N57" s="13">
         <f t="shared" si="32"/>
-        <v>667.59859168234107</v>
-      </c>
-      <c r="L57" s="11">
-        <f t="shared" si="27"/>
-        <v>8.2113530881827934</v>
-      </c>
-      <c r="M57" s="12">
-        <f t="shared" si="28"/>
-        <v>6.7426319538773358E-2</v>
-      </c>
-      <c r="N57" s="13">
-        <f t="shared" si="33"/>
-        <v>2001.785510398036</v>
+        <v>12507.89893194142</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3444,56 +3444,56 @@
         <v>24</v>
       </c>
       <c r="B58" s="53">
+        <f t="shared" si="28"/>
+        <v>82.244591989719424</v>
+      </c>
+      <c r="C58" s="19">
+        <f t="shared" si="20"/>
+        <v>3.4269558636642725</v>
+      </c>
+      <c r="D58" s="20">
+        <f t="shared" si="21"/>
+        <v>3.8755287421959148E-2</v>
+      </c>
+      <c r="E58" s="21">
         <f t="shared" si="29"/>
-        <v>205.45746388443018</v>
-      </c>
-      <c r="C58" s="19">
-        <f t="shared" si="21"/>
-        <v>8.5613384225733959</v>
-      </c>
-      <c r="D58" s="20">
+        <v>3482.3456598011862</v>
+      </c>
+      <c r="F58" s="22">
         <f t="shared" si="22"/>
-        <v>0.24187850143326106</v>
-      </c>
-      <c r="E58" s="21">
+        <v>3.4268579995716428</v>
+      </c>
+      <c r="G58" s="23">
+        <f t="shared" si="23"/>
+        <v>4.1101745122292033E-2</v>
+      </c>
+      <c r="H58" s="24">
         <f t="shared" si="30"/>
-        <v>557.08145525564248</v>
-      </c>
-      <c r="F58" s="22">
-        <f t="shared" si="23"/>
-        <v>8.5607276618512582</v>
-      </c>
-      <c r="G58" s="23">
+        <v>3284.1320703130218</v>
+      </c>
+      <c r="I58" s="25">
         <f t="shared" si="24"/>
-        <v>0.25650120335133397</v>
-      </c>
-      <c r="H58" s="24">
+        <v>3.4271026702841638</v>
+      </c>
+      <c r="J58" s="26">
+        <f t="shared" si="25"/>
+        <v>3.5235098138009145E-2</v>
+      </c>
+      <c r="K58" s="49">
         <f t="shared" si="31"/>
-        <v>525.91332031252989</v>
-      </c>
-      <c r="I58" s="25">
-        <f t="shared" si="25"/>
-        <v>8.5622547270781304</v>
-      </c>
-      <c r="J58" s="26">
+        <v>3830.6569531247169</v>
+      </c>
+      <c r="L58" s="22">
         <f t="shared" si="26"/>
-        <v>0.21993661803414388</v>
-      </c>
-      <c r="K58" s="49">
+        <v>3.4280817026139121</v>
+      </c>
+      <c r="M58" s="23">
+        <f t="shared" si="27"/>
+        <v>1.1751744159802669E-2</v>
+      </c>
+      <c r="N58" s="24">
         <f t="shared" si="32"/>
-        <v>613.06320312492039</v>
-      </c>
-      <c r="L58" s="22">
-        <f t="shared" si="27"/>
-        <v>8.5683684398429136</v>
-      </c>
-      <c r="M58" s="23">
-        <f t="shared" si="28"/>
-        <v>7.3416937720892916E-2</v>
-      </c>
-      <c r="N58" s="24">
-        <f t="shared" si="33"/>
-        <v>1838.412734375079</v>
+        <v>11487.256484368774</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -3501,56 +3501,56 @@
         <v>25</v>
       </c>
       <c r="B59" s="50">
+        <f t="shared" si="28"/>
+        <v>89.241093738844867</v>
+      </c>
+      <c r="C59" s="3">
+        <f t="shared" si="20"/>
+        <v>3.5697456913169505</v>
+      </c>
+      <c r="D59" s="4">
+        <f t="shared" si="21"/>
+        <v>4.2052178192228923E-2</v>
+      </c>
+      <c r="E59" s="5">
         <f t="shared" si="29"/>
-        <v>222.93561619404318</v>
-      </c>
-      <c r="C59" s="3">
-        <f t="shared" si="21"/>
-        <v>8.9180608568472888</v>
-      </c>
-      <c r="D59" s="4">
+        <v>3209.2474400728538</v>
+      </c>
+      <c r="F59" s="11">
         <f t="shared" si="22"/>
-        <v>0.26245497117320904</v>
-      </c>
-      <c r="E59" s="5">
+        <v>3.5696437495537947</v>
+      </c>
+      <c r="G59" s="12">
+        <f t="shared" si="23"/>
+        <v>4.4598247745543627E-2</v>
+      </c>
+      <c r="H59" s="13">
         <f t="shared" si="30"/>
-        <v>513.32394916366741</v>
-      </c>
-      <c r="F59" s="11">
-        <f t="shared" si="23"/>
-        <v>8.9174246477617274</v>
-      </c>
-      <c r="G59" s="12">
+        <v>3026.624756000409</v>
+      </c>
+      <c r="I59" s="7">
         <f t="shared" si="24"/>
-        <v>0.27832161821977397</v>
-      </c>
-      <c r="H59" s="13">
+        <v>3.5698986148793375</v>
+      </c>
+      <c r="J59" s="8">
+        <f t="shared" si="25"/>
+        <v>3.823252836155612E-2</v>
+      </c>
+      <c r="K59" s="9">
         <f t="shared" si="31"/>
-        <v>484.6503560000092</v>
-      </c>
-      <c r="I59" s="7">
-        <f t="shared" si="25"/>
-        <v>8.9190153407063857</v>
-      </c>
-      <c r="J59" s="8">
+        <v>3530.2746479996413</v>
+      </c>
+      <c r="L59" s="11">
         <f t="shared" si="26"/>
-        <v>0.23864650394330111</v>
-      </c>
-      <c r="K59" s="9">
+        <v>3.5709184402228251</v>
+      </c>
+      <c r="M59" s="12">
+        <f t="shared" si="27"/>
+        <v>1.2751458506731385E-2</v>
+      </c>
+      <c r="N59" s="13">
         <f t="shared" si="32"/>
-        <v>564.94024799992042</v>
-      </c>
-      <c r="L59" s="11">
-        <f t="shared" si="27"/>
-        <v>8.9253837915030356</v>
-      </c>
-      <c r="M59" s="12">
-        <f t="shared" si="28"/>
-        <v>7.9662475825625634E-2</v>
-      </c>
-      <c r="N59" s="13">
-        <f t="shared" si="33"/>
-        <v>1694.2498159999882</v>
+        <v>10586.624215993384</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -3558,56 +3558,56 @@
         <v>26</v>
       </c>
       <c r="B60" s="50">
+        <f t="shared" si="28"/>
+        <v>96.523166987934616</v>
+      </c>
+      <c r="C60" s="3">
+        <f t="shared" si="20"/>
+        <v>3.7125355189696285</v>
+      </c>
+      <c r="D60" s="4">
+        <f t="shared" si="21"/>
+        <v>4.5483635932713748E-2</v>
+      </c>
+      <c r="E60" s="5">
         <f t="shared" si="29"/>
-        <v>241.12716247547712</v>
-      </c>
-      <c r="C60" s="3">
-        <f t="shared" si="21"/>
-        <v>9.2747832911211798</v>
-      </c>
-      <c r="D60" s="4">
+        <v>2967.0504438544085</v>
+      </c>
+      <c r="F60" s="11">
         <f t="shared" si="22"/>
-        <v>0.28387129682094159</v>
-      </c>
-      <c r="E60" s="5">
+        <v>3.7124294995359466</v>
+      </c>
+      <c r="G60" s="12">
+        <f t="shared" si="23"/>
+        <v>4.8237464761581042E-2</v>
+      </c>
+      <c r="H60" s="13">
         <f t="shared" si="30"/>
-        <v>474.51763051374786</v>
-      </c>
-      <c r="F60" s="11">
-        <f t="shared" si="23"/>
-        <v>9.2741216336721966</v>
-      </c>
-      <c r="G60" s="12">
+        <v>2798.2545451186602</v>
+      </c>
+      <c r="I60" s="7">
         <f t="shared" si="24"/>
-        <v>0.30103266226648517</v>
-      </c>
-      <c r="H60" s="13">
+        <v>3.7126945594745107</v>
+      </c>
+      <c r="J60" s="8">
+        <f t="shared" si="25"/>
+        <v>4.1352302675860153E-2</v>
+      </c>
+      <c r="K60" s="9">
         <f t="shared" si="31"/>
-        <v>448.056320266314</v>
-      </c>
-      <c r="I60" s="7">
-        <f t="shared" si="25"/>
-        <v>9.275775954334641</v>
-      </c>
-      <c r="J60" s="8">
+        <v>3263.8807766268042</v>
+      </c>
+      <c r="L60" s="11">
         <f t="shared" si="26"/>
-        <v>0.25812005866507709</v>
-      </c>
-      <c r="K60" s="9">
+        <v>3.7137551778317381</v>
+      </c>
+      <c r="M60" s="12">
+        <f t="shared" si="27"/>
+        <v>1.3791977520881722E-2</v>
+      </c>
+      <c r="N60" s="13">
         <f t="shared" si="32"/>
-        <v>522.26243343187389</v>
-      </c>
-      <c r="L60" s="11">
-        <f t="shared" si="27"/>
-        <v>9.2823991431631576</v>
-      </c>
-      <c r="M60" s="12">
-        <f t="shared" si="28"/>
-        <v>8.6162933852967666E-2</v>
-      </c>
-      <c r="N60" s="13">
-        <f t="shared" si="33"/>
-        <v>1566.3990162727061</v>
+        <v>9787.8990162653226</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -3615,56 +3615,56 @@
         <v>27</v>
       </c>
       <c r="B61" s="50">
+        <f t="shared" si="28"/>
+        <v>104.09081173698864</v>
+      </c>
+      <c r="C61" s="3">
+        <f t="shared" si="20"/>
+        <v>3.8553253466223065</v>
+      </c>
+      <c r="D61" s="4">
+        <f t="shared" si="21"/>
+        <v>4.904966064342732E-2</v>
+      </c>
+      <c r="E61" s="5">
         <f t="shared" si="29"/>
-        <v>260.03210272873196</v>
-      </c>
-      <c r="C61" s="3">
-        <f t="shared" si="21"/>
-        <v>9.6315057253950709</v>
-      </c>
-      <c r="D61" s="4">
+        <v>2751.2626200892496</v>
+      </c>
+      <c r="F61" s="11">
         <f t="shared" si="22"/>
-        <v>0.30612747837642829</v>
-      </c>
-      <c r="E61" s="5">
+        <v>3.855215249518098</v>
+      </c>
+      <c r="G61" s="12">
+        <f t="shared" si="23"/>
+        <v>5.201939617040427E-2</v>
+      </c>
+      <c r="H61" s="13">
         <f t="shared" si="30"/>
-        <v>439.94275476995193</v>
-      </c>
-      <c r="F61" s="11">
-        <f t="shared" si="23"/>
-        <v>9.6308186195826657</v>
-      </c>
-      <c r="G61" s="12">
+        <v>2594.7858333335753</v>
+      </c>
+      <c r="I61" s="7">
         <f t="shared" si="24"/>
-        <v>0.32463433549153209</v>
-      </c>
-      <c r="H61" s="13">
+        <v>3.8554905040696843</v>
+      </c>
+      <c r="J61" s="8">
+        <f t="shared" si="25"/>
+        <v>4.4594421080921244E-2</v>
+      </c>
+      <c r="K61" s="9">
         <f t="shared" si="31"/>
-        <v>415.45250000002358</v>
-      </c>
-      <c r="I61" s="7">
-        <f t="shared" si="25"/>
-        <v>9.6325365679628963</v>
-      </c>
-      <c r="J61" s="8">
+        <v>3026.5345061723838</v>
+      </c>
+      <c r="L61" s="11">
         <f t="shared" si="26"/>
-        <v>0.27835728219947187</v>
-      </c>
-      <c r="K61" s="9">
+        <v>3.8565919154406512</v>
+      </c>
+      <c r="M61" s="12">
+        <f t="shared" si="27"/>
+        <v>1.4873301202253679E-2</v>
+      </c>
+      <c r="N61" s="13">
         <f t="shared" si="32"/>
-        <v>484.23820987646553</v>
-      </c>
-      <c r="L61" s="11">
-        <f t="shared" si="27"/>
-        <v>9.6394144948232778</v>
-      </c>
-      <c r="M61" s="12">
-        <f t="shared" si="28"/>
-        <v>9.2918311803017947E-2</v>
-      </c>
-      <c r="N61" s="13">
-        <f t="shared" si="33"/>
-        <v>1452.4890740739356</v>
+        <v>9076.2668518448427</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -3672,56 +3672,56 @@
         <v>28</v>
       </c>
       <c r="B62" s="50">
+        <f t="shared" si="28"/>
+        <v>111.944027986007</v>
+      </c>
+      <c r="C62" s="3">
+        <f t="shared" si="20"/>
+        <v>3.9981151742749845</v>
+      </c>
+      <c r="D62" s="4">
+        <f t="shared" si="21"/>
+        <v>5.2750252324342752E-2</v>
+      </c>
+      <c r="E62" s="5">
         <f t="shared" si="29"/>
-        <v>279.6504369538078</v>
-      </c>
-      <c r="C62" s="3">
-        <f t="shared" si="21"/>
-        <v>9.9882281596689619</v>
-      </c>
-      <c r="D62" s="4">
+        <v>2558.179464343269</v>
+      </c>
+      <c r="F62" s="11">
         <f t="shared" si="22"/>
-        <v>0.32922351583970461</v>
-      </c>
-      <c r="E62" s="5">
+        <v>3.9980009995002499</v>
+      </c>
+      <c r="G62" s="12">
+        <f t="shared" si="23"/>
+        <v>5.5944041972013331E-2</v>
+      </c>
+      <c r="H62" s="13">
         <f t="shared" si="30"/>
-        <v>409.00576304497656</v>
-      </c>
-      <c r="F62" s="11">
-        <f t="shared" si="23"/>
-        <v>9.9875156054931349</v>
-      </c>
-      <c r="G62" s="12">
+        <v>2412.7256026787509</v>
+      </c>
+      <c r="I62" s="7">
         <f t="shared" si="24"/>
-        <v>0.34912663789488307</v>
-      </c>
-      <c r="H62" s="13">
+        <v>3.9982864486648579</v>
+      </c>
+      <c r="J62" s="8">
+        <f t="shared" si="25"/>
+        <v>4.7958883576725203E-2</v>
+      </c>
+      <c r="K62" s="9">
         <f t="shared" si="31"/>
-        <v>386.27917410715173</v>
-      </c>
-      <c r="I62" s="7">
-        <f t="shared" si="25"/>
-        <v>9.9892971815911533</v>
-      </c>
-      <c r="J62" s="8">
+        <v>2814.1612308676945</v>
+      </c>
+      <c r="L62" s="11">
         <f t="shared" si="26"/>
-        <v>0.2993581745464145</v>
-      </c>
-      <c r="K62" s="9">
+        <v>3.9994286530495642</v>
+      </c>
+      <c r="M62" s="12">
+        <f t="shared" si="27"/>
+        <v>1.5995429550833051E-2</v>
+      </c>
+      <c r="N62" s="13">
         <f t="shared" si="32"/>
-        <v>450.21480229594897</v>
-      </c>
-      <c r="L62" s="11">
-        <f t="shared" si="27"/>
-        <v>9.9964298464833998</v>
-      </c>
-      <c r="M62" s="12">
-        <f t="shared" si="28"/>
-        <v>9.9928609675642058E-2</v>
-      </c>
-      <c r="N62" s="13">
-        <f t="shared" si="33"/>
-        <v>1350.5644579084612</v>
+        <v>8439.510886480015</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -3729,56 +3729,56 @@
         <v>29</v>
       </c>
       <c r="B63" s="50">
+        <f t="shared" si="28"/>
+        <v>120.08281573498965</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" si="20"/>
+        <v>4.1409050019276625</v>
+      </c>
+      <c r="D63" s="4">
+        <f t="shared" si="21"/>
+        <v>5.658541097547324E-2</v>
+      </c>
+      <c r="E63" s="5">
         <f t="shared" si="29"/>
-        <v>299.98216515070453</v>
-      </c>
-      <c r="C63" s="3">
-        <f t="shared" si="21"/>
-        <v>10.344950593942855</v>
-      </c>
-      <c r="D63" s="4">
+        <v>2384.7239596256586</v>
+      </c>
+      <c r="F63" s="11">
         <f t="shared" si="22"/>
-        <v>0.35315940921066419</v>
-      </c>
-      <c r="E63" s="5">
+        <v>4.1407867494824018</v>
+      </c>
+      <c r="G63" s="12">
+        <f t="shared" si="23"/>
+        <v>6.0011402166408212E-2</v>
+      </c>
+      <c r="H63" s="13">
         <f t="shared" si="30"/>
-        <v>381.21363641771393</v>
-      </c>
-      <c r="F63" s="11">
-        <f t="shared" si="23"/>
-        <v>10.344212591403604</v>
-      </c>
-      <c r="G63" s="12">
+        <v>2249.1725000001275</v>
+      </c>
+      <c r="I63" s="7">
         <f t="shared" si="24"/>
-        <v>0.37450956947650144</v>
-      </c>
-      <c r="H63" s="13">
+        <v>4.1410823932600316</v>
+      </c>
+      <c r="J63" s="8">
+        <f t="shared" si="25"/>
+        <v>5.1445690163299911E-2</v>
+      </c>
+      <c r="K63" s="9">
         <f t="shared" si="31"/>
-        <v>360.07142984545436</v>
-      </c>
-      <c r="I63" s="7">
-        <f t="shared" si="25"/>
-        <v>10.346057795219409</v>
-      </c>
-      <c r="J63" s="8">
+        <v>2623.3765219978654</v>
+      </c>
+      <c r="L63" s="11">
         <f t="shared" si="26"/>
-        <v>0.32112273570604427</v>
-      </c>
-      <c r="K63" s="9">
+        <v>4.1422653906584772</v>
+      </c>
+      <c r="M63" s="12">
+        <f t="shared" si="27"/>
+        <v>1.7158362566647743E-2</v>
+      </c>
+      <c r="N63" s="13">
         <f t="shared" si="32"/>
-        <v>419.65000594532489</v>
-      </c>
-      <c r="L63" s="11">
-        <f t="shared" si="27"/>
-        <v>10.353445198143522</v>
-      </c>
-      <c r="M63" s="12">
-        <f t="shared" si="28"/>
-        <v>0.10719382747094272</v>
-      </c>
-      <c r="N63" s="13">
-        <f t="shared" si="33"/>
-        <v>1259.0008739597879</v>
+        <v>7867.4836325799342</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -3786,56 +3786,56 @@
         <v>30</v>
       </c>
       <c r="B64" s="50">
+        <f t="shared" si="28"/>
+        <v>128.50717498393661</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" si="20"/>
+        <v>4.2836948295803401</v>
+      </c>
+      <c r="D64" s="4">
+        <f t="shared" si="21"/>
+        <v>6.0555136596833987E-2</v>
+      </c>
+      <c r="E64" s="5">
         <f t="shared" si="29"/>
-        <v>321.02728731942221</v>
-      </c>
-      <c r="C64" s="3">
-        <f t="shared" si="21"/>
-        <v>10.701673028216746</v>
-      </c>
-      <c r="D64" s="4">
+        <v>2228.3232222719189</v>
+      </c>
+      <c r="F64" s="11">
         <f t="shared" si="22"/>
-        <v>0.37793515848941339</v>
-      </c>
-      <c r="E64" s="5">
+        <v>4.2835724994645537</v>
+      </c>
+      <c r="G64" s="12">
+        <f t="shared" si="23"/>
+        <v>6.4221476753588913E-2</v>
+      </c>
+      <c r="H64" s="13">
         <f t="shared" si="30"/>
-        <v>356.15413136366504</v>
-      </c>
-      <c r="F64" s="11">
-        <f t="shared" si="23"/>
-        <v>10.700909577314073</v>
-      </c>
-      <c r="G64" s="12">
+        <v>2101.7005250000848</v>
+      </c>
+      <c r="I64" s="7">
         <f t="shared" si="24"/>
-        <v>0.40078313023645934</v>
-      </c>
-      <c r="H64" s="13">
+        <v>4.2838783378552048</v>
+      </c>
+      <c r="J64" s="8">
+        <f t="shared" si="25"/>
+        <v>5.50548408406469E-2</v>
+      </c>
+      <c r="K64" s="9">
         <f t="shared" si="31"/>
-        <v>336.44052500001914</v>
-      </c>
-      <c r="I64" s="7">
-        <f t="shared" si="25"/>
-        <v>10.702818408847664</v>
-      </c>
-      <c r="J64" s="8">
+        <v>2451.3504499994797</v>
+      </c>
+      <c r="L64" s="11">
         <f t="shared" si="26"/>
-        <v>0.34365096567829279</v>
-      </c>
-      <c r="K64" s="9">
+        <v>4.2851021282673898</v>
+      </c>
+      <c r="M64" s="12">
+        <f t="shared" si="27"/>
+        <v>1.8362100249699281E-2</v>
+      </c>
+      <c r="N64" s="13">
         <f t="shared" si="32"/>
-        <v>392.0904500000143</v>
-      </c>
-      <c r="L64" s="11">
-        <f t="shared" si="27"/>
-        <v>10.710460549803642</v>
-      </c>
-      <c r="M64" s="12">
-        <f t="shared" si="28"/>
-        <v>0.11471396518892372</v>
-      </c>
-      <c r="N64" s="13">
-        <f t="shared" si="33"/>
-        <v>1176.4401499997578</v>
+        <v>7351.7001499929684</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -3843,56 +3843,56 @@
         <v>31</v>
       </c>
       <c r="B65" s="50">
-        <f t="shared" si="29"/>
-        <v>342.78580345996079</v>
+        <f t="shared" si="28"/>
+        <v>137.21710573284787</v>
       </c>
       <c r="C65" s="3">
-        <f t="shared" si="21"/>
-        <v>11.058395462490637</v>
+        <f t="shared" si="20"/>
+        <v>4.4264846572330185</v>
       </c>
       <c r="D65" s="4">
-        <f t="shared" ref="D65:D70" si="34">($A65-($G$37*C65))*C65</f>
-        <v>0.40355076367595605</v>
+        <f t="shared" ref="D65:D70" si="33">($A65-($G$37*C65))*C65</f>
+        <v>6.4659429188379358E-2</v>
       </c>
       <c r="E65" s="5">
-        <f t="shared" ref="E65:E70" si="35">((175-40)/D65)-$E$7</f>
-        <v>333.48040398258928</v>
+        <f t="shared" ref="E65:E70" si="34">((175-40)/D65)-$E$7</f>
+        <v>2086.8125390689697</v>
       </c>
       <c r="F65" s="11">
-        <f t="shared" si="23"/>
-        <v>11.057606563224542</v>
+        <f t="shared" si="22"/>
+        <v>4.4263582494467055</v>
       </c>
       <c r="G65" s="12">
-        <f t="shared" ref="G65:G70" si="36">($A65-($G$37*F65))*F65</f>
-        <v>0.42794732017472137</v>
+        <f t="shared" ref="G65:G70" si="35">($A65-($G$37*F65))*F65</f>
+        <v>6.8574265733555434E-2</v>
       </c>
       <c r="H65" s="13">
-        <f t="shared" ref="H65:H70" si="37">((175-40)/G65)-$H$7</f>
-        <v>315.05938865765654</v>
+        <f t="shared" ref="H65:H70" si="36">((175-40)/G65)-$H$7</f>
+        <v>1968.2685457856892</v>
       </c>
       <c r="I65" s="7">
-        <f t="shared" si="25"/>
-        <v>11.059579022475919</v>
+        <f t="shared" si="24"/>
+        <v>4.426674282450378</v>
       </c>
       <c r="J65" s="8">
-        <f t="shared" ref="J65:J70" si="38">($A65-($G$37*I65))*I65</f>
-        <v>0.3669428644631601</v>
+        <f t="shared" ref="J65:J70" si="37">($A65-($G$37*I65))*I65</f>
+        <v>5.878633560873623E-2</v>
       </c>
       <c r="K65" s="9">
-        <f t="shared" ref="K65:K70" si="39">((175-40)/J65)-$K$7</f>
-        <v>367.15468782519019</v>
+        <f t="shared" ref="K65:K70" si="38">((175-40)/J65)-$K$7</f>
+        <v>2295.7020343387021</v>
       </c>
       <c r="L65" s="11">
-        <f t="shared" si="27"/>
-        <v>11.067475901463764</v>
+        <f t="shared" si="26"/>
+        <v>4.4279388658763033</v>
       </c>
       <c r="M65" s="12">
-        <f t="shared" ref="M65:M70" si="40">($A65-($G$37*L65))*L65</f>
-        <v>0.12248902282947095</v>
+        <f t="shared" ref="M65:M70" si="39">($A65-($G$37*L65))*L65</f>
+        <v>1.9606642599941996E-2</v>
       </c>
       <c r="N65" s="13">
-        <f t="shared" ref="N65:N70" si="41">((175-40)/M65)-$H$7</f>
-        <v>1101.7395785640874</v>
+        <f t="shared" ref="N65:N70" si="40">((175-40)/M65)-$H$7</f>
+        <v>6885.0215764814011</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -3900,56 +3900,56 @@
         <v>32</v>
       </c>
       <c r="B66" s="50">
-        <f t="shared" si="29"/>
-        <v>365.25771357232037</v>
+        <f t="shared" si="28"/>
+        <v>146.21260798172344</v>
       </c>
       <c r="C66" s="3">
-        <f t="shared" si="21"/>
-        <v>11.41511789676453</v>
+        <f t="shared" si="20"/>
+        <v>4.569274484885697</v>
       </c>
       <c r="D66" s="4">
+        <f t="shared" si="33"/>
+        <v>6.8898288750138773E-2</v>
+      </c>
+      <c r="E66" s="5">
         <f t="shared" si="34"/>
-        <v>0.43000622477017436</v>
-      </c>
-      <c r="E66" s="5">
+        <v>1958.360058638475</v>
+      </c>
+      <c r="F66" s="11">
+        <f t="shared" si="22"/>
+        <v>4.5691439994288574</v>
+      </c>
+      <c r="G66" s="12">
         <f t="shared" si="35"/>
-        <v>312.89894358134819</v>
-      </c>
-      <c r="F66" s="11">
-        <f t="shared" si="23"/>
-        <v>11.414303549135012</v>
-      </c>
-      <c r="G66" s="12">
+        <v>7.3069769106291538E-2</v>
+      </c>
+      <c r="H66" s="13">
         <f t="shared" si="36"/>
-        <v>0.45600213929124689</v>
-      </c>
-      <c r="H66" s="13">
+        <v>1847.1492895512115</v>
+      </c>
+      <c r="I66" s="7">
+        <f t="shared" si="24"/>
+        <v>4.5694702270455521</v>
+      </c>
+      <c r="J66" s="8">
         <f t="shared" si="37"/>
-        <v>295.65124267580683</v>
-      </c>
-      <c r="I66" s="7">
-        <f t="shared" si="25"/>
-        <v>11.416339636104174</v>
-      </c>
-      <c r="J66" s="8">
+        <v>6.2640174467566409E-2</v>
+      </c>
+      <c r="K66" s="9">
         <f t="shared" si="38"/>
-        <v>0.39099843206064616</v>
-      </c>
-      <c r="K66" s="9">
+        <v>2154.4164111328391</v>
+      </c>
+      <c r="L66" s="11">
+        <f t="shared" si="26"/>
+        <v>4.5707756034852158</v>
+      </c>
+      <c r="M66" s="12">
         <f t="shared" si="39"/>
-        <v>344.51992675781548</v>
-      </c>
-      <c r="L66" s="11">
-        <f t="shared" si="27"/>
-        <v>11.424491253123886</v>
-      </c>
-      <c r="M66" s="12">
+        <v>2.0891989617437792E-2</v>
+      </c>
+      <c r="N66" s="13">
         <f t="shared" si="40"/>
-        <v>0.13051900039265796</v>
-      </c>
-      <c r="N66" s="13">
-        <f t="shared" si="41"/>
-        <v>1033.9321630863035</v>
+        <v>6461.4067724540873</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -3957,56 +3957,56 @@
         <v>33</v>
       </c>
       <c r="B67" s="50">
-        <f t="shared" si="29"/>
-        <v>388.44301765650084</v>
+        <f t="shared" si="28"/>
+        <v>155.49368173056331</v>
       </c>
       <c r="C67" s="3">
-        <f t="shared" si="21"/>
-        <v>11.771840331038421</v>
+        <f t="shared" si="20"/>
+        <v>4.7120643125383745</v>
       </c>
       <c r="D67" s="4">
+        <f t="shared" si="33"/>
+        <v>7.3271715282145697E-2</v>
+      </c>
+      <c r="E67" s="5">
         <f t="shared" si="34"/>
-        <v>0.45730154177222787</v>
-      </c>
-      <c r="E67" s="5">
+        <v>1841.4072084897784</v>
+      </c>
+      <c r="F67" s="11">
+        <f t="shared" si="22"/>
+        <v>4.7119297494110093</v>
+      </c>
+      <c r="G67" s="12">
         <f t="shared" si="35"/>
-        <v>294.16002592036006</v>
-      </c>
-      <c r="F67" s="11">
-        <f t="shared" si="23"/>
-        <v>11.771000535045481</v>
-      </c>
-      <c r="G67" s="12">
+        <v>7.7707986871845935E-2</v>
+      </c>
+      <c r="H67" s="13">
         <f t="shared" si="36"/>
-        <v>0.48494758758611584</v>
-      </c>
-      <c r="H67" s="13">
+        <v>1736.8731611570199</v>
+      </c>
+      <c r="I67" s="7">
+        <f t="shared" si="24"/>
+        <v>4.7122661716407253</v>
+      </c>
+      <c r="J67" s="8">
         <f t="shared" si="37"/>
-        <v>277.98059917356954</v>
-      </c>
-      <c r="I67" s="7">
-        <f t="shared" si="25"/>
-        <v>11.77310024973243</v>
-      </c>
-      <c r="J67" s="8">
+        <v>6.6616357417186092E-2</v>
+      </c>
+      <c r="K67" s="9">
         <f t="shared" si="38"/>
-        <v>0.41581766847079282</v>
-      </c>
-      <c r="K67" s="9">
+        <v>2025.7792975201296</v>
+      </c>
+      <c r="L67" s="11">
+        <f t="shared" si="26"/>
+        <v>4.7136123410941293</v>
+      </c>
+      <c r="M67" s="12">
         <f t="shared" si="39"/>
-        <v>323.91152892558591</v>
-      </c>
-      <c r="L67" s="11">
-        <f t="shared" si="27"/>
-        <v>11.781506604784006</v>
-      </c>
-      <c r="M67" s="12">
+        <v>2.221814130210599E-2</v>
+      </c>
+      <c r="N67" s="13">
         <f t="shared" si="40"/>
-        <v>0.13880389787856842</v>
-      </c>
-      <c r="N67" s="13">
-        <f t="shared" si="41"/>
-        <v>972.19516528926135</v>
+        <v>6075.7158264487125</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -4014,56 +4014,56 @@
         <v>34</v>
       </c>
       <c r="B68" s="50">
-        <f t="shared" si="29"/>
-        <v>412.34171571250232</v>
+        <f t="shared" si="28"/>
+        <v>165.06032697936746</v>
       </c>
       <c r="C68" s="3">
-        <f t="shared" si="21"/>
-        <v>12.128562765312312</v>
+        <f t="shared" si="20"/>
+        <v>4.854854140191053</v>
       </c>
       <c r="D68" s="4">
+        <f t="shared" si="33"/>
+        <v>7.7779708784334198E-2</v>
+      </c>
+      <c r="E68" s="5">
         <f t="shared" si="34"/>
-        <v>0.48543671468199501</v>
-      </c>
-      <c r="E68" s="5">
+        <v>1734.6211938112924</v>
+      </c>
+      <c r="F68" s="11">
+        <f t="shared" si="22"/>
+        <v>4.8547154993931603</v>
+      </c>
+      <c r="G68" s="12">
         <f t="shared" si="35"/>
-        <v>277.05010227272822</v>
-      </c>
-      <c r="F68" s="11">
-        <f t="shared" si="23"/>
-        <v>12.12769752095595</v>
-      </c>
-      <c r="G68" s="12">
+        <v>8.2488919030169902E-2</v>
+      </c>
+      <c r="H68" s="13">
         <f t="shared" si="36"/>
-        <v>0.51478366505924578</v>
-      </c>
-      <c r="H68" s="13">
+        <v>1636.1834537196983</v>
+      </c>
+      <c r="I68" s="7">
+        <f t="shared" si="24"/>
+        <v>4.8550621162358985</v>
+      </c>
+      <c r="J68" s="8">
         <f t="shared" si="37"/>
-        <v>261.84608347753817</v>
-      </c>
-      <c r="I68" s="7">
-        <f t="shared" si="25"/>
-        <v>12.129860863360685</v>
-      </c>
-      <c r="J68" s="8">
+        <v>7.0714884457546603E-2</v>
+      </c>
+      <c r="K68" s="9">
         <f t="shared" si="38"/>
-        <v>0.44140057369347457</v>
-      </c>
-      <c r="K68" s="9">
+        <v>1908.3247448091597</v>
+      </c>
+      <c r="L68" s="11">
+        <f t="shared" si="26"/>
+        <v>4.8564490787030419</v>
+      </c>
+      <c r="M68" s="12">
         <f t="shared" si="39"/>
-        <v>305.09464100345542</v>
-      </c>
-      <c r="L68" s="11">
-        <f t="shared" si="27"/>
-        <v>12.138521956444128</v>
-      </c>
-      <c r="M68" s="12">
+        <v>2.3585097654062789E-2</v>
+      </c>
+      <c r="N68" s="13">
         <f t="shared" si="40"/>
-        <v>0.1473437152870806</v>
-      </c>
-      <c r="N68" s="13">
-        <f t="shared" si="41"/>
-        <v>915.82503027678899</v>
+        <v>5723.5534039726472</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4071,56 +4071,56 @@
         <v>35</v>
       </c>
       <c r="B69" s="50">
-        <f t="shared" si="29"/>
-        <v>436.95380774032469</v>
+        <f t="shared" si="28"/>
+        <v>174.91254372813592</v>
       </c>
       <c r="C69" s="3">
-        <f t="shared" si="21"/>
-        <v>12.485285199586203</v>
+        <f t="shared" si="20"/>
+        <v>4.9976439678437306</v>
       </c>
       <c r="D69" s="4">
+        <f t="shared" si="33"/>
+        <v>8.2422269256772235E-2</v>
+      </c>
+      <c r="E69" s="5">
         <f t="shared" si="34"/>
-        <v>0.51441174349951624</v>
-      </c>
-      <c r="E69" s="5">
+        <v>1636.8568571799569</v>
+      </c>
+      <c r="F69" s="11">
+        <f t="shared" si="22"/>
+        <v>4.9975012493753121</v>
+      </c>
+      <c r="G69" s="12">
         <f t="shared" si="35"/>
-        <v>261.38568834879629</v>
-      </c>
-      <c r="F69" s="11">
-        <f t="shared" si="23"/>
-        <v>12.484394506866419</v>
-      </c>
-      <c r="G69" s="12">
+        <v>8.7412565581279703E-2</v>
+      </c>
+      <c r="H69" s="13">
         <f t="shared" si="36"/>
-        <v>0.54551037171076588</v>
-      </c>
-      <c r="H69" s="13">
+        <v>1544.0003857142437</v>
+      </c>
+      <c r="I69" s="7">
+        <f t="shared" si="24"/>
+        <v>4.9978580608310725</v>
+      </c>
+      <c r="J69" s="8">
         <f t="shared" si="37"/>
-        <v>247.07467142857206</v>
-      </c>
-      <c r="I69" s="7">
-        <f t="shared" si="25"/>
-        <v>12.48662147698894</v>
-      </c>
-      <c r="J69" s="8">
+        <v>7.4935755588628694E-2</v>
+      </c>
+      <c r="K69" s="9">
         <f t="shared" si="38"/>
-        <v>0.46774714772886133</v>
-      </c>
-      <c r="K69" s="9">
+        <v>1800.7931877554311</v>
+      </c>
+      <c r="L69" s="11">
+        <f t="shared" si="26"/>
+        <v>4.9992858163119553</v>
+      </c>
+      <c r="M69" s="12">
         <f t="shared" si="39"/>
-        <v>287.8674734693526</v>
-      </c>
-      <c r="L69" s="11">
-        <f t="shared" si="27"/>
-        <v>12.49553730810425</v>
-      </c>
-      <c r="M69" s="12">
+        <v>2.4992858673172202E-2</v>
+      </c>
+      <c r="N69" s="13">
         <f t="shared" si="40"/>
-        <v>0.15613845261823511</v>
-      </c>
-      <c r="N69" s="13">
-        <f t="shared" si="41"/>
-        <v>864.21725306116946</v>
+        <v>5401.1429673481698</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4128,78 +4128,60 @@
         <v>36</v>
       </c>
       <c r="B70" s="53">
-        <f t="shared" si="29"/>
-        <v>462.27929373996795</v>
+        <f t="shared" si="28"/>
+        <v>185.0503319768687</v>
       </c>
       <c r="C70" s="19">
-        <f t="shared" si="21"/>
-        <v>12.842007633860096</v>
+        <f t="shared" si="20"/>
+        <v>5.140433795496409</v>
       </c>
       <c r="D70" s="20">
+        <f t="shared" si="33"/>
+        <v>8.7199396699389822E-2</v>
+      </c>
+      <c r="E70" s="21">
         <f t="shared" si="34"/>
-        <v>0.54422662822479184</v>
-      </c>
-      <c r="E70" s="21">
+        <v>1547.1258488008514</v>
+      </c>
+      <c r="F70" s="22">
+        <f t="shared" si="22"/>
+        <v>5.140286999357464</v>
+      </c>
+      <c r="G70" s="23">
         <f t="shared" si="35"/>
-        <v>247.00842455808407</v>
-      </c>
-      <c r="F70" s="22">
-        <f t="shared" si="23"/>
-        <v>12.841091492776888</v>
-      </c>
-      <c r="G70" s="23">
+        <v>9.2478926525175323E-2</v>
+      </c>
+      <c r="H70" s="24">
         <f t="shared" si="36"/>
-        <v>0.57712770754050147</v>
-      </c>
-      <c r="H70" s="24">
+        <v>1459.3920312499438</v>
+      </c>
+      <c r="I70" s="25">
+        <f t="shared" si="24"/>
+        <v>5.1406540054262457</v>
+      </c>
+      <c r="J70" s="26">
         <f t="shared" si="37"/>
-        <v>233.51703125001328</v>
-      </c>
-      <c r="I70" s="25">
-        <f t="shared" si="25"/>
-        <v>12.843382090617196</v>
-      </c>
-      <c r="J70" s="26">
+        <v>7.9278970810502308E-2</v>
+      </c>
+      <c r="K70" s="49">
         <f t="shared" si="38"/>
-        <v>0.49485739057677808</v>
-      </c>
-      <c r="K70" s="49">
+        <v>1702.0975347224887</v>
+      </c>
+      <c r="L70" s="22">
+        <f t="shared" si="26"/>
+        <v>5.1421225539208679</v>
+      </c>
+      <c r="M70" s="23">
         <f t="shared" si="39"/>
-        <v>272.05586805554537</v>
-      </c>
-      <c r="L70" s="22">
-        <f t="shared" si="27"/>
-        <v>12.85255265976437</v>
-      </c>
-      <c r="M70" s="23">
+        <v>2.6441424359574275E-2</v>
+      </c>
+      <c r="N70" s="24">
         <f t="shared" si="40"/>
-        <v>0.16518810987203189</v>
-      </c>
-      <c r="N70" s="24">
-        <f t="shared" si="41"/>
-        <v>816.85010416658895</v>
+        <v>5105.2251041603722</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="C39:N39"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="G37:K38"/>
     <mergeCell ref="L37:N37"/>
     <mergeCell ref="L38:N38"/>
     <mergeCell ref="A1:K1"/>
@@ -4216,6 +4198,24 @@
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="A37:F38"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="G37:K38"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="C39:N39"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="I41:J41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4250,120 +4250,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="56">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="65">
         <v>1.3</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="46"/>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="46"/>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="63" t="s">
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="65" t="s">
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="63" t="s">
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="46"/>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="61"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="60"/>
+      <c r="G6" s="55"/>
       <c r="H6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="59"/>
+      <c r="J6" s="61"/>
       <c r="K6" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="60" t="s">
+      <c r="L6" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="60"/>
+      <c r="M6" s="55"/>
       <c r="N6" s="40" t="s">
         <v>13</v>
       </c>
@@ -4371,31 +4371,31 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="46"/>
-      <c r="C7" s="67">
+      <c r="C7" s="58">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="D7" s="67"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="44">
         <v>1.05</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="56">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="G7" s="62"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="41">
         <v>0.45</v>
       </c>
-      <c r="I7" s="66">
+      <c r="I7" s="59">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J7" s="66"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="45">
         <v>0.75</v>
       </c>
-      <c r="L7" s="62">
+      <c r="L7" s="56">
         <v>1E-3</v>
       </c>
-      <c r="M7" s="62"/>
+      <c r="M7" s="56"/>
       <c r="N7" s="41">
         <v>0.4</v>
       </c>
@@ -5642,120 +5642,120 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="61.5" x14ac:dyDescent="0.9">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="56">
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="65">
         <v>12</v>
       </c>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
     </row>
     <row r="33" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="46"/>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="46"/>
-      <c r="C34" s="64" t="s">
+      <c r="C34" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="63" t="s">
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="65" t="s">
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="63" t="s">
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="46"/>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="61"/>
+      <c r="D35" s="60"/>
       <c r="E35" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="60" t="s">
+      <c r="F35" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="60"/>
+      <c r="G35" s="55"/>
       <c r="H35" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="I35" s="59" t="s">
+      <c r="I35" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="J35" s="59"/>
+      <c r="J35" s="61"/>
       <c r="K35" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="L35" s="60" t="s">
+      <c r="L35" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="M35" s="60"/>
+      <c r="M35" s="55"/>
       <c r="N35" s="40" t="s">
         <v>13</v>
       </c>
@@ -5763,31 +5763,31 @@
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="46"/>
-      <c r="C36" s="67">
+      <c r="C36" s="58">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="D36" s="67"/>
+      <c r="D36" s="58"/>
       <c r="E36" s="44">
         <v>1.05</v>
       </c>
-      <c r="F36" s="62">
+      <c r="F36" s="56">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="G36" s="62"/>
+      <c r="G36" s="56"/>
       <c r="H36" s="41">
         <v>0.45</v>
       </c>
-      <c r="I36" s="66">
+      <c r="I36" s="59">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J36" s="66"/>
+      <c r="J36" s="59"/>
       <c r="K36" s="45">
         <v>0.75</v>
       </c>
-      <c r="L36" s="62">
+      <c r="L36" s="56">
         <v>1E-3</v>
       </c>
-      <c r="M36" s="62"/>
+      <c r="M36" s="56"/>
       <c r="N36" s="41">
         <v>0.4</v>
       </c>
@@ -7035,6 +7035,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A31:F32"/>
+    <mergeCell ref="G31:K32"/>
+    <mergeCell ref="C33:N33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:F3"/>
     <mergeCell ref="G2:K3"/>
@@ -7043,30 +7067,6 @@
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="L5:N5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A31:F32"/>
-    <mergeCell ref="G31:K32"/>
-    <mergeCell ref="C33:N33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="L36:M36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
